--- a/LDRRMFIP.xlsx
+++ b/LDRRMFIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LDRRMFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374FD96E-80D6-4756-8D32-F7B914B885DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0773C6A0-9253-4A46-9799-50E7AEA90968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FA223BB2-9E3C-AB4E-9163-26FFAA34B9F9}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="235">
   <si>
     <t>AIP</t>
   </si>
@@ -726,6 +726,65 @@
   <si>
     <t>Vehicles and machineries kept in good condition for operations</t>
   </si>
+  <si>
+    <t>Installation and Commissioning of Communication Systems (Repeater Tower and Base Radio)</t>
+  </si>
+  <si>
+    <t>Installation of communication system in two locations in Aloguinsan Evacuation Center(barangay Zaragosa), and BFP building tower location</t>
+  </si>
+  <si>
+    <t>LDRRMO / BFP / PNP</t>
+  </si>
+  <si>
+    <t>LDRRMO / BAC</t>
+  </si>
+  <si>
+    <t>Efficient dispatch mechanism and utilization of resources</t>
+  </si>
+  <si>
+    <t>4- Health</t>
+  </si>
+  <si>
+    <t>Medical supplies</t>
+  </si>
+  <si>
+    <t>Portable Mesh Nebulizer for Asthma with Complete Set (2sets)</t>
+  </si>
+  <si>
+    <t>Rescue equipment</t>
+  </si>
+  <si>
+    <t>LDRRMO / MHO / BAC</t>
+  </si>
+  <si>
+    <t>QUICK RESPONSE FUND (QRF)</t>
+  </si>
+  <si>
+    <t>9- Disaster
+Response Management</t>
+  </si>
+  <si>
+    <t>December
+2026</t>
+  </si>
+  <si>
+    <t>Response and Early Recovery Operations</t>
+  </si>
+  <si>
+    <t>Provision of livelihood assistance to disaster victims</t>
+  </si>
+  <si>
+    <t>MSWDO</t>
+  </si>
+  <si>
+    <t>100% of needed livelihood assistance to disaster victims provided</t>
+  </si>
+  <si>
+    <t>Conduct of emergency preparedness and response operations to incidents and events (SRR Operations, Evacuation, Relief Operations, Emergency, Meetings, EOC Activation, IMT Deployment, RDANA, PDRA, Resource Deployment, etc.) and early recovery operations</t>
+  </si>
+  <si>
+    <t>100% of required emergency preparedness, response and early recovery operations conducted</t>
+  </si>
 </sst>
 </file>
 
@@ -736,7 +795,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="\P_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -865,12 +924,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -900,6 +953,14 @@
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -919,6 +980,12 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1162,7 +1229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="374">
+  <cellXfs count="376">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1369,9 +1436,6 @@
     <xf numFmtId="4" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1401,8 +1465,6 @@
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1566,15 +1628,8 @@
     <xf numFmtId="17" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1598,7 +1653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1847,7 +1902,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1856,50 +1911,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1988,13 +2043,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2011,43 +2066,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="21" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2077,13 +2129,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2092,68 +2144,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2163,27 +2188,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="24" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="24" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="20" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2500,11 +2581,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA819F7F-BA76-4EB2-BBFE-647BCD4141EF}">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2516,9 +2597,9 @@
     <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -2527,803 +2608,1741 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="252" t="s">
+      <c r="A2" s="246" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="260"/>
-      <c r="M2" s="260"/>
-      <c r="N2" s="260"/>
-      <c r="O2" s="260"/>
-      <c r="P2" s="260"/>
+      <c r="B2" s="246"/>
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="254"/>
+      <c r="M2" s="254"/>
+      <c r="N2" s="254"/>
+      <c r="O2" s="254"/>
+      <c r="P2" s="254"/>
     </row>
     <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="322" t="s">
+      <c r="A3" s="315" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="322"/>
-      <c r="C3" s="322"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
-      <c r="F3" s="322"/>
-      <c r="G3" s="322"/>
-      <c r="H3" s="322"/>
-      <c r="I3" s="322"/>
-      <c r="J3" s="322"/>
-      <c r="K3" s="322"/>
-      <c r="L3" s="260"/>
-      <c r="M3" s="260"/>
-      <c r="N3" s="260"/>
-      <c r="O3" s="260"/>
-      <c r="P3" s="260"/>
+      <c r="B3" s="315"/>
+      <c r="C3" s="315"/>
+      <c r="D3" s="315"/>
+      <c r="E3" s="315"/>
+      <c r="F3" s="315"/>
+      <c r="G3" s="315"/>
+      <c r="H3" s="315"/>
+      <c r="I3" s="315"/>
+      <c r="J3" s="315"/>
+      <c r="K3" s="315"/>
+      <c r="L3" s="254"/>
+      <c r="M3" s="254"/>
+      <c r="N3" s="254"/>
+      <c r="O3" s="254"/>
+      <c r="P3" s="254"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="251" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="256" t="s">
+      <c r="B5" s="250" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="258"/>
-      <c r="D5" s="256"/>
-      <c r="E5" s="256"/>
-      <c r="F5" s="256"/>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="253"/>
-      <c r="L5" s="253"/>
-      <c r="M5" s="253"/>
-      <c r="N5" s="253"/>
-      <c r="O5" s="253"/>
-      <c r="P5" s="253"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="250"/>
+      <c r="E5" s="250"/>
+      <c r="F5" s="250"/>
+      <c r="G5" s="247"/>
+      <c r="H5" s="247"/>
+      <c r="I5" s="247"/>
+      <c r="J5" s="247"/>
+      <c r="K5" s="247"/>
+      <c r="L5" s="247"/>
+      <c r="M5" s="247"/>
+      <c r="N5" s="247"/>
+      <c r="O5" s="247"/>
+      <c r="P5" s="247"/>
     </row>
     <row r="6" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="261" t="s">
+      <c r="A6" s="255" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="263" t="s">
+      <c r="B6" s="257" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="264"/>
-      <c r="D6" s="261" t="s">
+      <c r="C6" s="258"/>
+      <c r="D6" s="255" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="267" t="s">
+      <c r="E6" s="261" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="268"/>
-      <c r="G6" s="261" t="s">
+      <c r="F6" s="262"/>
+      <c r="G6" s="255" t="s">
         <v>174</v>
       </c>
-      <c r="H6" s="261" t="s">
+      <c r="H6" s="255" t="s">
         <v>175</v>
       </c>
-      <c r="I6" s="267" t="s">
+      <c r="I6" s="261" t="s">
         <v>176</v>
       </c>
-      <c r="J6" s="270"/>
-      <c r="K6" s="268"/>
-      <c r="L6" s="259"/>
-      <c r="M6" s="259"/>
-      <c r="N6" s="259"/>
-      <c r="O6" s="255"/>
-      <c r="P6" s="255"/>
+      <c r="J6" s="264"/>
+      <c r="K6" s="262"/>
+      <c r="L6" s="253"/>
+      <c r="M6" s="253"/>
+      <c r="N6" s="253"/>
+      <c r="O6" s="249"/>
+      <c r="P6" s="249"/>
     </row>
     <row r="7" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="262"/>
-      <c r="B7" s="265"/>
-      <c r="C7" s="266"/>
-      <c r="D7" s="262"/>
-      <c r="E7" s="269" t="s">
+      <c r="A7" s="256"/>
+      <c r="B7" s="259"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="256"/>
+      <c r="E7" s="263" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="269" t="s">
+      <c r="F7" s="263" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="262"/>
-      <c r="H7" s="262"/>
-      <c r="I7" s="269" t="s">
+      <c r="G7" s="256"/>
+      <c r="H7" s="256"/>
+      <c r="I7" s="263" t="s">
         <v>177</v>
       </c>
-      <c r="J7" s="269" t="s">
+      <c r="J7" s="263" t="s">
         <v>178</v>
       </c>
-      <c r="K7" s="269" t="s">
+      <c r="K7" s="263" t="s">
         <v>179</v>
       </c>
-      <c r="L7" s="255"/>
-      <c r="M7" s="255"/>
-      <c r="N7" s="255"/>
-      <c r="O7" s="255"/>
+      <c r="L7" s="249"/>
+      <c r="M7" s="249"/>
+      <c r="N7" s="249"/>
+      <c r="O7" s="249"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="301" t="s">
+      <c r="A8" s="295" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="302"/>
-      <c r="C8" s="302"/>
-      <c r="D8" s="302"/>
-      <c r="E8" s="302"/>
-      <c r="F8" s="302"/>
-      <c r="G8" s="302"/>
-      <c r="H8" s="302"/>
-      <c r="I8" s="302"/>
-      <c r="J8" s="302"/>
-      <c r="K8" s="303"/>
+      <c r="B8" s="296"/>
+      <c r="C8" s="296"/>
+      <c r="D8" s="296"/>
+      <c r="E8" s="296"/>
+      <c r="F8" s="296"/>
+      <c r="G8" s="296"/>
+      <c r="H8" s="296"/>
+      <c r="I8" s="296"/>
+      <c r="J8" s="296"/>
+      <c r="K8" s="297"/>
     </row>
     <row r="9" spans="1:16" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="329" t="s">
+      <c r="A9" s="322" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="304" t="s">
+      <c r="B9" s="298" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="305"/>
-      <c r="D9" s="306" t="s">
+      <c r="C9" s="299"/>
+      <c r="D9" s="300" t="s">
         <v>202</v>
       </c>
-      <c r="E9" s="306" t="s">
+      <c r="E9" s="300" t="s">
         <v>198</v>
       </c>
-      <c r="F9" s="306" t="s">
+      <c r="F9" s="300" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="306" t="s">
+      <c r="G9" s="300" t="s">
         <v>207</v>
       </c>
-      <c r="H9" s="306" t="s">
+      <c r="H9" s="300" t="s">
         <v>199</v>
       </c>
-      <c r="I9" s="307"/>
-      <c r="J9" s="307">
+      <c r="I9" s="301">
         <v>100000</v>
       </c>
-      <c r="K9" s="307">
+      <c r="J9" s="301"/>
+      <c r="K9" s="301">
         <f>SUM(I9:J9)</f>
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="272" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="330"/>
-      <c r="B10" s="304" t="s">
+    <row r="10" spans="1:16" s="266" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="323"/>
+      <c r="B10" s="298" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="305"/>
-      <c r="D10" s="306" t="s">
+      <c r="C10" s="299"/>
+      <c r="D10" s="300" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="306" t="s">
+      <c r="E10" s="300" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="306" t="s">
+      <c r="F10" s="300" t="s">
         <v>197</v>
       </c>
-      <c r="G10" s="306" t="s">
+      <c r="G10" s="300" t="s">
         <v>206</v>
       </c>
-      <c r="H10" s="306" t="s">
+      <c r="H10" s="300" t="s">
         <v>199</v>
       </c>
-      <c r="I10" s="307">
+      <c r="I10" s="301">
         <v>30000</v>
       </c>
-      <c r="J10" s="307"/>
-      <c r="K10" s="307">
+      <c r="J10" s="301"/>
+      <c r="K10" s="301">
         <f>SUM(I10:J10)</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="272" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="330"/>
-      <c r="B11" s="304" t="s">
+    <row r="11" spans="1:16" s="266" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="323"/>
+      <c r="B11" s="298" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="299"/>
+      <c r="D11" s="300" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="300" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="300" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="300" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" s="300" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="301"/>
+      <c r="J11" s="301">
+        <v>2500000</v>
+      </c>
+      <c r="K11" s="301">
+        <f>SUM(I11:J11)</f>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="266" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="323"/>
+      <c r="B12" s="298" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="299"/>
+      <c r="D12" s="300" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="300" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="300" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="300" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="300" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" s="301"/>
+      <c r="J12" s="301">
+        <v>300000</v>
+      </c>
+      <c r="K12" s="301">
+        <f>SUM(I12:J12)</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="266" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="323"/>
+      <c r="B13" s="298" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="305"/>
-      <c r="D11" s="306" t="s">
+      <c r="C13" s="299"/>
+      <c r="D13" s="300" t="s">
         <v>205</v>
       </c>
-      <c r="E11" s="306" t="s">
+      <c r="E13" s="300" t="s">
         <v>198</v>
       </c>
-      <c r="F11" s="306" t="s">
+      <c r="F13" s="300" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="306" t="s">
+      <c r="G13" s="300" t="s">
         <v>208</v>
       </c>
-      <c r="H11" s="306" t="s">
+      <c r="H13" s="300" t="s">
         <v>199</v>
       </c>
-      <c r="I11" s="307">
+      <c r="I13" s="301">
         <v>70000</v>
       </c>
-      <c r="J11" s="307"/>
-      <c r="K11" s="307">
-        <f>SUM(I11:J11)</f>
+      <c r="J13" s="301"/>
+      <c r="K13" s="301">
+        <f>SUM(I13:J13)</f>
         <v>70000</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="331"/>
-      <c r="B12" s="308"/>
-      <c r="C12" s="309"/>
-      <c r="D12" s="309"/>
-      <c r="E12" s="309"/>
-      <c r="F12" s="309"/>
-      <c r="G12" s="317" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="324"/>
+      <c r="B14" s="302"/>
+      <c r="C14" s="303"/>
+      <c r="D14" s="303"/>
+      <c r="E14" s="303"/>
+      <c r="F14" s="303"/>
+      <c r="G14" s="310" t="s">
         <v>181</v>
       </c>
-      <c r="H12" s="318"/>
-      <c r="I12" s="310">
-        <f>SUM(I9:I11)</f>
-        <v>100000</v>
-      </c>
-      <c r="J12" s="310">
-        <f>SUM(J9:J11)</f>
-        <v>100000</v>
-      </c>
-      <c r="K12" s="310">
-        <f>SUM(K9:K11)</f>
+      <c r="H14" s="311"/>
+      <c r="I14" s="304">
+        <f>SUM(I9:I13)</f>
         <v>200000</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="311" t="s">
+      <c r="J14" s="304">
+        <f>SUM(J9:J13)</f>
+        <v>2800000</v>
+      </c>
+      <c r="K14" s="304">
+        <f>SUM(K9:K13)</f>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="305" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="312"/>
-      <c r="C13" s="312"/>
-      <c r="D13" s="312"/>
-      <c r="E13" s="312"/>
-      <c r="F13" s="312"/>
-      <c r="G13" s="312"/>
-      <c r="H13" s="312"/>
-      <c r="I13" s="312"/>
-      <c r="J13" s="312"/>
-      <c r="K13" s="313"/>
-    </row>
-    <row r="14" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="329" t="s">
+      <c r="B15" s="306"/>
+      <c r="C15" s="306"/>
+      <c r="D15" s="306"/>
+      <c r="E15" s="306"/>
+      <c r="F15" s="306"/>
+      <c r="G15" s="306"/>
+      <c r="H15" s="306"/>
+      <c r="I15" s="306"/>
+      <c r="J15" s="306"/>
+      <c r="K15" s="307"/>
+    </row>
+    <row r="16" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="322" t="s">
         <v>200</v>
       </c>
-      <c r="B14" s="325" t="s">
+      <c r="B16" s="318" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="326"/>
-      <c r="D14" s="314" t="s">
+      <c r="C16" s="319"/>
+      <c r="D16" s="308" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="314" t="s">
+      <c r="E16" s="308" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="314" t="s">
+      <c r="F16" s="308" t="s">
         <v>197</v>
       </c>
-      <c r="G14" s="314" t="s">
+      <c r="G16" s="308" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="314" t="s">
+      <c r="H16" s="308" t="s">
         <v>199</v>
       </c>
-      <c r="I14" s="307"/>
-      <c r="J14" s="307">
+      <c r="I16" s="301"/>
+      <c r="J16" s="301">
         <v>1500000</v>
       </c>
-      <c r="K14" s="307">
-        <f>SUM(I14:J14)</f>
+      <c r="K16" s="301">
+        <f>SUM(I16:J16)</f>
         <v>1500000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="331"/>
-      <c r="B15" s="327" t="s">
+    <row r="17" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="324"/>
+      <c r="B17" s="320" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="328"/>
-      <c r="D15" s="316" t="s">
+      <c r="C17" s="321"/>
+      <c r="D17" s="309" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="314" t="s">
+      <c r="E17" s="308" t="s">
         <v>198</v>
       </c>
-      <c r="F15" s="314" t="s">
+      <c r="F17" s="308" t="s">
         <v>197</v>
       </c>
-      <c r="G15" s="314" t="s">
+      <c r="G17" s="308" t="s">
         <v>209</v>
       </c>
-      <c r="H15" s="314" t="s">
+      <c r="H17" s="308" t="s">
         <v>199</v>
       </c>
-      <c r="I15" s="307"/>
-      <c r="J15" s="307">
+      <c r="I17" s="301"/>
+      <c r="J17" s="301">
         <v>417302.79</v>
       </c>
-      <c r="K15" s="307">
-        <f>SUM(I15:J15)</f>
+      <c r="K17" s="301">
+        <f>SUM(I17:J17)</f>
         <v>417302.79</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="329" t="s">
+    <row r="18" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="322" t="s">
         <v>204</v>
       </c>
-      <c r="B16" s="325" t="s">
+      <c r="B18" s="318" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="326"/>
-      <c r="D16" s="316" t="s">
+      <c r="C18" s="319"/>
+      <c r="D18" s="309" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="314" t="s">
+      <c r="E18" s="308" t="s">
         <v>212</v>
       </c>
-      <c r="F16" s="314" t="s">
+      <c r="F18" s="308" t="s">
         <v>212</v>
       </c>
-      <c r="G16" s="314" t="s">
+      <c r="G18" s="308" t="s">
         <v>213</v>
       </c>
-      <c r="H16" s="314" t="s">
+      <c r="H18" s="308" t="s">
         <v>199</v>
       </c>
-      <c r="I16" s="307">
+      <c r="I18" s="301">
         <v>200000</v>
       </c>
-      <c r="J16" s="307"/>
-      <c r="K16" s="307">
-        <f>SUM(I16:J16)</f>
+      <c r="J18" s="301"/>
+      <c r="K18" s="301">
+        <f>SUM(I18:J18)</f>
         <v>200000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="330"/>
-      <c r="B17" s="325" t="s">
+    <row r="19" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="323"/>
+      <c r="B19" s="318" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="326"/>
-      <c r="D17" s="316" t="s">
+      <c r="C19" s="319"/>
+      <c r="D19" s="309" t="s">
         <v>214</v>
       </c>
-      <c r="E17" s="314" t="s">
+      <c r="E19" s="308" t="s">
         <v>198</v>
       </c>
-      <c r="F17" s="314" t="s">
+      <c r="F19" s="308" t="s">
         <v>197</v>
       </c>
-      <c r="G17" s="314" t="s">
+      <c r="G19" s="308" t="s">
         <v>215</v>
       </c>
-      <c r="H17" s="314" t="s">
+      <c r="H19" s="308" t="s">
         <v>199</v>
       </c>
-      <c r="I17" s="307"/>
-      <c r="J17" s="307">
-        <v>2500000</v>
-      </c>
-      <c r="K17" s="307">
-        <f>SUM(I17:J17)</f>
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="330"/>
-      <c r="B18" s="325" t="s">
+      <c r="I19" s="301"/>
+      <c r="J19" s="301">
+        <v>2000000</v>
+      </c>
+      <c r="K19" s="301">
+        <f>SUM(I19:J19)</f>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="323"/>
+      <c r="B20" s="318" t="s">
         <v>131</v>
       </c>
-      <c r="C18" s="326"/>
-      <c r="D18" s="314" t="s">
+      <c r="C20" s="319"/>
+      <c r="D20" s="308" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="314" t="s">
+      <c r="E20" s="308" t="s">
         <v>198</v>
       </c>
-      <c r="F18" s="314" t="s">
+      <c r="F20" s="308" t="s">
         <v>197</v>
       </c>
-      <c r="G18" s="314" t="s">
+      <c r="G20" s="308" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="314" t="s">
+      <c r="H20" s="308" t="s">
         <v>199</v>
       </c>
-      <c r="I18" s="307">
+      <c r="I20" s="301">
         <v>40000</v>
       </c>
-      <c r="J18" s="307"/>
-      <c r="K18" s="307">
-        <f>SUM(I18:J18)</f>
+      <c r="J20" s="301"/>
+      <c r="K20" s="301">
+        <f t="shared" ref="K20:K27" si="0">SUM(I20:J20)</f>
         <v>40000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="315"/>
-      <c r="B19" s="308"/>
-      <c r="C19" s="309"/>
-      <c r="D19" s="309"/>
-      <c r="E19" s="309"/>
-      <c r="F19" s="309"/>
-      <c r="G19" s="319" t="s">
+    <row r="21" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="323"/>
+      <c r="B21" s="318" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="319"/>
+      <c r="D21" s="308"/>
+      <c r="E21" s="308"/>
+      <c r="F21" s="308"/>
+      <c r="G21" s="308"/>
+      <c r="H21" s="308"/>
+      <c r="I21" s="301"/>
+      <c r="J21" s="301"/>
+      <c r="K21" s="301"/>
+    </row>
+    <row r="22" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="323"/>
+      <c r="B22" s="318" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="319" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="308" t="s">
+        <v>219</v>
+      </c>
+      <c r="E22" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" s="308" t="s">
+        <v>224</v>
+      </c>
+      <c r="H22" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I22" s="301">
+        <v>91845</v>
+      </c>
+      <c r="J22" s="301"/>
+      <c r="K22" s="301">
+        <f t="shared" si="0"/>
+        <v>91845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="323"/>
+      <c r="B23" s="318" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="319" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="308" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" s="308" t="s">
+        <v>224</v>
+      </c>
+      <c r="H23" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I23" s="301"/>
+      <c r="J23" s="301">
+        <v>58981</v>
+      </c>
+      <c r="K23" s="301">
+        <f t="shared" si="0"/>
+        <v>58981</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="323"/>
+      <c r="B24" s="318" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="319" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="308" t="s">
+        <v>219</v>
+      </c>
+      <c r="E24" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" s="308" t="s">
+        <v>224</v>
+      </c>
+      <c r="H24" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I24" s="301">
+        <v>23750</v>
+      </c>
+      <c r="J24" s="301"/>
+      <c r="K24" s="301">
+        <f t="shared" si="0"/>
+        <v>23750</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="323"/>
+      <c r="B25" s="318" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="319" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="308" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" s="308" t="s">
+        <v>224</v>
+      </c>
+      <c r="H25" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I25" s="301">
+        <v>189150</v>
+      </c>
+      <c r="J25" s="301"/>
+      <c r="K25" s="301">
+        <f t="shared" si="0"/>
+        <v>189150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="323"/>
+      <c r="B26" s="318" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="319" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="308" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" s="308" t="s">
+        <v>224</v>
+      </c>
+      <c r="H26" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I26" s="301">
+        <v>67000</v>
+      </c>
+      <c r="J26" s="301"/>
+      <c r="K26" s="301">
+        <f t="shared" si="0"/>
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="324"/>
+      <c r="B27" s="318" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="319" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="308" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27" s="308" t="s">
+        <v>224</v>
+      </c>
+      <c r="H27" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I27" s="301">
+        <v>23400</v>
+      </c>
+      <c r="J27" s="301"/>
+      <c r="K27" s="301">
+        <f t="shared" si="0"/>
+        <v>23400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="322" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" s="318" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="319"/>
+      <c r="D28" s="308"/>
+      <c r="E28" s="308"/>
+      <c r="F28" s="308"/>
+      <c r="G28" s="308"/>
+      <c r="H28" s="308"/>
+      <c r="I28" s="301"/>
+      <c r="J28" s="301"/>
+      <c r="K28" s="301"/>
+    </row>
+    <row r="29" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="323"/>
+      <c r="B29" s="360" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="361"/>
+      <c r="D29" s="308" t="s">
+        <v>225</v>
+      </c>
+      <c r="E29" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G29" s="308" t="s">
+        <v>222</v>
+      </c>
+      <c r="H29" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I29" s="301">
+        <v>9300</v>
+      </c>
+      <c r="J29" s="301"/>
+      <c r="K29" s="301">
+        <f>SUM(I29:J29)</f>
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="323"/>
+      <c r="B30" s="362" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="363"/>
+      <c r="D30" s="308" t="s">
+        <v>225</v>
+      </c>
+      <c r="E30" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" s="308" t="s">
+        <v>222</v>
+      </c>
+      <c r="H30" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I30" s="301">
+        <v>1800</v>
+      </c>
+      <c r="J30" s="301"/>
+      <c r="K30" s="301">
+        <f t="shared" ref="K30:K48" si="1">SUM(I30:J30)</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="323"/>
+      <c r="B31" s="362" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="363" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="308" t="s">
+        <v>225</v>
+      </c>
+      <c r="E31" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="308" t="s">
+        <v>222</v>
+      </c>
+      <c r="H31" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I31" s="301">
+        <v>1100</v>
+      </c>
+      <c r="J31" s="301"/>
+      <c r="K31" s="301">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="323"/>
+      <c r="B32" s="362" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="363" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="308" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F32" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G32" s="308" t="s">
+        <v>222</v>
+      </c>
+      <c r="H32" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I32" s="301">
+        <v>1050</v>
+      </c>
+      <c r="J32" s="301"/>
+      <c r="K32" s="301">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="323"/>
+      <c r="B33" s="362" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="363" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="308" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G33" s="308" t="s">
+        <v>222</v>
+      </c>
+      <c r="H33" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I33" s="301">
+        <v>600</v>
+      </c>
+      <c r="J33" s="301"/>
+      <c r="K33" s="301">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="323"/>
+      <c r="B34" s="362" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="363" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="308" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" s="308" t="s">
+        <v>222</v>
+      </c>
+      <c r="H34" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I34" s="301">
+        <v>2100</v>
+      </c>
+      <c r="J34" s="301"/>
+      <c r="K34" s="301">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="323"/>
+      <c r="B35" s="362" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="363" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="308" t="s">
+        <v>225</v>
+      </c>
+      <c r="E35" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G35" s="308" t="s">
+        <v>222</v>
+      </c>
+      <c r="H35" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I35" s="301">
+        <v>2275</v>
+      </c>
+      <c r="J35" s="301"/>
+      <c r="K35" s="301">
+        <f t="shared" si="1"/>
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="323"/>
+      <c r="B36" s="362" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" s="363" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="308" t="s">
+        <v>225</v>
+      </c>
+      <c r="E36" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" s="308" t="s">
+        <v>222</v>
+      </c>
+      <c r="H36" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I36" s="301">
+        <v>13500</v>
+      </c>
+      <c r="J36" s="301"/>
+      <c r="K36" s="301">
+        <f t="shared" si="1"/>
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="323"/>
+      <c r="B37" s="362" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="363" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="308" t="s">
+        <v>225</v>
+      </c>
+      <c r="E37" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F37" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G37" s="308" t="s">
+        <v>222</v>
+      </c>
+      <c r="H37" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I37" s="301">
+        <v>15000</v>
+      </c>
+      <c r="J37" s="301"/>
+      <c r="K37" s="301">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="323"/>
+      <c r="B38" s="362" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="363" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="308" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F38" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G38" s="308" t="s">
+        <v>222</v>
+      </c>
+      <c r="H38" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I38" s="301">
+        <v>8000</v>
+      </c>
+      <c r="J38" s="301"/>
+      <c r="K38" s="301">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="323"/>
+      <c r="B39" s="362" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="363" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="308" t="s">
+        <v>225</v>
+      </c>
+      <c r="E39" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F39" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G39" s="308" t="s">
+        <v>222</v>
+      </c>
+      <c r="H39" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I39" s="301">
+        <v>24650</v>
+      </c>
+      <c r="J39" s="301"/>
+      <c r="K39" s="301">
+        <f t="shared" si="1"/>
+        <v>24650</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="323"/>
+      <c r="B40" s="362" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" s="363"/>
+      <c r="D40" s="308" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F40" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G40" s="308" t="s">
+        <v>222</v>
+      </c>
+      <c r="H40" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I40" s="301">
+        <v>22050</v>
+      </c>
+      <c r="J40" s="301"/>
+      <c r="K40" s="301">
+        <f t="shared" si="1"/>
+        <v>22050</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="323"/>
+      <c r="B41" s="362" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="363" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" s="308" t="s">
+        <v>225</v>
+      </c>
+      <c r="E41" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G41" s="308" t="s">
+        <v>222</v>
+      </c>
+      <c r="H41" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I41" s="301">
+        <v>4634</v>
+      </c>
+      <c r="J41" s="301"/>
+      <c r="K41" s="301">
+        <f t="shared" si="1"/>
+        <v>4634</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="323"/>
+      <c r="B42" s="362" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="363" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="308" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F42" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G42" s="308" t="s">
+        <v>222</v>
+      </c>
+      <c r="H42" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I42" s="301">
+        <v>10920</v>
+      </c>
+      <c r="J42" s="301"/>
+      <c r="K42" s="301">
+        <f t="shared" si="1"/>
+        <v>10920</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="323"/>
+      <c r="B43" s="362" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="363" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="308" t="s">
+        <v>225</v>
+      </c>
+      <c r="E43" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G43" s="308" t="s">
+        <v>222</v>
+      </c>
+      <c r="H43" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I43" s="301">
+        <v>2070</v>
+      </c>
+      <c r="J43" s="301"/>
+      <c r="K43" s="301">
+        <f t="shared" si="1"/>
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="323"/>
+      <c r="B44" s="362" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="363" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="308" t="s">
+        <v>225</v>
+      </c>
+      <c r="E44" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G44" s="308" t="s">
+        <v>222</v>
+      </c>
+      <c r="H44" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I44" s="301">
+        <v>1479</v>
+      </c>
+      <c r="J44" s="301"/>
+      <c r="K44" s="301">
+        <f t="shared" si="1"/>
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="323"/>
+      <c r="B45" s="362" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="363" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="308" t="s">
+        <v>225</v>
+      </c>
+      <c r="E45" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F45" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G45" s="308" t="s">
+        <v>222</v>
+      </c>
+      <c r="H45" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I45" s="301">
+        <v>10600</v>
+      </c>
+      <c r="J45" s="301"/>
+      <c r="K45" s="301">
+        <f t="shared" si="1"/>
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="323"/>
+      <c r="B46" s="362" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="363" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="308" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F46" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G46" s="308" t="s">
+        <v>222</v>
+      </c>
+      <c r="H46" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I46" s="301">
+        <v>2650</v>
+      </c>
+      <c r="J46" s="301"/>
+      <c r="K46" s="301">
+        <f t="shared" si="1"/>
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="323"/>
+      <c r="B47" s="362" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="363" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" s="308" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F47" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G47" s="308" t="s">
+        <v>222</v>
+      </c>
+      <c r="H47" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I47" s="301">
+        <v>13828</v>
+      </c>
+      <c r="J47" s="301"/>
+      <c r="K47" s="301">
+        <f t="shared" si="1"/>
+        <v>13828</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="323"/>
+      <c r="B48" s="362" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="363" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="308" t="s">
+        <v>225</v>
+      </c>
+      <c r="E48" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F48" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G48" s="308" t="s">
+        <v>222</v>
+      </c>
+      <c r="H48" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I48" s="301">
+        <v>6780</v>
+      </c>
+      <c r="J48" s="301"/>
+      <c r="K48" s="301">
+        <f t="shared" si="1"/>
+        <v>6780</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="324"/>
+      <c r="B49" s="302"/>
+      <c r="C49" s="303"/>
+      <c r="D49" s="303"/>
+      <c r="E49" s="303"/>
+      <c r="F49" s="303"/>
+      <c r="G49" s="312" t="s">
         <v>181</v>
       </c>
-      <c r="H19" s="320"/>
-      <c r="I19" s="321">
-        <f>SUM(I14:I18)</f>
-        <v>240000</v>
-      </c>
-      <c r="J19" s="321">
-        <f>SUM(J14:J18)</f>
-        <v>4417302.79</v>
-      </c>
-      <c r="K19" s="321">
-        <f>SUM(K14:K18)</f>
-        <v>4657302.79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="332" t="s">
+      <c r="H49" s="313"/>
+      <c r="I49" s="314">
+        <f>SUM(I16:I48)</f>
+        <v>789531</v>
+      </c>
+      <c r="J49" s="314">
+        <f>SUM(J16:J48)</f>
+        <v>3976283.79</v>
+      </c>
+      <c r="K49" s="314">
+        <f>SUM(K16:K48)</f>
+        <v>4765814.79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="325" t="s">
         <v>183</v>
       </c>
-      <c r="B20" s="333"/>
-      <c r="C20" s="333"/>
-      <c r="D20" s="333"/>
-      <c r="E20" s="333"/>
-      <c r="F20" s="333"/>
-      <c r="G20" s="333"/>
-      <c r="H20" s="333"/>
-      <c r="I20" s="333"/>
-      <c r="J20" s="333"/>
-      <c r="K20" s="334"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="167"/>
-      <c r="B21" s="336"/>
-      <c r="C21" s="337"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="167"/>
-      <c r="J21" s="167"/>
-      <c r="K21" s="167">
-        <f>SUM(I21:J21)</f>
+      <c r="B50" s="326"/>
+      <c r="C50" s="326"/>
+      <c r="D50" s="326"/>
+      <c r="E50" s="326"/>
+      <c r="F50" s="326"/>
+      <c r="G50" s="326"/>
+      <c r="H50" s="326"/>
+      <c r="I50" s="326"/>
+      <c r="J50" s="326"/>
+      <c r="K50" s="327"/>
+    </row>
+    <row r="51" spans="1:11" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="368" t="s">
+        <v>227</v>
+      </c>
+      <c r="B51" s="318" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" s="319"/>
+      <c r="D51" s="308" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F51" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G51" s="308" t="s">
+        <v>234</v>
+      </c>
+      <c r="H51" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I51" s="371">
+        <v>500000</v>
+      </c>
+      <c r="J51" s="371"/>
+      <c r="K51" s="372">
+        <f>SUM(I51:J51)</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="369"/>
+      <c r="B52" s="302"/>
+      <c r="C52" s="303"/>
+      <c r="D52" s="303"/>
+      <c r="E52" s="303"/>
+      <c r="F52" s="332"/>
+      <c r="G52" s="330" t="s">
+        <v>181</v>
+      </c>
+      <c r="H52" s="331"/>
+      <c r="I52" s="373">
+        <f>SUM(I51:I51)</f>
+        <v>500000</v>
+      </c>
+      <c r="J52" s="373">
+        <f>SUM(J51:J51)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="167"/>
-      <c r="B22" s="336"/>
-      <c r="C22" s="337"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="167"/>
-      <c r="K22" s="167">
-        <f t="shared" ref="K22:K23" si="0">SUM(I22:J22)</f>
+      <c r="K52" s="373">
+        <f>SUM(K51:K51)</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="333" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" s="334"/>
+      <c r="C53" s="334"/>
+      <c r="D53" s="334"/>
+      <c r="E53" s="334"/>
+      <c r="F53" s="334"/>
+      <c r="G53" s="334"/>
+      <c r="H53" s="334"/>
+      <c r="I53" s="334"/>
+      <c r="J53" s="334"/>
+      <c r="K53" s="335"/>
+    </row>
+    <row r="54" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="368" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" s="318" t="s">
+        <v>230</v>
+      </c>
+      <c r="C54" s="319"/>
+      <c r="D54" s="308" t="s">
+        <v>231</v>
+      </c>
+      <c r="E54" s="308" t="s">
+        <v>198</v>
+      </c>
+      <c r="F54" s="308" t="s">
+        <v>197</v>
+      </c>
+      <c r="G54" s="308" t="s">
+        <v>232</v>
+      </c>
+      <c r="H54" s="308" t="s">
+        <v>199</v>
+      </c>
+      <c r="I54" s="374">
+        <v>500000</v>
+      </c>
+      <c r="J54" s="374"/>
+      <c r="K54" s="374">
+        <f>SUM(I54:J54)</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="336"/>
+      <c r="B55" s="329"/>
+      <c r="C55" s="337"/>
+      <c r="D55" s="303"/>
+      <c r="E55" s="303"/>
+      <c r="F55" s="332"/>
+      <c r="G55" s="338" t="s">
+        <v>181</v>
+      </c>
+      <c r="H55" s="339"/>
+      <c r="I55" s="375">
+        <f>SUM(I54:I54)</f>
+        <v>500000</v>
+      </c>
+      <c r="J55" s="375">
+        <f>SUM(J54:J54)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="344"/>
-      <c r="B23" s="336"/>
-      <c r="C23" s="337"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="167"/>
-      <c r="J23" s="167"/>
-      <c r="K23" s="167">
-        <f t="shared" si="0"/>
+      <c r="K55" s="375">
+        <f>SUM(K54:K54)</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="343"/>
+      <c r="B56" s="328"/>
+      <c r="C56" s="328"/>
+      <c r="D56" s="344"/>
+      <c r="E56" s="344"/>
+      <c r="F56" s="344"/>
+      <c r="G56" s="344"/>
+      <c r="H56" s="344"/>
+      <c r="I56" s="344"/>
+      <c r="J56" s="344"/>
+      <c r="K56" s="345"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="346"/>
+      <c r="B57" s="347"/>
+      <c r="C57" s="347"/>
+      <c r="D57" s="347"/>
+      <c r="E57" s="347"/>
+      <c r="F57" s="347"/>
+      <c r="G57" s="340" t="s">
+        <v>185</v>
+      </c>
+      <c r="H57" s="341"/>
+      <c r="I57" s="342">
+        <f>SUM(I55,I52,I49,I14)</f>
+        <v>1989531</v>
+      </c>
+      <c r="J57" s="342">
+        <f>SUM(J55,J52,J49,J14)</f>
+        <v>6776283.79</v>
+      </c>
+      <c r="K57" s="342">
+        <f>SUM(K55,K52,K49,K14)</f>
+        <v>8765814.7899999991</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="350" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="351"/>
+      <c r="C58" s="351"/>
+      <c r="D58" s="351"/>
+      <c r="E58" s="351"/>
+      <c r="F58" s="351"/>
+      <c r="G58" s="351"/>
+      <c r="H58" s="351"/>
+      <c r="I58" s="351"/>
+      <c r="J58" s="351"/>
+      <c r="K58" s="352"/>
+    </row>
+    <row r="59" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="308" t="s">
+        <v>227</v>
+      </c>
+      <c r="B59" s="364" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59" s="365"/>
+      <c r="D59" s="366" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="309" t="s">
+        <v>198</v>
+      </c>
+      <c r="F59" s="309" t="s">
+        <v>228</v>
+      </c>
+      <c r="G59" s="309" t="s">
+        <v>229</v>
+      </c>
+      <c r="H59" s="366" t="s">
+        <v>199</v>
+      </c>
+      <c r="I59" s="374"/>
+      <c r="J59" s="374"/>
+      <c r="K59" s="374">
+        <v>2133632.2000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="161"/>
+      <c r="B60" s="329"/>
+      <c r="C60" s="337"/>
+      <c r="D60" s="303"/>
+      <c r="E60" s="303"/>
+      <c r="F60" s="332"/>
+      <c r="G60" s="340" t="s">
+        <v>187</v>
+      </c>
+      <c r="H60" s="341"/>
+      <c r="I60" s="342">
+        <f>SUM(I59)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="345"/>
-      <c r="B24" s="308"/>
-      <c r="C24" s="309"/>
-      <c r="D24" s="309"/>
-      <c r="E24" s="309"/>
-      <c r="F24" s="341"/>
-      <c r="G24" s="339" t="s">
-        <v>181</v>
-      </c>
-      <c r="H24" s="340"/>
-      <c r="I24" s="338">
-        <f>SUM(I21:I23)</f>
+      <c r="J60" s="342">
+        <f t="shared" ref="J60:K60" si="2">SUM(J59)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="338">
-        <f>SUM(J21:J23)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="338">
-        <f>SUM(K21:K23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="346" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" s="347"/>
-      <c r="C25" s="347"/>
-      <c r="D25" s="347"/>
-      <c r="E25" s="347"/>
-      <c r="F25" s="347"/>
-      <c r="G25" s="347"/>
-      <c r="H25" s="347"/>
-      <c r="I25" s="347"/>
-      <c r="J25" s="347"/>
-      <c r="K25" s="348"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="167"/>
-      <c r="B26" s="336"/>
-      <c r="C26" s="337"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="167"/>
-      <c r="K26" s="167">
-        <f>SUM(I26:J26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="167"/>
-      <c r="B27" s="336"/>
-      <c r="C27" s="337"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="167"/>
-      <c r="K27" s="167">
-        <f t="shared" ref="K27:K28" si="1">SUM(I27:J27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="342"/>
-      <c r="B28" s="349"/>
-      <c r="C28" s="350"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="167">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="343"/>
-      <c r="B29" s="336"/>
-      <c r="C29" s="351"/>
-      <c r="D29" s="309"/>
-      <c r="E29" s="309"/>
-      <c r="F29" s="341"/>
-      <c r="G29" s="352" t="s">
-        <v>181</v>
-      </c>
-      <c r="H29" s="353"/>
-      <c r="I29" s="354">
-        <f>SUM(I26:I28)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="354">
-        <f>SUM(J26:J28)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="354">
-        <f>SUM(K26:K28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="359"/>
-      <c r="B30" s="335"/>
-      <c r="C30" s="335"/>
-      <c r="D30" s="360"/>
-      <c r="E30" s="360"/>
-      <c r="F30" s="360"/>
-      <c r="G30" s="360"/>
-      <c r="H30" s="360"/>
-      <c r="I30" s="360"/>
-      <c r="J30" s="360"/>
-      <c r="K30" s="361"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="362"/>
-      <c r="B31" s="363"/>
-      <c r="C31" s="363"/>
-      <c r="D31" s="363"/>
-      <c r="E31" s="363"/>
-      <c r="F31" s="363"/>
-      <c r="G31" s="355" t="s">
-        <v>185</v>
-      </c>
-      <c r="H31" s="356"/>
-      <c r="I31" s="358">
-        <f>SUM(I29,I24,I19,I12)</f>
-        <v>340000</v>
-      </c>
-      <c r="J31" s="358">
-        <f t="shared" ref="J31:K31" si="2">SUM(J29,J24,J19,J12)</f>
-        <v>4517302.79</v>
-      </c>
-      <c r="K31" s="358">
+      <c r="K60" s="342">
         <f t="shared" si="2"/>
-        <v>4857302.79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="368" t="s">
-        <v>186</v>
-      </c>
-      <c r="B32" s="369"/>
-      <c r="C32" s="369"/>
-      <c r="D32" s="369"/>
-      <c r="E32" s="369"/>
-      <c r="F32" s="369"/>
-      <c r="G32" s="369"/>
-      <c r="H32" s="369"/>
-      <c r="I32" s="369"/>
-      <c r="J32" s="369"/>
-      <c r="K32" s="370"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="167"/>
-      <c r="B33" s="349"/>
-      <c r="C33" s="335"/>
-      <c r="D33" s="371"/>
-      <c r="E33" s="371"/>
-      <c r="F33" s="371"/>
-      <c r="G33" s="371"/>
-      <c r="H33" s="371"/>
-      <c r="I33" s="371"/>
-      <c r="J33" s="371"/>
-      <c r="K33" s="371"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="167"/>
-      <c r="B34" s="336"/>
-      <c r="C34" s="351"/>
-      <c r="D34" s="309"/>
-      <c r="E34" s="309"/>
-      <c r="F34" s="341"/>
-      <c r="G34" s="355" t="s">
-        <v>187</v>
-      </c>
-      <c r="H34" s="356"/>
-      <c r="I34" s="357"/>
-      <c r="J34" s="357"/>
-      <c r="K34" s="357"/>
-    </row>
-    <row r="35" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="364"/>
-      <c r="B35" s="365"/>
-      <c r="C35" s="365"/>
-      <c r="D35" s="365"/>
-      <c r="E35" s="365"/>
-      <c r="F35" s="365"/>
-      <c r="G35" s="366" t="s">
+        <v>2133632.2000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="348"/>
+      <c r="B61" s="349"/>
+      <c r="C61" s="349"/>
+      <c r="D61" s="349"/>
+      <c r="E61" s="349"/>
+      <c r="F61" s="349"/>
+      <c r="G61" s="357" t="s">
         <v>188</v>
       </c>
-      <c r="H35" s="366"/>
-      <c r="I35" s="366"/>
-      <c r="J35" s="366"/>
-      <c r="K35" s="367"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="251" t="s">
+      <c r="H61" s="357"/>
+      <c r="I61" s="358">
+        <v>10445440.65</v>
+      </c>
+      <c r="J61" s="358"/>
+      <c r="K61" s="367"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="245" t="s">
         <v>189</v>
       </c>
-      <c r="B36" s="251"/>
-      <c r="C36" s="251"/>
-      <c r="D36" s="251"/>
-      <c r="E36" s="251"/>
-      <c r="F36" s="251"/>
-      <c r="G36" s="251"/>
-      <c r="H36" s="251"/>
-      <c r="I36" s="251"/>
-      <c r="J36" s="251"/>
-      <c r="K36" s="251"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B62" s="245"/>
+      <c r="C62" s="245"/>
+      <c r="D62" s="245"/>
+      <c r="E62" s="245"/>
+      <c r="F62" s="245"/>
+      <c r="G62" s="245"/>
+      <c r="H62" s="245"/>
+      <c r="I62" s="245"/>
+      <c r="J62" s="245"/>
+      <c r="K62" s="245"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>36</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H65" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="271" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="265" t="s">
         <v>190</v>
       </c>
-      <c r="B41" s="271"/>
-      <c r="H41" s="271" t="s">
+      <c r="B67" s="265"/>
+      <c r="H67" s="265" t="s">
         <v>192</v>
       </c>
-      <c r="I41" s="271"/>
-      <c r="J41" s="271"/>
-      <c r="K41" s="274"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="254" t="s">
+      <c r="I67" s="265"/>
+      <c r="J67" s="265"/>
+      <c r="K67" s="268"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="248" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="254"/>
-      <c r="H42" s="191" t="s">
+      <c r="B68" s="248"/>
+      <c r="H68" s="185" t="s">
         <v>193</v>
       </c>
-      <c r="I42" s="191"/>
-      <c r="J42" s="191"/>
-      <c r="K42" s="168"/>
+      <c r="I68" s="185"/>
+      <c r="J68" s="185"/>
+      <c r="K68" s="162"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
+  <mergeCells count="68">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A28:A49"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B54:C54"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="H6:H7"/>
@@ -3338,7 +4357,7 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="14" scale="92" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="14" max="10" man="1"/>
+    <brk id="16" max="10" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -3348,7 +4367,7 @@
   <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="E23" sqref="E23:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3372,14 +4391,14 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="222" t="s">
+      <c r="E1" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="223"/>
-      <c r="G1" s="222" t="s">
+      <c r="F1" s="217"/>
+      <c r="G1" s="216" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="223"/>
+      <c r="H1" s="217"/>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3398,10 +4417,10 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="224"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="225"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="219"/>
       <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
@@ -3476,10 +4495,10 @@
       <c r="J5" s="69"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="226" t="s">
+      <c r="A6" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="227"/>
+      <c r="B6" s="221"/>
       <c r="C6" s="15" t="s">
         <v>22</v>
       </c>
@@ -3491,100 +4510,100 @@
       <c r="I6" s="12"/>
       <c r="J6" s="69"/>
     </row>
-    <row r="7" spans="1:11" s="272" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="275"/>
-      <c r="B7" s="275"/>
-      <c r="C7" s="276" t="s">
+    <row r="7" spans="1:11" s="266" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="269"/>
+      <c r="B7" s="269"/>
+      <c r="C7" s="270" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="277" t="s">
+      <c r="D7" s="271" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="295" t="s">
+      <c r="E7" s="289" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="278"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="214">
+      <c r="F7" s="272"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="208">
         <v>1500000</v>
       </c>
-      <c r="I7" s="279" t="s">
+      <c r="I7" s="273" t="s">
         <v>128</v>
       </c>
-      <c r="J7" s="287" t="s">
+      <c r="J7" s="281" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="272" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="280"/>
-      <c r="B8" s="275"/>
-      <c r="C8" s="281"/>
-      <c r="D8" s="282"/>
-      <c r="E8" s="283"/>
-      <c r="F8" s="284"/>
-      <c r="G8" s="216"/>
-      <c r="H8" s="216"/>
-      <c r="I8" s="285"/>
-      <c r="J8" s="221"/>
-    </row>
-    <row r="9" spans="1:11" s="272" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="275"/>
-      <c r="B9" s="286"/>
-      <c r="C9" s="273" t="s">
+    <row r="8" spans="1:11" s="266" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="274"/>
+      <c r="B8" s="269"/>
+      <c r="C8" s="275"/>
+      <c r="D8" s="276"/>
+      <c r="E8" s="277"/>
+      <c r="F8" s="278"/>
+      <c r="G8" s="210"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="279"/>
+      <c r="J8" s="215"/>
+    </row>
+    <row r="9" spans="1:11" s="266" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="269"/>
+      <c r="B9" s="280"/>
+      <c r="C9" s="267" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="183" t="s">
+      <c r="D9" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="273" t="s">
+      <c r="E9" s="267" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="185"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="214">
+      <c r="F9" s="179"/>
+      <c r="G9" s="208"/>
+      <c r="H9" s="208">
         <v>30000</v>
       </c>
-      <c r="I9" s="197" t="s">
+      <c r="I9" s="191" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="288" t="s">
+      <c r="J9" s="282" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="272" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="275"/>
-      <c r="B10" s="286"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="215"/>
-      <c r="H10" s="215"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="288"/>
+    <row r="10" spans="1:11" s="266" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="269"/>
+      <c r="B10" s="280"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="209"/>
+      <c r="H10" s="209"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="282"/>
     </row>
     <row r="11" spans="1:11" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="70"/>
       <c r="B11" s="71"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="198"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="199"/>
-      <c r="G11" s="216"/>
-      <c r="H11" s="216"/>
-      <c r="I11" s="198"/>
+      <c r="C11" s="190"/>
+      <c r="D11" s="192"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="210"/>
+      <c r="H11" s="210"/>
+      <c r="I11" s="192"/>
       <c r="J11" s="69"/>
     </row>
     <row r="12" spans="1:11" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="70"/>
       <c r="B12" s="71"/>
-      <c r="C12" s="289" t="s">
+      <c r="C12" s="283" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="290" t="s">
+      <c r="D12" s="284" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="294" t="s">
+      <c r="E12" s="288" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="73"/>
@@ -3592,23 +4611,23 @@
       <c r="H12" s="74">
         <v>100000</v>
       </c>
-      <c r="I12" s="148" t="s">
+      <c r="I12" s="145" t="s">
         <v>128</v>
       </c>
-      <c r="J12" s="291" t="s">
+      <c r="J12" s="285" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="70"/>
       <c r="B13" s="71"/>
-      <c r="C13" s="289" t="s">
+      <c r="C13" s="283" t="s">
         <v>131</v>
       </c>
       <c r="D13" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="149" t="s">
+      <c r="E13" s="146" t="s">
         <v>132</v>
       </c>
       <c r="F13" s="73"/>
@@ -3616,10 +4635,10 @@
       <c r="H13" s="74">
         <v>40000</v>
       </c>
-      <c r="I13" s="148" t="s">
+      <c r="I13" s="145" t="s">
         <v>128</v>
       </c>
-      <c r="J13" s="292" t="s">
+      <c r="J13" s="286" t="s">
         <v>201</v>
       </c>
       <c r="K13" s="26"/>
@@ -3627,151 +4646,151 @@
     <row r="14" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70"/>
       <c r="B14" s="71"/>
-      <c r="C14" s="273" t="s">
+      <c r="C14" s="267" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="293" t="s">
+      <c r="D14" s="287" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="273" t="s">
+      <c r="E14" s="267" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="185"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="214">
+      <c r="F14" s="179"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="208">
         <v>70000</v>
       </c>
-      <c r="I14" s="197" t="s">
+      <c r="I14" s="191" t="s">
         <v>128</v>
       </c>
-      <c r="J14" s="296" t="s">
+      <c r="J14" s="290" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="70"/>
       <c r="B15" s="71"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="188"/>
-      <c r="H15" s="215"/>
-      <c r="I15" s="219"/>
-      <c r="J15" s="297"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="209"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="291"/>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="70"/>
       <c r="B16" s="71"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="151"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="148"/>
       <c r="F16" s="76"/>
       <c r="G16" s="77"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="297"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="291"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="70"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="298" t="s">
+      <c r="C17" s="292" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="203" t="s">
+      <c r="D17" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="299" t="s">
+      <c r="E17" s="293" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="208"/>
-      <c r="G17" s="211"/>
-      <c r="H17" s="214">
+      <c r="F17" s="202"/>
+      <c r="G17" s="205"/>
+      <c r="H17" s="208">
         <v>417302.79</v>
       </c>
-      <c r="I17" s="197" t="s">
+      <c r="I17" s="191" t="s">
         <v>128</v>
       </c>
-      <c r="J17" s="300" t="s">
+      <c r="J17" s="294" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="70"/>
       <c r="B18" s="71"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="204"/>
-      <c r="E18" s="206"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="215"/>
-      <c r="I18" s="219"/>
-      <c r="J18" s="204"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="200"/>
+      <c r="F18" s="203"/>
+      <c r="G18" s="206"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="213"/>
+      <c r="J18" s="198"/>
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="70"/>
       <c r="B19" s="71"/>
-      <c r="C19" s="202"/>
-      <c r="D19" s="205"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="216"/>
-      <c r="I19" s="220"/>
-      <c r="J19" s="204"/>
-      <c r="K19" s="95"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="204"/>
+      <c r="G19" s="207"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="214"/>
+      <c r="J19" s="198"/>
+      <c r="K19" s="92"/>
     </row>
     <row r="20" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="70"/>
-      <c r="B20" s="145"/>
-      <c r="C20" s="323" t="s">
+      <c r="B20" s="142"/>
+      <c r="C20" s="316" t="s">
         <v>133</v>
       </c>
-      <c r="D20" s="150" t="s">
+      <c r="D20" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="324" t="s">
+      <c r="E20" s="317" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="144"/>
-      <c r="G20" s="143"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="140"/>
       <c r="H20" s="78">
         <v>200000</v>
       </c>
-      <c r="I20" s="154">
+      <c r="I20" s="151">
         <v>46204</v>
       </c>
-      <c r="J20" s="372" t="s">
+      <c r="J20" s="353" t="s">
         <v>201</v>
       </c>
-      <c r="K20" s="95"/>
+      <c r="K20" s="92"/>
     </row>
     <row r="21" spans="1:12" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="70"/>
-      <c r="B21" s="145"/>
-      <c r="C21" s="373" t="s">
+      <c r="B21" s="142"/>
+      <c r="C21" s="354" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="294" t="s">
+      <c r="D21" s="288" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="294" t="s">
+      <c r="E21" s="288" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="146"/>
-      <c r="G21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="140"/>
       <c r="H21" s="78">
         <v>2500000</v>
       </c>
-      <c r="I21" s="147" t="s">
+      <c r="I21" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="J21" s="372" t="s">
+      <c r="J21" s="353" t="s">
         <v>201</v>
       </c>
-      <c r="K21" s="95"/>
+      <c r="K21" s="92"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
@@ -3786,458 +4805,483 @@
       <c r="H22" s="78"/>
       <c r="I22" s="75"/>
       <c r="J22" s="69"/>
-      <c r="K22" s="162"/>
+      <c r="K22" s="156"/>
     </row>
     <row r="23" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="70"/>
       <c r="B23" s="71"/>
-      <c r="C23" s="155" t="s">
+      <c r="C23" s="359" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="183" t="s">
+      <c r="D23" s="287" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="195" t="s">
+      <c r="E23" s="189" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="185"/>
-      <c r="G23" s="187"/>
+      <c r="F23" s="179"/>
+      <c r="G23" s="181"/>
       <c r="H23" s="78"/>
-      <c r="I23" s="197" t="s">
+      <c r="I23" s="191" t="s">
         <v>128</v>
       </c>
-      <c r="J23" s="69"/>
-      <c r="K23" s="162"/>
+      <c r="J23" s="370"/>
+      <c r="K23" s="156"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="70"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="156" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="152" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="184"/>
-      <c r="E24" s="217"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="188"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="211"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="182"/>
       <c r="H24" s="79">
         <v>9300</v>
       </c>
-      <c r="I24" s="184"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="162"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="294" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" s="156"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="70"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="157" t="s">
+      <c r="B25" s="80"/>
+      <c r="C25" s="153" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="184"/>
-      <c r="E25" s="217"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="163">
+      <c r="D25" s="178"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="157">
         <v>1800</v>
       </c>
-      <c r="I25" s="184"/>
-      <c r="K25" s="162"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="198"/>
+      <c r="K25" s="156"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="70"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="157" t="s">
+      <c r="B26" s="80"/>
+      <c r="C26" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="184"/>
-      <c r="E26" s="217"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="163">
+      <c r="D26" s="178"/>
+      <c r="E26" s="211"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="182"/>
+      <c r="H26" s="157">
         <v>1100</v>
       </c>
-      <c r="I26" s="184"/>
-      <c r="K26" s="162"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="198"/>
+      <c r="K26" s="156"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="70"/>
-      <c r="B27" s="81"/>
-      <c r="C27" s="157" t="s">
+      <c r="B27" s="80"/>
+      <c r="C27" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="D27" s="184"/>
-      <c r="E27" s="217"/>
-      <c r="F27" s="186"/>
-      <c r="G27" s="188"/>
-      <c r="H27" s="163">
+      <c r="D27" s="178"/>
+      <c r="E27" s="211"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="157">
         <v>1050</v>
       </c>
-      <c r="I27" s="184"/>
-      <c r="K27" s="162"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="198"/>
+      <c r="K27" s="156"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="70"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="157" t="s">
+      <c r="B28" s="80"/>
+      <c r="C28" s="153" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="184"/>
-      <c r="E28" s="217"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="188"/>
-      <c r="H28" s="164">
+      <c r="D28" s="178"/>
+      <c r="E28" s="211"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="158">
         <v>600</v>
       </c>
-      <c r="I28" s="184"/>
-      <c r="K28" s="162"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="198"/>
+      <c r="K28" s="156"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="70"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="157" t="s">
+      <c r="B29" s="80"/>
+      <c r="C29" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="184"/>
-      <c r="E29" s="217"/>
-      <c r="F29" s="186"/>
-      <c r="G29" s="188"/>
-      <c r="H29" s="163">
+      <c r="D29" s="178"/>
+      <c r="E29" s="211"/>
+      <c r="F29" s="180"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="157">
         <v>2100</v>
       </c>
-      <c r="I29" s="184"/>
-      <c r="K29" s="162"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="198"/>
+      <c r="K29" s="156"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="70"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="157" t="s">
+      <c r="B30" s="80"/>
+      <c r="C30" s="153" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="184"/>
-      <c r="E30" s="217"/>
-      <c r="F30" s="186"/>
-      <c r="G30" s="188"/>
-      <c r="H30" s="163">
+      <c r="D30" s="178"/>
+      <c r="E30" s="211"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="157">
         <v>2275</v>
       </c>
-      <c r="I30" s="184"/>
-      <c r="K30" s="162"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="198"/>
+      <c r="K30" s="156"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="70"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="157" t="s">
+      <c r="B31" s="80"/>
+      <c r="C31" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="184"/>
-      <c r="E31" s="217"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="163">
+      <c r="D31" s="178"/>
+      <c r="E31" s="211"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="157">
         <v>13500</v>
       </c>
-      <c r="I31" s="184"/>
-      <c r="K31" s="162"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="198"/>
+      <c r="K31" s="156"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="70"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="157" t="s">
+      <c r="B32" s="80"/>
+      <c r="C32" s="153" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="184"/>
-      <c r="E32" s="217"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="188"/>
-      <c r="H32" s="163">
+      <c r="D32" s="178"/>
+      <c r="E32" s="211"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="157">
         <v>15000</v>
       </c>
-      <c r="I32" s="184"/>
-      <c r="K32" s="162"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="198"/>
+      <c r="K32" s="156"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="70"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="157" t="s">
+      <c r="B33" s="80"/>
+      <c r="C33" s="153" t="s">
         <v>146</v>
       </c>
-      <c r="D33" s="184"/>
-      <c r="E33" s="217"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="163">
+      <c r="D33" s="178"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="180"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="157">
         <v>8000</v>
       </c>
-      <c r="I33" s="184"/>
-      <c r="K33" s="162"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="198"/>
+      <c r="K33" s="156"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="70"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="157" t="s">
+      <c r="B34" s="80"/>
+      <c r="C34" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="184"/>
-      <c r="E34" s="217"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="163">
+      <c r="D34" s="178"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="180"/>
+      <c r="G34" s="182"/>
+      <c r="H34" s="157">
         <v>24650</v>
       </c>
-      <c r="I34" s="184"/>
-      <c r="K34" s="162"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="198"/>
+      <c r="K34" s="156"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="70"/>
-      <c r="B35" s="81"/>
-      <c r="C35" s="158"/>
-      <c r="D35" s="184"/>
-      <c r="E35" s="217"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="188"/>
-      <c r="H35" s="163">
+      <c r="B35" s="80"/>
+      <c r="C35" s="153" t="s">
+        <v>223</v>
+      </c>
+      <c r="D35" s="178"/>
+      <c r="E35" s="211"/>
+      <c r="F35" s="180"/>
+      <c r="G35" s="182"/>
+      <c r="H35" s="157">
         <v>22050</v>
       </c>
-      <c r="I35" s="184"/>
-      <c r="K35" s="162"/>
+      <c r="I35" s="178"/>
+      <c r="J35" s="198"/>
+      <c r="K35" s="156"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="70"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="157" t="s">
+      <c r="B36" s="80"/>
+      <c r="C36" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="184"/>
-      <c r="E36" s="217"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="188"/>
-      <c r="H36" s="163">
+      <c r="D36" s="178"/>
+      <c r="E36" s="211"/>
+      <c r="F36" s="180"/>
+      <c r="G36" s="182"/>
+      <c r="H36" s="157">
         <v>4634</v>
       </c>
-      <c r="I36" s="184"/>
-      <c r="K36" s="162"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="198"/>
+      <c r="K36" s="156"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="70"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="157" t="s">
+      <c r="B37" s="80"/>
+      <c r="C37" s="153" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="184"/>
-      <c r="E37" s="217"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="188"/>
-      <c r="H37" s="163">
+      <c r="D37" s="178"/>
+      <c r="E37" s="211"/>
+      <c r="F37" s="180"/>
+      <c r="G37" s="182"/>
+      <c r="H37" s="157">
         <v>10920</v>
       </c>
-      <c r="I37" s="184"/>
-      <c r="K37" s="162"/>
+      <c r="I37" s="178"/>
+      <c r="J37" s="198"/>
+      <c r="K37" s="156"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="70"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="157" t="s">
+      <c r="B38" s="80"/>
+      <c r="C38" s="153" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="184"/>
-      <c r="E38" s="217"/>
-      <c r="F38" s="186"/>
-      <c r="G38" s="188"/>
-      <c r="H38" s="163">
+      <c r="D38" s="178"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="180"/>
+      <c r="G38" s="182"/>
+      <c r="H38" s="157">
         <v>2070</v>
       </c>
-      <c r="I38" s="184"/>
-      <c r="K38" s="162"/>
+      <c r="I38" s="178"/>
+      <c r="J38" s="198"/>
+      <c r="K38" s="156"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="70"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="157" t="s">
+      <c r="B39" s="80"/>
+      <c r="C39" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="184"/>
-      <c r="E39" s="217"/>
-      <c r="F39" s="186"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="163">
+      <c r="D39" s="178"/>
+      <c r="E39" s="211"/>
+      <c r="F39" s="180"/>
+      <c r="G39" s="182"/>
+      <c r="H39" s="157">
         <v>1479</v>
       </c>
-      <c r="I39" s="184"/>
-      <c r="K39" s="162"/>
+      <c r="I39" s="178"/>
+      <c r="J39" s="198"/>
+      <c r="K39" s="156"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="70"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="157" t="s">
+      <c r="B40" s="80"/>
+      <c r="C40" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="184"/>
-      <c r="E40" s="217"/>
-      <c r="F40" s="186"/>
-      <c r="G40" s="188"/>
-      <c r="H40" s="163">
+      <c r="D40" s="178"/>
+      <c r="E40" s="211"/>
+      <c r="F40" s="180"/>
+      <c r="G40" s="182"/>
+      <c r="H40" s="157">
         <v>10600</v>
       </c>
-      <c r="I40" s="184"/>
-      <c r="K40" s="162"/>
+      <c r="I40" s="178"/>
+      <c r="J40" s="198"/>
+      <c r="K40" s="156"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="70"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="157" t="s">
+      <c r="B41" s="80"/>
+      <c r="C41" s="153" t="s">
         <v>153</v>
       </c>
-      <c r="D41" s="184"/>
-      <c r="E41" s="217"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="188"/>
-      <c r="H41" s="163">
+      <c r="D41" s="178"/>
+      <c r="E41" s="211"/>
+      <c r="F41" s="180"/>
+      <c r="G41" s="182"/>
+      <c r="H41" s="157">
         <v>2650</v>
       </c>
-      <c r="I41" s="184"/>
+      <c r="I41" s="178"/>
+      <c r="J41" s="198"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="70"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="157" t="s">
+      <c r="B42" s="80"/>
+      <c r="C42" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="184"/>
-      <c r="E42" s="217"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="188"/>
-      <c r="H42" s="163">
+      <c r="D42" s="178"/>
+      <c r="E42" s="211"/>
+      <c r="F42" s="180"/>
+      <c r="G42" s="182"/>
+      <c r="H42" s="157">
         <v>13828</v>
       </c>
-      <c r="I42" s="184"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="198"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="70"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="157" t="s">
+      <c r="B43" s="80"/>
+      <c r="C43" s="153" t="s">
         <v>155</v>
       </c>
-      <c r="D43" s="198"/>
-      <c r="E43" s="218"/>
-      <c r="F43" s="199"/>
-      <c r="G43" s="200"/>
-      <c r="H43" s="165">
+      <c r="D43" s="192"/>
+      <c r="E43" s="212"/>
+      <c r="F43" s="193"/>
+      <c r="G43" s="194"/>
+      <c r="H43" s="159">
         <v>6780</v>
       </c>
-      <c r="I43" s="184"/>
+      <c r="I43" s="178"/>
+      <c r="J43" s="198"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="70"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="155" t="s">
+      <c r="B44" s="80"/>
+      <c r="C44" s="359" t="s">
         <v>157</v>
       </c>
-      <c r="D44" s="197" t="s">
+      <c r="D44" s="287" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="195" t="s">
+      <c r="E44" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="185"/>
-      <c r="G44" s="187"/>
-      <c r="H44" s="167"/>
-      <c r="I44" s="184"/>
-      <c r="J44" s="69"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="181"/>
+      <c r="H44" s="161"/>
+      <c r="I44" s="178"/>
+      <c r="J44" s="294" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="70"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="156" t="s">
+      <c r="B45" s="80"/>
+      <c r="C45" s="152" t="s">
         <v>158</v>
       </c>
-      <c r="D45" s="184"/>
-      <c r="E45" s="182"/>
-      <c r="F45" s="186"/>
-      <c r="G45" s="188"/>
-      <c r="H45" s="163">
+      <c r="D45" s="178"/>
+      <c r="E45" s="176"/>
+      <c r="F45" s="180"/>
+      <c r="G45" s="182"/>
+      <c r="H45" s="157">
         <v>91845</v>
       </c>
-      <c r="I45" s="184"/>
-      <c r="J45" s="92"/>
+      <c r="I45" s="178"/>
+      <c r="J45" s="198"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="70"/>
       <c r="B46" s="71"/>
-      <c r="C46" s="156" t="s">
+      <c r="C46" s="152" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="184"/>
-      <c r="E46" s="182"/>
-      <c r="F46" s="186"/>
-      <c r="G46" s="188"/>
-      <c r="H46" s="163">
+      <c r="D46" s="178"/>
+      <c r="E46" s="176"/>
+      <c r="F46" s="180"/>
+      <c r="G46" s="182"/>
+      <c r="H46" s="157">
         <v>58981</v>
       </c>
-      <c r="I46" s="184"/>
-      <c r="J46" s="92"/>
+      <c r="I46" s="178"/>
+      <c r="J46" s="198"/>
     </row>
     <row r="47" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="70"/>
       <c r="B47" s="71"/>
-      <c r="C47" s="157" t="s">
+      <c r="C47" s="153" t="s">
         <v>160</v>
       </c>
-      <c r="D47" s="184"/>
-      <c r="E47" s="182"/>
-      <c r="F47" s="186"/>
-      <c r="G47" s="188"/>
-      <c r="H47" s="163">
+      <c r="D47" s="178"/>
+      <c r="E47" s="176"/>
+      <c r="F47" s="180"/>
+      <c r="G47" s="182"/>
+      <c r="H47" s="157">
         <v>23750</v>
       </c>
-      <c r="I47" s="184"/>
-      <c r="J47" s="92"/>
+      <c r="I47" s="178"/>
+      <c r="J47" s="198"/>
     </row>
     <row r="48" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="70"/>
       <c r="B48" s="71"/>
-      <c r="C48" s="166" t="s">
+      <c r="C48" s="160" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="184"/>
-      <c r="E48" s="182"/>
-      <c r="F48" s="186"/>
-      <c r="G48" s="188"/>
-      <c r="H48" s="163">
+      <c r="D48" s="178"/>
+      <c r="E48" s="176"/>
+      <c r="F48" s="180"/>
+      <c r="G48" s="182"/>
+      <c r="H48" s="157">
         <v>189150</v>
       </c>
-      <c r="I48" s="184"/>
-      <c r="J48" s="93"/>
+      <c r="I48" s="178"/>
+      <c r="J48" s="198"/>
     </row>
     <row r="49" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="70"/>
       <c r="B49" s="71"/>
-      <c r="C49" s="166" t="s">
+      <c r="C49" s="160" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="184"/>
-      <c r="E49" s="182"/>
-      <c r="F49" s="186"/>
-      <c r="G49" s="188"/>
-      <c r="H49" s="163">
+      <c r="D49" s="178"/>
+      <c r="E49" s="176"/>
+      <c r="F49" s="180"/>
+      <c r="G49" s="182"/>
+      <c r="H49" s="157">
         <v>67000</v>
       </c>
-      <c r="I49" s="184"/>
-      <c r="J49" s="91"/>
+      <c r="I49" s="178"/>
+      <c r="J49" s="198"/>
     </row>
     <row r="50" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="70"/>
       <c r="B50" s="71"/>
-      <c r="C50" s="166" t="s">
+      <c r="C50" s="160" t="s">
         <v>163</v>
       </c>
-      <c r="D50" s="198"/>
-      <c r="E50" s="196"/>
-      <c r="F50" s="199"/>
-      <c r="G50" s="200"/>
-      <c r="H50" s="163">
+      <c r="D50" s="192"/>
+      <c r="E50" s="190"/>
+      <c r="F50" s="193"/>
+      <c r="G50" s="194"/>
+      <c r="H50" s="157">
         <v>23400</v>
       </c>
-      <c r="I50" s="198"/>
-      <c r="J50" s="91"/>
+      <c r="I50" s="192"/>
+      <c r="J50" s="198"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="70"/>
@@ -4250,126 +5294,128 @@
       <c r="F51" s="76"/>
       <c r="G51" s="77"/>
       <c r="H51" s="74"/>
-      <c r="I51" s="152"/>
+      <c r="I51" s="149"/>
       <c r="J51" s="69"/>
       <c r="K51" s="29"/>
     </row>
     <row r="52" spans="1:11" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="70"/>
       <c r="B52" s="71"/>
-      <c r="C52" s="169" t="s">
+      <c r="C52" s="163" t="s">
         <v>164</v>
       </c>
-      <c r="D52" s="160" t="s">
+      <c r="D52" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="E52" s="159" t="s">
+      <c r="E52" s="355" t="s">
         <v>165</v>
       </c>
-      <c r="F52" s="174"/>
-      <c r="G52" s="177"/>
-      <c r="H52" s="82">
+      <c r="F52" s="168"/>
+      <c r="G52" s="171"/>
+      <c r="H52" s="81">
         <v>300000</v>
       </c>
-      <c r="I52" s="161" t="s">
+      <c r="I52" s="155" t="s">
         <v>128</v>
       </c>
-      <c r="J52" s="94"/>
+      <c r="J52" s="356" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="70"/>
       <c r="B53" s="71"/>
       <c r="C53" s="32"/>
-      <c r="D53" s="170"/>
-      <c r="E53" s="172"/>
-      <c r="F53" s="175"/>
-      <c r="G53" s="178"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="170"/>
-      <c r="J53" s="94"/>
+      <c r="D53" s="164"/>
+      <c r="E53" s="166"/>
+      <c r="F53" s="169"/>
+      <c r="G53" s="172"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="164"/>
+      <c r="J53" s="91"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="70"/>
       <c r="B54" s="71"/>
       <c r="C54" s="32"/>
-      <c r="D54" s="170"/>
-      <c r="E54" s="172"/>
-      <c r="F54" s="175"/>
-      <c r="G54" s="178"/>
-      <c r="H54" s="82"/>
-      <c r="I54" s="170"/>
-      <c r="J54" s="94"/>
+      <c r="D54" s="164"/>
+      <c r="E54" s="166"/>
+      <c r="F54" s="169"/>
+      <c r="G54" s="172"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="164"/>
+      <c r="J54" s="91"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="70"/>
       <c r="B55" s="71"/>
       <c r="C55" s="32"/>
-      <c r="D55" s="170"/>
-      <c r="E55" s="172"/>
-      <c r="F55" s="175"/>
-      <c r="G55" s="178"/>
-      <c r="H55" s="82"/>
-      <c r="I55" s="170"/>
+      <c r="D55" s="164"/>
+      <c r="E55" s="166"/>
+      <c r="F55" s="169"/>
+      <c r="G55" s="172"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="164"/>
       <c r="J55" s="69"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="70"/>
       <c r="B56" s="71"/>
       <c r="C56" s="32"/>
-      <c r="D56" s="170"/>
-      <c r="E56" s="172"/>
-      <c r="F56" s="175"/>
-      <c r="G56" s="178"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="170"/>
+      <c r="D56" s="164"/>
+      <c r="E56" s="166"/>
+      <c r="F56" s="169"/>
+      <c r="G56" s="172"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="164"/>
       <c r="J56" s="69"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="70"/>
       <c r="B57" s="71"/>
       <c r="C57" s="32"/>
-      <c r="D57" s="170"/>
-      <c r="E57" s="172"/>
-      <c r="F57" s="175"/>
-      <c r="G57" s="178"/>
-      <c r="H57" s="82"/>
-      <c r="I57" s="170"/>
+      <c r="D57" s="164"/>
+      <c r="E57" s="166"/>
+      <c r="F57" s="169"/>
+      <c r="G57" s="172"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="164"/>
       <c r="J57" s="69"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="70"/>
       <c r="B58" s="71"/>
       <c r="C58" s="32"/>
-      <c r="D58" s="170"/>
-      <c r="E58" s="172"/>
-      <c r="F58" s="175"/>
-      <c r="G58" s="179"/>
-      <c r="H58" s="82"/>
-      <c r="I58" s="181"/>
+      <c r="D58" s="164"/>
+      <c r="E58" s="166"/>
+      <c r="F58" s="169"/>
+      <c r="G58" s="173"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="175"/>
       <c r="J58" s="69"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="70"/>
       <c r="B59" s="71"/>
       <c r="C59" s="32"/>
-      <c r="D59" s="170"/>
-      <c r="E59" s="172"/>
-      <c r="F59" s="175"/>
-      <c r="G59" s="179"/>
-      <c r="H59" s="82"/>
-      <c r="I59" s="181"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="166"/>
+      <c r="F59" s="169"/>
+      <c r="G59" s="173"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="175"/>
       <c r="J59" s="69"/>
     </row>
     <row r="60" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="70"/>
       <c r="B60" s="71"/>
       <c r="C60" s="33"/>
-      <c r="D60" s="171"/>
-      <c r="E60" s="173"/>
-      <c r="F60" s="176"/>
-      <c r="G60" s="180"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="181"/>
+      <c r="D60" s="165"/>
+      <c r="E60" s="167"/>
+      <c r="F60" s="170"/>
+      <c r="G60" s="174"/>
+      <c r="H60" s="82"/>
+      <c r="I60" s="175"/>
       <c r="J60" s="69"/>
     </row>
     <row r="61" spans="1:11" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4379,42 +5425,42 @@
         <v>51</v>
       </c>
       <c r="D61" s="75"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="86"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="85"/>
       <c r="H61" s="78"/>
-      <c r="I61" s="87"/>
+      <c r="I61" s="86"/>
       <c r="J61" s="69"/>
     </row>
     <row r="62" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="70"/>
       <c r="B62" s="71"/>
       <c r="C62" s="32"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="89"/>
+      <c r="D62" s="87"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="88"/>
       <c r="H62" s="74"/>
-      <c r="I62" s="87"/>
+      <c r="I62" s="86"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="70"/>
       <c r="B63" s="71"/>
       <c r="C63" s="31"/>
       <c r="D63" s="75"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="89"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="88"/>
       <c r="H63" s="78"/>
-      <c r="I63" s="87"/>
+      <c r="I63" s="86"/>
       <c r="J63" s="69"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="192" t="s">
+      <c r="A64" s="186" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="193"/>
-      <c r="C64" s="194"/>
+      <c r="B64" s="187"/>
+      <c r="C64" s="188"/>
       <c r="D64" s="72"/>
       <c r="E64" s="76"/>
       <c r="F64" s="76"/>
@@ -4427,21 +5473,21 @@
       <c r="J64" s="69"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="192" t="s">
+      <c r="A65" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="193"/>
-      <c r="C65" s="194"/>
+      <c r="B65" s="187"/>
+      <c r="C65" s="188"/>
       <c r="D65" s="70"/>
       <c r="E65" s="70"/>
       <c r="F65" s="70"/>
       <c r="G65" s="70"/>
-      <c r="H65" s="90">
+      <c r="H65" s="89">
         <f>SUM(H7:H64)</f>
         <v>8899446.9900000002</v>
       </c>
       <c r="I65" s="70"/>
-      <c r="J65" s="91"/>
+      <c r="J65" s="90"/>
       <c r="K65" s="26"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4482,7 +5528,7 @@
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G69" s="25"/>
       <c r="H69" s="26"/>
-      <c r="I69" s="91">
+      <c r="I69" s="90">
         <v>10445440.65</v>
       </c>
       <c r="J69" s="23"/>
@@ -4501,36 +5547,36 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
-      <c r="B72" s="190" t="s">
+      <c r="B72" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="190"/>
+      <c r="C72" s="184"/>
       <c r="D72" s="28"/>
-      <c r="E72" s="190" t="s">
+      <c r="E72" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="F72" s="190"/>
+      <c r="F72" s="184"/>
       <c r="G72" s="28"/>
-      <c r="H72" s="189" t="s">
+      <c r="H72" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="I72" s="190"/>
+      <c r="I72" s="184"/>
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="191" t="s">
+      <c r="B73" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="191"/>
-      <c r="E73" s="191" t="s">
+      <c r="C73" s="185"/>
+      <c r="E73" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="F73" s="191"/>
-      <c r="H73" s="191" t="s">
+      <c r="F73" s="185"/>
+      <c r="H73" s="185" t="s">
         <v>39</v>
       </c>
-      <c r="I73" s="191"/>
+      <c r="I73" s="185"/>
       <c r="J73" s="30"/>
       <c r="K73" s="30"/>
     </row>
@@ -4546,9 +5592,11 @@
       <c r="K76" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="54">
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J44:J50"/>
+    <mergeCell ref="J24:J43"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="J14:J16"/>
     <mergeCell ref="E1:F2"/>
@@ -4602,7 +5650,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4631,57 +5679,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="233" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="239" t="s">
+      <c r="A2" s="233" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="234" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="240"/>
-      <c r="C3" s="240"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="240"/>
-      <c r="F3" s="240"/>
-      <c r="G3" s="240"/>
-      <c r="H3" s="240"/>
-      <c r="I3" s="240"/>
+      <c r="B3" s="234"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="234"/>
+      <c r="H3" s="234"/>
+      <c r="I3" s="234"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="36"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
-      <c r="E4" s="241" t="s">
+      <c r="E4" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="242"/>
-      <c r="G4" s="241" t="s">
+      <c r="F4" s="236"/>
+      <c r="G4" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="242"/>
+      <c r="H4" s="236"/>
       <c r="I4" s="36" t="s">
         <v>3</v>
       </c>
@@ -4699,10 +5747,10 @@
       <c r="D5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="243"/>
-      <c r="F5" s="244"/>
-      <c r="G5" s="243"/>
-      <c r="H5" s="244"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="237"/>
+      <c r="H5" s="238"/>
       <c r="I5" s="39" t="s">
         <v>8</v>
       </c>
@@ -4762,28 +5810,28 @@
     <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="46"/>
       <c r="B8" s="46"/>
-      <c r="C8" s="117" t="s">
+      <c r="C8" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="119" t="s">
+      <c r="E8" s="116" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
-      <c r="H8" s="100">
+      <c r="H8" s="97">
         <v>500000</v>
       </c>
-      <c r="I8" s="99" t="s">
+      <c r="I8" s="96" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="235"/>
-      <c r="B9" s="236"/>
-      <c r="C9" s="108" t="s">
+      <c r="A9" s="229"/>
+      <c r="B9" s="230"/>
+      <c r="C9" s="105" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="47"/>
@@ -4794,9 +5842,9 @@
       <c r="I9" s="50"/>
     </row>
     <row r="10" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="237"/>
-      <c r="B10" s="237"/>
-      <c r="C10" s="96" t="s">
+      <c r="A10" s="231"/>
+      <c r="B10" s="231"/>
+      <c r="C10" s="93" t="s">
         <v>62</v>
       </c>
       <c r="D10" s="62" t="s">
@@ -4810,39 +5858,39 @@
       <c r="H10" s="64">
         <v>760100</v>
       </c>
-      <c r="I10" s="109" t="s">
+      <c r="I10" s="106" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="6.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="237"/>
-      <c r="B11" s="237"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="109"/>
+      <c r="A11" s="231"/>
+      <c r="B11" s="231"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="106"/>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="51"/>
       <c r="B12" s="53"/>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="228" t="s">
+      <c r="D12" s="222" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="232" t="s">
+      <c r="E12" s="226" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
-      <c r="H12" s="231">
+      <c r="H12" s="225">
         <v>140000</v>
       </c>
-      <c r="I12" s="228" t="s">
+      <c r="I12" s="222" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4852,13 +5900,13 @@
       <c r="C13" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="229"/>
-      <c r="E13" s="233"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="227"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
-      <c r="H13" s="229"/>
-      <c r="I13" s="229"/>
-      <c r="K13" s="101"/>
+      <c r="H13" s="223"/>
+      <c r="I13" s="223"/>
+      <c r="K13" s="98"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="51"/>
@@ -4866,151 +5914,151 @@
       <c r="C14" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="229"/>
-      <c r="E14" s="233"/>
+      <c r="D14" s="223"/>
+      <c r="E14" s="227"/>
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
-      <c r="H14" s="229"/>
-      <c r="I14" s="229"/>
-      <c r="K14" s="101"/>
+      <c r="H14" s="223"/>
+      <c r="I14" s="223"/>
+      <c r="K14" s="98"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="59"/>
       <c r="B15" s="60"/>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="229"/>
-      <c r="E15" s="233"/>
+      <c r="D15" s="223"/>
+      <c r="E15" s="227"/>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="229"/>
-      <c r="I15" s="229"/>
+      <c r="H15" s="223"/>
+      <c r="I15" s="223"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="59"/>
       <c r="B16" s="60"/>
-      <c r="C16" s="96" t="s">
+      <c r="C16" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="229"/>
-      <c r="E16" s="233"/>
+      <c r="D16" s="223"/>
+      <c r="E16" s="227"/>
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
-      <c r="H16" s="229"/>
-      <c r="I16" s="229"/>
+      <c r="H16" s="223"/>
+      <c r="I16" s="223"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="59"/>
       <c r="B17" s="60"/>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="229"/>
-      <c r="E17" s="233"/>
+      <c r="D17" s="223"/>
+      <c r="E17" s="227"/>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
-      <c r="H17" s="229"/>
-      <c r="I17" s="229"/>
+      <c r="H17" s="223"/>
+      <c r="I17" s="223"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="59"/>
       <c r="B18" s="60"/>
-      <c r="C18" s="96" t="s">
+      <c r="C18" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="229"/>
-      <c r="E18" s="233"/>
+      <c r="D18" s="223"/>
+      <c r="E18" s="227"/>
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
-      <c r="H18" s="229"/>
-      <c r="I18" s="229"/>
+      <c r="H18" s="223"/>
+      <c r="I18" s="223"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="59"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="229"/>
-      <c r="E19" s="233"/>
+      <c r="D19" s="223"/>
+      <c r="E19" s="227"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
-      <c r="H19" s="229"/>
-      <c r="I19" s="229"/>
+      <c r="H19" s="223"/>
+      <c r="I19" s="223"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="59"/>
       <c r="B20" s="60"/>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="229"/>
-      <c r="E20" s="233"/>
+      <c r="D20" s="223"/>
+      <c r="E20" s="227"/>
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
-      <c r="H20" s="229"/>
-      <c r="I20" s="229"/>
+      <c r="H20" s="223"/>
+      <c r="I20" s="223"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="59"/>
       <c r="B21" s="60"/>
-      <c r="C21" s="96" t="s">
+      <c r="C21" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="230"/>
-      <c r="E21" s="238"/>
+      <c r="D21" s="224"/>
+      <c r="E21" s="232"/>
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
-      <c r="H21" s="230"/>
-      <c r="I21" s="230"/>
+      <c r="H21" s="224"/>
+      <c r="I21" s="224"/>
     </row>
     <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="59"/>
       <c r="B22" s="60"/>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="232" t="s">
+      <c r="D22" s="226" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="232" t="s">
+      <c r="E22" s="226" t="s">
         <v>55</v>
       </c>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
-      <c r="H22" s="231">
+      <c r="H22" s="225">
         <v>592665.87</v>
       </c>
-      <c r="I22" s="228" t="s">
+      <c r="I22" s="222" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="59"/>
       <c r="B23" s="60"/>
-      <c r="C23" s="96" t="s">
+      <c r="C23" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="233"/>
-      <c r="E23" s="233"/>
+      <c r="D23" s="227"/>
+      <c r="E23" s="227"/>
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
-      <c r="H23" s="234"/>
-      <c r="I23" s="229"/>
+      <c r="H23" s="228"/>
+      <c r="I23" s="223"/>
     </row>
     <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="50"/>
       <c r="B24" s="62"/>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="233"/>
-      <c r="E24" s="233"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="234"/>
-      <c r="I24" s="229"/>
+      <c r="D24" s="227"/>
+      <c r="E24" s="227"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="228"/>
+      <c r="I24" s="223"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50"/>
@@ -5018,12 +6066,12 @@
       <c r="C25" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="233"/>
-      <c r="E25" s="233"/>
+      <c r="D25" s="227"/>
+      <c r="E25" s="227"/>
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
-      <c r="H25" s="234"/>
-      <c r="I25" s="229"/>
+      <c r="H25" s="228"/>
+      <c r="I25" s="223"/>
     </row>
     <row r="26" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50"/>
@@ -5031,12 +6079,12 @@
       <c r="C26" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="233"/>
-      <c r="E26" s="233"/>
+      <c r="D26" s="227"/>
+      <c r="E26" s="227"/>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
-      <c r="H26" s="234"/>
-      <c r="I26" s="229"/>
+      <c r="H26" s="228"/>
+      <c r="I26" s="223"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="50"/>
@@ -5044,64 +6092,64 @@
       <c r="C27" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="233"/>
-      <c r="E27" s="233"/>
+      <c r="D27" s="227"/>
+      <c r="E27" s="227"/>
       <c r="F27" s="50"/>
       <c r="G27" s="50"/>
-      <c r="H27" s="234"/>
-      <c r="I27" s="229"/>
+      <c r="H27" s="228"/>
+      <c r="I27" s="223"/>
     </row>
     <row r="28" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="50"/>
       <c r="B28" s="62"/>
-      <c r="C28" s="114" t="s">
+      <c r="C28" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="233"/>
-      <c r="E28" s="233"/>
-      <c r="F28" s="110"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="234"/>
-      <c r="I28" s="229"/>
+      <c r="D28" s="227"/>
+      <c r="E28" s="227"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="228"/>
+      <c r="I28" s="223"/>
     </row>
     <row r="29" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="50"/>
       <c r="B29" s="62"/>
-      <c r="C29" s="97" t="s">
+      <c r="C29" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="233"/>
-      <c r="E29" s="233"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="234"/>
-      <c r="I29" s="229"/>
+      <c r="D29" s="227"/>
+      <c r="E29" s="227"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="228"/>
+      <c r="I29" s="223"/>
     </row>
     <row r="30" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="50"/>
       <c r="B30" s="62"/>
-      <c r="C30" s="97" t="s">
+      <c r="C30" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="233"/>
-      <c r="E30" s="233"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="234"/>
-      <c r="I30" s="229"/>
+      <c r="D30" s="227"/>
+      <c r="E30" s="227"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="228"/>
+      <c r="I30" s="223"/>
     </row>
     <row r="31" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="50"/>
       <c r="B31" s="62"/>
-      <c r="C31" s="97" t="s">
+      <c r="C31" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="233"/>
-      <c r="E31" s="233"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="234"/>
-      <c r="I31" s="229"/>
+      <c r="D31" s="227"/>
+      <c r="E31" s="227"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="228"/>
+      <c r="I31" s="223"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="50"/>
@@ -5109,12 +6157,12 @@
       <c r="C32" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="233"/>
-      <c r="E32" s="233"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="234"/>
-      <c r="I32" s="229"/>
+      <c r="D32" s="227"/>
+      <c r="E32" s="227"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="228"/>
+      <c r="I32" s="223"/>
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="50"/>
@@ -5122,12 +6170,12 @@
       <c r="C33" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="233"/>
-      <c r="E33" s="233"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="234"/>
-      <c r="I33" s="229"/>
+      <c r="D33" s="227"/>
+      <c r="E33" s="227"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="228"/>
+      <c r="I33" s="223"/>
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="50"/>
@@ -5135,12 +6183,12 @@
       <c r="C34" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="233"/>
-      <c r="E34" s="233"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="234"/>
-      <c r="I34" s="229"/>
+      <c r="D34" s="227"/>
+      <c r="E34" s="227"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="228"/>
+      <c r="I34" s="223"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="50"/>
@@ -5148,12 +6196,12 @@
       <c r="C35" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="233"/>
-      <c r="E35" s="233"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="234"/>
-      <c r="I35" s="229"/>
+      <c r="D35" s="227"/>
+      <c r="E35" s="227"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="228"/>
+      <c r="I35" s="223"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="50"/>
@@ -5161,12 +6209,12 @@
       <c r="C36" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="233"/>
-      <c r="E36" s="233"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="234"/>
-      <c r="I36" s="229"/>
+      <c r="D36" s="227"/>
+      <c r="E36" s="227"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="108"/>
+      <c r="H36" s="228"/>
+      <c r="I36" s="223"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="50"/>
@@ -5174,12 +6222,12 @@
       <c r="C37" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="233"/>
-      <c r="E37" s="233"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="234"/>
-      <c r="I37" s="229"/>
+      <c r="D37" s="227"/>
+      <c r="E37" s="227"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="228"/>
+      <c r="I37" s="223"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="50"/>
@@ -5187,12 +6235,12 @@
       <c r="C38" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="233"/>
-      <c r="E38" s="233"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="234"/>
-      <c r="I38" s="229"/>
+      <c r="D38" s="227"/>
+      <c r="E38" s="227"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="228"/>
+      <c r="I38" s="223"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="50"/>
@@ -5200,12 +6248,12 @@
       <c r="C39" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="233"/>
-      <c r="E39" s="233"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="234"/>
-      <c r="I39" s="229"/>
+      <c r="D39" s="227"/>
+      <c r="E39" s="227"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="228"/>
+      <c r="I39" s="223"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="50"/>
@@ -5213,12 +6261,12 @@
       <c r="C40" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="233"/>
-      <c r="E40" s="233"/>
-      <c r="F40" s="110"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="234"/>
-      <c r="I40" s="229"/>
+      <c r="D40" s="227"/>
+      <c r="E40" s="227"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="228"/>
+      <c r="I40" s="223"/>
     </row>
     <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="50"/>
@@ -5226,12 +6274,12 @@
       <c r="C41" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="233"/>
-      <c r="E41" s="233"/>
-      <c r="F41" s="110"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="234"/>
-      <c r="I41" s="229"/>
+      <c r="D41" s="227"/>
+      <c r="E41" s="227"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="108"/>
+      <c r="H41" s="228"/>
+      <c r="I41" s="223"/>
     </row>
     <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="50"/>
@@ -5239,12 +6287,12 @@
       <c r="C42" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="233"/>
-      <c r="E42" s="233"/>
-      <c r="F42" s="110"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="234"/>
-      <c r="I42" s="229"/>
+      <c r="D42" s="227"/>
+      <c r="E42" s="227"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="228"/>
+      <c r="I42" s="223"/>
     </row>
     <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="50"/>
@@ -5252,12 +6300,12 @@
       <c r="C43" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="233"/>
-      <c r="E43" s="233"/>
-      <c r="F43" s="110"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="234"/>
-      <c r="I43" s="229"/>
+      <c r="D43" s="227"/>
+      <c r="E43" s="227"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="228"/>
+      <c r="I43" s="223"/>
     </row>
     <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="50"/>
@@ -5265,12 +6313,12 @@
       <c r="C44" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="233"/>
-      <c r="E44" s="233"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="234"/>
-      <c r="I44" s="229"/>
+      <c r="D44" s="227"/>
+      <c r="E44" s="227"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="228"/>
+      <c r="I44" s="223"/>
     </row>
     <row r="45" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="50"/>
@@ -5280,139 +6328,139 @@
       </c>
       <c r="D45" s="57"/>
       <c r="E45" s="62"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="111"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="108"/>
       <c r="H45" s="64"/>
-      <c r="I45" s="115"/>
+      <c r="I45" s="112"/>
     </row>
     <row r="46" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="50"/>
-      <c r="B46" s="131"/>
-      <c r="C46" s="140" t="s">
+      <c r="B46" s="128"/>
+      <c r="C46" s="137" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="229"/>
-      <c r="E46" s="233"/>
-      <c r="F46" s="107"/>
+      <c r="D46" s="223"/>
+      <c r="E46" s="227"/>
+      <c r="F46" s="104"/>
       <c r="G46" s="56"/>
       <c r="H46" s="56">
         <v>160000</v>
       </c>
-      <c r="I46" s="245" t="s">
+      <c r="I46" s="239" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="50"/>
-      <c r="B47" s="131"/>
-      <c r="C47" s="131" t="s">
+      <c r="B47" s="128"/>
+      <c r="C47" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="230"/>
-      <c r="E47" s="238"/>
-      <c r="F47" s="107"/>
+      <c r="D47" s="224"/>
+      <c r="E47" s="232"/>
+      <c r="F47" s="104"/>
       <c r="G47" s="56"/>
       <c r="H47" s="56">
         <v>171900</v>
       </c>
-      <c r="I47" s="246"/>
+      <c r="I47" s="240"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="50"/>
-      <c r="B48" s="131"/>
-      <c r="C48" s="127" t="s">
+      <c r="B48" s="128"/>
+      <c r="C48" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="228" t="s">
+      <c r="D48" s="222" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="232" t="s">
+      <c r="E48" s="226" t="s">
         <v>111</v>
       </c>
-      <c r="F48" s="107"/>
+      <c r="F48" s="104"/>
       <c r="G48" s="56"/>
-      <c r="H48" s="247">
+      <c r="H48" s="241">
         <v>750000</v>
       </c>
-      <c r="I48" s="250" t="s">
+      <c r="I48" s="244" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="50"/>
-      <c r="B49" s="131"/>
-      <c r="C49" s="127" t="s">
+      <c r="B49" s="128"/>
+      <c r="C49" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="229"/>
-      <c r="E49" s="233"/>
-      <c r="F49" s="107"/>
+      <c r="D49" s="223"/>
+      <c r="E49" s="227"/>
+      <c r="F49" s="104"/>
       <c r="G49" s="56"/>
-      <c r="H49" s="248"/>
-      <c r="I49" s="245"/>
+      <c r="H49" s="242"/>
+      <c r="I49" s="239"/>
     </row>
     <row r="50" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="50"/>
-      <c r="B50" s="131"/>
-      <c r="C50" s="127" t="s">
+      <c r="B50" s="128"/>
+      <c r="C50" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="229"/>
-      <c r="E50" s="233"/>
-      <c r="F50" s="107"/>
+      <c r="D50" s="223"/>
+      <c r="E50" s="227"/>
+      <c r="F50" s="104"/>
       <c r="G50" s="56"/>
-      <c r="H50" s="248"/>
-      <c r="I50" s="245"/>
+      <c r="H50" s="242"/>
+      <c r="I50" s="239"/>
     </row>
     <row r="51" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="50"/>
-      <c r="B51" s="131"/>
-      <c r="C51" s="127" t="s">
+      <c r="B51" s="128"/>
+      <c r="C51" s="124" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="229"/>
-      <c r="E51" s="233"/>
-      <c r="F51" s="107"/>
+      <c r="D51" s="223"/>
+      <c r="E51" s="227"/>
+      <c r="F51" s="104"/>
       <c r="G51" s="56"/>
-      <c r="H51" s="248"/>
-      <c r="I51" s="245"/>
+      <c r="H51" s="242"/>
+      <c r="I51" s="239"/>
     </row>
     <row r="52" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="50"/>
-      <c r="B52" s="131"/>
-      <c r="C52" s="132" t="s">
+      <c r="B52" s="128"/>
+      <c r="C52" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="230"/>
-      <c r="E52" s="238"/>
-      <c r="F52" s="107"/>
+      <c r="D52" s="224"/>
+      <c r="E52" s="232"/>
+      <c r="F52" s="104"/>
       <c r="G52" s="56"/>
-      <c r="H52" s="249"/>
-      <c r="I52" s="246"/>
+      <c r="H52" s="243"/>
+      <c r="I52" s="240"/>
     </row>
     <row r="53" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="98"/>
+      <c r="A53" s="95"/>
       <c r="B53" s="50"/>
       <c r="C53" s="50"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="103"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="100"/>
       <c r="F53" s="52"/>
-      <c r="G53" s="105" t="s">
+      <c r="G53" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="H53" s="106">
+      <c r="H53" s="103">
         <f>SUM(H8:H52)</f>
         <v>3074665.87</v>
       </c>
-      <c r="I53" s="104"/>
+      <c r="I53" s="101"/>
     </row>
     <row r="54" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D54" s="134"/>
-      <c r="E54" s="135"/>
-      <c r="F54" s="136"/>
-      <c r="G54" s="137"/>
-      <c r="H54" s="138"/>
-      <c r="I54" s="139"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="133"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="135"/>
+      <c r="I54" s="136"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B55" s="35" t="s">
@@ -5457,14 +6505,14 @@
       <c r="B61" s="37"/>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
-      <c r="E61" s="241" t="s">
+      <c r="E61" s="235" t="s">
         <v>1</v>
       </c>
-      <c r="F61" s="242"/>
-      <c r="G61" s="241" t="s">
+      <c r="F61" s="236"/>
+      <c r="G61" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="H61" s="242"/>
+      <c r="H61" s="236"/>
       <c r="I61" s="36" t="s">
         <v>3</v>
       </c>
@@ -5482,10 +6530,10 @@
       <c r="D62" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="243"/>
-      <c r="F62" s="244"/>
-      <c r="G62" s="243"/>
-      <c r="H62" s="244"/>
+      <c r="E62" s="237"/>
+      <c r="F62" s="238"/>
+      <c r="G62" s="237"/>
+      <c r="H62" s="238"/>
       <c r="I62" s="39" t="s">
         <v>8</v>
       </c>
@@ -5558,7 +6606,7 @@
     <row r="66" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="43"/>
       <c r="B66" s="43"/>
-      <c r="C66" s="96" t="s">
+      <c r="C66" s="93" t="s">
         <v>93</v>
       </c>
       <c r="D66" s="54" t="s">
@@ -5572,14 +6620,14 @@
       <c r="H66" s="63">
         <v>100000</v>
       </c>
-      <c r="I66" s="142" t="s">
+      <c r="I66" s="139" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="43"/>
       <c r="B67" s="43"/>
-      <c r="C67" s="103" t="s">
+      <c r="C67" s="100" t="s">
         <v>91</v>
       </c>
       <c r="D67" s="55" t="s">
@@ -5593,7 +6641,7 @@
       <c r="H67" s="63">
         <v>25000</v>
       </c>
-      <c r="I67" s="116" t="s">
+      <c r="I67" s="113" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5611,17 +6659,17 @@
       </c>
       <c r="F68" s="50"/>
       <c r="G68" s="50"/>
-      <c r="H68" s="126">
+      <c r="H68" s="123">
         <v>8000</v>
       </c>
-      <c r="I68" s="116" t="s">
+      <c r="I68" s="113" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A69" s="43"/>
       <c r="B69" s="43"/>
-      <c r="C69" s="96" t="s">
+      <c r="C69" s="93" t="s">
         <v>115</v>
       </c>
       <c r="D69" s="57" t="s">
@@ -5632,17 +6680,17 @@
       </c>
       <c r="F69" s="50"/>
       <c r="G69" s="50"/>
-      <c r="H69" s="141">
+      <c r="H69" s="138">
         <v>177440.73</v>
       </c>
-      <c r="I69" s="116" t="s">
+      <c r="I69" s="113" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="43"/>
       <c r="B70" s="43"/>
-      <c r="C70" s="96" t="s">
+      <c r="C70" s="93" t="s">
         <v>116</v>
       </c>
       <c r="D70" s="57" t="s">
@@ -5651,31 +6699,31 @@
       <c r="E70" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="F70" s="130"/>
-      <c r="G70" s="111"/>
+      <c r="F70" s="127"/>
+      <c r="G70" s="108"/>
       <c r="H70" s="64">
         <v>52000</v>
       </c>
-      <c r="I70" s="116" t="s">
+      <c r="I70" s="113" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="43"/>
       <c r="B71" s="43"/>
-      <c r="C71" s="96" t="s">
+      <c r="C71" s="93" t="s">
         <v>119</v>
       </c>
       <c r="D71" s="57" t="s">
         <v>34</v>
       </c>
       <c r="E71" s="62"/>
-      <c r="F71" s="130"/>
-      <c r="G71" s="111"/>
+      <c r="F71" s="127"/>
+      <c r="G71" s="108"/>
       <c r="H71" s="64">
         <v>33000</v>
       </c>
-      <c r="I71" s="116" t="s">
+      <c r="I71" s="113" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5687,15 +6735,15 @@
       </c>
       <c r="D72" s="57"/>
       <c r="E72" s="62"/>
-      <c r="F72" s="110"/>
-      <c r="G72" s="111"/>
+      <c r="F72" s="107"/>
+      <c r="G72" s="108"/>
       <c r="H72" s="64"/>
-      <c r="I72" s="115"/>
+      <c r="I72" s="112"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="98"/>
+      <c r="A73" s="95"/>
       <c r="B73" s="62"/>
-      <c r="C73" s="96" t="s">
+      <c r="C73" s="93" t="s">
         <v>96</v>
       </c>
       <c r="D73" s="55" t="s">
@@ -5709,14 +6757,14 @@
       <c r="H73" s="64">
         <v>700000</v>
       </c>
-      <c r="I73" s="116" t="s">
+      <c r="I73" s="113" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="50"/>
       <c r="B74" s="62"/>
-      <c r="C74" s="96" t="s">
+      <c r="C74" s="93" t="s">
         <v>103</v>
       </c>
       <c r="D74" s="55" t="s">
@@ -5730,14 +6778,14 @@
       <c r="H74" s="64">
         <v>150000</v>
       </c>
-      <c r="I74" s="116" t="s">
+      <c r="I74" s="113" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="50"/>
       <c r="B75" s="62"/>
-      <c r="C75" s="96" t="s">
+      <c r="C75" s="93" t="s">
         <v>117</v>
       </c>
       <c r="D75" s="57" t="s">
@@ -5746,12 +6794,12 @@
       <c r="E75" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="F75" s="130"/>
-      <c r="G75" s="111"/>
+      <c r="F75" s="127"/>
+      <c r="G75" s="108"/>
       <c r="H75" s="64">
         <v>200000</v>
       </c>
-      <c r="I75" s="116" t="s">
+      <c r="I75" s="113" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5767,7 +6815,7 @@
       <c r="E76" s="50"/>
       <c r="F76" s="50"/>
       <c r="G76" s="50"/>
-      <c r="H76" s="126">
+      <c r="H76" s="123">
         <v>200000</v>
       </c>
       <c r="I76" s="51" t="s">
@@ -5775,20 +6823,20 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="128"/>
-      <c r="B77" s="129"/>
-      <c r="C77" s="129"/>
-      <c r="D77" s="102"/>
-      <c r="E77" s="103"/>
+      <c r="A77" s="125"/>
+      <c r="B77" s="126"/>
+      <c r="C77" s="126"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="100"/>
       <c r="F77" s="52"/>
-      <c r="G77" s="105" t="s">
+      <c r="G77" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="H77" s="133">
+      <c r="H77" s="130">
         <f>SUM(H66:H76)</f>
         <v>1645440.73</v>
       </c>
-      <c r="I77" s="104"/>
+      <c r="I77" s="101"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B79" s="35" t="s">

--- a/LDRRMFIP.xlsx
+++ b/LDRRMFIP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LDRRMFIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LDRRMFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0773C6A0-9253-4A46-9799-50E7AEA90968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AEDA47-4EFF-4EB5-9FC7-AF35F82C3D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FA223BB2-9E3C-AB4E-9163-26FFAA34B9F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FA223BB2-9E3C-AB4E-9163-26FFAA34B9F9}"/>
   </bookViews>
   <sheets>
     <sheet name="new form(2026)" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="289">
   <si>
     <t>AIP</t>
   </si>
@@ -785,6 +785,175 @@
   <si>
     <t>100% of required emergency preparedness, response and early recovery operations conducted</t>
   </si>
+  <si>
+    <t>LDRRM Plan 2025 (Unutilized Fund)</t>
+  </si>
+  <si>
+    <t>Trainings, Planning and Seminars</t>
+  </si>
+  <si>
+    <t>B/LDRRM Council / Responders</t>
+  </si>
+  <si>
+    <t>April
+2025</t>
+  </si>
+  <si>
+    <t>December 
+2025</t>
+  </si>
+  <si>
+    <t>December
+2025</t>
+  </si>
+  <si>
+    <t>Fingertip pulse oximeter monitor (15units)</t>
+  </si>
+  <si>
+    <t>Medical supplies necessary for response and operations</t>
+  </si>
+  <si>
+    <t>Unutilized (Trust Fund)</t>
+  </si>
+  <si>
+    <t>Infrared thermometer gun w/ screen display (15units)</t>
+  </si>
+  <si>
+    <t>70% Alcohol (20gal)</t>
+  </si>
+  <si>
+    <t>Latex examination gloves L (10boxes)</t>
+  </si>
+  <si>
+    <t>Latex examination gloves M (10boxes)</t>
+  </si>
+  <si>
+    <t>Povidone Iodine (10gal)</t>
+  </si>
+  <si>
+    <t>5% dextrose in Water (30 L)</t>
+  </si>
+  <si>
+    <t>Nasal Cannula for Adults (200pcs)</t>
+  </si>
+  <si>
+    <t>PURCHASE OF RESCUE EQUIPMENT UNITS</t>
+  </si>
+  <si>
+    <t>Rescue supplies and equipment necessary for response and operations</t>
+  </si>
+  <si>
+    <t>Brushless cordless 4” Pruning saw kit set 18V (2units)</t>
+  </si>
+  <si>
+    <t>Wireless microphone UHF (1unit)</t>
+  </si>
+  <si>
+    <t>18V cordless leaf blower (dub184z) (1unit)</t>
+  </si>
+  <si>
+    <t>Lithium-ion Tool Battery 18V 6.0-18.0aH 6000MAh Replaceable (4units)</t>
+  </si>
+  <si>
+    <t>Reciprocating saw blade for wood &amp; metal 6” 152mm 7-18TPI (2units)</t>
+  </si>
+  <si>
+    <t>18V 16Ah Rechargeable Battery Li-Ion Battery Replacement + charger (1set)</t>
+  </si>
+  <si>
+    <t>Rubber boat inflatable bumper fender (2pcs/set) (4 sets)</t>
+  </si>
+  <si>
+    <t>Socket wrench Set 8-24mm ½ drive (1set)</t>
+  </si>
+  <si>
+    <t>Crocodile jack 5 ton (1 unit)</t>
+  </si>
+  <si>
+    <t>5 Quart Personal Cooler – hinged lid 4.7 L (1pc)</t>
+  </si>
+  <si>
+    <t>Rope bag (15L) (15units)</t>
+  </si>
+  <si>
+    <t>Rechargeable battery AAA (40pcs)</t>
+  </si>
+  <si>
+    <t>2 Layer tackle box (2units)</t>
+  </si>
+  <si>
+    <t>77L Yellow PP attached Lid container, 600mmx400x400mm</t>
+  </si>
+  <si>
+    <t>7- Infrastructure</t>
+  </si>
+  <si>
+    <t>Purchase and installation of Repeater + Tower (Zaragosa) (1), Antenna Base (DRRM Office) (1), &amp; Mobile Antenna w/ holder (6units)</t>
+  </si>
+  <si>
+    <t>LDRRMO / BAC / MEO</t>
+  </si>
+  <si>
+    <t>Purchase &amp; Installation of Custom LED Wall
+Pixel Pitch	: P4
+Usage Type	: Outdoor
+Installation type: Fixed
+Size		: 1440x810mm WxH</t>
+  </si>
+  <si>
+    <t>Construction of spillway (Kandingan)</t>
+  </si>
+  <si>
+    <t>Purchase of Prime Inverter, Split type AC (2units)</t>
+  </si>
+  <si>
+    <t>For communications of responders and other stakeholders</t>
+  </si>
+  <si>
+    <t>For information, education, and communication (IEC)</t>
+  </si>
+  <si>
+    <t>Unutilized (General Fund)</t>
+  </si>
+  <si>
+    <t>To prevent flooding</t>
+  </si>
+  <si>
+    <t>Purchase 65” OLED 24K Smart AI TV (1unit)</t>
+  </si>
+  <si>
+    <t>for DRRM Office aircon</t>
+  </si>
+  <si>
+    <t>for presentations / IEC</t>
+  </si>
+  <si>
+    <t>Purchase &amp; Installation of power poles (5units)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase of GPU-RTX 3060 (GIS)	</t>
+  </si>
+  <si>
+    <t>Purchase of 750W 80+ bronze non-modular Power supply</t>
+  </si>
+  <si>
+    <t>Purchase of Vehicle dash cam w/ built-in GPS Navigator – Drive Smart 86, 8” (6units)</t>
+  </si>
+  <si>
+    <t>Document/record footage of  the trips of the emergency vehicles</t>
+  </si>
+  <si>
+    <t>Purchase of microSD card (512GB) (12pcs)</t>
+  </si>
+  <si>
+    <t>To secure the rescue equipment</t>
+  </si>
+  <si>
+    <t>Purchase of rescue hydraulic Telescopic Ram (1unit)</t>
+  </si>
+  <si>
+    <t>for rescue equipment</t>
+  </si>
 </sst>
 </file>
 
@@ -793,11 +962,18 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="\P_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="\P_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1227,55 +1403,55 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="376">
+  <cellXfs count="387">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1302,781 +1478,454 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="20" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2084,101 +1933,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2186,43 +1984,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="25" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="25" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="24" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2230,41 +2049,431 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="24" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2581,11 +2790,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA819F7F-BA76-4EB2-BBFE-647BCD4141EF}">
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N62" sqref="N62"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2597,9 +2806,9 @@
     <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -2608,1693 +2817,2922 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="279" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="246"/>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="254"/>
-      <c r="N2" s="254"/>
-      <c r="O2" s="254"/>
-      <c r="P2" s="254"/>
+      <c r="B2" s="279"/>
+      <c r="C2" s="279"/>
+      <c r="D2" s="279"/>
+      <c r="E2" s="279"/>
+      <c r="F2" s="279"/>
+      <c r="G2" s="279"/>
+      <c r="H2" s="279"/>
+      <c r="I2" s="279"/>
+      <c r="J2" s="279"/>
+      <c r="K2" s="279"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
     </row>
     <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="315" t="s">
+      <c r="A3" s="282" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
-      <c r="F3" s="315"/>
-      <c r="G3" s="315"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="315"/>
-      <c r="K3" s="315"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
-      <c r="O3" s="254"/>
-      <c r="P3" s="254"/>
+      <c r="B3" s="282"/>
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
+      <c r="H3" s="282"/>
+      <c r="I3" s="282"/>
+      <c r="J3" s="282"/>
+      <c r="K3" s="282"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="182"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="251" t="s">
+      <c r="A5" s="179" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="250" t="s">
+      <c r="B5" s="178" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="252"/>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250"/>
-      <c r="G5" s="247"/>
-      <c r="H5" s="247"/>
-      <c r="I5" s="247"/>
-      <c r="J5" s="247"/>
-      <c r="K5" s="247"/>
-      <c r="L5" s="247"/>
-      <c r="M5" s="247"/>
-      <c r="N5" s="247"/>
-      <c r="O5" s="247"/>
-      <c r="P5" s="247"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="176"/>
+      <c r="J5" s="176"/>
+      <c r="K5" s="176"/>
+      <c r="L5" s="176"/>
+      <c r="M5" s="176"/>
+      <c r="N5" s="176"/>
+      <c r="O5" s="176"/>
+      <c r="P5" s="176"/>
     </row>
     <row r="6" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="255" t="s">
+      <c r="A6" s="283" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="257" t="s">
+      <c r="B6" s="285" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="258"/>
-      <c r="D6" s="255" t="s">
+      <c r="C6" s="286"/>
+      <c r="D6" s="283" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="261" t="s">
+      <c r="E6" s="273" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="262"/>
-      <c r="G6" s="255" t="s">
+      <c r="F6" s="275"/>
+      <c r="G6" s="283" t="s">
         <v>174</v>
       </c>
-      <c r="H6" s="255" t="s">
+      <c r="H6" s="283" t="s">
         <v>175</v>
       </c>
-      <c r="I6" s="261" t="s">
+      <c r="I6" s="273" t="s">
         <v>176</v>
       </c>
-      <c r="J6" s="264"/>
-      <c r="K6" s="262"/>
-      <c r="L6" s="253"/>
-      <c r="M6" s="253"/>
-      <c r="N6" s="253"/>
-      <c r="O6" s="249"/>
-      <c r="P6" s="249"/>
+      <c r="J6" s="274"/>
+      <c r="K6" s="275"/>
+      <c r="L6" s="181"/>
+      <c r="M6" s="181"/>
+      <c r="N6" s="181"/>
+      <c r="O6" s="177"/>
+      <c r="P6" s="177"/>
     </row>
     <row r="7" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="256"/>
-      <c r="B7" s="259"/>
-      <c r="C7" s="260"/>
-      <c r="D7" s="256"/>
-      <c r="E7" s="263" t="s">
+      <c r="A7" s="284"/>
+      <c r="B7" s="287"/>
+      <c r="C7" s="288"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="183" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="263" t="s">
+      <c r="F7" s="183" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="256"/>
-      <c r="H7" s="256"/>
-      <c r="I7" s="263" t="s">
+      <c r="G7" s="284"/>
+      <c r="H7" s="284"/>
+      <c r="I7" s="183" t="s">
         <v>177</v>
       </c>
-      <c r="J7" s="263" t="s">
+      <c r="J7" s="183" t="s">
         <v>178</v>
       </c>
-      <c r="K7" s="263" t="s">
+      <c r="K7" s="183" t="s">
         <v>179</v>
       </c>
-      <c r="L7" s="249"/>
-      <c r="M7" s="249"/>
-      <c r="N7" s="249"/>
-      <c r="O7" s="249"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="295" t="s">
+      <c r="A8" s="276" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="296"/>
-      <c r="C8" s="296"/>
-      <c r="D8" s="296"/>
-      <c r="E8" s="296"/>
-      <c r="F8" s="296"/>
-      <c r="G8" s="296"/>
-      <c r="H8" s="296"/>
-      <c r="I8" s="296"/>
-      <c r="J8" s="296"/>
-      <c r="K8" s="297"/>
+      <c r="B8" s="277"/>
+      <c r="C8" s="277"/>
+      <c r="D8" s="277"/>
+      <c r="E8" s="277"/>
+      <c r="F8" s="277"/>
+      <c r="G8" s="277"/>
+      <c r="H8" s="277"/>
+      <c r="I8" s="277"/>
+      <c r="J8" s="277"/>
+      <c r="K8" s="278"/>
     </row>
     <row r="9" spans="1:16" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="322" t="s">
+      <c r="A9" s="245" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="298" t="s">
+      <c r="B9" s="253" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="299"/>
-      <c r="D9" s="300" t="s">
+      <c r="C9" s="254"/>
+      <c r="D9" s="194" t="s">
         <v>202</v>
       </c>
-      <c r="E9" s="300" t="s">
+      <c r="E9" s="194" t="s">
         <v>198</v>
       </c>
-      <c r="F9" s="300" t="s">
+      <c r="F9" s="194" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="300" t="s">
+      <c r="G9" s="194" t="s">
         <v>207</v>
       </c>
-      <c r="H9" s="300" t="s">
+      <c r="H9" s="194" t="s">
         <v>199</v>
       </c>
-      <c r="I9" s="301">
+      <c r="I9" s="195">
         <v>100000</v>
       </c>
-      <c r="J9" s="301"/>
-      <c r="K9" s="301">
+      <c r="J9" s="195"/>
+      <c r="K9" s="195">
         <f>SUM(I9:J9)</f>
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="266" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="323"/>
-      <c r="B10" s="298" t="s">
+    <row r="10" spans="1:16" s="184" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="246"/>
+      <c r="B10" s="253" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="299"/>
-      <c r="D10" s="300" t="s">
+      <c r="C10" s="254"/>
+      <c r="D10" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="300" t="s">
+      <c r="E10" s="194" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="300" t="s">
+      <c r="F10" s="194" t="s">
         <v>197</v>
       </c>
-      <c r="G10" s="300" t="s">
+      <c r="G10" s="194" t="s">
         <v>206</v>
       </c>
-      <c r="H10" s="300" t="s">
+      <c r="H10" s="194" t="s">
         <v>199</v>
       </c>
-      <c r="I10" s="301">
+      <c r="I10" s="195">
         <v>30000</v>
       </c>
-      <c r="J10" s="301"/>
-      <c r="K10" s="301">
+      <c r="J10" s="195"/>
+      <c r="K10" s="195">
         <f>SUM(I10:J10)</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="266" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="323"/>
-      <c r="B11" s="298" t="s">
+    <row r="11" spans="1:16" s="184" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="246"/>
+      <c r="B11" s="253" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="299"/>
-      <c r="D11" s="300" t="s">
+      <c r="C11" s="254"/>
+      <c r="D11" s="194" t="s">
         <v>218</v>
       </c>
-      <c r="E11" s="300" t="s">
+      <c r="E11" s="194" t="s">
         <v>198</v>
       </c>
-      <c r="F11" s="300" t="s">
+      <c r="F11" s="194" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="300" t="s">
+      <c r="G11" s="194" t="s">
         <v>217</v>
       </c>
-      <c r="H11" s="300" t="s">
+      <c r="H11" s="194" t="s">
         <v>199</v>
       </c>
-      <c r="I11" s="301"/>
-      <c r="J11" s="301">
+      <c r="I11" s="195"/>
+      <c r="J11" s="195">
         <v>2500000</v>
       </c>
-      <c r="K11" s="301">
+      <c r="K11" s="195">
         <f>SUM(I11:J11)</f>
         <v>2500000</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="266" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="323"/>
-      <c r="B12" s="298" t="s">
+    <row r="12" spans="1:16" s="184" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="246"/>
+      <c r="B12" s="253" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="299"/>
-      <c r="D12" s="300" t="s">
+      <c r="C12" s="254"/>
+      <c r="D12" s="194" t="s">
         <v>219</v>
       </c>
-      <c r="E12" s="300" t="s">
+      <c r="E12" s="194" t="s">
         <v>198</v>
       </c>
-      <c r="F12" s="300" t="s">
+      <c r="F12" s="194" t="s">
         <v>197</v>
       </c>
-      <c r="G12" s="300" t="s">
+      <c r="G12" s="194" t="s">
         <v>220</v>
       </c>
-      <c r="H12" s="300" t="s">
+      <c r="H12" s="194" t="s">
         <v>199</v>
       </c>
-      <c r="I12" s="301"/>
-      <c r="J12" s="301">
+      <c r="I12" s="195"/>
+      <c r="J12" s="195">
         <v>300000</v>
       </c>
-      <c r="K12" s="301">
+      <c r="K12" s="195">
         <f>SUM(I12:J12)</f>
         <v>300000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="266" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="323"/>
-      <c r="B13" s="298" t="s">
+    <row r="13" spans="1:16" s="184" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="246"/>
+      <c r="B13" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="299"/>
-      <c r="D13" s="300" t="s">
+      <c r="C13" s="254"/>
+      <c r="D13" s="194" t="s">
         <v>205</v>
       </c>
-      <c r="E13" s="300" t="s">
+      <c r="E13" s="194" t="s">
         <v>198</v>
       </c>
-      <c r="F13" s="300" t="s">
+      <c r="F13" s="194" t="s">
         <v>197</v>
       </c>
-      <c r="G13" s="300" t="s">
+      <c r="G13" s="194" t="s">
         <v>208</v>
       </c>
-      <c r="H13" s="300" t="s">
+      <c r="H13" s="194" t="s">
         <v>199</v>
       </c>
-      <c r="I13" s="301">
+      <c r="I13" s="195">
         <v>70000</v>
       </c>
-      <c r="J13" s="301"/>
-      <c r="K13" s="301">
+      <c r="J13" s="195"/>
+      <c r="K13" s="195">
         <f>SUM(I13:J13)</f>
         <v>70000</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="324"/>
-      <c r="B14" s="302"/>
-      <c r="C14" s="303"/>
-      <c r="D14" s="303"/>
-      <c r="E14" s="303"/>
-      <c r="F14" s="303"/>
-      <c r="G14" s="310" t="s">
+      <c r="A14" s="247"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="197"/>
+      <c r="D14" s="197"/>
+      <c r="E14" s="197"/>
+      <c r="F14" s="197"/>
+      <c r="G14" s="201" t="s">
         <v>181</v>
       </c>
-      <c r="H14" s="311"/>
-      <c r="I14" s="304">
+      <c r="H14" s="202"/>
+      <c r="I14" s="198">
         <f>SUM(I9:I13)</f>
         <v>200000</v>
       </c>
-      <c r="J14" s="304">
+      <c r="J14" s="198">
         <f>SUM(J9:J13)</f>
         <v>2800000</v>
       </c>
-      <c r="K14" s="304">
+      <c r="K14" s="198">
         <f>SUM(K9:K13)</f>
         <v>3000000</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="305" t="s">
+      <c r="A15" s="264" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="306"/>
-      <c r="C15" s="306"/>
-      <c r="D15" s="306"/>
-      <c r="E15" s="306"/>
-      <c r="F15" s="306"/>
-      <c r="G15" s="306"/>
-      <c r="H15" s="306"/>
-      <c r="I15" s="306"/>
-      <c r="J15" s="306"/>
-      <c r="K15" s="307"/>
+      <c r="B15" s="265"/>
+      <c r="C15" s="265"/>
+      <c r="D15" s="265"/>
+      <c r="E15" s="265"/>
+      <c r="F15" s="265"/>
+      <c r="G15" s="265"/>
+      <c r="H15" s="265"/>
+      <c r="I15" s="265"/>
+      <c r="J15" s="265"/>
+      <c r="K15" s="266"/>
     </row>
     <row r="16" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="322" t="s">
+      <c r="A16" s="245" t="s">
         <v>200</v>
       </c>
-      <c r="B16" s="318" t="s">
+      <c r="B16" s="240" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="319"/>
-      <c r="D16" s="308" t="s">
+      <c r="C16" s="241"/>
+      <c r="D16" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="308" t="s">
+      <c r="E16" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F16" s="308" t="s">
+      <c r="F16" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G16" s="308" t="s">
+      <c r="G16" s="199" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="308" t="s">
+      <c r="H16" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I16" s="301"/>
-      <c r="J16" s="301">
+      <c r="I16" s="195"/>
+      <c r="J16" s="195">
         <v>1500000</v>
       </c>
-      <c r="K16" s="301">
+      <c r="K16" s="195">
         <f>SUM(I16:J16)</f>
         <v>1500000</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="324"/>
-      <c r="B17" s="320" t="s">
+      <c r="A17" s="247"/>
+      <c r="B17" s="280" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="321"/>
-      <c r="D17" s="309" t="s">
+      <c r="C17" s="281"/>
+      <c r="D17" s="200" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="308" t="s">
+      <c r="E17" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F17" s="308" t="s">
+      <c r="F17" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G17" s="308" t="s">
+      <c r="G17" s="199" t="s">
         <v>209</v>
       </c>
-      <c r="H17" s="308" t="s">
+      <c r="H17" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I17" s="301"/>
-      <c r="J17" s="301">
+      <c r="I17" s="195"/>
+      <c r="J17" s="195">
         <v>417302.79</v>
       </c>
-      <c r="K17" s="301">
+      <c r="K17" s="195">
         <f>SUM(I17:J17)</f>
         <v>417302.79</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="322" t="s">
+      <c r="A18" s="245" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="318" t="s">
+      <c r="B18" s="240" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="319"/>
-      <c r="D18" s="309" t="s">
+      <c r="C18" s="241"/>
+      <c r="D18" s="200" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="308" t="s">
+      <c r="E18" s="199" t="s">
         <v>212</v>
       </c>
-      <c r="F18" s="308" t="s">
+      <c r="F18" s="199" t="s">
         <v>212</v>
       </c>
-      <c r="G18" s="308" t="s">
+      <c r="G18" s="199" t="s">
         <v>213</v>
       </c>
-      <c r="H18" s="308" t="s">
+      <c r="H18" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I18" s="301">
+      <c r="I18" s="195">
         <v>200000</v>
       </c>
-      <c r="J18" s="301"/>
-      <c r="K18" s="301">
+      <c r="J18" s="195"/>
+      <c r="K18" s="195">
         <f>SUM(I18:J18)</f>
         <v>200000</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="323"/>
-      <c r="B19" s="318" t="s">
+      <c r="A19" s="246"/>
+      <c r="B19" s="240" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="319"/>
-      <c r="D19" s="309" t="s">
+      <c r="C19" s="241"/>
+      <c r="D19" s="200" t="s">
         <v>214</v>
       </c>
-      <c r="E19" s="308" t="s">
+      <c r="E19" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F19" s="308" t="s">
+      <c r="F19" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G19" s="308" t="s">
+      <c r="G19" s="199" t="s">
         <v>215</v>
       </c>
-      <c r="H19" s="308" t="s">
+      <c r="H19" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I19" s="301"/>
-      <c r="J19" s="301">
+      <c r="I19" s="195"/>
+      <c r="J19" s="195">
         <v>2000000</v>
       </c>
-      <c r="K19" s="301">
+      <c r="K19" s="195">
         <f>SUM(I19:J19)</f>
         <v>2000000</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="323"/>
-      <c r="B20" s="318" t="s">
+      <c r="A20" s="246"/>
+      <c r="B20" s="240" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="319"/>
-      <c r="D20" s="308" t="s">
+      <c r="C20" s="241"/>
+      <c r="D20" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="308" t="s">
+      <c r="E20" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F20" s="308" t="s">
+      <c r="F20" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="308" t="s">
+      <c r="G20" s="199" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="308" t="s">
+      <c r="H20" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I20" s="301">
+      <c r="I20" s="195">
         <v>40000</v>
       </c>
-      <c r="J20" s="301"/>
-      <c r="K20" s="301">
+      <c r="J20" s="195"/>
+      <c r="K20" s="195">
         <f t="shared" ref="K20:K27" si="0">SUM(I20:J20)</f>
         <v>40000</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="323"/>
-      <c r="B21" s="318" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="319"/>
-      <c r="D21" s="308"/>
-      <c r="E21" s="308"/>
-      <c r="F21" s="308"/>
-      <c r="G21" s="308"/>
-      <c r="H21" s="308"/>
-      <c r="I21" s="301"/>
-      <c r="J21" s="301"/>
-      <c r="K21" s="301"/>
+      <c r="A21" s="246"/>
+      <c r="B21" s="376" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="377"/>
+      <c r="D21" s="199"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="199"/>
+      <c r="G21" s="199"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="195"/>
+      <c r="K21" s="195"/>
     </row>
     <row r="22" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="323"/>
-      <c r="B22" s="318" t="s">
+      <c r="A22" s="246"/>
+      <c r="B22" s="240" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="319" t="s">
+      <c r="C22" s="241" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="308" t="s">
+      <c r="D22" s="199" t="s">
         <v>219</v>
       </c>
-      <c r="E22" s="308" t="s">
+      <c r="E22" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F22" s="308" t="s">
+      <c r="F22" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G22" s="308" t="s">
+      <c r="G22" s="199" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="308" t="s">
+      <c r="H22" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I22" s="301">
+      <c r="I22" s="195">
         <v>91845</v>
       </c>
-      <c r="J22" s="301"/>
-      <c r="K22" s="301">
+      <c r="J22" s="195"/>
+      <c r="K22" s="195">
         <f t="shared" si="0"/>
         <v>91845</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="323"/>
-      <c r="B23" s="318" t="s">
+      <c r="A23" s="246"/>
+      <c r="B23" s="240" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="319" t="s">
+      <c r="C23" s="241" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="308" t="s">
+      <c r="D23" s="199" t="s">
         <v>219</v>
       </c>
-      <c r="E23" s="308" t="s">
+      <c r="E23" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="308" t="s">
+      <c r="F23" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G23" s="308" t="s">
+      <c r="G23" s="199" t="s">
         <v>224</v>
       </c>
-      <c r="H23" s="308" t="s">
+      <c r="H23" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I23" s="301"/>
-      <c r="J23" s="301">
+      <c r="I23" s="195"/>
+      <c r="J23" s="195">
         <v>58981</v>
       </c>
-      <c r="K23" s="301">
+      <c r="K23" s="195">
         <f t="shared" si="0"/>
         <v>58981</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="323"/>
-      <c r="B24" s="318" t="s">
+      <c r="A24" s="246"/>
+      <c r="B24" s="240" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="319" t="s">
+      <c r="C24" s="241" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="308" t="s">
+      <c r="D24" s="199" t="s">
         <v>219</v>
       </c>
-      <c r="E24" s="308" t="s">
+      <c r="E24" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F24" s="308" t="s">
+      <c r="F24" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G24" s="308" t="s">
+      <c r="G24" s="199" t="s">
         <v>224</v>
       </c>
-      <c r="H24" s="308" t="s">
+      <c r="H24" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I24" s="301">
+      <c r="I24" s="195">
         <v>23750</v>
       </c>
-      <c r="J24" s="301"/>
-      <c r="K24" s="301">
+      <c r="J24" s="195"/>
+      <c r="K24" s="195">
         <f t="shared" si="0"/>
         <v>23750</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="323"/>
-      <c r="B25" s="318" t="s">
+      <c r="A25" s="246"/>
+      <c r="B25" s="240" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="319" t="s">
+      <c r="C25" s="241" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="308" t="s">
+      <c r="D25" s="199" t="s">
         <v>219</v>
       </c>
-      <c r="E25" s="308" t="s">
+      <c r="E25" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F25" s="308" t="s">
+      <c r="F25" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G25" s="308" t="s">
+      <c r="G25" s="199" t="s">
         <v>224</v>
       </c>
-      <c r="H25" s="308" t="s">
+      <c r="H25" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I25" s="301">
+      <c r="I25" s="195">
         <v>189150</v>
       </c>
-      <c r="J25" s="301"/>
-      <c r="K25" s="301">
+      <c r="J25" s="195"/>
+      <c r="K25" s="195">
         <f t="shared" si="0"/>
         <v>189150</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="323"/>
-      <c r="B26" s="318" t="s">
+      <c r="A26" s="246"/>
+      <c r="B26" s="240" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="319" t="s">
+      <c r="C26" s="241" t="s">
         <v>162</v>
       </c>
-      <c r="D26" s="308" t="s">
+      <c r="D26" s="199" t="s">
         <v>219</v>
       </c>
-      <c r="E26" s="308" t="s">
+      <c r="E26" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F26" s="308" t="s">
+      <c r="F26" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G26" s="308" t="s">
+      <c r="G26" s="199" t="s">
         <v>224</v>
       </c>
-      <c r="H26" s="308" t="s">
+      <c r="H26" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I26" s="301">
+      <c r="I26" s="195">
         <v>67000</v>
       </c>
-      <c r="J26" s="301"/>
-      <c r="K26" s="301">
+      <c r="J26" s="195"/>
+      <c r="K26" s="195">
         <f t="shared" si="0"/>
         <v>67000</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="324"/>
-      <c r="B27" s="318" t="s">
+      <c r="A27" s="247"/>
+      <c r="B27" s="240" t="s">
         <v>163</v>
       </c>
-      <c r="C27" s="319" t="s">
+      <c r="C27" s="241" t="s">
         <v>163</v>
       </c>
-      <c r="D27" s="308" t="s">
+      <c r="D27" s="199" t="s">
         <v>219</v>
       </c>
-      <c r="E27" s="308" t="s">
+      <c r="E27" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F27" s="308" t="s">
+      <c r="F27" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G27" s="308" t="s">
+      <c r="G27" s="199" t="s">
         <v>224</v>
       </c>
-      <c r="H27" s="308" t="s">
+      <c r="H27" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I27" s="301">
+      <c r="I27" s="195">
         <v>23400</v>
       </c>
-      <c r="J27" s="301"/>
-      <c r="K27" s="301">
+      <c r="J27" s="195"/>
+      <c r="K27" s="195">
         <f t="shared" si="0"/>
         <v>23400</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="322" t="s">
+      <c r="A28" s="245" t="s">
         <v>221</v>
       </c>
-      <c r="B28" s="318" t="s">
+      <c r="B28" s="376" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="319"/>
-      <c r="D28" s="308"/>
-      <c r="E28" s="308"/>
-      <c r="F28" s="308"/>
-      <c r="G28" s="308"/>
-      <c r="H28" s="308"/>
-      <c r="I28" s="301"/>
-      <c r="J28" s="301"/>
-      <c r="K28" s="301"/>
+      <c r="C28" s="377"/>
+      <c r="D28" s="199"/>
+      <c r="E28" s="199"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="195"/>
+      <c r="K28" s="195"/>
     </row>
     <row r="29" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="323"/>
-      <c r="B29" s="360" t="s">
+      <c r="A29" s="246"/>
+      <c r="B29" s="248" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="361"/>
-      <c r="D29" s="308" t="s">
+      <c r="C29" s="249"/>
+      <c r="D29" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="E29" s="308" t="s">
+      <c r="E29" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F29" s="308" t="s">
+      <c r="F29" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G29" s="308" t="s">
+      <c r="G29" s="199" t="s">
         <v>222</v>
       </c>
-      <c r="H29" s="308" t="s">
+      <c r="H29" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I29" s="301">
+      <c r="I29" s="195">
         <v>9300</v>
       </c>
-      <c r="J29" s="301"/>
-      <c r="K29" s="301">
+      <c r="J29" s="195"/>
+      <c r="K29" s="195">
         <f>SUM(I29:J29)</f>
         <v>9300</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="323"/>
-      <c r="B30" s="362" t="s">
+      <c r="A30" s="246"/>
+      <c r="B30" s="243" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="363"/>
-      <c r="D30" s="308" t="s">
+      <c r="C30" s="244"/>
+      <c r="D30" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="E30" s="308" t="s">
+      <c r="E30" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F30" s="308" t="s">
+      <c r="F30" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G30" s="308" t="s">
+      <c r="G30" s="199" t="s">
         <v>222</v>
       </c>
-      <c r="H30" s="308" t="s">
+      <c r="H30" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I30" s="301">
+      <c r="I30" s="195">
         <v>1800</v>
       </c>
-      <c r="J30" s="301"/>
-      <c r="K30" s="301">
-        <f t="shared" ref="K30:K48" si="1">SUM(I30:J30)</f>
+      <c r="J30" s="195"/>
+      <c r="K30" s="195">
+        <f t="shared" ref="K30:K88" si="1">SUM(I30:J30)</f>
         <v>1800</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="323"/>
-      <c r="B31" s="362" t="s">
+      <c r="A31" s="246"/>
+      <c r="B31" s="243" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="363" t="s">
+      <c r="C31" s="244" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="308" t="s">
+      <c r="D31" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="E31" s="308" t="s">
+      <c r="E31" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F31" s="308" t="s">
+      <c r="F31" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G31" s="308" t="s">
+      <c r="G31" s="199" t="s">
         <v>222</v>
       </c>
-      <c r="H31" s="308" t="s">
+      <c r="H31" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I31" s="301">
+      <c r="I31" s="195">
         <v>1100</v>
       </c>
-      <c r="J31" s="301"/>
-      <c r="K31" s="301">
+      <c r="J31" s="195"/>
+      <c r="K31" s="195">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="323"/>
-      <c r="B32" s="362" t="s">
+      <c r="A32" s="246"/>
+      <c r="B32" s="243" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="363" t="s">
+      <c r="C32" s="244" t="s">
         <v>140</v>
       </c>
-      <c r="D32" s="308" t="s">
+      <c r="D32" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="E32" s="308" t="s">
+      <c r="E32" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F32" s="308" t="s">
+      <c r="F32" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G32" s="308" t="s">
+      <c r="G32" s="199" t="s">
         <v>222</v>
       </c>
-      <c r="H32" s="308" t="s">
+      <c r="H32" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I32" s="301">
+      <c r="I32" s="195">
         <v>1050</v>
       </c>
-      <c r="J32" s="301"/>
-      <c r="K32" s="301">
+      <c r="J32" s="195"/>
+      <c r="K32" s="195">
         <f t="shared" si="1"/>
         <v>1050</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="323"/>
-      <c r="B33" s="362" t="s">
+      <c r="A33" s="246"/>
+      <c r="B33" s="243" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="363" t="s">
+      <c r="C33" s="244" t="s">
         <v>141</v>
       </c>
-      <c r="D33" s="308" t="s">
+      <c r="D33" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="E33" s="308" t="s">
+      <c r="E33" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F33" s="308" t="s">
+      <c r="F33" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G33" s="308" t="s">
+      <c r="G33" s="199" t="s">
         <v>222</v>
       </c>
-      <c r="H33" s="308" t="s">
+      <c r="H33" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I33" s="301">
+      <c r="I33" s="195">
         <v>600</v>
       </c>
-      <c r="J33" s="301"/>
-      <c r="K33" s="301">
+      <c r="J33" s="195"/>
+      <c r="K33" s="195">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="323"/>
-      <c r="B34" s="362" t="s">
+      <c r="A34" s="246"/>
+      <c r="B34" s="243" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="363" t="s">
+      <c r="C34" s="244" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="308" t="s">
+      <c r="D34" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="E34" s="308" t="s">
+      <c r="E34" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F34" s="308" t="s">
+      <c r="F34" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G34" s="308" t="s">
+      <c r="G34" s="199" t="s">
         <v>222</v>
       </c>
-      <c r="H34" s="308" t="s">
+      <c r="H34" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I34" s="301">
+      <c r="I34" s="195">
         <v>2100</v>
       </c>
-      <c r="J34" s="301"/>
-      <c r="K34" s="301">
+      <c r="J34" s="195"/>
+      <c r="K34" s="195">
         <f t="shared" si="1"/>
         <v>2100</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="323"/>
-      <c r="B35" s="362" t="s">
+      <c r="A35" s="246"/>
+      <c r="B35" s="243" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="363" t="s">
+      <c r="C35" s="244" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="308" t="s">
+      <c r="D35" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="E35" s="308" t="s">
+      <c r="E35" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F35" s="308" t="s">
+      <c r="F35" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G35" s="308" t="s">
+      <c r="G35" s="199" t="s">
         <v>222</v>
       </c>
-      <c r="H35" s="308" t="s">
+      <c r="H35" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I35" s="301">
+      <c r="I35" s="195">
         <v>2275</v>
       </c>
-      <c r="J35" s="301"/>
-      <c r="K35" s="301">
+      <c r="J35" s="195"/>
+      <c r="K35" s="195">
         <f t="shared" si="1"/>
         <v>2275</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="323"/>
-      <c r="B36" s="362" t="s">
+      <c r="A36" s="246"/>
+      <c r="B36" s="243" t="s">
         <v>144</v>
       </c>
-      <c r="C36" s="363" t="s">
+      <c r="C36" s="244" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="308" t="s">
+      <c r="D36" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="E36" s="308" t="s">
+      <c r="E36" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F36" s="308" t="s">
+      <c r="F36" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="308" t="s">
+      <c r="G36" s="199" t="s">
         <v>222</v>
       </c>
-      <c r="H36" s="308" t="s">
+      <c r="H36" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I36" s="301">
+      <c r="I36" s="195">
         <v>13500</v>
       </c>
-      <c r="J36" s="301"/>
-      <c r="K36" s="301">
+      <c r="J36" s="195"/>
+      <c r="K36" s="195">
         <f t="shared" si="1"/>
         <v>13500</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="323"/>
-      <c r="B37" s="362" t="s">
+      <c r="A37" s="246"/>
+      <c r="B37" s="243" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="363" t="s">
+      <c r="C37" s="244" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="308" t="s">
+      <c r="D37" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="E37" s="308" t="s">
+      <c r="E37" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F37" s="308" t="s">
+      <c r="F37" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G37" s="308" t="s">
+      <c r="G37" s="199" t="s">
         <v>222</v>
       </c>
-      <c r="H37" s="308" t="s">
+      <c r="H37" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I37" s="301">
+      <c r="I37" s="195">
         <v>15000</v>
       </c>
-      <c r="J37" s="301"/>
-      <c r="K37" s="301">
+      <c r="J37" s="195"/>
+      <c r="K37" s="195">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="323"/>
-      <c r="B38" s="362" t="s">
+      <c r="A38" s="246"/>
+      <c r="B38" s="243" t="s">
         <v>146</v>
       </c>
-      <c r="C38" s="363" t="s">
+      <c r="C38" s="244" t="s">
         <v>146</v>
       </c>
-      <c r="D38" s="308" t="s">
+      <c r="D38" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="E38" s="308" t="s">
+      <c r="E38" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F38" s="308" t="s">
+      <c r="F38" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G38" s="308" t="s">
+      <c r="G38" s="199" t="s">
         <v>222</v>
       </c>
-      <c r="H38" s="308" t="s">
+      <c r="H38" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I38" s="301">
+      <c r="I38" s="195">
         <v>8000</v>
       </c>
-      <c r="J38" s="301"/>
-      <c r="K38" s="301">
+      <c r="J38" s="195"/>
+      <c r="K38" s="195">
         <f t="shared" si="1"/>
         <v>8000</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="323"/>
-      <c r="B39" s="362" t="s">
+      <c r="A39" s="246"/>
+      <c r="B39" s="243" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="363" t="s">
+      <c r="C39" s="244" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="308" t="s">
+      <c r="D39" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="E39" s="308" t="s">
+      <c r="E39" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F39" s="308" t="s">
+      <c r="F39" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G39" s="308" t="s">
+      <c r="G39" s="199" t="s">
         <v>222</v>
       </c>
-      <c r="H39" s="308" t="s">
+      <c r="H39" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I39" s="301">
+      <c r="I39" s="195">
         <v>24650</v>
       </c>
-      <c r="J39" s="301"/>
-      <c r="K39" s="301">
+      <c r="J39" s="195"/>
+      <c r="K39" s="195">
         <f t="shared" si="1"/>
         <v>24650</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="323"/>
-      <c r="B40" s="362" t="s">
+      <c r="A40" s="246"/>
+      <c r="B40" s="243" t="s">
         <v>223</v>
       </c>
-      <c r="C40" s="363"/>
-      <c r="D40" s="308" t="s">
+      <c r="C40" s="244"/>
+      <c r="D40" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="E40" s="308" t="s">
+      <c r="E40" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F40" s="308" t="s">
+      <c r="F40" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G40" s="308" t="s">
+      <c r="G40" s="199" t="s">
         <v>222</v>
       </c>
-      <c r="H40" s="308" t="s">
+      <c r="H40" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I40" s="301">
+      <c r="I40" s="195">
         <v>22050</v>
       </c>
-      <c r="J40" s="301"/>
-      <c r="K40" s="301">
+      <c r="J40" s="195"/>
+      <c r="K40" s="195">
         <f t="shared" si="1"/>
         <v>22050</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="323"/>
-      <c r="B41" s="362" t="s">
+      <c r="A41" s="246"/>
+      <c r="B41" s="243" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="363" t="s">
+      <c r="C41" s="244" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="308" t="s">
+      <c r="D41" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="E41" s="308" t="s">
+      <c r="E41" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F41" s="308" t="s">
+      <c r="F41" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G41" s="308" t="s">
+      <c r="G41" s="199" t="s">
         <v>222</v>
       </c>
-      <c r="H41" s="308" t="s">
+      <c r="H41" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I41" s="301">
+      <c r="I41" s="195">
         <v>4634</v>
       </c>
-      <c r="J41" s="301"/>
-      <c r="K41" s="301">
+      <c r="J41" s="195"/>
+      <c r="K41" s="195">
         <f t="shared" si="1"/>
         <v>4634</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="323"/>
-      <c r="B42" s="362" t="s">
+      <c r="A42" s="246"/>
+      <c r="B42" s="243" t="s">
         <v>149</v>
       </c>
-      <c r="C42" s="363" t="s">
+      <c r="C42" s="244" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="308" t="s">
+      <c r="D42" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="E42" s="308" t="s">
+      <c r="E42" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F42" s="308" t="s">
+      <c r="F42" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G42" s="308" t="s">
+      <c r="G42" s="199" t="s">
         <v>222</v>
       </c>
-      <c r="H42" s="308" t="s">
+      <c r="H42" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I42" s="301">
+      <c r="I42" s="195">
         <v>10920</v>
       </c>
-      <c r="J42" s="301"/>
-      <c r="K42" s="301">
+      <c r="J42" s="195"/>
+      <c r="K42" s="195">
         <f t="shared" si="1"/>
         <v>10920</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="323"/>
-      <c r="B43" s="362" t="s">
+      <c r="A43" s="246"/>
+      <c r="B43" s="243" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="363" t="s">
+      <c r="C43" s="244" t="s">
         <v>150</v>
       </c>
-      <c r="D43" s="308" t="s">
+      <c r="D43" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="E43" s="308" t="s">
+      <c r="E43" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F43" s="308" t="s">
+      <c r="F43" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G43" s="308" t="s">
+      <c r="G43" s="199" t="s">
         <v>222</v>
       </c>
-      <c r="H43" s="308" t="s">
+      <c r="H43" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I43" s="301">
+      <c r="I43" s="195">
         <v>2070</v>
       </c>
-      <c r="J43" s="301"/>
-      <c r="K43" s="301">
+      <c r="J43" s="195"/>
+      <c r="K43" s="195">
         <f t="shared" si="1"/>
         <v>2070</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="323"/>
-      <c r="B44" s="362" t="s">
+      <c r="A44" s="246"/>
+      <c r="B44" s="243" t="s">
         <v>151</v>
       </c>
-      <c r="C44" s="363" t="s">
+      <c r="C44" s="244" t="s">
         <v>151</v>
       </c>
-      <c r="D44" s="308" t="s">
+      <c r="D44" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="E44" s="308" t="s">
+      <c r="E44" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F44" s="308" t="s">
+      <c r="F44" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G44" s="308" t="s">
+      <c r="G44" s="199" t="s">
         <v>222</v>
       </c>
-      <c r="H44" s="308" t="s">
+      <c r="H44" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I44" s="301">
+      <c r="I44" s="195">
         <v>1479</v>
       </c>
-      <c r="J44" s="301"/>
-      <c r="K44" s="301">
+      <c r="J44" s="195"/>
+      <c r="K44" s="195">
         <f t="shared" si="1"/>
         <v>1479</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="323"/>
-      <c r="B45" s="362" t="s">
+      <c r="A45" s="246"/>
+      <c r="B45" s="243" t="s">
         <v>152</v>
       </c>
-      <c r="C45" s="363" t="s">
+      <c r="C45" s="244" t="s">
         <v>152</v>
       </c>
-      <c r="D45" s="308" t="s">
+      <c r="D45" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="E45" s="308" t="s">
+      <c r="E45" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F45" s="308" t="s">
+      <c r="F45" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G45" s="308" t="s">
+      <c r="G45" s="199" t="s">
         <v>222</v>
       </c>
-      <c r="H45" s="308" t="s">
+      <c r="H45" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I45" s="301">
+      <c r="I45" s="195">
         <v>10600</v>
       </c>
-      <c r="J45" s="301"/>
-      <c r="K45" s="301">
+      <c r="J45" s="195"/>
+      <c r="K45" s="195">
         <f t="shared" si="1"/>
         <v>10600</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="323"/>
-      <c r="B46" s="362" t="s">
+      <c r="A46" s="246"/>
+      <c r="B46" s="243" t="s">
         <v>153</v>
       </c>
-      <c r="C46" s="363" t="s">
+      <c r="C46" s="244" t="s">
         <v>153</v>
       </c>
-      <c r="D46" s="308" t="s">
+      <c r="D46" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="E46" s="308" t="s">
+      <c r="E46" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F46" s="308" t="s">
+      <c r="F46" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G46" s="308" t="s">
+      <c r="G46" s="199" t="s">
         <v>222</v>
       </c>
-      <c r="H46" s="308" t="s">
+      <c r="H46" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I46" s="301">
+      <c r="I46" s="195">
         <v>2650</v>
       </c>
-      <c r="J46" s="301"/>
-      <c r="K46" s="301">
+      <c r="J46" s="195"/>
+      <c r="K46" s="195">
         <f t="shared" si="1"/>
         <v>2650</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="323"/>
-      <c r="B47" s="362" t="s">
+      <c r="A47" s="246"/>
+      <c r="B47" s="243" t="s">
         <v>154</v>
       </c>
-      <c r="C47" s="363" t="s">
+      <c r="C47" s="244" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="308" t="s">
+      <c r="D47" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="E47" s="308" t="s">
+      <c r="E47" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F47" s="308" t="s">
+      <c r="F47" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G47" s="308" t="s">
+      <c r="G47" s="199" t="s">
         <v>222</v>
       </c>
-      <c r="H47" s="308" t="s">
+      <c r="H47" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I47" s="301">
+      <c r="I47" s="195">
         <v>13828</v>
       </c>
-      <c r="J47" s="301"/>
-      <c r="K47" s="301">
+      <c r="J47" s="195"/>
+      <c r="K47" s="195">
         <f t="shared" si="1"/>
         <v>13828</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="323"/>
-      <c r="B48" s="362" t="s">
+      <c r="A48" s="247"/>
+      <c r="B48" s="243" t="s">
         <v>155</v>
       </c>
-      <c r="C48" s="363" t="s">
+      <c r="C48" s="244" t="s">
         <v>155</v>
       </c>
-      <c r="D48" s="308" t="s">
+      <c r="D48" s="199" t="s">
         <v>225</v>
       </c>
-      <c r="E48" s="308" t="s">
+      <c r="E48" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F48" s="308" t="s">
+      <c r="F48" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G48" s="308" t="s">
+      <c r="G48" s="199" t="s">
         <v>222</v>
       </c>
-      <c r="H48" s="308" t="s">
+      <c r="H48" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I48" s="301">
+      <c r="I48" s="195">
         <v>6780</v>
       </c>
-      <c r="J48" s="301"/>
-      <c r="K48" s="301">
+      <c r="J48" s="195"/>
+      <c r="K48" s="195">
         <f t="shared" si="1"/>
         <v>6780</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="324"/>
-      <c r="B49" s="302"/>
-      <c r="C49" s="303"/>
-      <c r="D49" s="303"/>
-      <c r="E49" s="303"/>
-      <c r="F49" s="303"/>
-      <c r="G49" s="312" t="s">
+    <row r="49" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="245" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49" s="376" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" s="377"/>
+      <c r="D49" s="199"/>
+      <c r="E49" s="199"/>
+      <c r="F49" s="199"/>
+      <c r="G49" s="199"/>
+      <c r="H49" s="199"/>
+      <c r="I49" s="195"/>
+      <c r="J49" s="195"/>
+      <c r="K49" s="195">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="246"/>
+      <c r="B50" s="243" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50" s="244"/>
+      <c r="D50" s="378" t="s">
+        <v>237</v>
+      </c>
+      <c r="E50" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F50" s="199" t="s">
+        <v>239</v>
+      </c>
+      <c r="G50" s="199" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I50" s="195">
+        <v>500000</v>
+      </c>
+      <c r="J50" s="195"/>
+      <c r="K50" s="195">
+        <f>SUM(I50:J50)</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="247"/>
+      <c r="B51" s="243" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="244"/>
+      <c r="D51" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E51" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F51" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G51" s="199" t="s">
+        <v>100</v>
+      </c>
+      <c r="H51" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I51" s="195">
+        <v>800000</v>
+      </c>
+      <c r="J51" s="195"/>
+      <c r="K51" s="195">
+        <f t="shared" si="1"/>
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="245" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" s="243" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" s="244"/>
+      <c r="D52" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E52" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F52" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G52" s="379" t="s">
+        <v>242</v>
+      </c>
+      <c r="H52" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I52" s="381">
+        <v>140000</v>
+      </c>
+      <c r="J52" s="381"/>
+      <c r="K52" s="381">
+        <f t="shared" si="1"/>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="246"/>
+      <c r="B53" s="243" t="s">
+        <v>244</v>
+      </c>
+      <c r="C53" s="244"/>
+      <c r="D53" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G53" s="384"/>
+      <c r="H53" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I53" s="386"/>
+      <c r="J53" s="386"/>
+      <c r="K53" s="386"/>
+    </row>
+    <row r="54" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="246"/>
+      <c r="B54" s="243" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="244"/>
+      <c r="D54" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E54" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F54" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G54" s="384"/>
+      <c r="H54" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I54" s="386"/>
+      <c r="J54" s="386"/>
+      <c r="K54" s="386"/>
+    </row>
+    <row r="55" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="246"/>
+      <c r="B55" s="243" t="s">
+        <v>245</v>
+      </c>
+      <c r="C55" s="244"/>
+      <c r="D55" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E55" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F55" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G55" s="384"/>
+      <c r="H55" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I55" s="386"/>
+      <c r="J55" s="386"/>
+      <c r="K55" s="386">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="246"/>
+      <c r="B56" s="243" t="s">
+        <v>246</v>
+      </c>
+      <c r="C56" s="244"/>
+      <c r="D56" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E56" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F56" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G56" s="384"/>
+      <c r="H56" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I56" s="386"/>
+      <c r="J56" s="386"/>
+      <c r="K56" s="386">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="246"/>
+      <c r="B57" s="243" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="244"/>
+      <c r="D57" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E57" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F57" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G57" s="384"/>
+      <c r="H57" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I57" s="386"/>
+      <c r="J57" s="386"/>
+      <c r="K57" s="386">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="246"/>
+      <c r="B58" s="243" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" s="244"/>
+      <c r="D58" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E58" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F58" s="199" t="s">
+        <v>239</v>
+      </c>
+      <c r="G58" s="384"/>
+      <c r="H58" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I58" s="386"/>
+      <c r="J58" s="386"/>
+      <c r="K58" s="386">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="246"/>
+      <c r="B59" s="243" t="s">
+        <v>249</v>
+      </c>
+      <c r="C59" s="244"/>
+      <c r="D59" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E59" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F59" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G59" s="384"/>
+      <c r="H59" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I59" s="386"/>
+      <c r="J59" s="386"/>
+      <c r="K59" s="386">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="247"/>
+      <c r="B60" s="243" t="s">
+        <v>250</v>
+      </c>
+      <c r="C60" s="244"/>
+      <c r="D60" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E60" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F60" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G60" s="380"/>
+      <c r="H60" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I60" s="382"/>
+      <c r="J60" s="382"/>
+      <c r="K60" s="382">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="245" t="s">
+        <v>204</v>
+      </c>
+      <c r="B61" s="243" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="244"/>
+      <c r="D61" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E61" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F61" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G61" s="379" t="s">
+        <v>252</v>
+      </c>
+      <c r="H61" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I61" s="381">
+        <v>305000</v>
+      </c>
+      <c r="J61" s="381"/>
+      <c r="K61" s="381">
+        <f t="shared" si="1"/>
+        <v>305000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="246"/>
+      <c r="B62" s="243" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="244"/>
+      <c r="D62" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E62" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F62" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G62" s="384"/>
+      <c r="H62" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I62" s="386"/>
+      <c r="J62" s="386"/>
+      <c r="K62" s="386">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="246"/>
+      <c r="B63" s="243" t="s">
+        <v>253</v>
+      </c>
+      <c r="C63" s="244"/>
+      <c r="D63" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E63" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F63" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G63" s="384"/>
+      <c r="H63" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I63" s="386"/>
+      <c r="J63" s="386"/>
+      <c r="K63" s="386">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="246"/>
+      <c r="B64" s="243" t="s">
+        <v>254</v>
+      </c>
+      <c r="C64" s="244"/>
+      <c r="D64" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E64" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F64" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G64" s="384"/>
+      <c r="H64" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I64" s="386"/>
+      <c r="J64" s="386"/>
+      <c r="K64" s="386">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="246"/>
+      <c r="B65" s="243" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="244"/>
+      <c r="D65" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E65" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F65" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G65" s="384"/>
+      <c r="H65" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I65" s="386"/>
+      <c r="J65" s="386"/>
+      <c r="K65" s="386">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="246"/>
+      <c r="B66" s="243" t="s">
+        <v>255</v>
+      </c>
+      <c r="C66" s="244"/>
+      <c r="D66" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E66" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F66" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G66" s="384"/>
+      <c r="H66" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I66" s="386"/>
+      <c r="J66" s="386"/>
+      <c r="K66" s="386">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="246"/>
+      <c r="B67" s="243" t="s">
+        <v>256</v>
+      </c>
+      <c r="C67" s="244"/>
+      <c r="D67" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E67" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F67" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G67" s="384"/>
+      <c r="H67" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I67" s="386"/>
+      <c r="J67" s="386"/>
+      <c r="K67" s="386">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="246"/>
+      <c r="B68" s="243" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" s="244"/>
+      <c r="D68" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E68" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F68" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G68" s="384"/>
+      <c r="H68" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I68" s="386"/>
+      <c r="J68" s="386"/>
+      <c r="K68" s="386">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="246"/>
+      <c r="B69" s="243" t="s">
+        <v>257</v>
+      </c>
+      <c r="C69" s="244"/>
+      <c r="D69" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E69" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F69" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G69" s="384"/>
+      <c r="H69" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I69" s="386"/>
+      <c r="J69" s="386"/>
+      <c r="K69" s="386">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="246"/>
+      <c r="B70" s="243" t="s">
+        <v>259</v>
+      </c>
+      <c r="C70" s="244"/>
+      <c r="D70" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E70" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F70" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G70" s="384"/>
+      <c r="H70" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I70" s="386"/>
+      <c r="J70" s="386"/>
+      <c r="K70" s="386">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="246"/>
+      <c r="B71" s="243" t="s">
+        <v>260</v>
+      </c>
+      <c r="C71" s="244"/>
+      <c r="D71" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E71" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F71" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G71" s="384"/>
+      <c r="H71" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I71" s="386"/>
+      <c r="J71" s="386"/>
+      <c r="K71" s="386">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="246"/>
+      <c r="B72" s="243" t="s">
+        <v>261</v>
+      </c>
+      <c r="C72" s="244"/>
+      <c r="D72" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E72" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F72" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G72" s="384"/>
+      <c r="H72" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I72" s="386"/>
+      <c r="J72" s="386"/>
+      <c r="K72" s="386">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="246"/>
+      <c r="B73" s="243" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="244"/>
+      <c r="D73" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E73" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F73" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G73" s="384"/>
+      <c r="H73" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I73" s="386"/>
+      <c r="J73" s="386"/>
+      <c r="K73" s="386">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="246"/>
+      <c r="B74" s="243" t="s">
+        <v>262</v>
+      </c>
+      <c r="C74" s="244"/>
+      <c r="D74" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E74" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F74" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G74" s="384"/>
+      <c r="H74" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I74" s="386"/>
+      <c r="J74" s="386"/>
+      <c r="K74" s="386">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="246"/>
+      <c r="B75" s="243" t="s">
+        <v>263</v>
+      </c>
+      <c r="C75" s="244"/>
+      <c r="D75" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E75" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F75" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G75" s="384"/>
+      <c r="H75" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I75" s="386"/>
+      <c r="J75" s="386"/>
+      <c r="K75" s="386">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="246"/>
+      <c r="B76" s="243" t="s">
+        <v>264</v>
+      </c>
+      <c r="C76" s="244"/>
+      <c r="D76" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E76" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F76" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G76" s="384"/>
+      <c r="H76" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I76" s="386"/>
+      <c r="J76" s="386"/>
+      <c r="K76" s="386">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="246"/>
+      <c r="B77" s="243" t="s">
+        <v>265</v>
+      </c>
+      <c r="C77" s="244"/>
+      <c r="D77" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F77" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G77" s="384"/>
+      <c r="H77" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I77" s="386"/>
+      <c r="J77" s="386"/>
+      <c r="K77" s="386">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="246"/>
+      <c r="B78" s="243" t="s">
+        <v>266</v>
+      </c>
+      <c r="C78" s="244"/>
+      <c r="D78" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F78" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G78" s="380"/>
+      <c r="H78" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I78" s="382"/>
+      <c r="J78" s="382"/>
+      <c r="K78" s="382">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="246"/>
+      <c r="B79" s="243" t="s">
+        <v>272</v>
+      </c>
+      <c r="C79" s="244"/>
+      <c r="D79" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E79" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F79" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G79" s="383" t="s">
+        <v>278</v>
+      </c>
+      <c r="H79" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I79" s="385">
+        <v>79665.87</v>
+      </c>
+      <c r="J79" s="385"/>
+      <c r="K79" s="195">
+        <f t="shared" si="1"/>
+        <v>79665.87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="246"/>
+      <c r="B80" s="243" t="s">
+        <v>277</v>
+      </c>
+      <c r="C80" s="244"/>
+      <c r="D80" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E80" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F80" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G80" s="383" t="s">
+        <v>279</v>
+      </c>
+      <c r="H80" s="199" t="s">
+        <v>275</v>
+      </c>
+      <c r="I80" s="385"/>
+      <c r="J80" s="385">
+        <v>150000</v>
+      </c>
+      <c r="K80" s="195">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="246"/>
+      <c r="B81" s="243" t="s">
+        <v>281</v>
+      </c>
+      <c r="C81" s="244"/>
+      <c r="D81" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F81" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G81" s="199" t="s">
+        <v>92</v>
+      </c>
+      <c r="H81" s="199" t="s">
+        <v>275</v>
+      </c>
+      <c r="I81" s="195">
+        <v>25000</v>
+      </c>
+      <c r="J81" s="195"/>
+      <c r="K81" s="195">
+        <f t="shared" si="1"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="246"/>
+      <c r="B82" s="243" t="s">
+        <v>282</v>
+      </c>
+      <c r="C82" s="244"/>
+      <c r="D82" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E82" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F82" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G82" s="199" t="s">
+        <v>95</v>
+      </c>
+      <c r="H82" s="199" t="s">
+        <v>275</v>
+      </c>
+      <c r="I82" s="195">
+        <v>8000</v>
+      </c>
+      <c r="J82" s="195"/>
+      <c r="K82" s="195">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="246"/>
+      <c r="B83" s="243" t="s">
+        <v>283</v>
+      </c>
+      <c r="C83" s="244"/>
+      <c r="D83" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F83" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G83" s="199" t="s">
+        <v>284</v>
+      </c>
+      <c r="H83" s="199" t="s">
+        <v>275</v>
+      </c>
+      <c r="I83" s="195">
+        <v>177440.73</v>
+      </c>
+      <c r="J83" s="195"/>
+      <c r="K83" s="195">
+        <f t="shared" si="1"/>
+        <v>177440.73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="246"/>
+      <c r="B84" s="243" t="s">
+        <v>285</v>
+      </c>
+      <c r="C84" s="244"/>
+      <c r="D84" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E84" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F84" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G84" s="199" t="s">
+        <v>113</v>
+      </c>
+      <c r="H84" s="199" t="s">
+        <v>275</v>
+      </c>
+      <c r="I84" s="195">
+        <v>52000</v>
+      </c>
+      <c r="J84" s="195"/>
+      <c r="K84" s="195">
+        <f t="shared" si="1"/>
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="246"/>
+      <c r="B85" s="243" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" s="244"/>
+      <c r="D85" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E85" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F85" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G85" s="199" t="s">
+        <v>286</v>
+      </c>
+      <c r="H85" s="199" t="s">
+        <v>275</v>
+      </c>
+      <c r="I85" s="195">
+        <v>33000</v>
+      </c>
+      <c r="J85" s="195"/>
+      <c r="K85" s="195">
+        <f t="shared" si="1"/>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="247"/>
+      <c r="B86" s="243" t="s">
+        <v>287</v>
+      </c>
+      <c r="C86" s="244"/>
+      <c r="D86" s="199" t="s">
+        <v>219</v>
+      </c>
+      <c r="E86" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F86" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G86" s="199" t="s">
+        <v>288</v>
+      </c>
+      <c r="H86" s="199" t="s">
+        <v>275</v>
+      </c>
+      <c r="I86" s="195"/>
+      <c r="J86" s="195">
+        <v>200000</v>
+      </c>
+      <c r="K86" s="195">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="245" t="s">
+        <v>267</v>
+      </c>
+      <c r="B87" s="243" t="s">
+        <v>268</v>
+      </c>
+      <c r="C87" s="244"/>
+      <c r="D87" s="199" t="s">
+        <v>269</v>
+      </c>
+      <c r="E87" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F87" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G87" s="199" t="s">
+        <v>273</v>
+      </c>
+      <c r="H87" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I87" s="195"/>
+      <c r="J87" s="195">
+        <v>500000</v>
+      </c>
+      <c r="K87" s="195">
+        <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="246"/>
+      <c r="B88" s="243" t="s">
+        <v>270</v>
+      </c>
+      <c r="C88" s="244"/>
+      <c r="D88" s="199" t="s">
+        <v>269</v>
+      </c>
+      <c r="E88" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F88" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G88" s="199" t="s">
+        <v>274</v>
+      </c>
+      <c r="H88" s="199" t="s">
+        <v>243</v>
+      </c>
+      <c r="I88" s="195"/>
+      <c r="J88" s="195">
+        <v>750000</v>
+      </c>
+      <c r="K88" s="195">
+        <f t="shared" si="1"/>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="246"/>
+      <c r="B89" s="243" t="s">
+        <v>271</v>
+      </c>
+      <c r="C89" s="244"/>
+      <c r="D89" s="199" t="s">
+        <v>269</v>
+      </c>
+      <c r="E89" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F89" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G89" s="199" t="s">
+        <v>276</v>
+      </c>
+      <c r="H89" s="199" t="s">
+        <v>275</v>
+      </c>
+      <c r="I89" s="199"/>
+      <c r="J89" s="195">
+        <v>700000</v>
+      </c>
+      <c r="K89" s="195">
+        <f>SUM(I89:J89)</f>
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="246"/>
+      <c r="B90" s="243" t="s">
+        <v>280</v>
+      </c>
+      <c r="C90" s="244"/>
+      <c r="D90" s="199" t="s">
+        <v>269</v>
+      </c>
+      <c r="E90" s="199" t="s">
+        <v>238</v>
+      </c>
+      <c r="F90" s="199" t="s">
+        <v>240</v>
+      </c>
+      <c r="G90" s="199" t="s">
+        <v>127</v>
+      </c>
+      <c r="H90" s="199" t="s">
+        <v>275</v>
+      </c>
+      <c r="I90" s="195">
+        <v>100000</v>
+      </c>
+      <c r="J90" s="195"/>
+      <c r="K90" s="195">
+        <f t="shared" ref="K90" si="2">SUM(I90:J90)</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="247"/>
+      <c r="B91" s="196"/>
+      <c r="C91" s="197"/>
+      <c r="D91" s="197"/>
+      <c r="E91" s="197"/>
+      <c r="F91" s="197"/>
+      <c r="G91" s="203" t="s">
         <v>181</v>
       </c>
-      <c r="H49" s="313"/>
-      <c r="I49" s="314">
-        <f>SUM(I16:I48)</f>
-        <v>789531</v>
-      </c>
-      <c r="J49" s="314">
-        <f>SUM(J16:J48)</f>
-        <v>3976283.79</v>
-      </c>
-      <c r="K49" s="314">
-        <f>SUM(K16:K48)</f>
-        <v>4765814.79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="325" t="s">
+      <c r="H91" s="204"/>
+      <c r="I91" s="205">
+        <f>SUM(I16:I90)</f>
+        <v>3009637.6</v>
+      </c>
+      <c r="J91" s="205">
+        <f>SUM(J16:J90)</f>
+        <v>6276283.79</v>
+      </c>
+      <c r="K91" s="205">
+        <f t="shared" ref="J91:K91" si="3">SUM(K16:K90)</f>
+        <v>9285921.3900000006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="267" t="s">
         <v>183</v>
       </c>
-      <c r="B50" s="326"/>
-      <c r="C50" s="326"/>
-      <c r="D50" s="326"/>
-      <c r="E50" s="326"/>
-      <c r="F50" s="326"/>
-      <c r="G50" s="326"/>
-      <c r="H50" s="326"/>
-      <c r="I50" s="326"/>
-      <c r="J50" s="326"/>
-      <c r="K50" s="327"/>
-    </row>
-    <row r="51" spans="1:11" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="368" t="s">
+      <c r="B92" s="268"/>
+      <c r="C92" s="268"/>
+      <c r="D92" s="268"/>
+      <c r="E92" s="268"/>
+      <c r="F92" s="268"/>
+      <c r="G92" s="268"/>
+      <c r="H92" s="268"/>
+      <c r="I92" s="268"/>
+      <c r="J92" s="268"/>
+      <c r="K92" s="269"/>
+    </row>
+    <row r="93" spans="1:11" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="232" t="s">
         <v>227</v>
       </c>
-      <c r="B51" s="318" t="s">
+      <c r="B93" s="240" t="s">
         <v>233</v>
       </c>
-      <c r="C51" s="319"/>
-      <c r="D51" s="308" t="s">
+      <c r="C93" s="241"/>
+      <c r="D93" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="308" t="s">
+      <c r="E93" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F51" s="308" t="s">
+      <c r="F93" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G51" s="308" t="s">
+      <c r="G93" s="199" t="s">
         <v>234</v>
       </c>
-      <c r="H51" s="308" t="s">
+      <c r="H93" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I51" s="371">
+      <c r="I93" s="235">
         <v>500000</v>
       </c>
-      <c r="J51" s="371"/>
-      <c r="K51" s="372">
-        <f>SUM(I51:J51)</f>
+      <c r="J93" s="235"/>
+      <c r="K93" s="236">
+        <f>SUM(I93:J93)</f>
         <v>500000</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="369"/>
-      <c r="B52" s="302"/>
-      <c r="C52" s="303"/>
-      <c r="D52" s="303"/>
-      <c r="E52" s="303"/>
-      <c r="F52" s="332"/>
-      <c r="G52" s="330" t="s">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="233"/>
+      <c r="B94" s="196"/>
+      <c r="C94" s="197"/>
+      <c r="D94" s="197"/>
+      <c r="E94" s="197"/>
+      <c r="F94" s="210"/>
+      <c r="G94" s="208" t="s">
         <v>181</v>
       </c>
-      <c r="H52" s="331"/>
-      <c r="I52" s="373">
-        <f>SUM(I51:I51)</f>
+      <c r="H94" s="209"/>
+      <c r="I94" s="237">
+        <f>SUM(I93:I93)</f>
         <v>500000</v>
       </c>
-      <c r="J52" s="373">
-        <f>SUM(J51:J51)</f>
+      <c r="J94" s="237">
+        <f>SUM(J93:J93)</f>
         <v>0</v>
       </c>
-      <c r="K52" s="373">
-        <f>SUM(K51:K51)</f>
+      <c r="K94" s="237">
+        <f>SUM(K93:K93)</f>
         <v>500000</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="333" t="s">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="270" t="s">
         <v>184</v>
       </c>
-      <c r="B53" s="334"/>
-      <c r="C53" s="334"/>
-      <c r="D53" s="334"/>
-      <c r="E53" s="334"/>
-      <c r="F53" s="334"/>
-      <c r="G53" s="334"/>
-      <c r="H53" s="334"/>
-      <c r="I53" s="334"/>
-      <c r="J53" s="334"/>
-      <c r="K53" s="335"/>
-    </row>
-    <row r="54" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="368" t="s">
+      <c r="B95" s="271"/>
+      <c r="C95" s="271"/>
+      <c r="D95" s="271"/>
+      <c r="E95" s="271"/>
+      <c r="F95" s="271"/>
+      <c r="G95" s="271"/>
+      <c r="H95" s="271"/>
+      <c r="I95" s="271"/>
+      <c r="J95" s="271"/>
+      <c r="K95" s="272"/>
+    </row>
+    <row r="96" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="232" t="s">
         <v>227</v>
       </c>
-      <c r="B54" s="318" t="s">
+      <c r="B96" s="240" t="s">
         <v>230</v>
       </c>
-      <c r="C54" s="319"/>
-      <c r="D54" s="308" t="s">
+      <c r="C96" s="241"/>
+      <c r="D96" s="199" t="s">
         <v>231</v>
       </c>
-      <c r="E54" s="308" t="s">
+      <c r="E96" s="199" t="s">
         <v>198</v>
       </c>
-      <c r="F54" s="308" t="s">
+      <c r="F96" s="199" t="s">
         <v>197</v>
       </c>
-      <c r="G54" s="308" t="s">
+      <c r="G96" s="199" t="s">
         <v>232</v>
       </c>
-      <c r="H54" s="308" t="s">
+      <c r="H96" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="I54" s="374">
+      <c r="I96" s="238">
         <v>500000</v>
       </c>
-      <c r="J54" s="374"/>
-      <c r="K54" s="374">
-        <f>SUM(I54:J54)</f>
+      <c r="J96" s="238"/>
+      <c r="K96" s="238">
+        <f>SUM(I96:J96)</f>
         <v>500000</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="336"/>
-      <c r="B55" s="329"/>
-      <c r="C55" s="337"/>
-      <c r="D55" s="303"/>
-      <c r="E55" s="303"/>
-      <c r="F55" s="332"/>
-      <c r="G55" s="338" t="s">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="211"/>
+      <c r="B97" s="250"/>
+      <c r="C97" s="251"/>
+      <c r="D97" s="197"/>
+      <c r="E97" s="197"/>
+      <c r="F97" s="210"/>
+      <c r="G97" s="212" t="s">
         <v>181</v>
       </c>
-      <c r="H55" s="339"/>
-      <c r="I55" s="375">
-        <f>SUM(I54:I54)</f>
+      <c r="H97" s="213"/>
+      <c r="I97" s="239">
+        <f>SUM(I96:I96)</f>
         <v>500000</v>
       </c>
-      <c r="J55" s="375">
-        <f>SUM(J54:J54)</f>
+      <c r="J97" s="239">
+        <f>SUM(J96:J96)</f>
         <v>0</v>
       </c>
-      <c r="K55" s="375">
-        <f>SUM(K54:K54)</f>
+      <c r="K97" s="239">
+        <f>SUM(K96:K96)</f>
         <v>500000</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="343"/>
-      <c r="B56" s="328"/>
-      <c r="C56" s="328"/>
-      <c r="D56" s="344"/>
-      <c r="E56" s="344"/>
-      <c r="F56" s="344"/>
-      <c r="G56" s="344"/>
-      <c r="H56" s="344"/>
-      <c r="I56" s="344"/>
-      <c r="J56" s="344"/>
-      <c r="K56" s="345"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="346"/>
-      <c r="B57" s="347"/>
-      <c r="C57" s="347"/>
-      <c r="D57" s="347"/>
-      <c r="E57" s="347"/>
-      <c r="F57" s="347"/>
-      <c r="G57" s="340" t="s">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="217"/>
+      <c r="B98" s="252"/>
+      <c r="C98" s="252"/>
+      <c r="D98" s="218"/>
+      <c r="E98" s="218"/>
+      <c r="F98" s="218"/>
+      <c r="G98" s="218"/>
+      <c r="H98" s="218"/>
+      <c r="I98" s="218"/>
+      <c r="J98" s="218"/>
+      <c r="K98" s="219"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="220"/>
+      <c r="B99" s="221"/>
+      <c r="C99" s="221"/>
+      <c r="D99" s="221"/>
+      <c r="E99" s="221"/>
+      <c r="F99" s="221"/>
+      <c r="G99" s="214" t="s">
         <v>185</v>
       </c>
-      <c r="H57" s="341"/>
-      <c r="I57" s="342">
-        <f>SUM(I55,I52,I49,I14)</f>
-        <v>1989531</v>
-      </c>
-      <c r="J57" s="342">
-        <f>SUM(J55,J52,J49,J14)</f>
-        <v>6776283.79</v>
-      </c>
-      <c r="K57" s="342">
-        <f>SUM(K55,K52,K49,K14)</f>
-        <v>8765814.7899999991</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="350" t="s">
+      <c r="H99" s="215"/>
+      <c r="I99" s="216">
+        <f>SUM(I97,I94,I91,I14)</f>
+        <v>4209637.5999999996</v>
+      </c>
+      <c r="J99" s="216">
+        <f>SUM(J97,J94,J91,J14)</f>
+        <v>9076283.7899999991</v>
+      </c>
+      <c r="K99" s="216">
+        <f>SUM(K97,K94,K91,K14)</f>
+        <v>13285921.390000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="258" t="s">
         <v>186</v>
       </c>
-      <c r="B58" s="351"/>
-      <c r="C58" s="351"/>
-      <c r="D58" s="351"/>
-      <c r="E58" s="351"/>
-      <c r="F58" s="351"/>
-      <c r="G58" s="351"/>
-      <c r="H58" s="351"/>
-      <c r="I58" s="351"/>
-      <c r="J58" s="351"/>
-      <c r="K58" s="352"/>
-    </row>
-    <row r="59" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="308" t="s">
+      <c r="B100" s="259"/>
+      <c r="C100" s="259"/>
+      <c r="D100" s="259"/>
+      <c r="E100" s="259"/>
+      <c r="F100" s="259"/>
+      <c r="G100" s="259"/>
+      <c r="H100" s="259"/>
+      <c r="I100" s="259"/>
+      <c r="J100" s="259"/>
+      <c r="K100" s="260"/>
+    </row>
+    <row r="101" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="199" t="s">
         <v>227</v>
       </c>
-      <c r="B59" s="364" t="s">
+      <c r="B101" s="262" t="s">
         <v>226</v>
       </c>
-      <c r="C59" s="365"/>
-      <c r="D59" s="366" t="s">
+      <c r="C101" s="263"/>
+      <c r="D101" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="E59" s="309" t="s">
+      <c r="E101" s="200" t="s">
         <v>198</v>
       </c>
-      <c r="F59" s="309" t="s">
+      <c r="F101" s="200" t="s">
         <v>228</v>
       </c>
-      <c r="G59" s="309" t="s">
+      <c r="G101" s="200" t="s">
         <v>229</v>
       </c>
-      <c r="H59" s="366" t="s">
+      <c r="H101" s="230" t="s">
         <v>199</v>
       </c>
-      <c r="I59" s="374"/>
-      <c r="J59" s="374"/>
-      <c r="K59" s="374">
+      <c r="I101" s="238"/>
+      <c r="J101" s="238"/>
+      <c r="K101" s="238">
         <v>2133632.2000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="161"/>
-      <c r="B60" s="329"/>
-      <c r="C60" s="337"/>
-      <c r="D60" s="303"/>
-      <c r="E60" s="303"/>
-      <c r="F60" s="332"/>
-      <c r="G60" s="340" t="s">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="161"/>
+      <c r="B102" s="250"/>
+      <c r="C102" s="251"/>
+      <c r="D102" s="197"/>
+      <c r="E102" s="197"/>
+      <c r="F102" s="210"/>
+      <c r="G102" s="214" t="s">
         <v>187</v>
       </c>
-      <c r="H60" s="341"/>
-      <c r="I60" s="342">
-        <f>SUM(I59)</f>
+      <c r="H102" s="215"/>
+      <c r="I102" s="216">
+        <f>SUM(I101)</f>
         <v>0</v>
       </c>
-      <c r="J60" s="342">
-        <f t="shared" ref="J60:K60" si="2">SUM(J59)</f>
+      <c r="J102" s="216">
+        <f t="shared" ref="J102:K102" si="4">SUM(J101)</f>
         <v>0</v>
       </c>
-      <c r="K60" s="342">
-        <f t="shared" si="2"/>
+      <c r="K102" s="216">
+        <f t="shared" si="4"/>
         <v>2133632.2000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A61" s="348"/>
-      <c r="B61" s="349"/>
-      <c r="C61" s="349"/>
-      <c r="D61" s="349"/>
-      <c r="E61" s="349"/>
-      <c r="F61" s="349"/>
-      <c r="G61" s="357" t="s">
+    <row r="103" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A103" s="222"/>
+      <c r="B103" s="223"/>
+      <c r="C103" s="223"/>
+      <c r="D103" s="223"/>
+      <c r="E103" s="223"/>
+      <c r="F103" s="223"/>
+      <c r="G103" s="228" t="s">
         <v>188</v>
       </c>
-      <c r="H61" s="357"/>
-      <c r="I61" s="358">
+      <c r="H103" s="228"/>
+      <c r="I103" s="242">
         <v>10445440.65</v>
       </c>
-      <c r="J61" s="358"/>
-      <c r="K61" s="367"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="245" t="s">
+      <c r="J103" s="242"/>
+      <c r="K103" s="231"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="261" t="s">
         <v>189</v>
       </c>
-      <c r="B62" s="245"/>
-      <c r="C62" s="245"/>
-      <c r="D62" s="245"/>
-      <c r="E62" s="245"/>
-      <c r="F62" s="245"/>
-      <c r="G62" s="245"/>
-      <c r="H62" s="245"/>
-      <c r="I62" s="245"/>
-      <c r="J62" s="245"/>
-      <c r="K62" s="245"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="B104" s="261"/>
+      <c r="C104" s="261"/>
+      <c r="D104" s="261"/>
+      <c r="E104" s="261"/>
+      <c r="F104" s="261"/>
+      <c r="G104" s="261"/>
+      <c r="H104" s="261"/>
+      <c r="I104" s="261"/>
+      <c r="J104" s="261"/>
+      <c r="K104" s="261"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>36</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H107" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="265" t="s">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="255" t="s">
         <v>190</v>
       </c>
-      <c r="B67" s="265"/>
-      <c r="H67" s="265" t="s">
+      <c r="B109" s="255"/>
+      <c r="H109" s="255" t="s">
         <v>192</v>
       </c>
-      <c r="I67" s="265"/>
-      <c r="J67" s="265"/>
-      <c r="K67" s="268"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="248" t="s">
+      <c r="I109" s="255"/>
+      <c r="J109" s="255"/>
+      <c r="K109" s="185"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="257" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="248"/>
-      <c r="H68" s="185" t="s">
+      <c r="B110" s="257"/>
+      <c r="H110" s="256" t="s">
         <v>193</v>
       </c>
-      <c r="I68" s="185"/>
-      <c r="J68" s="185"/>
-      <c r="K68" s="162"/>
+      <c r="I110" s="256"/>
+      <c r="J110" s="256"/>
+      <c r="K110" s="162"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A28:A49"/>
+  <mergeCells count="122">
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="A61:A86"/>
+    <mergeCell ref="G61:G78"/>
+    <mergeCell ref="I61:I78"/>
+    <mergeCell ref="J61:J78"/>
+    <mergeCell ref="K61:K78"/>
+    <mergeCell ref="J52:J60"/>
+    <mergeCell ref="K52:K60"/>
+    <mergeCell ref="A52:A60"/>
+    <mergeCell ref="G52:G60"/>
+    <mergeCell ref="I52:I60"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="H110:J110"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A100:K100"/>
+    <mergeCell ref="A104:K104"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="A92:K92"/>
+    <mergeCell ref="A95:K95"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A15:K15"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
@@ -4310,52 +5748,27 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A58:K58"/>
-    <mergeCell ref="A62:K62"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B90:C90"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="14" scale="92" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="14" scale="73" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="16" max="10" man="1"/>
   </rowBreaks>
@@ -4391,14 +5804,14 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="216" t="s">
+      <c r="E1" s="296" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="217"/>
-      <c r="G1" s="216" t="s">
+      <c r="F1" s="297"/>
+      <c r="G1" s="296" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="217"/>
+      <c r="H1" s="297"/>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4417,10 +5830,10 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="218"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="219"/>
+      <c r="E2" s="298"/>
+      <c r="F2" s="299"/>
+      <c r="G2" s="298"/>
+      <c r="H2" s="299"/>
       <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
@@ -4495,10 +5908,10 @@
       <c r="J5" s="69"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="220" t="s">
+      <c r="A6" s="300" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="221"/>
+      <c r="B6" s="301"/>
       <c r="C6" s="15" t="s">
         <v>22</v>
       </c>
@@ -4510,100 +5923,100 @@
       <c r="I6" s="12"/>
       <c r="J6" s="69"/>
     </row>
-    <row r="7" spans="1:11" s="266" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="269"/>
-      <c r="B7" s="269"/>
-      <c r="C7" s="270" t="s">
+    <row r="7" spans="1:11" s="184" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="186"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="308" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="271" t="s">
+      <c r="D7" s="302" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="289" t="s">
+      <c r="E7" s="304" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="272"/>
-      <c r="G7" s="208"/>
-      <c r="H7" s="208">
+      <c r="F7" s="313"/>
+      <c r="G7" s="306"/>
+      <c r="H7" s="306">
         <v>1500000</v>
       </c>
-      <c r="I7" s="273" t="s">
+      <c r="I7" s="315" t="s">
         <v>128</v>
       </c>
-      <c r="J7" s="281" t="s">
+      <c r="J7" s="292" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="266" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="274"/>
-      <c r="B8" s="269"/>
-      <c r="C8" s="275"/>
-      <c r="D8" s="276"/>
-      <c r="E8" s="277"/>
-      <c r="F8" s="278"/>
-      <c r="G8" s="210"/>
-      <c r="H8" s="210"/>
-      <c r="I8" s="279"/>
-      <c r="J8" s="215"/>
-    </row>
-    <row r="9" spans="1:11" s="266" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="269"/>
-      <c r="B9" s="280"/>
-      <c r="C9" s="267" t="s">
+    <row r="8" spans="1:11" s="184" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="187"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="309"/>
+      <c r="D8" s="303"/>
+      <c r="E8" s="305"/>
+      <c r="F8" s="314"/>
+      <c r="G8" s="307"/>
+      <c r="H8" s="307"/>
+      <c r="I8" s="316"/>
+      <c r="J8" s="293"/>
+    </row>
+    <row r="9" spans="1:11" s="184" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="186"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="310" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="177" t="s">
+      <c r="D9" s="317" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="267" t="s">
+      <c r="E9" s="310" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="179"/>
-      <c r="G9" s="208"/>
-      <c r="H9" s="208">
+      <c r="F9" s="320"/>
+      <c r="G9" s="306"/>
+      <c r="H9" s="306">
         <v>30000</v>
       </c>
-      <c r="I9" s="191" t="s">
+      <c r="I9" s="324" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="282" t="s">
+      <c r="J9" s="289" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="266" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="269"/>
-      <c r="B10" s="280"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="209"/>
-      <c r="H10" s="209"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="282"/>
+    <row r="10" spans="1:11" s="184" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="186"/>
+      <c r="B10" s="188"/>
+      <c r="C10" s="311"/>
+      <c r="D10" s="318"/>
+      <c r="E10" s="311"/>
+      <c r="F10" s="321"/>
+      <c r="G10" s="323"/>
+      <c r="H10" s="323"/>
+      <c r="I10" s="318"/>
+      <c r="J10" s="289"/>
     </row>
     <row r="11" spans="1:11" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="70"/>
       <c r="B11" s="71"/>
-      <c r="C11" s="190"/>
-      <c r="D11" s="192"/>
-      <c r="E11" s="190"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="210"/>
-      <c r="I11" s="192"/>
+      <c r="C11" s="312"/>
+      <c r="D11" s="319"/>
+      <c r="E11" s="312"/>
+      <c r="F11" s="322"/>
+      <c r="G11" s="307"/>
+      <c r="H11" s="307"/>
+      <c r="I11" s="319"/>
       <c r="J11" s="69"/>
     </row>
     <row r="12" spans="1:11" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="70"/>
       <c r="B12" s="71"/>
-      <c r="C12" s="283" t="s">
+      <c r="C12" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="284" t="s">
+      <c r="D12" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="288" t="s">
+      <c r="E12" s="193" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="73"/>
@@ -4614,14 +6027,14 @@
       <c r="I12" s="145" t="s">
         <v>128</v>
       </c>
-      <c r="J12" s="285" t="s">
+      <c r="J12" s="191" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="70"/>
       <c r="B13" s="71"/>
-      <c r="C13" s="283" t="s">
+      <c r="C13" s="189" t="s">
         <v>131</v>
       </c>
       <c r="D13" s="72" t="s">
@@ -4638,7 +6051,7 @@
       <c r="I13" s="145" t="s">
         <v>128</v>
       </c>
-      <c r="J13" s="286" t="s">
+      <c r="J13" s="192" t="s">
         <v>201</v>
       </c>
       <c r="K13" s="26"/>
@@ -4646,38 +6059,38 @@
     <row r="14" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70"/>
       <c r="B14" s="71"/>
-      <c r="C14" s="267" t="s">
+      <c r="C14" s="310" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="287" t="s">
+      <c r="D14" s="327" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="267" t="s">
+      <c r="E14" s="310" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="179"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="208">
+      <c r="F14" s="320"/>
+      <c r="G14" s="331"/>
+      <c r="H14" s="306">
         <v>70000</v>
       </c>
-      <c r="I14" s="191" t="s">
+      <c r="I14" s="324" t="s">
         <v>128</v>
       </c>
-      <c r="J14" s="290" t="s">
+      <c r="J14" s="294" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="70"/>
       <c r="B15" s="71"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="209"/>
-      <c r="I15" s="213"/>
-      <c r="J15" s="291"/>
+      <c r="C15" s="311"/>
+      <c r="D15" s="318"/>
+      <c r="E15" s="311"/>
+      <c r="F15" s="321"/>
+      <c r="G15" s="332"/>
+      <c r="H15" s="323"/>
+      <c r="I15" s="325"/>
+      <c r="J15" s="295"/>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="70"/>
@@ -4689,69 +6102,69 @@
       <c r="G16" s="77"/>
       <c r="H16" s="150"/>
       <c r="I16" s="149"/>
-      <c r="J16" s="291"/>
+      <c r="J16" s="295"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="70"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="292" t="s">
+      <c r="C17" s="334" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="197" t="s">
+      <c r="D17" s="337" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="293" t="s">
+      <c r="E17" s="339" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="202"/>
-      <c r="G17" s="205"/>
-      <c r="H17" s="208">
+      <c r="F17" s="342"/>
+      <c r="G17" s="345"/>
+      <c r="H17" s="306">
         <v>417302.79</v>
       </c>
-      <c r="I17" s="191" t="s">
+      <c r="I17" s="324" t="s">
         <v>128</v>
       </c>
-      <c r="J17" s="294" t="s">
+      <c r="J17" s="290" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="70"/>
       <c r="B18" s="71"/>
-      <c r="C18" s="195"/>
-      <c r="D18" s="198"/>
-      <c r="E18" s="200"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="206"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="198"/>
+      <c r="C18" s="335"/>
+      <c r="D18" s="291"/>
+      <c r="E18" s="340"/>
+      <c r="F18" s="343"/>
+      <c r="G18" s="346"/>
+      <c r="H18" s="323"/>
+      <c r="I18" s="325"/>
+      <c r="J18" s="291"/>
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="70"/>
       <c r="B19" s="71"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="199"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="204"/>
-      <c r="G19" s="207"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="214"/>
-      <c r="J19" s="198"/>
+      <c r="C19" s="336"/>
+      <c r="D19" s="338"/>
+      <c r="E19" s="341"/>
+      <c r="F19" s="344"/>
+      <c r="G19" s="347"/>
+      <c r="H19" s="307"/>
+      <c r="I19" s="326"/>
+      <c r="J19" s="291"/>
       <c r="K19" s="92"/>
     </row>
     <row r="20" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="70"/>
       <c r="B20" s="142"/>
-      <c r="C20" s="316" t="s">
+      <c r="C20" s="206" t="s">
         <v>133</v>
       </c>
       <c r="D20" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="317" t="s">
+      <c r="E20" s="207" t="s">
         <v>134</v>
       </c>
       <c r="F20" s="141"/>
@@ -4762,7 +6175,7 @@
       <c r="I20" s="151">
         <v>46204</v>
       </c>
-      <c r="J20" s="353" t="s">
+      <c r="J20" s="224" t="s">
         <v>201</v>
       </c>
       <c r="K20" s="92"/>
@@ -4770,13 +6183,13 @@
     <row r="21" spans="1:12" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="70"/>
       <c r="B21" s="142"/>
-      <c r="C21" s="354" t="s">
+      <c r="C21" s="225" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="288" t="s">
+      <c r="D21" s="193" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="288" t="s">
+      <c r="E21" s="193" t="s">
         <v>130</v>
       </c>
       <c r="F21" s="143"/>
@@ -4787,7 +6200,7 @@
       <c r="I21" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="J21" s="353" t="s">
+      <c r="J21" s="224" t="s">
         <v>201</v>
       </c>
       <c r="K21" s="92"/>
@@ -4810,22 +6223,22 @@
     <row r="23" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="70"/>
       <c r="B23" s="71"/>
-      <c r="C23" s="359" t="s">
+      <c r="C23" s="229" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="287" t="s">
+      <c r="D23" s="327" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="189" t="s">
+      <c r="E23" s="328" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="179"/>
-      <c r="G23" s="181"/>
+      <c r="F23" s="320"/>
+      <c r="G23" s="331"/>
       <c r="H23" s="78"/>
-      <c r="I23" s="191" t="s">
+      <c r="I23" s="324" t="s">
         <v>128</v>
       </c>
-      <c r="J23" s="370"/>
+      <c r="J23" s="234"/>
       <c r="K23" s="156"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -4834,15 +6247,15 @@
       <c r="C24" s="152" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="178"/>
-      <c r="E24" s="211"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="182"/>
+      <c r="D24" s="318"/>
+      <c r="E24" s="329"/>
+      <c r="F24" s="321"/>
+      <c r="G24" s="332"/>
       <c r="H24" s="79">
         <v>9300</v>
       </c>
-      <c r="I24" s="178"/>
-      <c r="J24" s="294" t="s">
+      <c r="I24" s="318"/>
+      <c r="J24" s="290" t="s">
         <v>201</v>
       </c>
       <c r="K24" s="156"/>
@@ -4853,15 +6266,15 @@
       <c r="C25" s="153" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="178"/>
-      <c r="E25" s="211"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="182"/>
+      <c r="D25" s="318"/>
+      <c r="E25" s="329"/>
+      <c r="F25" s="321"/>
+      <c r="G25" s="332"/>
       <c r="H25" s="157">
         <v>1800</v>
       </c>
-      <c r="I25" s="178"/>
-      <c r="J25" s="198"/>
+      <c r="I25" s="318"/>
+      <c r="J25" s="291"/>
       <c r="K25" s="156"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -4870,15 +6283,15 @@
       <c r="C26" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="178"/>
-      <c r="E26" s="211"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="182"/>
+      <c r="D26" s="318"/>
+      <c r="E26" s="329"/>
+      <c r="F26" s="321"/>
+      <c r="G26" s="332"/>
       <c r="H26" s="157">
         <v>1100</v>
       </c>
-      <c r="I26" s="178"/>
-      <c r="J26" s="198"/>
+      <c r="I26" s="318"/>
+      <c r="J26" s="291"/>
       <c r="K26" s="156"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -4887,15 +6300,15 @@
       <c r="C27" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="D27" s="178"/>
-      <c r="E27" s="211"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="182"/>
+      <c r="D27" s="318"/>
+      <c r="E27" s="329"/>
+      <c r="F27" s="321"/>
+      <c r="G27" s="332"/>
       <c r="H27" s="157">
         <v>1050</v>
       </c>
-      <c r="I27" s="178"/>
-      <c r="J27" s="198"/>
+      <c r="I27" s="318"/>
+      <c r="J27" s="291"/>
       <c r="K27" s="156"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -4904,15 +6317,15 @@
       <c r="C28" s="153" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="178"/>
-      <c r="E28" s="211"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="182"/>
+      <c r="D28" s="318"/>
+      <c r="E28" s="329"/>
+      <c r="F28" s="321"/>
+      <c r="G28" s="332"/>
       <c r="H28" s="158">
         <v>600</v>
       </c>
-      <c r="I28" s="178"/>
-      <c r="J28" s="198"/>
+      <c r="I28" s="318"/>
+      <c r="J28" s="291"/>
       <c r="K28" s="156"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -4921,15 +6334,15 @@
       <c r="C29" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="178"/>
-      <c r="E29" s="211"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="182"/>
+      <c r="D29" s="318"/>
+      <c r="E29" s="329"/>
+      <c r="F29" s="321"/>
+      <c r="G29" s="332"/>
       <c r="H29" s="157">
         <v>2100</v>
       </c>
-      <c r="I29" s="178"/>
-      <c r="J29" s="198"/>
+      <c r="I29" s="318"/>
+      <c r="J29" s="291"/>
       <c r="K29" s="156"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -4938,15 +6351,15 @@
       <c r="C30" s="153" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="178"/>
-      <c r="E30" s="211"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="182"/>
+      <c r="D30" s="318"/>
+      <c r="E30" s="329"/>
+      <c r="F30" s="321"/>
+      <c r="G30" s="332"/>
       <c r="H30" s="157">
         <v>2275</v>
       </c>
-      <c r="I30" s="178"/>
-      <c r="J30" s="198"/>
+      <c r="I30" s="318"/>
+      <c r="J30" s="291"/>
       <c r="K30" s="156"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -4955,15 +6368,15 @@
       <c r="C31" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="178"/>
-      <c r="E31" s="211"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="182"/>
+      <c r="D31" s="318"/>
+      <c r="E31" s="329"/>
+      <c r="F31" s="321"/>
+      <c r="G31" s="332"/>
       <c r="H31" s="157">
         <v>13500</v>
       </c>
-      <c r="I31" s="178"/>
-      <c r="J31" s="198"/>
+      <c r="I31" s="318"/>
+      <c r="J31" s="291"/>
       <c r="K31" s="156"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -4972,15 +6385,15 @@
       <c r="C32" s="153" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="178"/>
-      <c r="E32" s="211"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="182"/>
+      <c r="D32" s="318"/>
+      <c r="E32" s="329"/>
+      <c r="F32" s="321"/>
+      <c r="G32" s="332"/>
       <c r="H32" s="157">
         <v>15000</v>
       </c>
-      <c r="I32" s="178"/>
-      <c r="J32" s="198"/>
+      <c r="I32" s="318"/>
+      <c r="J32" s="291"/>
       <c r="K32" s="156"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -4989,15 +6402,15 @@
       <c r="C33" s="153" t="s">
         <v>146</v>
       </c>
-      <c r="D33" s="178"/>
-      <c r="E33" s="211"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="182"/>
+      <c r="D33" s="318"/>
+      <c r="E33" s="329"/>
+      <c r="F33" s="321"/>
+      <c r="G33" s="332"/>
       <c r="H33" s="157">
         <v>8000</v>
       </c>
-      <c r="I33" s="178"/>
-      <c r="J33" s="198"/>
+      <c r="I33" s="318"/>
+      <c r="J33" s="291"/>
       <c r="K33" s="156"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -5006,15 +6419,15 @@
       <c r="C34" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="178"/>
-      <c r="E34" s="211"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="182"/>
+      <c r="D34" s="318"/>
+      <c r="E34" s="329"/>
+      <c r="F34" s="321"/>
+      <c r="G34" s="332"/>
       <c r="H34" s="157">
         <v>24650</v>
       </c>
-      <c r="I34" s="178"/>
-      <c r="J34" s="198"/>
+      <c r="I34" s="318"/>
+      <c r="J34" s="291"/>
       <c r="K34" s="156"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -5023,15 +6436,15 @@
       <c r="C35" s="153" t="s">
         <v>223</v>
       </c>
-      <c r="D35" s="178"/>
-      <c r="E35" s="211"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="182"/>
+      <c r="D35" s="318"/>
+      <c r="E35" s="329"/>
+      <c r="F35" s="321"/>
+      <c r="G35" s="332"/>
       <c r="H35" s="157">
         <v>22050</v>
       </c>
-      <c r="I35" s="178"/>
-      <c r="J35" s="198"/>
+      <c r="I35" s="318"/>
+      <c r="J35" s="291"/>
       <c r="K35" s="156"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -5040,15 +6453,15 @@
       <c r="C36" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="178"/>
-      <c r="E36" s="211"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="182"/>
+      <c r="D36" s="318"/>
+      <c r="E36" s="329"/>
+      <c r="F36" s="321"/>
+      <c r="G36" s="332"/>
       <c r="H36" s="157">
         <v>4634</v>
       </c>
-      <c r="I36" s="178"/>
-      <c r="J36" s="198"/>
+      <c r="I36" s="318"/>
+      <c r="J36" s="291"/>
       <c r="K36" s="156"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -5057,15 +6470,15 @@
       <c r="C37" s="153" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="178"/>
-      <c r="E37" s="211"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="182"/>
+      <c r="D37" s="318"/>
+      <c r="E37" s="329"/>
+      <c r="F37" s="321"/>
+      <c r="G37" s="332"/>
       <c r="H37" s="157">
         <v>10920</v>
       </c>
-      <c r="I37" s="178"/>
-      <c r="J37" s="198"/>
+      <c r="I37" s="318"/>
+      <c r="J37" s="291"/>
       <c r="K37" s="156"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -5074,15 +6487,15 @@
       <c r="C38" s="153" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="178"/>
-      <c r="E38" s="211"/>
-      <c r="F38" s="180"/>
-      <c r="G38" s="182"/>
+      <c r="D38" s="318"/>
+      <c r="E38" s="329"/>
+      <c r="F38" s="321"/>
+      <c r="G38" s="332"/>
       <c r="H38" s="157">
         <v>2070</v>
       </c>
-      <c r="I38" s="178"/>
-      <c r="J38" s="198"/>
+      <c r="I38" s="318"/>
+      <c r="J38" s="291"/>
       <c r="K38" s="156"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -5091,15 +6504,15 @@
       <c r="C39" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="178"/>
-      <c r="E39" s="211"/>
-      <c r="F39" s="180"/>
-      <c r="G39" s="182"/>
+      <c r="D39" s="318"/>
+      <c r="E39" s="329"/>
+      <c r="F39" s="321"/>
+      <c r="G39" s="332"/>
       <c r="H39" s="157">
         <v>1479</v>
       </c>
-      <c r="I39" s="178"/>
-      <c r="J39" s="198"/>
+      <c r="I39" s="318"/>
+      <c r="J39" s="291"/>
       <c r="K39" s="156"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -5108,15 +6521,15 @@
       <c r="C40" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="178"/>
-      <c r="E40" s="211"/>
-      <c r="F40" s="180"/>
-      <c r="G40" s="182"/>
+      <c r="D40" s="318"/>
+      <c r="E40" s="329"/>
+      <c r="F40" s="321"/>
+      <c r="G40" s="332"/>
       <c r="H40" s="157">
         <v>10600</v>
       </c>
-      <c r="I40" s="178"/>
-      <c r="J40" s="198"/>
+      <c r="I40" s="318"/>
+      <c r="J40" s="291"/>
       <c r="K40" s="156"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -5125,15 +6538,15 @@
       <c r="C41" s="153" t="s">
         <v>153</v>
       </c>
-      <c r="D41" s="178"/>
-      <c r="E41" s="211"/>
-      <c r="F41" s="180"/>
-      <c r="G41" s="182"/>
+      <c r="D41" s="318"/>
+      <c r="E41" s="329"/>
+      <c r="F41" s="321"/>
+      <c r="G41" s="332"/>
       <c r="H41" s="157">
         <v>2650</v>
       </c>
-      <c r="I41" s="178"/>
-      <c r="J41" s="198"/>
+      <c r="I41" s="318"/>
+      <c r="J41" s="291"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="70"/>
@@ -5141,15 +6554,15 @@
       <c r="C42" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="178"/>
-      <c r="E42" s="211"/>
-      <c r="F42" s="180"/>
-      <c r="G42" s="182"/>
+      <c r="D42" s="318"/>
+      <c r="E42" s="329"/>
+      <c r="F42" s="321"/>
+      <c r="G42" s="332"/>
       <c r="H42" s="157">
         <v>13828</v>
       </c>
-      <c r="I42" s="178"/>
-      <c r="J42" s="198"/>
+      <c r="I42" s="318"/>
+      <c r="J42" s="291"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="70"/>
@@ -5157,33 +6570,33 @@
       <c r="C43" s="153" t="s">
         <v>155</v>
       </c>
-      <c r="D43" s="192"/>
-      <c r="E43" s="212"/>
-      <c r="F43" s="193"/>
-      <c r="G43" s="194"/>
+      <c r="D43" s="319"/>
+      <c r="E43" s="330"/>
+      <c r="F43" s="322"/>
+      <c r="G43" s="333"/>
       <c r="H43" s="159">
         <v>6780</v>
       </c>
-      <c r="I43" s="178"/>
-      <c r="J43" s="198"/>
+      <c r="I43" s="318"/>
+      <c r="J43" s="291"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="70"/>
       <c r="B44" s="80"/>
-      <c r="C44" s="359" t="s">
+      <c r="C44" s="229" t="s">
         <v>157</v>
       </c>
-      <c r="D44" s="287" t="s">
+      <c r="D44" s="327" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="189" t="s">
+      <c r="E44" s="328" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="179"/>
-      <c r="G44" s="181"/>
+      <c r="F44" s="320"/>
+      <c r="G44" s="331"/>
       <c r="H44" s="161"/>
-      <c r="I44" s="178"/>
-      <c r="J44" s="294" t="s">
+      <c r="I44" s="318"/>
+      <c r="J44" s="290" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5193,15 +6606,15 @@
       <c r="C45" s="152" t="s">
         <v>158</v>
       </c>
-      <c r="D45" s="178"/>
-      <c r="E45" s="176"/>
-      <c r="F45" s="180"/>
-      <c r="G45" s="182"/>
+      <c r="D45" s="318"/>
+      <c r="E45" s="311"/>
+      <c r="F45" s="321"/>
+      <c r="G45" s="332"/>
       <c r="H45" s="157">
         <v>91845</v>
       </c>
-      <c r="I45" s="178"/>
-      <c r="J45" s="198"/>
+      <c r="I45" s="318"/>
+      <c r="J45" s="291"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="70"/>
@@ -5209,15 +6622,15 @@
       <c r="C46" s="152" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="178"/>
-      <c r="E46" s="176"/>
-      <c r="F46" s="180"/>
-      <c r="G46" s="182"/>
+      <c r="D46" s="318"/>
+      <c r="E46" s="311"/>
+      <c r="F46" s="321"/>
+      <c r="G46" s="332"/>
       <c r="H46" s="157">
         <v>58981</v>
       </c>
-      <c r="I46" s="178"/>
-      <c r="J46" s="198"/>
+      <c r="I46" s="318"/>
+      <c r="J46" s="291"/>
     </row>
     <row r="47" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="70"/>
@@ -5225,15 +6638,15 @@
       <c r="C47" s="153" t="s">
         <v>160</v>
       </c>
-      <c r="D47" s="178"/>
-      <c r="E47" s="176"/>
-      <c r="F47" s="180"/>
-      <c r="G47" s="182"/>
+      <c r="D47" s="318"/>
+      <c r="E47" s="311"/>
+      <c r="F47" s="321"/>
+      <c r="G47" s="332"/>
       <c r="H47" s="157">
         <v>23750</v>
       </c>
-      <c r="I47" s="178"/>
-      <c r="J47" s="198"/>
+      <c r="I47" s="318"/>
+      <c r="J47" s="291"/>
     </row>
     <row r="48" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="70"/>
@@ -5241,15 +6654,15 @@
       <c r="C48" s="160" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="178"/>
-      <c r="E48" s="176"/>
-      <c r="F48" s="180"/>
-      <c r="G48" s="182"/>
+      <c r="D48" s="318"/>
+      <c r="E48" s="311"/>
+      <c r="F48" s="321"/>
+      <c r="G48" s="332"/>
       <c r="H48" s="157">
         <v>189150</v>
       </c>
-      <c r="I48" s="178"/>
-      <c r="J48" s="198"/>
+      <c r="I48" s="318"/>
+      <c r="J48" s="291"/>
     </row>
     <row r="49" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="70"/>
@@ -5257,15 +6670,15 @@
       <c r="C49" s="160" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="178"/>
-      <c r="E49" s="176"/>
-      <c r="F49" s="180"/>
-      <c r="G49" s="182"/>
+      <c r="D49" s="318"/>
+      <c r="E49" s="311"/>
+      <c r="F49" s="321"/>
+      <c r="G49" s="332"/>
       <c r="H49" s="157">
         <v>67000</v>
       </c>
-      <c r="I49" s="178"/>
-      <c r="J49" s="198"/>
+      <c r="I49" s="318"/>
+      <c r="J49" s="291"/>
     </row>
     <row r="50" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="70"/>
@@ -5273,15 +6686,15 @@
       <c r="C50" s="160" t="s">
         <v>163</v>
       </c>
-      <c r="D50" s="192"/>
-      <c r="E50" s="190"/>
-      <c r="F50" s="193"/>
-      <c r="G50" s="194"/>
+      <c r="D50" s="319"/>
+      <c r="E50" s="312"/>
+      <c r="F50" s="322"/>
+      <c r="G50" s="333"/>
       <c r="H50" s="157">
         <v>23400</v>
       </c>
-      <c r="I50" s="192"/>
-      <c r="J50" s="198"/>
+      <c r="I50" s="319"/>
+      <c r="J50" s="291"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="70"/>
@@ -5307,7 +6720,7 @@
       <c r="D52" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="E52" s="355" t="s">
+      <c r="E52" s="226" t="s">
         <v>165</v>
       </c>
       <c r="F52" s="168"/>
@@ -5318,7 +6731,7 @@
       <c r="I52" s="155" t="s">
         <v>128</v>
       </c>
-      <c r="J52" s="356" t="s">
+      <c r="J52" s="227" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5456,11 +6869,11 @@
       <c r="J63" s="69"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="186" t="s">
+      <c r="A64" s="350" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="187"/>
-      <c r="C64" s="188"/>
+      <c r="B64" s="351"/>
+      <c r="C64" s="352"/>
       <c r="D64" s="72"/>
       <c r="E64" s="76"/>
       <c r="F64" s="76"/>
@@ -5473,11 +6886,11 @@
       <c r="J64" s="69"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="186" t="s">
+      <c r="A65" s="350" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="187"/>
-      <c r="C65" s="188"/>
+      <c r="B65" s="351"/>
+      <c r="C65" s="352"/>
       <c r="D65" s="70"/>
       <c r="E65" s="70"/>
       <c r="F65" s="70"/>
@@ -5547,36 +6960,36 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
-      <c r="B72" s="184" t="s">
+      <c r="B72" s="349" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="184"/>
+      <c r="C72" s="349"/>
       <c r="D72" s="28"/>
-      <c r="E72" s="184" t="s">
+      <c r="E72" s="349" t="s">
         <v>40</v>
       </c>
-      <c r="F72" s="184"/>
+      <c r="F72" s="349"/>
       <c r="G72" s="28"/>
-      <c r="H72" s="183" t="s">
+      <c r="H72" s="348" t="s">
         <v>41</v>
       </c>
-      <c r="I72" s="184"/>
+      <c r="I72" s="349"/>
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="185" t="s">
+      <c r="B73" s="256" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="185"/>
-      <c r="E73" s="185" t="s">
+      <c r="C73" s="256"/>
+      <c r="E73" s="256" t="s">
         <v>38</v>
       </c>
-      <c r="F73" s="185"/>
-      <c r="H73" s="185" t="s">
+      <c r="F73" s="256"/>
+      <c r="H73" s="256" t="s">
         <v>39</v>
       </c>
-      <c r="I73" s="185"/>
+      <c r="I73" s="256"/>
       <c r="J73" s="30"/>
       <c r="K73" s="30"/>
     </row>
@@ -5593,12 +7006,46 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J44:J50"/>
-    <mergeCell ref="J24:J43"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="D23:D43"/>
+    <mergeCell ref="E23:E43"/>
+    <mergeCell ref="F23:F43"/>
+    <mergeCell ref="G23:G43"/>
+    <mergeCell ref="E44:E50"/>
+    <mergeCell ref="D44:D50"/>
+    <mergeCell ref="F44:F50"/>
+    <mergeCell ref="G44:G50"/>
+    <mergeCell ref="I23:I50"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="G9:G11"/>
     <mergeCell ref="E1:F2"/>
     <mergeCell ref="G1:H2"/>
     <mergeCell ref="A6:B6"/>
@@ -5607,48 +7054,14 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="I23:I50"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="D23:D43"/>
-    <mergeCell ref="E23:E43"/>
-    <mergeCell ref="F23:F43"/>
-    <mergeCell ref="G23:G43"/>
-    <mergeCell ref="E44:E50"/>
-    <mergeCell ref="D44:D50"/>
-    <mergeCell ref="F44:F50"/>
-    <mergeCell ref="G44:G50"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J44:J50"/>
+    <mergeCell ref="J24:J43"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J14:J16"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -5679,57 +7092,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="369" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
+      <c r="B1" s="369"/>
+      <c r="C1" s="369"/>
+      <c r="D1" s="369"/>
+      <c r="E1" s="369"/>
+      <c r="F1" s="369"/>
+      <c r="G1" s="369"/>
+      <c r="H1" s="369"/>
+      <c r="I1" s="369"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="233" t="s">
+      <c r="A2" s="369" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="233"/>
-      <c r="C2" s="233"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="233"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="233"/>
-      <c r="H2" s="233"/>
-      <c r="I2" s="233"/>
+      <c r="B2" s="369"/>
+      <c r="C2" s="369"/>
+      <c r="D2" s="369"/>
+      <c r="E2" s="369"/>
+      <c r="F2" s="369"/>
+      <c r="G2" s="369"/>
+      <c r="H2" s="369"/>
+      <c r="I2" s="369"/>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="370" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="234"/>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
+      <c r="B3" s="370"/>
+      <c r="C3" s="370"/>
+      <c r="D3" s="370"/>
+      <c r="E3" s="370"/>
+      <c r="F3" s="370"/>
+      <c r="G3" s="370"/>
+      <c r="H3" s="370"/>
+      <c r="I3" s="370"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="36"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
-      <c r="E4" s="235" t="s">
+      <c r="E4" s="359" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="236"/>
-      <c r="G4" s="235" t="s">
+      <c r="F4" s="360"/>
+      <c r="G4" s="359" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="236"/>
+      <c r="H4" s="360"/>
       <c r="I4" s="36" t="s">
         <v>3</v>
       </c>
@@ -5747,10 +7160,10 @@
       <c r="D5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="237"/>
-      <c r="F5" s="238"/>
-      <c r="G5" s="237"/>
-      <c r="H5" s="238"/>
+      <c r="E5" s="361"/>
+      <c r="F5" s="362"/>
+      <c r="G5" s="361"/>
+      <c r="H5" s="362"/>
       <c r="I5" s="39" t="s">
         <v>8</v>
       </c>
@@ -5829,8 +7242,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="229"/>
-      <c r="B9" s="230"/>
+      <c r="A9" s="371"/>
+      <c r="B9" s="372"/>
       <c r="C9" s="105" t="s">
         <v>22</v>
       </c>
@@ -5842,8 +7255,8 @@
       <c r="I9" s="50"/>
     </row>
     <row r="10" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="231"/>
-      <c r="B10" s="231"/>
+      <c r="A10" s="373"/>
+      <c r="B10" s="373"/>
       <c r="C10" s="93" t="s">
         <v>62</v>
       </c>
@@ -5863,8 +7276,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="6.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="231"/>
-      <c r="B11" s="231"/>
+      <c r="A11" s="373"/>
+      <c r="B11" s="373"/>
       <c r="C11" s="119"/>
       <c r="D11" s="117"/>
       <c r="E11" s="118"/>
@@ -5879,18 +7292,18 @@
       <c r="C12" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="222" t="s">
+      <c r="D12" s="363" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="226" t="s">
+      <c r="E12" s="364" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
-      <c r="H12" s="225">
+      <c r="H12" s="374">
         <v>140000</v>
       </c>
-      <c r="I12" s="222" t="s">
+      <c r="I12" s="363" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5900,12 +7313,12 @@
       <c r="C13" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="223"/>
-      <c r="E13" s="227"/>
+      <c r="D13" s="353"/>
+      <c r="E13" s="355"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
-      <c r="H13" s="223"/>
-      <c r="I13" s="223"/>
+      <c r="H13" s="353"/>
+      <c r="I13" s="353"/>
       <c r="K13" s="98"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5914,12 +7327,12 @@
       <c r="C14" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="223"/>
-      <c r="E14" s="227"/>
+      <c r="D14" s="353"/>
+      <c r="E14" s="355"/>
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
-      <c r="H14" s="223"/>
-      <c r="I14" s="223"/>
+      <c r="H14" s="353"/>
+      <c r="I14" s="353"/>
       <c r="K14" s="98"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -5928,12 +7341,12 @@
       <c r="C15" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="223"/>
-      <c r="E15" s="227"/>
+      <c r="D15" s="353"/>
+      <c r="E15" s="355"/>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="223"/>
-      <c r="I15" s="223"/>
+      <c r="H15" s="353"/>
+      <c r="I15" s="353"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="59"/>
@@ -5941,12 +7354,12 @@
       <c r="C16" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="223"/>
-      <c r="E16" s="227"/>
+      <c r="D16" s="353"/>
+      <c r="E16" s="355"/>
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
-      <c r="H16" s="223"/>
-      <c r="I16" s="223"/>
+      <c r="H16" s="353"/>
+      <c r="I16" s="353"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="59"/>
@@ -5954,12 +7367,12 @@
       <c r="C17" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="223"/>
-      <c r="E17" s="227"/>
+      <c r="D17" s="353"/>
+      <c r="E17" s="355"/>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
-      <c r="H17" s="223"/>
-      <c r="I17" s="223"/>
+      <c r="H17" s="353"/>
+      <c r="I17" s="353"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="59"/>
@@ -5967,12 +7380,12 @@
       <c r="C18" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="223"/>
-      <c r="E18" s="227"/>
+      <c r="D18" s="353"/>
+      <c r="E18" s="355"/>
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
-      <c r="H18" s="223"/>
-      <c r="I18" s="223"/>
+      <c r="H18" s="353"/>
+      <c r="I18" s="353"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="59"/>
@@ -5980,12 +7393,12 @@
       <c r="C19" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="223"/>
-      <c r="E19" s="227"/>
+      <c r="D19" s="353"/>
+      <c r="E19" s="355"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
-      <c r="H19" s="223"/>
-      <c r="I19" s="223"/>
+      <c r="H19" s="353"/>
+      <c r="I19" s="353"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="59"/>
@@ -5993,12 +7406,12 @@
       <c r="C20" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="223"/>
-      <c r="E20" s="227"/>
+      <c r="D20" s="353"/>
+      <c r="E20" s="355"/>
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
-      <c r="H20" s="223"/>
-      <c r="I20" s="223"/>
+      <c r="H20" s="353"/>
+      <c r="I20" s="353"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="59"/>
@@ -6006,12 +7419,12 @@
       <c r="C21" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="224"/>
-      <c r="E21" s="232"/>
+      <c r="D21" s="354"/>
+      <c r="E21" s="356"/>
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
-      <c r="H21" s="224"/>
-      <c r="I21" s="224"/>
+      <c r="H21" s="354"/>
+      <c r="I21" s="354"/>
     </row>
     <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="59"/>
@@ -6019,18 +7432,18 @@
       <c r="C22" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="226" t="s">
+      <c r="D22" s="364" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="226" t="s">
+      <c r="E22" s="364" t="s">
         <v>55</v>
       </c>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
-      <c r="H22" s="225">
+      <c r="H22" s="374">
         <v>592665.87</v>
       </c>
-      <c r="I22" s="222" t="s">
+      <c r="I22" s="363" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6040,12 +7453,12 @@
       <c r="C23" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="227"/>
-      <c r="E23" s="227"/>
+      <c r="D23" s="355"/>
+      <c r="E23" s="355"/>
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
-      <c r="H23" s="228"/>
-      <c r="I23" s="223"/>
+      <c r="H23" s="375"/>
+      <c r="I23" s="353"/>
     </row>
     <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="50"/>
@@ -6053,12 +7466,12 @@
       <c r="C24" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="227"/>
-      <c r="E24" s="227"/>
+      <c r="D24" s="355"/>
+      <c r="E24" s="355"/>
       <c r="F24" s="107"/>
       <c r="G24" s="108"/>
-      <c r="H24" s="228"/>
-      <c r="I24" s="223"/>
+      <c r="H24" s="375"/>
+      <c r="I24" s="353"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50"/>
@@ -6066,12 +7479,12 @@
       <c r="C25" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="227"/>
-      <c r="E25" s="227"/>
+      <c r="D25" s="355"/>
+      <c r="E25" s="355"/>
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
-      <c r="H25" s="228"/>
-      <c r="I25" s="223"/>
+      <c r="H25" s="375"/>
+      <c r="I25" s="353"/>
     </row>
     <row r="26" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50"/>
@@ -6079,12 +7492,12 @@
       <c r="C26" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="227"/>
-      <c r="E26" s="227"/>
+      <c r="D26" s="355"/>
+      <c r="E26" s="355"/>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
-      <c r="H26" s="228"/>
-      <c r="I26" s="223"/>
+      <c r="H26" s="375"/>
+      <c r="I26" s="353"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="50"/>
@@ -6092,12 +7505,12 @@
       <c r="C27" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="227"/>
-      <c r="E27" s="227"/>
+      <c r="D27" s="355"/>
+      <c r="E27" s="355"/>
       <c r="F27" s="50"/>
       <c r="G27" s="50"/>
-      <c r="H27" s="228"/>
-      <c r="I27" s="223"/>
+      <c r="H27" s="375"/>
+      <c r="I27" s="353"/>
     </row>
     <row r="28" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="50"/>
@@ -6105,12 +7518,12 @@
       <c r="C28" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="227"/>
-      <c r="E28" s="227"/>
+      <c r="D28" s="355"/>
+      <c r="E28" s="355"/>
       <c r="F28" s="107"/>
       <c r="G28" s="108"/>
-      <c r="H28" s="228"/>
-      <c r="I28" s="223"/>
+      <c r="H28" s="375"/>
+      <c r="I28" s="353"/>
     </row>
     <row r="29" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="50"/>
@@ -6118,12 +7531,12 @@
       <c r="C29" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="227"/>
-      <c r="E29" s="227"/>
+      <c r="D29" s="355"/>
+      <c r="E29" s="355"/>
       <c r="F29" s="107"/>
       <c r="G29" s="108"/>
-      <c r="H29" s="228"/>
-      <c r="I29" s="223"/>
+      <c r="H29" s="375"/>
+      <c r="I29" s="353"/>
     </row>
     <row r="30" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="50"/>
@@ -6131,12 +7544,12 @@
       <c r="C30" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="227"/>
-      <c r="E30" s="227"/>
+      <c r="D30" s="355"/>
+      <c r="E30" s="355"/>
       <c r="F30" s="107"/>
       <c r="G30" s="108"/>
-      <c r="H30" s="228"/>
-      <c r="I30" s="223"/>
+      <c r="H30" s="375"/>
+      <c r="I30" s="353"/>
     </row>
     <row r="31" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="50"/>
@@ -6144,12 +7557,12 @@
       <c r="C31" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="227"/>
-      <c r="E31" s="227"/>
+      <c r="D31" s="355"/>
+      <c r="E31" s="355"/>
       <c r="F31" s="107"/>
       <c r="G31" s="108"/>
-      <c r="H31" s="228"/>
-      <c r="I31" s="223"/>
+      <c r="H31" s="375"/>
+      <c r="I31" s="353"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="50"/>
@@ -6157,12 +7570,12 @@
       <c r="C32" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="227"/>
-      <c r="E32" s="227"/>
+      <c r="D32" s="355"/>
+      <c r="E32" s="355"/>
       <c r="F32" s="107"/>
       <c r="G32" s="108"/>
-      <c r="H32" s="228"/>
-      <c r="I32" s="223"/>
+      <c r="H32" s="375"/>
+      <c r="I32" s="353"/>
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="50"/>
@@ -6170,12 +7583,12 @@
       <c r="C33" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="227"/>
-      <c r="E33" s="227"/>
+      <c r="D33" s="355"/>
+      <c r="E33" s="355"/>
       <c r="F33" s="107"/>
       <c r="G33" s="108"/>
-      <c r="H33" s="228"/>
-      <c r="I33" s="223"/>
+      <c r="H33" s="375"/>
+      <c r="I33" s="353"/>
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="50"/>
@@ -6183,12 +7596,12 @@
       <c r="C34" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="227"/>
-      <c r="E34" s="227"/>
+      <c r="D34" s="355"/>
+      <c r="E34" s="355"/>
       <c r="F34" s="107"/>
       <c r="G34" s="108"/>
-      <c r="H34" s="228"/>
-      <c r="I34" s="223"/>
+      <c r="H34" s="375"/>
+      <c r="I34" s="353"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="50"/>
@@ -6196,12 +7609,12 @@
       <c r="C35" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="227"/>
-      <c r="E35" s="227"/>
+      <c r="D35" s="355"/>
+      <c r="E35" s="355"/>
       <c r="F35" s="107"/>
       <c r="G35" s="108"/>
-      <c r="H35" s="228"/>
-      <c r="I35" s="223"/>
+      <c r="H35" s="375"/>
+      <c r="I35" s="353"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="50"/>
@@ -6209,12 +7622,12 @@
       <c r="C36" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="227"/>
-      <c r="E36" s="227"/>
+      <c r="D36" s="355"/>
+      <c r="E36" s="355"/>
       <c r="F36" s="107"/>
       <c r="G36" s="108"/>
-      <c r="H36" s="228"/>
-      <c r="I36" s="223"/>
+      <c r="H36" s="375"/>
+      <c r="I36" s="353"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="50"/>
@@ -6222,12 +7635,12 @@
       <c r="C37" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="227"/>
-      <c r="E37" s="227"/>
+      <c r="D37" s="355"/>
+      <c r="E37" s="355"/>
       <c r="F37" s="107"/>
       <c r="G37" s="108"/>
-      <c r="H37" s="228"/>
-      <c r="I37" s="223"/>
+      <c r="H37" s="375"/>
+      <c r="I37" s="353"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="50"/>
@@ -6235,12 +7648,12 @@
       <c r="C38" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="227"/>
-      <c r="E38" s="227"/>
+      <c r="D38" s="355"/>
+      <c r="E38" s="355"/>
       <c r="F38" s="107"/>
       <c r="G38" s="108"/>
-      <c r="H38" s="228"/>
-      <c r="I38" s="223"/>
+      <c r="H38" s="375"/>
+      <c r="I38" s="353"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="50"/>
@@ -6248,12 +7661,12 @@
       <c r="C39" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="227"/>
-      <c r="E39" s="227"/>
+      <c r="D39" s="355"/>
+      <c r="E39" s="355"/>
       <c r="F39" s="107"/>
       <c r="G39" s="108"/>
-      <c r="H39" s="228"/>
-      <c r="I39" s="223"/>
+      <c r="H39" s="375"/>
+      <c r="I39" s="353"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="50"/>
@@ -6261,12 +7674,12 @@
       <c r="C40" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="227"/>
-      <c r="E40" s="227"/>
+      <c r="D40" s="355"/>
+      <c r="E40" s="355"/>
       <c r="F40" s="107"/>
       <c r="G40" s="108"/>
-      <c r="H40" s="228"/>
-      <c r="I40" s="223"/>
+      <c r="H40" s="375"/>
+      <c r="I40" s="353"/>
     </row>
     <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="50"/>
@@ -6274,12 +7687,12 @@
       <c r="C41" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="227"/>
-      <c r="E41" s="227"/>
+      <c r="D41" s="355"/>
+      <c r="E41" s="355"/>
       <c r="F41" s="107"/>
       <c r="G41" s="108"/>
-      <c r="H41" s="228"/>
-      <c r="I41" s="223"/>
+      <c r="H41" s="375"/>
+      <c r="I41" s="353"/>
     </row>
     <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="50"/>
@@ -6287,12 +7700,12 @@
       <c r="C42" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="227"/>
-      <c r="E42" s="227"/>
+      <c r="D42" s="355"/>
+      <c r="E42" s="355"/>
       <c r="F42" s="107"/>
       <c r="G42" s="108"/>
-      <c r="H42" s="228"/>
-      <c r="I42" s="223"/>
+      <c r="H42" s="375"/>
+      <c r="I42" s="353"/>
     </row>
     <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="50"/>
@@ -6300,12 +7713,12 @@
       <c r="C43" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="227"/>
-      <c r="E43" s="227"/>
+      <c r="D43" s="355"/>
+      <c r="E43" s="355"/>
       <c r="F43" s="107"/>
       <c r="G43" s="108"/>
-      <c r="H43" s="228"/>
-      <c r="I43" s="223"/>
+      <c r="H43" s="375"/>
+      <c r="I43" s="353"/>
     </row>
     <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="50"/>
@@ -6313,12 +7726,12 @@
       <c r="C44" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="227"/>
-      <c r="E44" s="227"/>
+      <c r="D44" s="355"/>
+      <c r="E44" s="355"/>
       <c r="F44" s="107"/>
       <c r="G44" s="108"/>
-      <c r="H44" s="228"/>
-      <c r="I44" s="223"/>
+      <c r="H44" s="375"/>
+      <c r="I44" s="353"/>
     </row>
     <row r="45" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="50"/>
@@ -6339,14 +7752,14 @@
       <c r="C46" s="137" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="223"/>
-      <c r="E46" s="227"/>
+      <c r="D46" s="353"/>
+      <c r="E46" s="355"/>
       <c r="F46" s="104"/>
       <c r="G46" s="56"/>
       <c r="H46" s="56">
         <v>160000</v>
       </c>
-      <c r="I46" s="239" t="s">
+      <c r="I46" s="357" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6356,14 +7769,14 @@
       <c r="C47" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="224"/>
-      <c r="E47" s="232"/>
+      <c r="D47" s="354"/>
+      <c r="E47" s="356"/>
       <c r="F47" s="104"/>
       <c r="G47" s="56"/>
       <c r="H47" s="56">
         <v>171900</v>
       </c>
-      <c r="I47" s="240"/>
+      <c r="I47" s="358"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="50"/>
@@ -6371,18 +7784,18 @@
       <c r="C48" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="222" t="s">
+      <c r="D48" s="363" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="226" t="s">
+      <c r="E48" s="364" t="s">
         <v>111</v>
       </c>
       <c r="F48" s="104"/>
       <c r="G48" s="56"/>
-      <c r="H48" s="241">
+      <c r="H48" s="365">
         <v>750000</v>
       </c>
-      <c r="I48" s="244" t="s">
+      <c r="I48" s="368" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6392,12 +7805,12 @@
       <c r="C49" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="223"/>
-      <c r="E49" s="227"/>
+      <c r="D49" s="353"/>
+      <c r="E49" s="355"/>
       <c r="F49" s="104"/>
       <c r="G49" s="56"/>
-      <c r="H49" s="242"/>
-      <c r="I49" s="239"/>
+      <c r="H49" s="366"/>
+      <c r="I49" s="357"/>
     </row>
     <row r="50" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="50"/>
@@ -6405,12 +7818,12 @@
       <c r="C50" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="223"/>
-      <c r="E50" s="227"/>
+      <c r="D50" s="353"/>
+      <c r="E50" s="355"/>
       <c r="F50" s="104"/>
       <c r="G50" s="56"/>
-      <c r="H50" s="242"/>
-      <c r="I50" s="239"/>
+      <c r="H50" s="366"/>
+      <c r="I50" s="357"/>
     </row>
     <row r="51" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="50"/>
@@ -6418,12 +7831,12 @@
       <c r="C51" s="124" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="223"/>
-      <c r="E51" s="227"/>
+      <c r="D51" s="353"/>
+      <c r="E51" s="355"/>
       <c r="F51" s="104"/>
       <c r="G51" s="56"/>
-      <c r="H51" s="242"/>
-      <c r="I51" s="239"/>
+      <c r="H51" s="366"/>
+      <c r="I51" s="357"/>
     </row>
     <row r="52" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="50"/>
@@ -6431,12 +7844,12 @@
       <c r="C52" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="224"/>
-      <c r="E52" s="232"/>
+      <c r="D52" s="354"/>
+      <c r="E52" s="356"/>
       <c r="F52" s="104"/>
       <c r="G52" s="56"/>
-      <c r="H52" s="243"/>
-      <c r="I52" s="240"/>
+      <c r="H52" s="367"/>
+      <c r="I52" s="358"/>
     </row>
     <row r="53" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="95"/>
@@ -6505,14 +7918,14 @@
       <c r="B61" s="37"/>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
-      <c r="E61" s="235" t="s">
+      <c r="E61" s="359" t="s">
         <v>1</v>
       </c>
-      <c r="F61" s="236"/>
-      <c r="G61" s="235" t="s">
+      <c r="F61" s="360"/>
+      <c r="G61" s="359" t="s">
         <v>2</v>
       </c>
-      <c r="H61" s="236"/>
+      <c r="H61" s="360"/>
       <c r="I61" s="36" t="s">
         <v>3</v>
       </c>
@@ -6530,10 +7943,10 @@
       <c r="D62" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="237"/>
-      <c r="F62" s="238"/>
-      <c r="G62" s="237"/>
-      <c r="H62" s="238"/>
+      <c r="E62" s="361"/>
+      <c r="F62" s="362"/>
+      <c r="G62" s="361"/>
+      <c r="H62" s="362"/>
       <c r="I62" s="39" t="s">
         <v>8</v>
       </c>
@@ -6871,6 +8284,22 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="I12:I21"/>
+    <mergeCell ref="H12:H21"/>
+    <mergeCell ref="D22:D44"/>
+    <mergeCell ref="H22:H44"/>
+    <mergeCell ref="E22:E44"/>
+    <mergeCell ref="I22:I44"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="E12:E21"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:H5"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="E46:E47"/>
     <mergeCell ref="I46:I47"/>
@@ -6880,26 +8309,10 @@
     <mergeCell ref="E48:E52"/>
     <mergeCell ref="H48:H52"/>
     <mergeCell ref="I48:I52"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="E12:E21"/>
-    <mergeCell ref="I12:I21"/>
-    <mergeCell ref="H12:H21"/>
-    <mergeCell ref="D22:D44"/>
-    <mergeCell ref="H22:H44"/>
-    <mergeCell ref="E22:E44"/>
-    <mergeCell ref="I22:I44"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="14" scale="98" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="14" scale="98" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="58" max="8" man="1"/>
   </rowBreaks>

--- a/LDRRMFIP.xlsx
+++ b/LDRRMFIP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LDRRMFIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LDRRMFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AEDA47-4EFF-4EB5-9FC7-AF35F82C3D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982A0F5A-D855-4CD2-A45B-8DE8DB9879F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FA223BB2-9E3C-AB4E-9163-26FFAA34B9F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FA223BB2-9E3C-AB4E-9163-26FFAA34B9F9}"/>
   </bookViews>
   <sheets>
     <sheet name="new form(2026)" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="237">
   <si>
     <t>AIP</t>
   </si>
@@ -786,173 +786,10 @@
     <t>100% of required emergency preparedness, response and early recovery operations conducted</t>
   </si>
   <si>
-    <t>LDRRM Plan 2025 (Unutilized Fund)</t>
-  </si>
-  <si>
-    <t>Trainings, Planning and Seminars</t>
-  </si>
-  <si>
-    <t>B/LDRRM Council / Responders</t>
-  </si>
-  <si>
-    <t>April
-2025</t>
-  </si>
-  <si>
-    <t>December 
-2025</t>
-  </si>
-  <si>
-    <t>December
-2025</t>
-  </si>
-  <si>
-    <t>Fingertip pulse oximeter monitor (15units)</t>
-  </si>
-  <si>
-    <t>Medical supplies necessary for response and operations</t>
-  </si>
-  <si>
-    <t>Unutilized (Trust Fund)</t>
-  </si>
-  <si>
-    <t>Infrared thermometer gun w/ screen display (15units)</t>
-  </si>
-  <si>
-    <t>70% Alcohol (20gal)</t>
-  </si>
-  <si>
-    <t>Latex examination gloves L (10boxes)</t>
-  </si>
-  <si>
-    <t>Latex examination gloves M (10boxes)</t>
-  </si>
-  <si>
-    <t>Povidone Iodine (10gal)</t>
-  </si>
-  <si>
-    <t>5% dextrose in Water (30 L)</t>
-  </si>
-  <si>
-    <t>Nasal Cannula for Adults (200pcs)</t>
-  </si>
-  <si>
     <t>PURCHASE OF RESCUE EQUIPMENT UNITS</t>
   </si>
   <si>
-    <t>Rescue supplies and equipment necessary for response and operations</t>
-  </si>
-  <si>
-    <t>Brushless cordless 4” Pruning saw kit set 18V (2units)</t>
-  </si>
-  <si>
-    <t>Wireless microphone UHF (1unit)</t>
-  </si>
-  <si>
-    <t>18V cordless leaf blower (dub184z) (1unit)</t>
-  </si>
-  <si>
-    <t>Lithium-ion Tool Battery 18V 6.0-18.0aH 6000MAh Replaceable (4units)</t>
-  </si>
-  <si>
-    <t>Reciprocating saw blade for wood &amp; metal 6” 152mm 7-18TPI (2units)</t>
-  </si>
-  <si>
-    <t>18V 16Ah Rechargeable Battery Li-Ion Battery Replacement + charger (1set)</t>
-  </si>
-  <si>
-    <t>Rubber boat inflatable bumper fender (2pcs/set) (4 sets)</t>
-  </si>
-  <si>
-    <t>Socket wrench Set 8-24mm ½ drive (1set)</t>
-  </si>
-  <si>
-    <t>Crocodile jack 5 ton (1 unit)</t>
-  </si>
-  <si>
-    <t>5 Quart Personal Cooler – hinged lid 4.7 L (1pc)</t>
-  </si>
-  <si>
-    <t>Rope bag (15L) (15units)</t>
-  </si>
-  <si>
-    <t>Rechargeable battery AAA (40pcs)</t>
-  </si>
-  <si>
-    <t>2 Layer tackle box (2units)</t>
-  </si>
-  <si>
-    <t>77L Yellow PP attached Lid container, 600mmx400x400mm</t>
-  </si>
-  <si>
-    <t>7- Infrastructure</t>
-  </si>
-  <si>
-    <t>Purchase and installation of Repeater + Tower (Zaragosa) (1), Antenna Base (DRRM Office) (1), &amp; Mobile Antenna w/ holder (6units)</t>
-  </si>
-  <si>
-    <t>LDRRMO / BAC / MEO</t>
-  </si>
-  <si>
-    <t>Purchase &amp; Installation of Custom LED Wall
-Pixel Pitch	: P4
-Usage Type	: Outdoor
-Installation type: Fixed
-Size		: 1440x810mm WxH</t>
-  </si>
-  <si>
-    <t>Construction of spillway (Kandingan)</t>
-  </si>
-  <si>
-    <t>Purchase of Prime Inverter, Split type AC (2units)</t>
-  </si>
-  <si>
-    <t>For communications of responders and other stakeholders</t>
-  </si>
-  <si>
-    <t>For information, education, and communication (IEC)</t>
-  </si>
-  <si>
-    <t>Unutilized (General Fund)</t>
-  </si>
-  <si>
-    <t>To prevent flooding</t>
-  </si>
-  <si>
-    <t>Purchase 65” OLED 24K Smart AI TV (1unit)</t>
-  </si>
-  <si>
-    <t>for DRRM Office aircon</t>
-  </si>
-  <si>
-    <t>for presentations / IEC</t>
-  </si>
-  <si>
-    <t>Purchase &amp; Installation of power poles (5units)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchase of GPU-RTX 3060 (GIS)	</t>
-  </si>
-  <si>
-    <t>Purchase of 750W 80+ bronze non-modular Power supply</t>
-  </si>
-  <si>
-    <t>Purchase of Vehicle dash cam w/ built-in GPS Navigator – Drive Smart 86, 8” (6units)</t>
-  </si>
-  <si>
-    <t>Document/record footage of  the trips of the emergency vehicles</t>
-  </si>
-  <si>
-    <t>Purchase of microSD card (512GB) (12pcs)</t>
-  </si>
-  <si>
-    <t>To secure the rescue equipment</t>
-  </si>
-  <si>
-    <t>Purchase of rescue hydraulic Telescopic Ram (1unit)</t>
-  </si>
-  <si>
-    <t>for rescue equipment</t>
+    <t>VERTEX VENT Blue Safety Helmet with Chin Strap, Adjustable Ventilated (10units)</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="387">
+  <cellXfs count="366">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1886,20 +1723,15 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1916,7 +1748,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1926,9 +1758,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="21" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1984,8 +1813,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2040,15 +1869,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="25" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2058,148 +1878,265 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="43" fontId="25" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2220,194 +2157,86 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2421,59 +2250,8 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2790,11 +2568,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA819F7F-BA76-4EB2-BBFE-647BCD4141EF}">
-  <dimension ref="A1:P110"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:K8"/>
+      <selection pane="bottomLeft" activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2817,19 +2598,19 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="249" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="279"/>
-      <c r="C2" s="279"/>
-      <c r="D2" s="279"/>
-      <c r="E2" s="279"/>
-      <c r="F2" s="279"/>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
-      <c r="K2" s="279"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
       <c r="L2" s="182"/>
       <c r="M2" s="182"/>
       <c r="N2" s="182"/>
@@ -2837,19 +2618,19 @@
       <c r="P2" s="182"/>
     </row>
     <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="282" t="s">
+      <c r="A3" s="252" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="282"/>
-      <c r="C3" s="282"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="282"/>
-      <c r="K3" s="282"/>
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="252"/>
+      <c r="G3" s="252"/>
+      <c r="H3" s="252"/>
+      <c r="I3" s="252"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
       <c r="L3" s="182"/>
       <c r="M3" s="182"/>
       <c r="N3" s="182"/>
@@ -2879,31 +2660,31 @@
       <c r="P5" s="176"/>
     </row>
     <row r="6" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="283" t="s">
+      <c r="A6" s="253" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="285" t="s">
+      <c r="B6" s="255" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="286"/>
-      <c r="D6" s="283" t="s">
+      <c r="C6" s="256"/>
+      <c r="D6" s="253" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="273" t="s">
+      <c r="E6" s="243" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="275"/>
-      <c r="G6" s="283" t="s">
+      <c r="F6" s="245"/>
+      <c r="G6" s="253" t="s">
         <v>174</v>
       </c>
-      <c r="H6" s="283" t="s">
+      <c r="H6" s="253" t="s">
         <v>175</v>
       </c>
-      <c r="I6" s="273" t="s">
+      <c r="I6" s="243" t="s">
         <v>176</v>
       </c>
-      <c r="J6" s="274"/>
-      <c r="K6" s="275"/>
+      <c r="J6" s="244"/>
+      <c r="K6" s="245"/>
       <c r="L6" s="181"/>
       <c r="M6" s="181"/>
       <c r="N6" s="181"/>
@@ -2911,18 +2692,18 @@
       <c r="P6" s="177"/>
     </row>
     <row r="7" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="284"/>
-      <c r="B7" s="287"/>
-      <c r="C7" s="288"/>
-      <c r="D7" s="284"/>
+      <c r="A7" s="254"/>
+      <c r="B7" s="257"/>
+      <c r="C7" s="258"/>
+      <c r="D7" s="254"/>
       <c r="E7" s="183" t="s">
         <v>172</v>
       </c>
       <c r="F7" s="183" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="284"/>
-      <c r="H7" s="284"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
       <c r="I7" s="183" t="s">
         <v>177</v>
       </c>
@@ -2938,2764 +2719,1601 @@
       <c r="O7" s="177"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="276" t="s">
+      <c r="A8" s="246" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="277"/>
-      <c r="C8" s="277"/>
-      <c r="D8" s="277"/>
-      <c r="E8" s="277"/>
-      <c r="F8" s="277"/>
-      <c r="G8" s="277"/>
-      <c r="H8" s="277"/>
-      <c r="I8" s="277"/>
-      <c r="J8" s="277"/>
-      <c r="K8" s="278"/>
+      <c r="B8" s="247"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="247"/>
+      <c r="E8" s="247"/>
+      <c r="F8" s="247"/>
+      <c r="G8" s="247"/>
+      <c r="H8" s="247"/>
+      <c r="I8" s="247"/>
+      <c r="J8" s="247"/>
+      <c r="K8" s="248"/>
     </row>
     <row r="9" spans="1:16" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="245" t="s">
+      <c r="A9" s="238" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="253" t="s">
+      <c r="B9" s="236" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="254"/>
-      <c r="D9" s="194" t="s">
+      <c r="C9" s="237"/>
+      <c r="D9" s="191" t="s">
         <v>202</v>
       </c>
-      <c r="E9" s="194" t="s">
+      <c r="E9" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F9" s="194" t="s">
+      <c r="F9" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="194" t="s">
+      <c r="G9" s="191" t="s">
         <v>207</v>
       </c>
-      <c r="H9" s="194" t="s">
+      <c r="H9" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I9" s="195">
+      <c r="I9" s="192">
         <v>100000</v>
       </c>
-      <c r="J9" s="195"/>
-      <c r="K9" s="195">
+      <c r="J9" s="192"/>
+      <c r="K9" s="192">
         <f>SUM(I9:J9)</f>
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="184" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="246"/>
-      <c r="B10" s="253" t="s">
+    <row r="10" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="239"/>
+      <c r="B10" s="236" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="254"/>
-      <c r="D10" s="194" t="s">
+      <c r="C10" s="237"/>
+      <c r="D10" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="194" t="s">
+      <c r="E10" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="194" t="s">
+      <c r="F10" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G10" s="194" t="s">
+      <c r="G10" s="191" t="s">
         <v>206</v>
       </c>
-      <c r="H10" s="194" t="s">
+      <c r="H10" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I10" s="195">
+      <c r="I10" s="192">
         <v>30000</v>
       </c>
-      <c r="J10" s="195"/>
-      <c r="K10" s="195">
+      <c r="J10" s="192"/>
+      <c r="K10" s="192">
         <f>SUM(I10:J10)</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="184" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="246"/>
-      <c r="B11" s="253" t="s">
+    <row r="11" spans="1:16" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="239"/>
+      <c r="B11" s="236" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="254"/>
-      <c r="D11" s="194" t="s">
+      <c r="C11" s="237"/>
+      <c r="D11" s="191" t="s">
         <v>218</v>
       </c>
-      <c r="E11" s="194" t="s">
+      <c r="E11" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F11" s="194" t="s">
+      <c r="F11" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="194" t="s">
+      <c r="G11" s="191" t="s">
         <v>217</v>
       </c>
-      <c r="H11" s="194" t="s">
+      <c r="H11" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I11" s="195"/>
-      <c r="J11" s="195">
+      <c r="I11" s="192"/>
+      <c r="J11" s="192">
         <v>2500000</v>
       </c>
-      <c r="K11" s="195">
+      <c r="K11" s="192">
         <f>SUM(I11:J11)</f>
         <v>2500000</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="184" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="246"/>
-      <c r="B12" s="253" t="s">
+    <row r="12" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="239"/>
+      <c r="B12" s="236" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="254"/>
-      <c r="D12" s="194" t="s">
+      <c r="C12" s="237"/>
+      <c r="D12" s="191" t="s">
         <v>219</v>
       </c>
-      <c r="E12" s="194" t="s">
+      <c r="E12" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F12" s="194" t="s">
+      <c r="F12" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G12" s="194" t="s">
+      <c r="G12" s="191" t="s">
         <v>220</v>
       </c>
-      <c r="H12" s="194" t="s">
+      <c r="H12" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I12" s="195"/>
-      <c r="J12" s="195">
+      <c r="I12" s="192"/>
+      <c r="J12" s="192">
         <v>300000</v>
       </c>
-      <c r="K12" s="195">
+      <c r="K12" s="192">
         <f>SUM(I12:J12)</f>
         <v>300000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="184" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="246"/>
-      <c r="B13" s="253" t="s">
+    <row r="13" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="240"/>
+      <c r="B13" s="236" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="254"/>
-      <c r="D13" s="194" t="s">
+      <c r="C13" s="237"/>
+      <c r="D13" s="191" t="s">
         <v>205</v>
       </c>
-      <c r="E13" s="194" t="s">
+      <c r="E13" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F13" s="194" t="s">
+      <c r="F13" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G13" s="194" t="s">
+      <c r="G13" s="191" t="s">
         <v>208</v>
       </c>
-      <c r="H13" s="194" t="s">
+      <c r="H13" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I13" s="195">
+      <c r="I13" s="192">
         <v>70000</v>
       </c>
-      <c r="J13" s="195"/>
-      <c r="K13" s="195">
+      <c r="J13" s="192"/>
+      <c r="K13" s="192">
         <f>SUM(I13:J13)</f>
         <v>70000</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="247"/>
-      <c r="B14" s="196"/>
-      <c r="C14" s="197"/>
-      <c r="D14" s="197"/>
-      <c r="E14" s="197"/>
-      <c r="F14" s="197"/>
-      <c r="G14" s="201" t="s">
+      <c r="A14" s="365"/>
+      <c r="B14" s="193"/>
+      <c r="C14" s="194"/>
+      <c r="D14" s="194"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="197" t="s">
         <v>181</v>
       </c>
-      <c r="H14" s="202"/>
-      <c r="I14" s="198">
+      <c r="H14" s="198"/>
+      <c r="I14" s="195">
         <f>SUM(I9:I13)</f>
         <v>200000</v>
       </c>
-      <c r="J14" s="198">
+      <c r="J14" s="195">
         <f>SUM(J9:J13)</f>
         <v>2800000</v>
       </c>
-      <c r="K14" s="198">
+      <c r="K14" s="195">
         <f>SUM(K9:K13)</f>
         <v>3000000</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="264" t="s">
+      <c r="A15" s="276" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="265"/>
-      <c r="C15" s="265"/>
-      <c r="D15" s="265"/>
-      <c r="E15" s="265"/>
-      <c r="F15" s="265"/>
-      <c r="G15" s="265"/>
-      <c r="H15" s="265"/>
-      <c r="I15" s="265"/>
-      <c r="J15" s="265"/>
-      <c r="K15" s="266"/>
+      <c r="B15" s="277"/>
+      <c r="C15" s="277"/>
+      <c r="D15" s="277"/>
+      <c r="E15" s="277"/>
+      <c r="F15" s="277"/>
+      <c r="G15" s="277"/>
+      <c r="H15" s="277"/>
+      <c r="I15" s="277"/>
+      <c r="J15" s="277"/>
+      <c r="K15" s="278"/>
     </row>
     <row r="16" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="245" t="s">
+      <c r="A16" s="238" t="s">
         <v>200</v>
       </c>
-      <c r="B16" s="240" t="s">
+      <c r="B16" s="236" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="241"/>
-      <c r="D16" s="199" t="s">
+      <c r="C16" s="237"/>
+      <c r="D16" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="199" t="s">
+      <c r="E16" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F16" s="199" t="s">
+      <c r="F16" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G16" s="199" t="s">
+      <c r="G16" s="191" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="199" t="s">
+      <c r="H16" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I16" s="195"/>
-      <c r="J16" s="195">
+      <c r="I16" s="192"/>
+      <c r="J16" s="192">
         <v>1500000</v>
       </c>
-      <c r="K16" s="195">
+      <c r="K16" s="192">
         <f>SUM(I16:J16)</f>
         <v>1500000</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="247"/>
-      <c r="B17" s="280" t="s">
+      <c r="A17" s="240"/>
+      <c r="B17" s="250" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="281"/>
-      <c r="D17" s="200" t="s">
+      <c r="C17" s="251"/>
+      <c r="D17" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="199" t="s">
+      <c r="E17" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F17" s="199" t="s">
+      <c r="F17" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G17" s="199" t="s">
+      <c r="G17" s="191" t="s">
         <v>209</v>
       </c>
-      <c r="H17" s="199" t="s">
+      <c r="H17" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I17" s="195"/>
-      <c r="J17" s="195">
+      <c r="I17" s="192"/>
+      <c r="J17" s="192">
         <v>417302.79</v>
       </c>
-      <c r="K17" s="195">
+      <c r="K17" s="192">
         <f>SUM(I17:J17)</f>
         <v>417302.79</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="245" t="s">
+      <c r="A18" s="238" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="236" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="241"/>
-      <c r="D18" s="200" t="s">
+      <c r="C18" s="237"/>
+      <c r="D18" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="199" t="s">
+      <c r="E18" s="191" t="s">
         <v>212</v>
       </c>
-      <c r="F18" s="199" t="s">
+      <c r="F18" s="191" t="s">
         <v>212</v>
       </c>
-      <c r="G18" s="199" t="s">
+      <c r="G18" s="191" t="s">
         <v>213</v>
       </c>
-      <c r="H18" s="199" t="s">
+      <c r="H18" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I18" s="195">
+      <c r="I18" s="192">
         <v>200000</v>
       </c>
-      <c r="J18" s="195"/>
-      <c r="K18" s="195">
+      <c r="J18" s="192"/>
+      <c r="K18" s="192">
         <f>SUM(I18:J18)</f>
         <v>200000</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="246"/>
-      <c r="B19" s="240" t="s">
+      <c r="A19" s="239"/>
+      <c r="B19" s="236" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="241"/>
-      <c r="D19" s="200" t="s">
+      <c r="C19" s="237"/>
+      <c r="D19" s="196" t="s">
         <v>214</v>
       </c>
-      <c r="E19" s="199" t="s">
+      <c r="E19" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F19" s="199" t="s">
+      <c r="F19" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G19" s="199" t="s">
+      <c r="G19" s="191" t="s">
         <v>215</v>
       </c>
-      <c r="H19" s="199" t="s">
+      <c r="H19" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I19" s="195"/>
-      <c r="J19" s="195">
+      <c r="I19" s="192"/>
+      <c r="J19" s="192">
         <v>2000000</v>
       </c>
-      <c r="K19" s="195">
+      <c r="K19" s="192">
         <f>SUM(I19:J19)</f>
         <v>2000000</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="246"/>
-      <c r="B20" s="240" t="s">
+      <c r="A20" s="239"/>
+      <c r="B20" s="236" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="241"/>
-      <c r="D20" s="199" t="s">
+      <c r="C20" s="237"/>
+      <c r="D20" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="199" t="s">
+      <c r="E20" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F20" s="199" t="s">
+      <c r="F20" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="199" t="s">
+      <c r="G20" s="191" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="199" t="s">
+      <c r="H20" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I20" s="195">
+      <c r="I20" s="192">
         <v>40000</v>
       </c>
-      <c r="J20" s="195"/>
-      <c r="K20" s="195">
+      <c r="J20" s="192"/>
+      <c r="K20" s="192">
         <f t="shared" ref="K20:K27" si="0">SUM(I20:J20)</f>
         <v>40000</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="246"/>
-      <c r="B21" s="376" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="377"/>
-      <c r="D21" s="199"/>
-      <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="199"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="195"/>
-      <c r="J21" s="195"/>
-      <c r="K21" s="195"/>
+      <c r="A21" s="239"/>
+      <c r="B21" s="241" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" s="242"/>
+      <c r="D21" s="191"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="191"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="192"/>
+      <c r="J21" s="192"/>
+      <c r="K21" s="192"/>
     </row>
     <row r="22" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="246"/>
-      <c r="B22" s="240" t="s">
+      <c r="A22" s="239"/>
+      <c r="B22" s="236" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="241" t="s">
+      <c r="C22" s="237" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="199" t="s">
+      <c r="D22" s="191" t="s">
         <v>219</v>
       </c>
-      <c r="E22" s="199" t="s">
+      <c r="E22" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F22" s="199" t="s">
+      <c r="F22" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G22" s="199" t="s">
+      <c r="G22" s="191" t="s">
         <v>224</v>
       </c>
-      <c r="H22" s="199" t="s">
+      <c r="H22" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I22" s="195">
+      <c r="I22" s="192">
         <v>91845</v>
       </c>
-      <c r="J22" s="195"/>
-      <c r="K22" s="195">
+      <c r="J22" s="192"/>
+      <c r="K22" s="192">
         <f t="shared" si="0"/>
         <v>91845</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="246"/>
-      <c r="B23" s="240" t="s">
+      <c r="A23" s="239"/>
+      <c r="B23" s="236" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="241" t="s">
+      <c r="C23" s="237" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="199" t="s">
+      <c r="D23" s="191" t="s">
         <v>219</v>
       </c>
-      <c r="E23" s="199" t="s">
+      <c r="E23" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="199" t="s">
+      <c r="F23" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G23" s="199" t="s">
+      <c r="G23" s="191" t="s">
         <v>224</v>
       </c>
-      <c r="H23" s="199" t="s">
+      <c r="H23" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I23" s="195"/>
-      <c r="J23" s="195">
+      <c r="I23" s="192"/>
+      <c r="J23" s="192">
         <v>58981</v>
       </c>
-      <c r="K23" s="195">
+      <c r="K23" s="192">
         <f t="shared" si="0"/>
         <v>58981</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="246"/>
-      <c r="B24" s="240" t="s">
+      <c r="A24" s="239"/>
+      <c r="B24" s="236" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="241" t="s">
+      <c r="C24" s="237" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="199" t="s">
+      <c r="D24" s="191" t="s">
         <v>219</v>
       </c>
-      <c r="E24" s="199" t="s">
+      <c r="E24" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F24" s="199" t="s">
+      <c r="F24" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G24" s="199" t="s">
+      <c r="G24" s="191" t="s">
         <v>224</v>
       </c>
-      <c r="H24" s="199" t="s">
+      <c r="H24" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I24" s="195">
+      <c r="I24" s="192">
         <v>23750</v>
       </c>
-      <c r="J24" s="195"/>
-      <c r="K24" s="195">
+      <c r="J24" s="192"/>
+      <c r="K24" s="192">
         <f t="shared" si="0"/>
         <v>23750</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="246"/>
-      <c r="B25" s="240" t="s">
+      <c r="A25" s="239"/>
+      <c r="B25" s="236" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="241" t="s">
+      <c r="C25" s="237" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="199" t="s">
+      <c r="D25" s="191" t="s">
         <v>219</v>
       </c>
-      <c r="E25" s="199" t="s">
+      <c r="E25" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F25" s="199" t="s">
+      <c r="F25" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G25" s="199" t="s">
+      <c r="G25" s="191" t="s">
         <v>224</v>
       </c>
-      <c r="H25" s="199" t="s">
+      <c r="H25" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I25" s="195">
+      <c r="I25" s="192">
         <v>189150</v>
       </c>
-      <c r="J25" s="195"/>
-      <c r="K25" s="195">
+      <c r="J25" s="192"/>
+      <c r="K25" s="192">
         <f t="shared" si="0"/>
         <v>189150</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="246"/>
-      <c r="B26" s="240" t="s">
+      <c r="A26" s="239"/>
+      <c r="B26" s="236" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="237" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="241" t="s">
-        <v>162</v>
-      </c>
-      <c r="D26" s="199" t="s">
+      <c r="D26" s="191" t="s">
         <v>219</v>
       </c>
-      <c r="E26" s="199" t="s">
+      <c r="E26" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F26" s="199" t="s">
+      <c r="F26" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G26" s="199" t="s">
+      <c r="G26" s="191" t="s">
         <v>224</v>
       </c>
-      <c r="H26" s="199" t="s">
+      <c r="H26" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I26" s="195">
+      <c r="I26" s="192">
         <v>67000</v>
       </c>
-      <c r="J26" s="195"/>
-      <c r="K26" s="195">
+      <c r="J26" s="192"/>
+      <c r="K26" s="192">
         <f t="shared" si="0"/>
         <v>67000</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="247"/>
-      <c r="B27" s="240" t="s">
+      <c r="A27" s="240"/>
+      <c r="B27" s="236" t="s">
         <v>163</v>
       </c>
-      <c r="C27" s="241" t="s">
+      <c r="C27" s="237" t="s">
         <v>163</v>
       </c>
-      <c r="D27" s="199" t="s">
+      <c r="D27" s="191" t="s">
         <v>219</v>
       </c>
-      <c r="E27" s="199" t="s">
+      <c r="E27" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F27" s="199" t="s">
+      <c r="F27" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G27" s="199" t="s">
+      <c r="G27" s="191" t="s">
         <v>224</v>
       </c>
-      <c r="H27" s="199" t="s">
+      <c r="H27" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I27" s="195">
+      <c r="I27" s="192">
         <v>23400</v>
       </c>
-      <c r="J27" s="195"/>
-      <c r="K27" s="195">
+      <c r="J27" s="192"/>
+      <c r="K27" s="192">
         <f t="shared" si="0"/>
         <v>23400</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="245" t="s">
+      <c r="A28" s="238" t="s">
         <v>221</v>
       </c>
-      <c r="B28" s="376" t="s">
+      <c r="B28" s="241" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="377"/>
-      <c r="D28" s="199"/>
-      <c r="E28" s="199"/>
-      <c r="F28" s="199"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="195"/>
-      <c r="J28" s="195"/>
-      <c r="K28" s="195"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="191"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="191"/>
+      <c r="G28" s="191"/>
+      <c r="H28" s="191"/>
+      <c r="I28" s="192"/>
+      <c r="J28" s="192"/>
+      <c r="K28" s="192"/>
     </row>
     <row r="29" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="246"/>
-      <c r="B29" s="248" t="s">
+      <c r="A29" s="239"/>
+      <c r="B29" s="279" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="249"/>
-      <c r="D29" s="199" t="s">
+      <c r="C29" s="280"/>
+      <c r="D29" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="E29" s="199" t="s">
+      <c r="E29" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F29" s="199" t="s">
+      <c r="F29" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G29" s="199" t="s">
+      <c r="G29" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="H29" s="199" t="s">
+      <c r="H29" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I29" s="195">
+      <c r="I29" s="192">
         <v>9300</v>
       </c>
-      <c r="J29" s="195"/>
-      <c r="K29" s="195">
+      <c r="J29" s="192"/>
+      <c r="K29" s="192">
         <f>SUM(I29:J29)</f>
         <v>9300</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="246"/>
-      <c r="B30" s="243" t="s">
+      <c r="A30" s="239"/>
+      <c r="B30" s="236" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="244"/>
-      <c r="D30" s="199" t="s">
+      <c r="C30" s="237"/>
+      <c r="D30" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="E30" s="199" t="s">
+      <c r="E30" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F30" s="199" t="s">
+      <c r="F30" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G30" s="199" t="s">
+      <c r="G30" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="H30" s="199" t="s">
+      <c r="H30" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I30" s="195">
+      <c r="I30" s="192">
         <v>1800</v>
       </c>
-      <c r="J30" s="195"/>
-      <c r="K30" s="195">
-        <f t="shared" ref="K30:K88" si="1">SUM(I30:J30)</f>
+      <c r="J30" s="192"/>
+      <c r="K30" s="192">
+        <f t="shared" ref="K30:K48" si="1">SUM(I30:J30)</f>
         <v>1800</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="246"/>
-      <c r="B31" s="243" t="s">
+      <c r="A31" s="239"/>
+      <c r="B31" s="236" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="244" t="s">
+      <c r="C31" s="237" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="199" t="s">
+      <c r="D31" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="E31" s="199" t="s">
+      <c r="E31" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F31" s="199" t="s">
+      <c r="F31" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G31" s="199" t="s">
+      <c r="G31" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="H31" s="199" t="s">
+      <c r="H31" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I31" s="195">
+      <c r="I31" s="192">
         <v>1100</v>
       </c>
-      <c r="J31" s="195"/>
-      <c r="K31" s="195">
+      <c r="J31" s="192"/>
+      <c r="K31" s="192">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="246"/>
-      <c r="B32" s="243" t="s">
+      <c r="A32" s="239"/>
+      <c r="B32" s="236" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="244" t="s">
+      <c r="C32" s="237" t="s">
         <v>140</v>
       </c>
-      <c r="D32" s="199" t="s">
+      <c r="D32" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="E32" s="199" t="s">
+      <c r="E32" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F32" s="199" t="s">
+      <c r="F32" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G32" s="199" t="s">
+      <c r="G32" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="H32" s="199" t="s">
+      <c r="H32" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I32" s="195">
+      <c r="I32" s="192">
         <v>1050</v>
       </c>
-      <c r="J32" s="195"/>
-      <c r="K32" s="195">
+      <c r="J32" s="192"/>
+      <c r="K32" s="192">
         <f t="shared" si="1"/>
         <v>1050</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="246"/>
-      <c r="B33" s="243" t="s">
+      <c r="A33" s="239"/>
+      <c r="B33" s="236" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="244" t="s">
+      <c r="C33" s="237" t="s">
         <v>141</v>
       </c>
-      <c r="D33" s="199" t="s">
+      <c r="D33" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="E33" s="199" t="s">
+      <c r="E33" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F33" s="199" t="s">
+      <c r="F33" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G33" s="199" t="s">
+      <c r="G33" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="H33" s="199" t="s">
+      <c r="H33" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I33" s="195">
+      <c r="I33" s="192">
         <v>600</v>
       </c>
-      <c r="J33" s="195"/>
-      <c r="K33" s="195">
+      <c r="J33" s="192"/>
+      <c r="K33" s="192">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="246"/>
-      <c r="B34" s="243" t="s">
+      <c r="A34" s="239"/>
+      <c r="B34" s="236" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="244" t="s">
+      <c r="C34" s="237" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="199" t="s">
+      <c r="D34" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="E34" s="199" t="s">
+      <c r="E34" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F34" s="199" t="s">
+      <c r="F34" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G34" s="199" t="s">
+      <c r="G34" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="H34" s="199" t="s">
+      <c r="H34" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I34" s="195">
+      <c r="I34" s="192">
         <v>2100</v>
       </c>
-      <c r="J34" s="195"/>
-      <c r="K34" s="195">
+      <c r="J34" s="192"/>
+      <c r="K34" s="192">
         <f t="shared" si="1"/>
         <v>2100</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="246"/>
-      <c r="B35" s="243" t="s">
+      <c r="A35" s="239"/>
+      <c r="B35" s="236" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="244" t="s">
+      <c r="C35" s="237" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="199" t="s">
+      <c r="D35" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="E35" s="199" t="s">
+      <c r="E35" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F35" s="199" t="s">
+      <c r="F35" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G35" s="199" t="s">
+      <c r="G35" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="H35" s="199" t="s">
+      <c r="H35" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I35" s="195">
+      <c r="I35" s="192">
         <v>2275</v>
       </c>
-      <c r="J35" s="195"/>
-      <c r="K35" s="195">
+      <c r="J35" s="192"/>
+      <c r="K35" s="192">
         <f t="shared" si="1"/>
         <v>2275</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="246"/>
-      <c r="B36" s="243" t="s">
+      <c r="A36" s="239"/>
+      <c r="B36" s="236" t="s">
         <v>144</v>
       </c>
-      <c r="C36" s="244" t="s">
+      <c r="C36" s="237" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="199" t="s">
+      <c r="D36" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="E36" s="199" t="s">
+      <c r="E36" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F36" s="199" t="s">
+      <c r="F36" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="199" t="s">
+      <c r="G36" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="H36" s="199" t="s">
+      <c r="H36" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I36" s="195">
+      <c r="I36" s="192">
         <v>13500</v>
       </c>
-      <c r="J36" s="195"/>
-      <c r="K36" s="195">
+      <c r="J36" s="192"/>
+      <c r="K36" s="192">
         <f t="shared" si="1"/>
         <v>13500</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="246"/>
-      <c r="B37" s="243" t="s">
+      <c r="A37" s="239"/>
+      <c r="B37" s="236" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="244" t="s">
+      <c r="C37" s="237" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="199" t="s">
+      <c r="D37" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="E37" s="199" t="s">
+      <c r="E37" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F37" s="199" t="s">
+      <c r="F37" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G37" s="199" t="s">
+      <c r="G37" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="H37" s="199" t="s">
+      <c r="H37" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I37" s="195">
+      <c r="I37" s="192">
         <v>15000</v>
       </c>
-      <c r="J37" s="195"/>
-      <c r="K37" s="195">
+      <c r="J37" s="192"/>
+      <c r="K37" s="192">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="246"/>
-      <c r="B38" s="243" t="s">
+      <c r="A38" s="239"/>
+      <c r="B38" s="236" t="s">
         <v>146</v>
       </c>
-      <c r="C38" s="244" t="s">
+      <c r="C38" s="237" t="s">
         <v>146</v>
       </c>
-      <c r="D38" s="199" t="s">
+      <c r="D38" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="E38" s="199" t="s">
+      <c r="E38" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F38" s="199" t="s">
+      <c r="F38" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G38" s="199" t="s">
+      <c r="G38" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="H38" s="199" t="s">
+      <c r="H38" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I38" s="195">
+      <c r="I38" s="192">
         <v>8000</v>
       </c>
-      <c r="J38" s="195"/>
-      <c r="K38" s="195">
+      <c r="J38" s="192"/>
+      <c r="K38" s="192">
         <f t="shared" si="1"/>
         <v>8000</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="246"/>
-      <c r="B39" s="243" t="s">
+      <c r="A39" s="239"/>
+      <c r="B39" s="236" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="244" t="s">
+      <c r="C39" s="237" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="199" t="s">
+      <c r="D39" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="E39" s="199" t="s">
+      <c r="E39" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F39" s="199" t="s">
+      <c r="F39" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G39" s="199" t="s">
+      <c r="G39" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="H39" s="199" t="s">
+      <c r="H39" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I39" s="195">
+      <c r="I39" s="192">
         <v>24650</v>
       </c>
-      <c r="J39" s="195"/>
-      <c r="K39" s="195">
+      <c r="J39" s="192"/>
+      <c r="K39" s="192">
         <f t="shared" si="1"/>
         <v>24650</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="246"/>
-      <c r="B40" s="243" t="s">
+      <c r="A40" s="239"/>
+      <c r="B40" s="236" t="s">
         <v>223</v>
       </c>
-      <c r="C40" s="244"/>
-      <c r="D40" s="199" t="s">
+      <c r="C40" s="237"/>
+      <c r="D40" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="E40" s="199" t="s">
+      <c r="E40" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F40" s="199" t="s">
+      <c r="F40" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G40" s="199" t="s">
+      <c r="G40" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="H40" s="199" t="s">
+      <c r="H40" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I40" s="195">
+      <c r="I40" s="192">
         <v>22050</v>
       </c>
-      <c r="J40" s="195"/>
-      <c r="K40" s="195">
+      <c r="J40" s="192"/>
+      <c r="K40" s="192">
         <f t="shared" si="1"/>
         <v>22050</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="246"/>
-      <c r="B41" s="243" t="s">
+      <c r="A41" s="239"/>
+      <c r="B41" s="236" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="244" t="s">
+      <c r="C41" s="237" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="199" t="s">
+      <c r="D41" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="E41" s="199" t="s">
+      <c r="E41" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F41" s="199" t="s">
+      <c r="F41" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G41" s="199" t="s">
+      <c r="G41" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="H41" s="199" t="s">
+      <c r="H41" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I41" s="195">
+      <c r="I41" s="192">
         <v>4634</v>
       </c>
-      <c r="J41" s="195"/>
-      <c r="K41" s="195">
+      <c r="J41" s="192"/>
+      <c r="K41" s="192">
         <f t="shared" si="1"/>
         <v>4634</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="246"/>
-      <c r="B42" s="243" t="s">
+      <c r="A42" s="239"/>
+      <c r="B42" s="236" t="s">
         <v>149</v>
       </c>
-      <c r="C42" s="244" t="s">
+      <c r="C42" s="237" t="s">
         <v>149</v>
       </c>
-      <c r="D42" s="199" t="s">
+      <c r="D42" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="E42" s="199" t="s">
+      <c r="E42" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F42" s="199" t="s">
+      <c r="F42" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G42" s="199" t="s">
+      <c r="G42" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="H42" s="199" t="s">
+      <c r="H42" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I42" s="195">
+      <c r="I42" s="192">
         <v>10920</v>
       </c>
-      <c r="J42" s="195"/>
-      <c r="K42" s="195">
+      <c r="J42" s="192"/>
+      <c r="K42" s="192">
         <f t="shared" si="1"/>
         <v>10920</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="246"/>
-      <c r="B43" s="243" t="s">
+      <c r="A43" s="239"/>
+      <c r="B43" s="236" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="244" t="s">
+      <c r="C43" s="237" t="s">
         <v>150</v>
       </c>
-      <c r="D43" s="199" t="s">
+      <c r="D43" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="E43" s="199" t="s">
+      <c r="E43" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F43" s="199" t="s">
+      <c r="F43" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G43" s="199" t="s">
+      <c r="G43" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="H43" s="199" t="s">
+      <c r="H43" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I43" s="195">
+      <c r="I43" s="192">
         <v>2070</v>
       </c>
-      <c r="J43" s="195"/>
-      <c r="K43" s="195">
+      <c r="J43" s="192"/>
+      <c r="K43" s="192">
         <f t="shared" si="1"/>
         <v>2070</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="246"/>
-      <c r="B44" s="243" t="s">
+      <c r="A44" s="239"/>
+      <c r="B44" s="236" t="s">
         <v>151</v>
       </c>
-      <c r="C44" s="244" t="s">
+      <c r="C44" s="237" t="s">
         <v>151</v>
       </c>
-      <c r="D44" s="199" t="s">
+      <c r="D44" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="E44" s="199" t="s">
+      <c r="E44" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F44" s="199" t="s">
+      <c r="F44" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G44" s="199" t="s">
+      <c r="G44" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="H44" s="199" t="s">
+      <c r="H44" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I44" s="195">
+      <c r="I44" s="192">
         <v>1479</v>
       </c>
-      <c r="J44" s="195"/>
-      <c r="K44" s="195">
+      <c r="J44" s="192"/>
+      <c r="K44" s="192">
         <f t="shared" si="1"/>
         <v>1479</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="246"/>
-      <c r="B45" s="243" t="s">
+      <c r="A45" s="239"/>
+      <c r="B45" s="236" t="s">
         <v>152</v>
       </c>
-      <c r="C45" s="244" t="s">
+      <c r="C45" s="237" t="s">
         <v>152</v>
       </c>
-      <c r="D45" s="199" t="s">
+      <c r="D45" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="E45" s="199" t="s">
+      <c r="E45" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F45" s="199" t="s">
+      <c r="F45" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G45" s="199" t="s">
+      <c r="G45" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="H45" s="199" t="s">
+      <c r="H45" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I45" s="195">
+      <c r="I45" s="192">
         <v>10600</v>
       </c>
-      <c r="J45" s="195"/>
-      <c r="K45" s="195">
+      <c r="J45" s="192"/>
+      <c r="K45" s="192">
         <f t="shared" si="1"/>
         <v>10600</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="246"/>
-      <c r="B46" s="243" t="s">
+      <c r="A46" s="239"/>
+      <c r="B46" s="236" t="s">
         <v>153</v>
       </c>
-      <c r="C46" s="244" t="s">
+      <c r="C46" s="237" t="s">
         <v>153</v>
       </c>
-      <c r="D46" s="199" t="s">
+      <c r="D46" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="E46" s="199" t="s">
+      <c r="E46" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F46" s="199" t="s">
+      <c r="F46" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G46" s="199" t="s">
+      <c r="G46" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="H46" s="199" t="s">
+      <c r="H46" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I46" s="195">
+      <c r="I46" s="192">
         <v>2650</v>
       </c>
-      <c r="J46" s="195"/>
-      <c r="K46" s="195">
+      <c r="J46" s="192"/>
+      <c r="K46" s="192">
         <f t="shared" si="1"/>
         <v>2650</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="246"/>
-      <c r="B47" s="243" t="s">
+      <c r="A47" s="239"/>
+      <c r="B47" s="236" t="s">
         <v>154</v>
       </c>
-      <c r="C47" s="244" t="s">
+      <c r="C47" s="237" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="199" t="s">
+      <c r="D47" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="E47" s="199" t="s">
+      <c r="E47" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F47" s="199" t="s">
+      <c r="F47" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G47" s="199" t="s">
+      <c r="G47" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="H47" s="199" t="s">
+      <c r="H47" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I47" s="195">
+      <c r="I47" s="192">
         <v>13828</v>
       </c>
-      <c r="J47" s="195"/>
-      <c r="K47" s="195">
+      <c r="J47" s="192"/>
+      <c r="K47" s="192">
         <f t="shared" si="1"/>
         <v>13828</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="247"/>
-      <c r="B48" s="243" t="s">
+      <c r="A48" s="240"/>
+      <c r="B48" s="236" t="s">
         <v>155</v>
       </c>
-      <c r="C48" s="244" t="s">
+      <c r="C48" s="237" t="s">
         <v>155</v>
       </c>
-      <c r="D48" s="199" t="s">
+      <c r="D48" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="E48" s="199" t="s">
+      <c r="E48" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F48" s="199" t="s">
+      <c r="F48" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="G48" s="199" t="s">
+      <c r="G48" s="191" t="s">
         <v>222</v>
       </c>
-      <c r="H48" s="199" t="s">
+      <c r="H48" s="191" t="s">
         <v>199</v>
       </c>
-      <c r="I48" s="195">
+      <c r="I48" s="192">
         <v>6780</v>
       </c>
-      <c r="J48" s="195"/>
-      <c r="K48" s="195">
+      <c r="J48" s="192"/>
+      <c r="K48" s="192">
         <f t="shared" si="1"/>
         <v>6780</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="245" t="s">
-        <v>200</v>
-      </c>
-      <c r="B49" s="376" t="s">
-        <v>235</v>
-      </c>
-      <c r="C49" s="377"/>
-      <c r="D49" s="199"/>
-      <c r="E49" s="199"/>
-      <c r="F49" s="199"/>
-      <c r="G49" s="199"/>
-      <c r="H49" s="199"/>
-      <c r="I49" s="195"/>
-      <c r="J49" s="195"/>
-      <c r="K49" s="195">
-        <f t="shared" si="1"/>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="365"/>
+      <c r="B49" s="193"/>
+      <c r="C49" s="194"/>
+      <c r="D49" s="194"/>
+      <c r="E49" s="194"/>
+      <c r="F49" s="194"/>
+      <c r="G49" s="199" t="s">
+        <v>181</v>
+      </c>
+      <c r="H49" s="200"/>
+      <c r="I49" s="201">
+        <f>SUM(I16:I48)</f>
+        <v>789531</v>
+      </c>
+      <c r="J49" s="201">
+        <f>SUM(J16:J48)</f>
+        <v>3976283.79</v>
+      </c>
+      <c r="K49" s="201">
+        <f>SUM(K16:K48)</f>
+        <v>4765814.79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="270" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" s="271"/>
+      <c r="C50" s="271"/>
+      <c r="D50" s="271"/>
+      <c r="E50" s="271"/>
+      <c r="F50" s="271"/>
+      <c r="G50" s="271"/>
+      <c r="H50" s="271"/>
+      <c r="I50" s="271"/>
+      <c r="J50" s="271"/>
+      <c r="K50" s="272"/>
+    </row>
+    <row r="51" spans="1:11" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="B51" s="236" t="s">
+        <v>233</v>
+      </c>
+      <c r="C51" s="237"/>
+      <c r="D51" s="191" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="191" t="s">
+        <v>198</v>
+      </c>
+      <c r="F51" s="191" t="s">
+        <v>197</v>
+      </c>
+      <c r="G51" s="191" t="s">
+        <v>234</v>
+      </c>
+      <c r="H51" s="191" t="s">
+        <v>199</v>
+      </c>
+      <c r="I51" s="231">
+        <v>500000</v>
+      </c>
+      <c r="J51" s="231"/>
+      <c r="K51" s="232">
+        <f>SUM(I51:J51)</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="229"/>
+      <c r="B52" s="193"/>
+      <c r="C52" s="194"/>
+      <c r="D52" s="194"/>
+      <c r="E52" s="194"/>
+      <c r="F52" s="206"/>
+      <c r="G52" s="204" t="s">
+        <v>181</v>
+      </c>
+      <c r="H52" s="205"/>
+      <c r="I52" s="233">
+        <f>SUM(I51:I51)</f>
+        <v>500000</v>
+      </c>
+      <c r="J52" s="233">
+        <f>SUM(J51:J51)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="246"/>
-      <c r="B50" s="243" t="s">
-        <v>236</v>
-      </c>
-      <c r="C50" s="244"/>
-      <c r="D50" s="378" t="s">
-        <v>237</v>
-      </c>
-      <c r="E50" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F50" s="199" t="s">
-        <v>239</v>
-      </c>
-      <c r="G50" s="199" t="s">
-        <v>58</v>
-      </c>
-      <c r="H50" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I50" s="195">
+      <c r="K52" s="233">
+        <f>SUM(K51:K51)</f>
         <v>500000</v>
       </c>
-      <c r="J50" s="195"/>
-      <c r="K50" s="195">
-        <f>SUM(I50:J50)</f>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="273" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" s="274"/>
+      <c r="C53" s="274"/>
+      <c r="D53" s="274"/>
+      <c r="E53" s="274"/>
+      <c r="F53" s="274"/>
+      <c r="G53" s="274"/>
+      <c r="H53" s="274"/>
+      <c r="I53" s="274"/>
+      <c r="J53" s="274"/>
+      <c r="K53" s="275"/>
+    </row>
+    <row r="54" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" s="236" t="s">
+        <v>230</v>
+      </c>
+      <c r="C54" s="237"/>
+      <c r="D54" s="191" t="s">
+        <v>231</v>
+      </c>
+      <c r="E54" s="191" t="s">
+        <v>198</v>
+      </c>
+      <c r="F54" s="191" t="s">
+        <v>197</v>
+      </c>
+      <c r="G54" s="191" t="s">
+        <v>232</v>
+      </c>
+      <c r="H54" s="191" t="s">
+        <v>199</v>
+      </c>
+      <c r="I54" s="234">
         <v>500000</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="247"/>
-      <c r="B51" s="243" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="244"/>
-      <c r="D51" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E51" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F51" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G51" s="199" t="s">
-        <v>100</v>
-      </c>
-      <c r="H51" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I51" s="195">
-        <v>800000</v>
-      </c>
-      <c r="J51" s="195"/>
-      <c r="K51" s="195">
-        <f t="shared" si="1"/>
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="245" t="s">
-        <v>221</v>
-      </c>
-      <c r="B52" s="243" t="s">
-        <v>241</v>
-      </c>
-      <c r="C52" s="244"/>
-      <c r="D52" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E52" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F52" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G52" s="379" t="s">
-        <v>242</v>
-      </c>
-      <c r="H52" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I52" s="381">
-        <v>140000</v>
-      </c>
-      <c r="J52" s="381"/>
-      <c r="K52" s="381">
-        <f t="shared" si="1"/>
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="246"/>
-      <c r="B53" s="243" t="s">
-        <v>244</v>
-      </c>
-      <c r="C53" s="244"/>
-      <c r="D53" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E53" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F53" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G53" s="384"/>
-      <c r="H53" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I53" s="386"/>
-      <c r="J53" s="386"/>
-      <c r="K53" s="386"/>
-    </row>
-    <row r="54" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="246"/>
-      <c r="B54" s="243" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="244"/>
-      <c r="D54" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E54" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F54" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G54" s="384"/>
-      <c r="H54" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I54" s="386"/>
-      <c r="J54" s="386"/>
-      <c r="K54" s="386"/>
-    </row>
-    <row r="55" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="246"/>
-      <c r="B55" s="243" t="s">
-        <v>245</v>
-      </c>
-      <c r="C55" s="244"/>
-      <c r="D55" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E55" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F55" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G55" s="384"/>
-      <c r="H55" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I55" s="386"/>
-      <c r="J55" s="386"/>
-      <c r="K55" s="386">
-        <f t="shared" si="1"/>
+      <c r="J54" s="234"/>
+      <c r="K54" s="234">
+        <f>SUM(I54:J54)</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="207"/>
+      <c r="B55" s="268"/>
+      <c r="C55" s="269"/>
+      <c r="D55" s="194"/>
+      <c r="E55" s="194"/>
+      <c r="F55" s="206"/>
+      <c r="G55" s="208" t="s">
+        <v>181</v>
+      </c>
+      <c r="H55" s="209"/>
+      <c r="I55" s="235">
+        <f>SUM(I54:I54)</f>
+        <v>500000</v>
+      </c>
+      <c r="J55" s="235">
+        <f>SUM(J54:J54)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="246"/>
-      <c r="B56" s="243" t="s">
-        <v>246</v>
-      </c>
-      <c r="C56" s="244"/>
-      <c r="D56" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E56" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F56" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G56" s="384"/>
-      <c r="H56" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I56" s="386"/>
-      <c r="J56" s="386"/>
-      <c r="K56" s="386">
-        <f t="shared" si="1"/>
+      <c r="K55" s="235">
+        <f>SUM(K54:K54)</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="213"/>
+      <c r="B56" s="282"/>
+      <c r="C56" s="282"/>
+      <c r="D56" s="214"/>
+      <c r="E56" s="214"/>
+      <c r="F56" s="214"/>
+      <c r="G56" s="214"/>
+      <c r="H56" s="214"/>
+      <c r="I56" s="214"/>
+      <c r="J56" s="214"/>
+      <c r="K56" s="215"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="216"/>
+      <c r="B57" s="217"/>
+      <c r="C57" s="217"/>
+      <c r="D57" s="217"/>
+      <c r="E57" s="217"/>
+      <c r="F57" s="217"/>
+      <c r="G57" s="210" t="s">
+        <v>185</v>
+      </c>
+      <c r="H57" s="211"/>
+      <c r="I57" s="212">
+        <f>SUM(I55,I52,I49,I14)</f>
+        <v>1989531</v>
+      </c>
+      <c r="J57" s="212">
+        <f>SUM(J55,J52,J49,J14)</f>
+        <v>6776283.79</v>
+      </c>
+      <c r="K57" s="212">
+        <f>SUM(K55,K52,K49,K14)</f>
+        <v>8765814.7899999991</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="262" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="263"/>
+      <c r="C58" s="263"/>
+      <c r="D58" s="263"/>
+      <c r="E58" s="263"/>
+      <c r="F58" s="263"/>
+      <c r="G58" s="263"/>
+      <c r="H58" s="263"/>
+      <c r="I58" s="263"/>
+      <c r="J58" s="263"/>
+      <c r="K58" s="264"/>
+    </row>
+    <row r="59" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="191" t="s">
+        <v>227</v>
+      </c>
+      <c r="B59" s="266" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59" s="267"/>
+      <c r="D59" s="226" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="196" t="s">
+        <v>198</v>
+      </c>
+      <c r="F59" s="196" t="s">
+        <v>228</v>
+      </c>
+      <c r="G59" s="196" t="s">
+        <v>229</v>
+      </c>
+      <c r="H59" s="226" t="s">
+        <v>199</v>
+      </c>
+      <c r="I59" s="234"/>
+      <c r="J59" s="234"/>
+      <c r="K59" s="234">
+        <v>2133632.2000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="161"/>
+      <c r="B60" s="268"/>
+      <c r="C60" s="269"/>
+      <c r="D60" s="194"/>
+      <c r="E60" s="194"/>
+      <c r="F60" s="206"/>
+      <c r="G60" s="210" t="s">
+        <v>187</v>
+      </c>
+      <c r="H60" s="211"/>
+      <c r="I60" s="212">
+        <f>SUM(I59)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="246"/>
-      <c r="B57" s="243" t="s">
-        <v>247</v>
-      </c>
-      <c r="C57" s="244"/>
-      <c r="D57" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E57" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F57" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G57" s="384"/>
-      <c r="H57" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I57" s="386"/>
-      <c r="J57" s="386"/>
-      <c r="K57" s="386">
-        <f t="shared" si="1"/>
+      <c r="J60" s="212">
+        <f t="shared" ref="J60:K60" si="2">SUM(J59)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="246"/>
-      <c r="B58" s="243" t="s">
-        <v>248</v>
-      </c>
-      <c r="C58" s="244"/>
-      <c r="D58" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E58" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F58" s="199" t="s">
-        <v>239</v>
-      </c>
-      <c r="G58" s="384"/>
-      <c r="H58" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I58" s="386"/>
-      <c r="J58" s="386"/>
-      <c r="K58" s="386">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="246"/>
-      <c r="B59" s="243" t="s">
-        <v>249</v>
-      </c>
-      <c r="C59" s="244"/>
-      <c r="D59" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E59" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F59" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G59" s="384"/>
-      <c r="H59" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I59" s="386"/>
-      <c r="J59" s="386"/>
-      <c r="K59" s="386">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="247"/>
-      <c r="B60" s="243" t="s">
-        <v>250</v>
-      </c>
-      <c r="C60" s="244"/>
-      <c r="D60" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E60" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F60" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G60" s="380"/>
-      <c r="H60" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I60" s="382"/>
-      <c r="J60" s="382"/>
-      <c r="K60" s="382">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="245" t="s">
-        <v>204</v>
-      </c>
-      <c r="B61" s="243" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="244"/>
-      <c r="D61" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E61" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F61" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G61" s="379" t="s">
-        <v>252</v>
-      </c>
-      <c r="H61" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I61" s="381">
-        <v>305000</v>
-      </c>
-      <c r="J61" s="381"/>
-      <c r="K61" s="381">
-        <f t="shared" si="1"/>
-        <v>305000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="246"/>
-      <c r="B62" s="243" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="244"/>
-      <c r="D62" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E62" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F62" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G62" s="384"/>
-      <c r="H62" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I62" s="386"/>
-      <c r="J62" s="386"/>
-      <c r="K62" s="386">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="246"/>
-      <c r="B63" s="243" t="s">
-        <v>253</v>
-      </c>
-      <c r="C63" s="244"/>
-      <c r="D63" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E63" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F63" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G63" s="384"/>
-      <c r="H63" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I63" s="386"/>
-      <c r="J63" s="386"/>
-      <c r="K63" s="386">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="246"/>
-      <c r="B64" s="243" t="s">
-        <v>254</v>
-      </c>
-      <c r="C64" s="244"/>
-      <c r="D64" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E64" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F64" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G64" s="384"/>
-      <c r="H64" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I64" s="386"/>
-      <c r="J64" s="386"/>
-      <c r="K64" s="386">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="246"/>
-      <c r="B65" s="243" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="244"/>
-      <c r="D65" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E65" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F65" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G65" s="384"/>
-      <c r="H65" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I65" s="386"/>
-      <c r="J65" s="386"/>
-      <c r="K65" s="386">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="246"/>
-      <c r="B66" s="243" t="s">
-        <v>255</v>
-      </c>
-      <c r="C66" s="244"/>
-      <c r="D66" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E66" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F66" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G66" s="384"/>
-      <c r="H66" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I66" s="386"/>
-      <c r="J66" s="386"/>
-      <c r="K66" s="386">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="246"/>
-      <c r="B67" s="243" t="s">
-        <v>256</v>
-      </c>
-      <c r="C67" s="244"/>
-      <c r="D67" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E67" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F67" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G67" s="384"/>
-      <c r="H67" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I67" s="386"/>
-      <c r="J67" s="386"/>
-      <c r="K67" s="386">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="246"/>
-      <c r="B68" s="243" t="s">
-        <v>258</v>
-      </c>
-      <c r="C68" s="244"/>
-      <c r="D68" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E68" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F68" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G68" s="384"/>
-      <c r="H68" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I68" s="386"/>
-      <c r="J68" s="386"/>
-      <c r="K68" s="386">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="246"/>
-      <c r="B69" s="243" t="s">
-        <v>257</v>
-      </c>
-      <c r="C69" s="244"/>
-      <c r="D69" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E69" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F69" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G69" s="384"/>
-      <c r="H69" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I69" s="386"/>
-      <c r="J69" s="386"/>
-      <c r="K69" s="386">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="246"/>
-      <c r="B70" s="243" t="s">
-        <v>259</v>
-      </c>
-      <c r="C70" s="244"/>
-      <c r="D70" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E70" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F70" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G70" s="384"/>
-      <c r="H70" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I70" s="386"/>
-      <c r="J70" s="386"/>
-      <c r="K70" s="386">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="246"/>
-      <c r="B71" s="243" t="s">
-        <v>260</v>
-      </c>
-      <c r="C71" s="244"/>
-      <c r="D71" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E71" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F71" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G71" s="384"/>
-      <c r="H71" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I71" s="386"/>
-      <c r="J71" s="386"/>
-      <c r="K71" s="386">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="246"/>
-      <c r="B72" s="243" t="s">
-        <v>261</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E72" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F72" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G72" s="384"/>
-      <c r="H72" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I72" s="386"/>
-      <c r="J72" s="386"/>
-      <c r="K72" s="386">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="246"/>
-      <c r="B73" s="243" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73" s="244"/>
-      <c r="D73" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E73" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F73" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G73" s="384"/>
-      <c r="H73" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I73" s="386"/>
-      <c r="J73" s="386"/>
-      <c r="K73" s="386">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="246"/>
-      <c r="B74" s="243" t="s">
-        <v>262</v>
-      </c>
-      <c r="C74" s="244"/>
-      <c r="D74" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E74" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F74" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G74" s="384"/>
-      <c r="H74" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I74" s="386"/>
-      <c r="J74" s="386"/>
-      <c r="K74" s="386">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="246"/>
-      <c r="B75" s="243" t="s">
-        <v>263</v>
-      </c>
-      <c r="C75" s="244"/>
-      <c r="D75" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E75" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F75" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G75" s="384"/>
-      <c r="H75" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I75" s="386"/>
-      <c r="J75" s="386"/>
-      <c r="K75" s="386">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="246"/>
-      <c r="B76" s="243" t="s">
-        <v>264</v>
-      </c>
-      <c r="C76" s="244"/>
-      <c r="D76" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E76" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F76" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G76" s="384"/>
-      <c r="H76" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I76" s="386"/>
-      <c r="J76" s="386"/>
-      <c r="K76" s="386">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="246"/>
-      <c r="B77" s="243" t="s">
-        <v>265</v>
-      </c>
-      <c r="C77" s="244"/>
-      <c r="D77" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E77" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F77" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G77" s="384"/>
-      <c r="H77" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I77" s="386"/>
-      <c r="J77" s="386"/>
-      <c r="K77" s="386">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="246"/>
-      <c r="B78" s="243" t="s">
-        <v>266</v>
-      </c>
-      <c r="C78" s="244"/>
-      <c r="D78" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E78" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F78" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G78" s="380"/>
-      <c r="H78" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I78" s="382"/>
-      <c r="J78" s="382"/>
-      <c r="K78" s="382">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="246"/>
-      <c r="B79" s="243" t="s">
-        <v>272</v>
-      </c>
-      <c r="C79" s="244"/>
-      <c r="D79" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E79" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F79" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G79" s="383" t="s">
-        <v>278</v>
-      </c>
-      <c r="H79" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I79" s="385">
-        <v>79665.87</v>
-      </c>
-      <c r="J79" s="385"/>
-      <c r="K79" s="195">
-        <f t="shared" si="1"/>
-        <v>79665.87</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="246"/>
-      <c r="B80" s="243" t="s">
-        <v>277</v>
-      </c>
-      <c r="C80" s="244"/>
-      <c r="D80" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E80" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F80" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G80" s="383" t="s">
-        <v>279</v>
-      </c>
-      <c r="H80" s="199" t="s">
-        <v>275</v>
-      </c>
-      <c r="I80" s="385"/>
-      <c r="J80" s="385">
-        <v>150000</v>
-      </c>
-      <c r="K80" s="195">
-        <f t="shared" si="1"/>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="246"/>
-      <c r="B81" s="243" t="s">
-        <v>281</v>
-      </c>
-      <c r="C81" s="244"/>
-      <c r="D81" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E81" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F81" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G81" s="199" t="s">
-        <v>92</v>
-      </c>
-      <c r="H81" s="199" t="s">
-        <v>275</v>
-      </c>
-      <c r="I81" s="195">
-        <v>25000</v>
-      </c>
-      <c r="J81" s="195"/>
-      <c r="K81" s="195">
-        <f t="shared" si="1"/>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="246"/>
-      <c r="B82" s="243" t="s">
-        <v>282</v>
-      </c>
-      <c r="C82" s="244"/>
-      <c r="D82" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E82" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F82" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G82" s="199" t="s">
-        <v>95</v>
-      </c>
-      <c r="H82" s="199" t="s">
-        <v>275</v>
-      </c>
-      <c r="I82" s="195">
-        <v>8000</v>
-      </c>
-      <c r="J82" s="195"/>
-      <c r="K82" s="195">
-        <f t="shared" si="1"/>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="246"/>
-      <c r="B83" s="243" t="s">
-        <v>283</v>
-      </c>
-      <c r="C83" s="244"/>
-      <c r="D83" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E83" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F83" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G83" s="199" t="s">
-        <v>284</v>
-      </c>
-      <c r="H83" s="199" t="s">
-        <v>275</v>
-      </c>
-      <c r="I83" s="195">
-        <v>177440.73</v>
-      </c>
-      <c r="J83" s="195"/>
-      <c r="K83" s="195">
-        <f t="shared" si="1"/>
-        <v>177440.73</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="246"/>
-      <c r="B84" s="243" t="s">
-        <v>285</v>
-      </c>
-      <c r="C84" s="244"/>
-      <c r="D84" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E84" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F84" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G84" s="199" t="s">
-        <v>113</v>
-      </c>
-      <c r="H84" s="199" t="s">
-        <v>275</v>
-      </c>
-      <c r="I84" s="195">
-        <v>52000</v>
-      </c>
-      <c r="J84" s="195"/>
-      <c r="K84" s="195">
-        <f t="shared" si="1"/>
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="246"/>
-      <c r="B85" s="243" t="s">
-        <v>119</v>
-      </c>
-      <c r="C85" s="244"/>
-      <c r="D85" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E85" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F85" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G85" s="199" t="s">
-        <v>286</v>
-      </c>
-      <c r="H85" s="199" t="s">
-        <v>275</v>
-      </c>
-      <c r="I85" s="195">
-        <v>33000</v>
-      </c>
-      <c r="J85" s="195"/>
-      <c r="K85" s="195">
-        <f t="shared" si="1"/>
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="247"/>
-      <c r="B86" s="243" t="s">
-        <v>287</v>
-      </c>
-      <c r="C86" s="244"/>
-      <c r="D86" s="199" t="s">
-        <v>219</v>
-      </c>
-      <c r="E86" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F86" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G86" s="199" t="s">
-        <v>288</v>
-      </c>
-      <c r="H86" s="199" t="s">
-        <v>275</v>
-      </c>
-      <c r="I86" s="195"/>
-      <c r="J86" s="195">
-        <v>200000</v>
-      </c>
-      <c r="K86" s="195">
-        <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="245" t="s">
-        <v>267</v>
-      </c>
-      <c r="B87" s="243" t="s">
-        <v>268</v>
-      </c>
-      <c r="C87" s="244"/>
-      <c r="D87" s="199" t="s">
-        <v>269</v>
-      </c>
-      <c r="E87" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F87" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G87" s="199" t="s">
-        <v>273</v>
-      </c>
-      <c r="H87" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I87" s="195"/>
-      <c r="J87" s="195">
-        <v>500000</v>
-      </c>
-      <c r="K87" s="195">
-        <f t="shared" si="1"/>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="246"/>
-      <c r="B88" s="243" t="s">
-        <v>270</v>
-      </c>
-      <c r="C88" s="244"/>
-      <c r="D88" s="199" t="s">
-        <v>269</v>
-      </c>
-      <c r="E88" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F88" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G88" s="199" t="s">
-        <v>274</v>
-      </c>
-      <c r="H88" s="199" t="s">
-        <v>243</v>
-      </c>
-      <c r="I88" s="195"/>
-      <c r="J88" s="195">
-        <v>750000</v>
-      </c>
-      <c r="K88" s="195">
-        <f t="shared" si="1"/>
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="246"/>
-      <c r="B89" s="243" t="s">
-        <v>271</v>
-      </c>
-      <c r="C89" s="244"/>
-      <c r="D89" s="199" t="s">
-        <v>269</v>
-      </c>
-      <c r="E89" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F89" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G89" s="199" t="s">
-        <v>276</v>
-      </c>
-      <c r="H89" s="199" t="s">
-        <v>275</v>
-      </c>
-      <c r="I89" s="199"/>
-      <c r="J89" s="195">
-        <v>700000</v>
-      </c>
-      <c r="K89" s="195">
-        <f>SUM(I89:J89)</f>
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="246"/>
-      <c r="B90" s="243" t="s">
-        <v>280</v>
-      </c>
-      <c r="C90" s="244"/>
-      <c r="D90" s="199" t="s">
-        <v>269</v>
-      </c>
-      <c r="E90" s="199" t="s">
-        <v>238</v>
-      </c>
-      <c r="F90" s="199" t="s">
-        <v>240</v>
-      </c>
-      <c r="G90" s="199" t="s">
-        <v>127</v>
-      </c>
-      <c r="H90" s="199" t="s">
-        <v>275</v>
-      </c>
-      <c r="I90" s="195">
-        <v>100000</v>
-      </c>
-      <c r="J90" s="195"/>
-      <c r="K90" s="195">
-        <f t="shared" ref="K90" si="2">SUM(I90:J90)</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="247"/>
-      <c r="B91" s="196"/>
-      <c r="C91" s="197"/>
-      <c r="D91" s="197"/>
-      <c r="E91" s="197"/>
-      <c r="F91" s="197"/>
-      <c r="G91" s="203" t="s">
-        <v>181</v>
-      </c>
-      <c r="H91" s="204"/>
-      <c r="I91" s="205">
-        <f>SUM(I16:I90)</f>
-        <v>3009637.6</v>
-      </c>
-      <c r="J91" s="205">
-        <f>SUM(J16:J90)</f>
-        <v>6276283.79</v>
-      </c>
-      <c r="K91" s="205">
-        <f t="shared" ref="J91:K91" si="3">SUM(K16:K90)</f>
-        <v>9285921.3900000006</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="267" t="s">
-        <v>183</v>
-      </c>
-      <c r="B92" s="268"/>
-      <c r="C92" s="268"/>
-      <c r="D92" s="268"/>
-      <c r="E92" s="268"/>
-      <c r="F92" s="268"/>
-      <c r="G92" s="268"/>
-      <c r="H92" s="268"/>
-      <c r="I92" s="268"/>
-      <c r="J92" s="268"/>
-      <c r="K92" s="269"/>
-    </row>
-    <row r="93" spans="1:11" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="232" t="s">
-        <v>227</v>
-      </c>
-      <c r="B93" s="240" t="s">
-        <v>233</v>
-      </c>
-      <c r="C93" s="241"/>
-      <c r="D93" s="199" t="s">
+      <c r="K60" s="212">
+        <f t="shared" si="2"/>
+        <v>2133632.2000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="218"/>
+      <c r="B61" s="219"/>
+      <c r="C61" s="219"/>
+      <c r="D61" s="219"/>
+      <c r="E61" s="219"/>
+      <c r="F61" s="219"/>
+      <c r="G61" s="224" t="s">
+        <v>188</v>
+      </c>
+      <c r="H61" s="224"/>
+      <c r="I61" s="281">
+        <v>10445440.65</v>
+      </c>
+      <c r="J61" s="281"/>
+      <c r="K61" s="227"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="265" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" s="265"/>
+      <c r="C62" s="265"/>
+      <c r="D62" s="265"/>
+      <c r="E62" s="265"/>
+      <c r="F62" s="265"/>
+      <c r="G62" s="265"/>
+      <c r="H62" s="265"/>
+      <c r="I62" s="265"/>
+      <c r="J62" s="265"/>
+      <c r="K62" s="265"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="259" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" s="259"/>
+      <c r="H67" s="259" t="s">
+        <v>192</v>
+      </c>
+      <c r="I67" s="259"/>
+      <c r="J67" s="259"/>
+      <c r="K67" s="184"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="261" t="s">
         <v>24</v>
       </c>
-      <c r="E93" s="199" t="s">
-        <v>198</v>
-      </c>
-      <c r="F93" s="199" t="s">
-        <v>197</v>
-      </c>
-      <c r="G93" s="199" t="s">
-        <v>234</v>
-      </c>
-      <c r="H93" s="199" t="s">
-        <v>199</v>
-      </c>
-      <c r="I93" s="235">
-        <v>500000</v>
-      </c>
-      <c r="J93" s="235"/>
-      <c r="K93" s="236">
-        <f>SUM(I93:J93)</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="233"/>
-      <c r="B94" s="196"/>
-      <c r="C94" s="197"/>
-      <c r="D94" s="197"/>
-      <c r="E94" s="197"/>
-      <c r="F94" s="210"/>
-      <c r="G94" s="208" t="s">
-        <v>181</v>
-      </c>
-      <c r="H94" s="209"/>
-      <c r="I94" s="237">
-        <f>SUM(I93:I93)</f>
-        <v>500000</v>
-      </c>
-      <c r="J94" s="237">
-        <f>SUM(J93:J93)</f>
-        <v>0</v>
-      </c>
-      <c r="K94" s="237">
-        <f>SUM(K93:K93)</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="270" t="s">
-        <v>184</v>
-      </c>
-      <c r="B95" s="271"/>
-      <c r="C95" s="271"/>
-      <c r="D95" s="271"/>
-      <c r="E95" s="271"/>
-      <c r="F95" s="271"/>
-      <c r="G95" s="271"/>
-      <c r="H95" s="271"/>
-      <c r="I95" s="271"/>
-      <c r="J95" s="271"/>
-      <c r="K95" s="272"/>
-    </row>
-    <row r="96" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="232" t="s">
-        <v>227</v>
-      </c>
-      <c r="B96" s="240" t="s">
-        <v>230</v>
-      </c>
-      <c r="C96" s="241"/>
-      <c r="D96" s="199" t="s">
-        <v>231</v>
-      </c>
-      <c r="E96" s="199" t="s">
-        <v>198</v>
-      </c>
-      <c r="F96" s="199" t="s">
-        <v>197</v>
-      </c>
-      <c r="G96" s="199" t="s">
-        <v>232</v>
-      </c>
-      <c r="H96" s="199" t="s">
-        <v>199</v>
-      </c>
-      <c r="I96" s="238">
-        <v>500000</v>
-      </c>
-      <c r="J96" s="238"/>
-      <c r="K96" s="238">
-        <f>SUM(I96:J96)</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="211"/>
-      <c r="B97" s="250"/>
-      <c r="C97" s="251"/>
-      <c r="D97" s="197"/>
-      <c r="E97" s="197"/>
-      <c r="F97" s="210"/>
-      <c r="G97" s="212" t="s">
-        <v>181</v>
-      </c>
-      <c r="H97" s="213"/>
-      <c r="I97" s="239">
-        <f>SUM(I96:I96)</f>
-        <v>500000</v>
-      </c>
-      <c r="J97" s="239">
-        <f>SUM(J96:J96)</f>
-        <v>0</v>
-      </c>
-      <c r="K97" s="239">
-        <f>SUM(K96:K96)</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="217"/>
-      <c r="B98" s="252"/>
-      <c r="C98" s="252"/>
-      <c r="D98" s="218"/>
-      <c r="E98" s="218"/>
-      <c r="F98" s="218"/>
-      <c r="G98" s="218"/>
-      <c r="H98" s="218"/>
-      <c r="I98" s="218"/>
-      <c r="J98" s="218"/>
-      <c r="K98" s="219"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="220"/>
-      <c r="B99" s="221"/>
-      <c r="C99" s="221"/>
-      <c r="D99" s="221"/>
-      <c r="E99" s="221"/>
-      <c r="F99" s="221"/>
-      <c r="G99" s="214" t="s">
-        <v>185</v>
-      </c>
-      <c r="H99" s="215"/>
-      <c r="I99" s="216">
-        <f>SUM(I97,I94,I91,I14)</f>
-        <v>4209637.5999999996</v>
-      </c>
-      <c r="J99" s="216">
-        <f>SUM(J97,J94,J91,J14)</f>
-        <v>9076283.7899999991</v>
-      </c>
-      <c r="K99" s="216">
-        <f>SUM(K97,K94,K91,K14)</f>
-        <v>13285921.390000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="258" t="s">
-        <v>186</v>
-      </c>
-      <c r="B100" s="259"/>
-      <c r="C100" s="259"/>
-      <c r="D100" s="259"/>
-      <c r="E100" s="259"/>
-      <c r="F100" s="259"/>
-      <c r="G100" s="259"/>
-      <c r="H100" s="259"/>
-      <c r="I100" s="259"/>
-      <c r="J100" s="259"/>
-      <c r="K100" s="260"/>
-    </row>
-    <row r="101" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="199" t="s">
-        <v>227</v>
-      </c>
-      <c r="B101" s="262" t="s">
-        <v>226</v>
-      </c>
-      <c r="C101" s="263"/>
-      <c r="D101" s="230" t="s">
-        <v>24</v>
-      </c>
-      <c r="E101" s="200" t="s">
-        <v>198</v>
-      </c>
-      <c r="F101" s="200" t="s">
-        <v>228</v>
-      </c>
-      <c r="G101" s="200" t="s">
-        <v>229</v>
-      </c>
-      <c r="H101" s="230" t="s">
-        <v>199</v>
-      </c>
-      <c r="I101" s="238"/>
-      <c r="J101" s="238"/>
-      <c r="K101" s="238">
-        <v>2133632.2000000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="161"/>
-      <c r="B102" s="250"/>
-      <c r="C102" s="251"/>
-      <c r="D102" s="197"/>
-      <c r="E102" s="197"/>
-      <c r="F102" s="210"/>
-      <c r="G102" s="214" t="s">
-        <v>187</v>
-      </c>
-      <c r="H102" s="215"/>
-      <c r="I102" s="216">
-        <f>SUM(I101)</f>
-        <v>0</v>
-      </c>
-      <c r="J102" s="216">
-        <f t="shared" ref="J102:K102" si="4">SUM(J101)</f>
-        <v>0</v>
-      </c>
-      <c r="K102" s="216">
-        <f t="shared" si="4"/>
-        <v>2133632.2000000002</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A103" s="222"/>
-      <c r="B103" s="223"/>
-      <c r="C103" s="223"/>
-      <c r="D103" s="223"/>
-      <c r="E103" s="223"/>
-      <c r="F103" s="223"/>
-      <c r="G103" s="228" t="s">
-        <v>188</v>
-      </c>
-      <c r="H103" s="228"/>
-      <c r="I103" s="242">
-        <v>10445440.65</v>
-      </c>
-      <c r="J103" s="242"/>
-      <c r="K103" s="231"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="261" t="s">
-        <v>189</v>
-      </c>
-      <c r="B104" s="261"/>
-      <c r="C104" s="261"/>
-      <c r="D104" s="261"/>
-      <c r="E104" s="261"/>
-      <c r="F104" s="261"/>
-      <c r="G104" s="261"/>
-      <c r="H104" s="261"/>
-      <c r="I104" s="261"/>
-      <c r="J104" s="261"/>
-      <c r="K104" s="261"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>36</v>
-      </c>
-      <c r="H107" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="255" t="s">
-        <v>190</v>
-      </c>
-      <c r="B109" s="255"/>
-      <c r="H109" s="255" t="s">
-        <v>192</v>
-      </c>
-      <c r="I109" s="255"/>
-      <c r="J109" s="255"/>
-      <c r="K109" s="185"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="257" t="s">
-        <v>24</v>
-      </c>
-      <c r="B110" s="257"/>
-      <c r="H110" s="256" t="s">
+      <c r="B68" s="261"/>
+      <c r="H68" s="260" t="s">
         <v>193</v>
       </c>
-      <c r="I110" s="256"/>
-      <c r="J110" s="256"/>
-      <c r="K110" s="162"/>
+      <c r="I68" s="260"/>
+      <c r="J68" s="260"/>
+      <c r="K68" s="162"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="A61:A86"/>
-    <mergeCell ref="G61:G78"/>
-    <mergeCell ref="I61:I78"/>
-    <mergeCell ref="J61:J78"/>
-    <mergeCell ref="K61:K78"/>
-    <mergeCell ref="J52:J60"/>
-    <mergeCell ref="K52:K60"/>
-    <mergeCell ref="A52:A60"/>
-    <mergeCell ref="G52:G60"/>
-    <mergeCell ref="I52:I60"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
+  <mergeCells count="68">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="A62:K62"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="A2:K2"/>
@@ -5708,36 +4326,13 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H109:J109"/>
-    <mergeCell ref="H110:J110"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A100:K100"/>
-    <mergeCell ref="A104:K104"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="A92:K92"/>
-    <mergeCell ref="A95:K95"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A15:K15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A28:A48"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
@@ -5746,31 +4341,14 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B90:C90"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="14" scale="73" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
+  <pageSetup paperSize="14" scale="77" fitToHeight="4" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
     <brk id="16" max="10" man="1"/>
+    <brk id="35" max="10" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -5804,14 +4382,14 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="296" t="s">
+      <c r="E1" s="328" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="297"/>
-      <c r="G1" s="296" t="s">
+      <c r="F1" s="329"/>
+      <c r="G1" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="297"/>
+      <c r="H1" s="329"/>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5830,10 +4408,10 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="298"/>
-      <c r="F2" s="299"/>
-      <c r="G2" s="298"/>
-      <c r="H2" s="299"/>
+      <c r="E2" s="330"/>
+      <c r="F2" s="331"/>
+      <c r="G2" s="330"/>
+      <c r="H2" s="331"/>
       <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
@@ -5908,10 +4486,10 @@
       <c r="J5" s="69"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="300" t="s">
+      <c r="A6" s="332" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="301"/>
+      <c r="B6" s="333"/>
       <c r="C6" s="15" t="s">
         <v>22</v>
       </c>
@@ -5923,100 +4501,100 @@
       <c r="I6" s="12"/>
       <c r="J6" s="69"/>
     </row>
-    <row r="7" spans="1:11" s="184" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="186"/>
-      <c r="B7" s="186"/>
-      <c r="C7" s="308" t="s">
+    <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="283" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="302" t="s">
+      <c r="D7" s="327" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="304" t="s">
+      <c r="E7" s="334" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="313"/>
-      <c r="G7" s="306"/>
-      <c r="H7" s="306">
+      <c r="F7" s="324"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319">
         <v>1500000</v>
       </c>
-      <c r="I7" s="315" t="s">
+      <c r="I7" s="326" t="s">
         <v>128</v>
       </c>
-      <c r="J7" s="292" t="s">
+      <c r="J7" s="338" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="184" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="187"/>
-      <c r="B8" s="186"/>
-      <c r="C8" s="309"/>
-      <c r="D8" s="303"/>
-      <c r="E8" s="305"/>
-      <c r="F8" s="314"/>
-      <c r="G8" s="307"/>
-      <c r="H8" s="307"/>
-      <c r="I8" s="316"/>
-      <c r="J8" s="293"/>
-    </row>
-    <row r="9" spans="1:11" s="184" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="186"/>
-      <c r="B9" s="188"/>
-      <c r="C9" s="310" t="s">
+    <row r="8" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="185"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="317"/>
+      <c r="D8" s="311"/>
+      <c r="E8" s="335"/>
+      <c r="F8" s="325"/>
+      <c r="G8" s="321"/>
+      <c r="H8" s="321"/>
+      <c r="I8" s="301"/>
+      <c r="J8" s="339"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="283" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="317" t="s">
+      <c r="D9" s="327" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="310" t="s">
+      <c r="E9" s="283" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="320"/>
-      <c r="G9" s="306"/>
-      <c r="H9" s="306">
+      <c r="F9" s="287"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="319">
         <v>30000</v>
       </c>
-      <c r="I9" s="324" t="s">
+      <c r="I9" s="318" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="289" t="s">
+      <c r="J9" s="336" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="184" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="186"/>
-      <c r="B10" s="188"/>
-      <c r="C10" s="311"/>
-      <c r="D10" s="318"/>
-      <c r="E10" s="311"/>
-      <c r="F10" s="321"/>
-      <c r="G10" s="323"/>
-      <c r="H10" s="323"/>
-      <c r="I10" s="318"/>
-      <c r="J10" s="289"/>
+    <row r="10" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="284"/>
+      <c r="D10" s="286"/>
+      <c r="E10" s="284"/>
+      <c r="F10" s="288"/>
+      <c r="G10" s="320"/>
+      <c r="H10" s="320"/>
+      <c r="I10" s="286"/>
+      <c r="J10" s="336"/>
     </row>
     <row r="11" spans="1:11" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="70"/>
       <c r="B11" s="71"/>
-      <c r="C11" s="312"/>
-      <c r="D11" s="319"/>
-      <c r="E11" s="312"/>
-      <c r="F11" s="322"/>
-      <c r="G11" s="307"/>
-      <c r="H11" s="307"/>
-      <c r="I11" s="319"/>
+      <c r="C11" s="317"/>
+      <c r="D11" s="311"/>
+      <c r="E11" s="317"/>
+      <c r="F11" s="315"/>
+      <c r="G11" s="321"/>
+      <c r="H11" s="321"/>
+      <c r="I11" s="311"/>
       <c r="J11" s="69"/>
     </row>
     <row r="12" spans="1:11" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="70"/>
       <c r="B12" s="71"/>
-      <c r="C12" s="189" t="s">
+      <c r="C12" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="190" t="s">
+      <c r="D12" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="193" t="s">
+      <c r="E12" s="190" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="73"/>
@@ -6027,14 +4605,14 @@
       <c r="I12" s="145" t="s">
         <v>128</v>
       </c>
-      <c r="J12" s="191" t="s">
+      <c r="J12" s="188" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="70"/>
       <c r="B13" s="71"/>
-      <c r="C13" s="189" t="s">
+      <c r="C13" s="186" t="s">
         <v>131</v>
       </c>
       <c r="D13" s="72" t="s">
@@ -6051,7 +4629,7 @@
       <c r="I13" s="145" t="s">
         <v>128</v>
       </c>
-      <c r="J13" s="192" t="s">
+      <c r="J13" s="189" t="s">
         <v>201</v>
       </c>
       <c r="K13" s="26"/>
@@ -6059,38 +4637,38 @@
     <row r="14" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70"/>
       <c r="B14" s="71"/>
-      <c r="C14" s="310" t="s">
+      <c r="C14" s="283" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="327" t="s">
+      <c r="D14" s="285" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="310" t="s">
+      <c r="E14" s="283" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="320"/>
-      <c r="G14" s="331"/>
-      <c r="H14" s="306">
+      <c r="F14" s="287"/>
+      <c r="G14" s="289"/>
+      <c r="H14" s="319">
         <v>70000</v>
       </c>
-      <c r="I14" s="324" t="s">
+      <c r="I14" s="318" t="s">
         <v>128</v>
       </c>
-      <c r="J14" s="294" t="s">
+      <c r="J14" s="340" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="70"/>
       <c r="B15" s="71"/>
-      <c r="C15" s="311"/>
-      <c r="D15" s="318"/>
-      <c r="E15" s="311"/>
-      <c r="F15" s="321"/>
-      <c r="G15" s="332"/>
-      <c r="H15" s="323"/>
-      <c r="I15" s="325"/>
-      <c r="J15" s="295"/>
+      <c r="C15" s="284"/>
+      <c r="D15" s="286"/>
+      <c r="E15" s="284"/>
+      <c r="F15" s="288"/>
+      <c r="G15" s="290"/>
+      <c r="H15" s="320"/>
+      <c r="I15" s="322"/>
+      <c r="J15" s="341"/>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="70"/>
@@ -6102,69 +4680,69 @@
       <c r="G16" s="77"/>
       <c r="H16" s="150"/>
       <c r="I16" s="149"/>
-      <c r="J16" s="295"/>
+      <c r="J16" s="341"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="70"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="334" t="s">
+      <c r="C17" s="296" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="337" t="s">
+      <c r="D17" s="299" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="339" t="s">
+      <c r="E17" s="302" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="342"/>
-      <c r="G17" s="345"/>
-      <c r="H17" s="306">
+      <c r="F17" s="305"/>
+      <c r="G17" s="308"/>
+      <c r="H17" s="319">
         <v>417302.79</v>
       </c>
-      <c r="I17" s="324" t="s">
+      <c r="I17" s="318" t="s">
         <v>128</v>
       </c>
-      <c r="J17" s="290" t="s">
+      <c r="J17" s="337" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="70"/>
       <c r="B18" s="71"/>
-      <c r="C18" s="335"/>
-      <c r="D18" s="291"/>
-      <c r="E18" s="340"/>
-      <c r="F18" s="343"/>
-      <c r="G18" s="346"/>
-      <c r="H18" s="323"/>
-      <c r="I18" s="325"/>
-      <c r="J18" s="291"/>
+      <c r="C18" s="297"/>
+      <c r="D18" s="300"/>
+      <c r="E18" s="303"/>
+      <c r="F18" s="306"/>
+      <c r="G18" s="309"/>
+      <c r="H18" s="320"/>
+      <c r="I18" s="322"/>
+      <c r="J18" s="300"/>
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="70"/>
       <c r="B19" s="71"/>
-      <c r="C19" s="336"/>
-      <c r="D19" s="338"/>
-      <c r="E19" s="341"/>
-      <c r="F19" s="344"/>
-      <c r="G19" s="347"/>
-      <c r="H19" s="307"/>
-      <c r="I19" s="326"/>
-      <c r="J19" s="291"/>
+      <c r="C19" s="298"/>
+      <c r="D19" s="301"/>
+      <c r="E19" s="304"/>
+      <c r="F19" s="307"/>
+      <c r="G19" s="310"/>
+      <c r="H19" s="321"/>
+      <c r="I19" s="323"/>
+      <c r="J19" s="300"/>
       <c r="K19" s="92"/>
     </row>
     <row r="20" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="70"/>
       <c r="B20" s="142"/>
-      <c r="C20" s="206" t="s">
+      <c r="C20" s="202" t="s">
         <v>133</v>
       </c>
       <c r="D20" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="207" t="s">
+      <c r="E20" s="203" t="s">
         <v>134</v>
       </c>
       <c r="F20" s="141"/>
@@ -6175,7 +4753,7 @@
       <c r="I20" s="151">
         <v>46204</v>
       </c>
-      <c r="J20" s="224" t="s">
+      <c r="J20" s="220" t="s">
         <v>201</v>
       </c>
       <c r="K20" s="92"/>
@@ -6183,13 +4761,13 @@
     <row r="21" spans="1:12" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="70"/>
       <c r="B21" s="142"/>
-      <c r="C21" s="225" t="s">
+      <c r="C21" s="221" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="193" t="s">
+      <c r="D21" s="190" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="193" t="s">
+      <c r="E21" s="190" t="s">
         <v>130</v>
       </c>
       <c r="F21" s="143"/>
@@ -6200,7 +4778,7 @@
       <c r="I21" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="J21" s="224" t="s">
+      <c r="J21" s="220" t="s">
         <v>201</v>
       </c>
       <c r="K21" s="92"/>
@@ -6223,22 +4801,22 @@
     <row r="23" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="70"/>
       <c r="B23" s="71"/>
-      <c r="C23" s="229" t="s">
+      <c r="C23" s="225" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="327" t="s">
+      <c r="D23" s="285" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="328" t="s">
+      <c r="E23" s="312" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="320"/>
-      <c r="G23" s="331"/>
+      <c r="F23" s="287"/>
+      <c r="G23" s="289"/>
       <c r="H23" s="78"/>
-      <c r="I23" s="324" t="s">
+      <c r="I23" s="318" t="s">
         <v>128</v>
       </c>
-      <c r="J23" s="234"/>
+      <c r="J23" s="230"/>
       <c r="K23" s="156"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -6247,15 +4825,15 @@
       <c r="C24" s="152" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="318"/>
-      <c r="E24" s="329"/>
-      <c r="F24" s="321"/>
-      <c r="G24" s="332"/>
+      <c r="D24" s="286"/>
+      <c r="E24" s="313"/>
+      <c r="F24" s="288"/>
+      <c r="G24" s="290"/>
       <c r="H24" s="79">
         <v>9300</v>
       </c>
-      <c r="I24" s="318"/>
-      <c r="J24" s="290" t="s">
+      <c r="I24" s="286"/>
+      <c r="J24" s="337" t="s">
         <v>201</v>
       </c>
       <c r="K24" s="156"/>
@@ -6266,15 +4844,15 @@
       <c r="C25" s="153" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="318"/>
-      <c r="E25" s="329"/>
-      <c r="F25" s="321"/>
-      <c r="G25" s="332"/>
+      <c r="D25" s="286"/>
+      <c r="E25" s="313"/>
+      <c r="F25" s="288"/>
+      <c r="G25" s="290"/>
       <c r="H25" s="157">
         <v>1800</v>
       </c>
-      <c r="I25" s="318"/>
-      <c r="J25" s="291"/>
+      <c r="I25" s="286"/>
+      <c r="J25" s="300"/>
       <c r="K25" s="156"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -6283,15 +4861,15 @@
       <c r="C26" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="318"/>
-      <c r="E26" s="329"/>
-      <c r="F26" s="321"/>
-      <c r="G26" s="332"/>
+      <c r="D26" s="286"/>
+      <c r="E26" s="313"/>
+      <c r="F26" s="288"/>
+      <c r="G26" s="290"/>
       <c r="H26" s="157">
         <v>1100</v>
       </c>
-      <c r="I26" s="318"/>
-      <c r="J26" s="291"/>
+      <c r="I26" s="286"/>
+      <c r="J26" s="300"/>
       <c r="K26" s="156"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -6300,15 +4878,15 @@
       <c r="C27" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="D27" s="318"/>
-      <c r="E27" s="329"/>
-      <c r="F27" s="321"/>
-      <c r="G27" s="332"/>
+      <c r="D27" s="286"/>
+      <c r="E27" s="313"/>
+      <c r="F27" s="288"/>
+      <c r="G27" s="290"/>
       <c r="H27" s="157">
         <v>1050</v>
       </c>
-      <c r="I27" s="318"/>
-      <c r="J27" s="291"/>
+      <c r="I27" s="286"/>
+      <c r="J27" s="300"/>
       <c r="K27" s="156"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -6317,15 +4895,15 @@
       <c r="C28" s="153" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="318"/>
-      <c r="E28" s="329"/>
-      <c r="F28" s="321"/>
-      <c r="G28" s="332"/>
+      <c r="D28" s="286"/>
+      <c r="E28" s="313"/>
+      <c r="F28" s="288"/>
+      <c r="G28" s="290"/>
       <c r="H28" s="158">
         <v>600</v>
       </c>
-      <c r="I28" s="318"/>
-      <c r="J28" s="291"/>
+      <c r="I28" s="286"/>
+      <c r="J28" s="300"/>
       <c r="K28" s="156"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -6334,15 +4912,15 @@
       <c r="C29" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="318"/>
-      <c r="E29" s="329"/>
-      <c r="F29" s="321"/>
-      <c r="G29" s="332"/>
+      <c r="D29" s="286"/>
+      <c r="E29" s="313"/>
+      <c r="F29" s="288"/>
+      <c r="G29" s="290"/>
       <c r="H29" s="157">
         <v>2100</v>
       </c>
-      <c r="I29" s="318"/>
-      <c r="J29" s="291"/>
+      <c r="I29" s="286"/>
+      <c r="J29" s="300"/>
       <c r="K29" s="156"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -6351,15 +4929,15 @@
       <c r="C30" s="153" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="318"/>
-      <c r="E30" s="329"/>
-      <c r="F30" s="321"/>
-      <c r="G30" s="332"/>
+      <c r="D30" s="286"/>
+      <c r="E30" s="313"/>
+      <c r="F30" s="288"/>
+      <c r="G30" s="290"/>
       <c r="H30" s="157">
         <v>2275</v>
       </c>
-      <c r="I30" s="318"/>
-      <c r="J30" s="291"/>
+      <c r="I30" s="286"/>
+      <c r="J30" s="300"/>
       <c r="K30" s="156"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -6368,15 +4946,15 @@
       <c r="C31" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="318"/>
-      <c r="E31" s="329"/>
-      <c r="F31" s="321"/>
-      <c r="G31" s="332"/>
+      <c r="D31" s="286"/>
+      <c r="E31" s="313"/>
+      <c r="F31" s="288"/>
+      <c r="G31" s="290"/>
       <c r="H31" s="157">
         <v>13500</v>
       </c>
-      <c r="I31" s="318"/>
-      <c r="J31" s="291"/>
+      <c r="I31" s="286"/>
+      <c r="J31" s="300"/>
       <c r="K31" s="156"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -6385,15 +4963,15 @@
       <c r="C32" s="153" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="318"/>
-      <c r="E32" s="329"/>
-      <c r="F32" s="321"/>
-      <c r="G32" s="332"/>
+      <c r="D32" s="286"/>
+      <c r="E32" s="313"/>
+      <c r="F32" s="288"/>
+      <c r="G32" s="290"/>
       <c r="H32" s="157">
         <v>15000</v>
       </c>
-      <c r="I32" s="318"/>
-      <c r="J32" s="291"/>
+      <c r="I32" s="286"/>
+      <c r="J32" s="300"/>
       <c r="K32" s="156"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -6402,15 +4980,15 @@
       <c r="C33" s="153" t="s">
         <v>146</v>
       </c>
-      <c r="D33" s="318"/>
-      <c r="E33" s="329"/>
-      <c r="F33" s="321"/>
-      <c r="G33" s="332"/>
+      <c r="D33" s="286"/>
+      <c r="E33" s="313"/>
+      <c r="F33" s="288"/>
+      <c r="G33" s="290"/>
       <c r="H33" s="157">
         <v>8000</v>
       </c>
-      <c r="I33" s="318"/>
-      <c r="J33" s="291"/>
+      <c r="I33" s="286"/>
+      <c r="J33" s="300"/>
       <c r="K33" s="156"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -6419,15 +4997,15 @@
       <c r="C34" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="318"/>
-      <c r="E34" s="329"/>
-      <c r="F34" s="321"/>
-      <c r="G34" s="332"/>
+      <c r="D34" s="286"/>
+      <c r="E34" s="313"/>
+      <c r="F34" s="288"/>
+      <c r="G34" s="290"/>
       <c r="H34" s="157">
         <v>24650</v>
       </c>
-      <c r="I34" s="318"/>
-      <c r="J34" s="291"/>
+      <c r="I34" s="286"/>
+      <c r="J34" s="300"/>
       <c r="K34" s="156"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -6436,15 +5014,15 @@
       <c r="C35" s="153" t="s">
         <v>223</v>
       </c>
-      <c r="D35" s="318"/>
-      <c r="E35" s="329"/>
-      <c r="F35" s="321"/>
-      <c r="G35" s="332"/>
+      <c r="D35" s="286"/>
+      <c r="E35" s="313"/>
+      <c r="F35" s="288"/>
+      <c r="G35" s="290"/>
       <c r="H35" s="157">
         <v>22050</v>
       </c>
-      <c r="I35" s="318"/>
-      <c r="J35" s="291"/>
+      <c r="I35" s="286"/>
+      <c r="J35" s="300"/>
       <c r="K35" s="156"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -6453,15 +5031,15 @@
       <c r="C36" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="318"/>
-      <c r="E36" s="329"/>
-      <c r="F36" s="321"/>
-      <c r="G36" s="332"/>
+      <c r="D36" s="286"/>
+      <c r="E36" s="313"/>
+      <c r="F36" s="288"/>
+      <c r="G36" s="290"/>
       <c r="H36" s="157">
         <v>4634</v>
       </c>
-      <c r="I36" s="318"/>
-      <c r="J36" s="291"/>
+      <c r="I36" s="286"/>
+      <c r="J36" s="300"/>
       <c r="K36" s="156"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -6470,15 +5048,15 @@
       <c r="C37" s="153" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="318"/>
-      <c r="E37" s="329"/>
-      <c r="F37" s="321"/>
-      <c r="G37" s="332"/>
+      <c r="D37" s="286"/>
+      <c r="E37" s="313"/>
+      <c r="F37" s="288"/>
+      <c r="G37" s="290"/>
       <c r="H37" s="157">
         <v>10920</v>
       </c>
-      <c r="I37" s="318"/>
-      <c r="J37" s="291"/>
+      <c r="I37" s="286"/>
+      <c r="J37" s="300"/>
       <c r="K37" s="156"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -6487,15 +5065,15 @@
       <c r="C38" s="153" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="318"/>
-      <c r="E38" s="329"/>
-      <c r="F38" s="321"/>
-      <c r="G38" s="332"/>
+      <c r="D38" s="286"/>
+      <c r="E38" s="313"/>
+      <c r="F38" s="288"/>
+      <c r="G38" s="290"/>
       <c r="H38" s="157">
         <v>2070</v>
       </c>
-      <c r="I38" s="318"/>
-      <c r="J38" s="291"/>
+      <c r="I38" s="286"/>
+      <c r="J38" s="300"/>
       <c r="K38" s="156"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -6504,15 +5082,15 @@
       <c r="C39" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="318"/>
-      <c r="E39" s="329"/>
-      <c r="F39" s="321"/>
-      <c r="G39" s="332"/>
+      <c r="D39" s="286"/>
+      <c r="E39" s="313"/>
+      <c r="F39" s="288"/>
+      <c r="G39" s="290"/>
       <c r="H39" s="157">
         <v>1479</v>
       </c>
-      <c r="I39" s="318"/>
-      <c r="J39" s="291"/>
+      <c r="I39" s="286"/>
+      <c r="J39" s="300"/>
       <c r="K39" s="156"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -6521,15 +5099,15 @@
       <c r="C40" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="318"/>
-      <c r="E40" s="329"/>
-      <c r="F40" s="321"/>
-      <c r="G40" s="332"/>
+      <c r="D40" s="286"/>
+      <c r="E40" s="313"/>
+      <c r="F40" s="288"/>
+      <c r="G40" s="290"/>
       <c r="H40" s="157">
         <v>10600</v>
       </c>
-      <c r="I40" s="318"/>
-      <c r="J40" s="291"/>
+      <c r="I40" s="286"/>
+      <c r="J40" s="300"/>
       <c r="K40" s="156"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -6538,15 +5116,15 @@
       <c r="C41" s="153" t="s">
         <v>153</v>
       </c>
-      <c r="D41" s="318"/>
-      <c r="E41" s="329"/>
-      <c r="F41" s="321"/>
-      <c r="G41" s="332"/>
+      <c r="D41" s="286"/>
+      <c r="E41" s="313"/>
+      <c r="F41" s="288"/>
+      <c r="G41" s="290"/>
       <c r="H41" s="157">
         <v>2650</v>
       </c>
-      <c r="I41" s="318"/>
-      <c r="J41" s="291"/>
+      <c r="I41" s="286"/>
+      <c r="J41" s="300"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="70"/>
@@ -6554,15 +5132,15 @@
       <c r="C42" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="318"/>
-      <c r="E42" s="329"/>
-      <c r="F42" s="321"/>
-      <c r="G42" s="332"/>
+      <c r="D42" s="286"/>
+      <c r="E42" s="313"/>
+      <c r="F42" s="288"/>
+      <c r="G42" s="290"/>
       <c r="H42" s="157">
         <v>13828</v>
       </c>
-      <c r="I42" s="318"/>
-      <c r="J42" s="291"/>
+      <c r="I42" s="286"/>
+      <c r="J42" s="300"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="70"/>
@@ -6570,33 +5148,33 @@
       <c r="C43" s="153" t="s">
         <v>155</v>
       </c>
-      <c r="D43" s="319"/>
-      <c r="E43" s="330"/>
-      <c r="F43" s="322"/>
-      <c r="G43" s="333"/>
+      <c r="D43" s="311"/>
+      <c r="E43" s="314"/>
+      <c r="F43" s="315"/>
+      <c r="G43" s="316"/>
       <c r="H43" s="159">
         <v>6780</v>
       </c>
-      <c r="I43" s="318"/>
-      <c r="J43" s="291"/>
+      <c r="I43" s="286"/>
+      <c r="J43" s="300"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="70"/>
       <c r="B44" s="80"/>
-      <c r="C44" s="229" t="s">
+      <c r="C44" s="225" t="s">
         <v>157</v>
       </c>
-      <c r="D44" s="327" t="s">
+      <c r="D44" s="285" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="328" t="s">
+      <c r="E44" s="312" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="320"/>
-      <c r="G44" s="331"/>
+      <c r="F44" s="287"/>
+      <c r="G44" s="289"/>
       <c r="H44" s="161"/>
-      <c r="I44" s="318"/>
-      <c r="J44" s="290" t="s">
+      <c r="I44" s="286"/>
+      <c r="J44" s="337" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6606,15 +5184,15 @@
       <c r="C45" s="152" t="s">
         <v>158</v>
       </c>
-      <c r="D45" s="318"/>
-      <c r="E45" s="311"/>
-      <c r="F45" s="321"/>
-      <c r="G45" s="332"/>
+      <c r="D45" s="286"/>
+      <c r="E45" s="284"/>
+      <c r="F45" s="288"/>
+      <c r="G45" s="290"/>
       <c r="H45" s="157">
         <v>91845</v>
       </c>
-      <c r="I45" s="318"/>
-      <c r="J45" s="291"/>
+      <c r="I45" s="286"/>
+      <c r="J45" s="300"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="70"/>
@@ -6622,15 +5200,15 @@
       <c r="C46" s="152" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="318"/>
-      <c r="E46" s="311"/>
-      <c r="F46" s="321"/>
-      <c r="G46" s="332"/>
+      <c r="D46" s="286"/>
+      <c r="E46" s="284"/>
+      <c r="F46" s="288"/>
+      <c r="G46" s="290"/>
       <c r="H46" s="157">
         <v>58981</v>
       </c>
-      <c r="I46" s="318"/>
-      <c r="J46" s="291"/>
+      <c r="I46" s="286"/>
+      <c r="J46" s="300"/>
     </row>
     <row r="47" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="70"/>
@@ -6638,15 +5216,15 @@
       <c r="C47" s="153" t="s">
         <v>160</v>
       </c>
-      <c r="D47" s="318"/>
-      <c r="E47" s="311"/>
-      <c r="F47" s="321"/>
-      <c r="G47" s="332"/>
+      <c r="D47" s="286"/>
+      <c r="E47" s="284"/>
+      <c r="F47" s="288"/>
+      <c r="G47" s="290"/>
       <c r="H47" s="157">
         <v>23750</v>
       </c>
-      <c r="I47" s="318"/>
-      <c r="J47" s="291"/>
+      <c r="I47" s="286"/>
+      <c r="J47" s="300"/>
     </row>
     <row r="48" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="70"/>
@@ -6654,15 +5232,15 @@
       <c r="C48" s="160" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="318"/>
-      <c r="E48" s="311"/>
-      <c r="F48" s="321"/>
-      <c r="G48" s="332"/>
+      <c r="D48" s="286"/>
+      <c r="E48" s="284"/>
+      <c r="F48" s="288"/>
+      <c r="G48" s="290"/>
       <c r="H48" s="157">
         <v>189150</v>
       </c>
-      <c r="I48" s="318"/>
-      <c r="J48" s="291"/>
+      <c r="I48" s="286"/>
+      <c r="J48" s="300"/>
     </row>
     <row r="49" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="70"/>
@@ -6670,15 +5248,15 @@
       <c r="C49" s="160" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="318"/>
-      <c r="E49" s="311"/>
-      <c r="F49" s="321"/>
-      <c r="G49" s="332"/>
+      <c r="D49" s="286"/>
+      <c r="E49" s="284"/>
+      <c r="F49" s="288"/>
+      <c r="G49" s="290"/>
       <c r="H49" s="157">
         <v>67000</v>
       </c>
-      <c r="I49" s="318"/>
-      <c r="J49" s="291"/>
+      <c r="I49" s="286"/>
+      <c r="J49" s="300"/>
     </row>
     <row r="50" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="70"/>
@@ -6686,15 +5264,15 @@
       <c r="C50" s="160" t="s">
         <v>163</v>
       </c>
-      <c r="D50" s="319"/>
-      <c r="E50" s="312"/>
-      <c r="F50" s="322"/>
-      <c r="G50" s="333"/>
+      <c r="D50" s="311"/>
+      <c r="E50" s="317"/>
+      <c r="F50" s="315"/>
+      <c r="G50" s="316"/>
       <c r="H50" s="157">
         <v>23400</v>
       </c>
-      <c r="I50" s="319"/>
-      <c r="J50" s="291"/>
+      <c r="I50" s="311"/>
+      <c r="J50" s="300"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="70"/>
@@ -6720,7 +5298,7 @@
       <c r="D52" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="E52" s="226" t="s">
+      <c r="E52" s="222" t="s">
         <v>165</v>
       </c>
       <c r="F52" s="168"/>
@@ -6731,7 +5309,7 @@
       <c r="I52" s="155" t="s">
         <v>128</v>
       </c>
-      <c r="J52" s="227" t="s">
+      <c r="J52" s="223" t="s">
         <v>201</v>
       </c>
     </row>
@@ -6869,11 +5447,11 @@
       <c r="J63" s="69"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="350" t="s">
+      <c r="A64" s="293" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="351"/>
-      <c r="C64" s="352"/>
+      <c r="B64" s="294"/>
+      <c r="C64" s="295"/>
       <c r="D64" s="72"/>
       <c r="E64" s="76"/>
       <c r="F64" s="76"/>
@@ -6886,11 +5464,11 @@
       <c r="J64" s="69"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="350" t="s">
+      <c r="A65" s="293" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="351"/>
-      <c r="C65" s="352"/>
+      <c r="B65" s="294"/>
+      <c r="C65" s="295"/>
       <c r="D65" s="70"/>
       <c r="E65" s="70"/>
       <c r="F65" s="70"/>
@@ -6960,36 +5538,36 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
-      <c r="B72" s="349" t="s">
+      <c r="B72" s="292" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="349"/>
+      <c r="C72" s="292"/>
       <c r="D72" s="28"/>
-      <c r="E72" s="349" t="s">
+      <c r="E72" s="292" t="s">
         <v>40</v>
       </c>
-      <c r="F72" s="349"/>
+      <c r="F72" s="292"/>
       <c r="G72" s="28"/>
-      <c r="H72" s="348" t="s">
+      <c r="H72" s="291" t="s">
         <v>41</v>
       </c>
-      <c r="I72" s="349"/>
+      <c r="I72" s="292"/>
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="256" t="s">
+      <c r="B73" s="260" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="256"/>
-      <c r="E73" s="256" t="s">
+      <c r="C73" s="260"/>
+      <c r="E73" s="260" t="s">
         <v>38</v>
       </c>
-      <c r="F73" s="256"/>
-      <c r="H73" s="256" t="s">
+      <c r="F73" s="260"/>
+      <c r="H73" s="260" t="s">
         <v>39</v>
       </c>
-      <c r="I73" s="256"/>
+      <c r="I73" s="260"/>
       <c r="J73" s="30"/>
       <c r="K73" s="30"/>
     </row>
@@ -7006,37 +5584,20 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="D23:D43"/>
-    <mergeCell ref="E23:E43"/>
-    <mergeCell ref="F23:F43"/>
-    <mergeCell ref="G23:G43"/>
-    <mergeCell ref="E44:E50"/>
-    <mergeCell ref="D44:D50"/>
-    <mergeCell ref="F44:F50"/>
-    <mergeCell ref="G44:G50"/>
-    <mergeCell ref="I23:I50"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J44:J50"/>
+    <mergeCell ref="J24:J43"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="I7:I8"/>
@@ -7046,20 +5607,37 @@
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="G9:G11"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J44:J50"/>
-    <mergeCell ref="J24:J43"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="I23:I50"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="D23:D43"/>
+    <mergeCell ref="E23:E43"/>
+    <mergeCell ref="F23:F43"/>
+    <mergeCell ref="G23:G43"/>
+    <mergeCell ref="E44:E50"/>
+    <mergeCell ref="D44:D50"/>
+    <mergeCell ref="F44:F50"/>
+    <mergeCell ref="G44:G50"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7092,57 +5670,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="369" t="s">
+      <c r="A1" s="353" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="369"/>
-      <c r="C1" s="369"/>
-      <c r="D1" s="369"/>
-      <c r="E1" s="369"/>
-      <c r="F1" s="369"/>
-      <c r="G1" s="369"/>
-      <c r="H1" s="369"/>
-      <c r="I1" s="369"/>
+      <c r="B1" s="353"/>
+      <c r="C1" s="353"/>
+      <c r="D1" s="353"/>
+      <c r="E1" s="353"/>
+      <c r="F1" s="353"/>
+      <c r="G1" s="353"/>
+      <c r="H1" s="353"/>
+      <c r="I1" s="353"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="369" t="s">
+      <c r="A2" s="353" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="369"/>
-      <c r="C2" s="369"/>
-      <c r="D2" s="369"/>
-      <c r="E2" s="369"/>
-      <c r="F2" s="369"/>
-      <c r="G2" s="369"/>
-      <c r="H2" s="369"/>
-      <c r="I2" s="369"/>
+      <c r="B2" s="353"/>
+      <c r="C2" s="353"/>
+      <c r="D2" s="353"/>
+      <c r="E2" s="353"/>
+      <c r="F2" s="353"/>
+      <c r="G2" s="353"/>
+      <c r="H2" s="353"/>
+      <c r="I2" s="353"/>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="370" t="s">
+      <c r="A3" s="354" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="370"/>
-      <c r="C3" s="370"/>
-      <c r="D3" s="370"/>
-      <c r="E3" s="370"/>
-      <c r="F3" s="370"/>
-      <c r="G3" s="370"/>
-      <c r="H3" s="370"/>
-      <c r="I3" s="370"/>
+      <c r="B3" s="354"/>
+      <c r="C3" s="354"/>
+      <c r="D3" s="354"/>
+      <c r="E3" s="354"/>
+      <c r="F3" s="354"/>
+      <c r="G3" s="354"/>
+      <c r="H3" s="354"/>
+      <c r="I3" s="354"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="36"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
-      <c r="E4" s="359" t="s">
+      <c r="E4" s="355" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="360"/>
-      <c r="G4" s="359" t="s">
+      <c r="F4" s="356"/>
+      <c r="G4" s="355" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="360"/>
+      <c r="H4" s="356"/>
       <c r="I4" s="36" t="s">
         <v>3</v>
       </c>
@@ -7160,10 +5738,10 @@
       <c r="D5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="361"/>
-      <c r="F5" s="362"/>
-      <c r="G5" s="361"/>
-      <c r="H5" s="362"/>
+      <c r="E5" s="357"/>
+      <c r="F5" s="358"/>
+      <c r="G5" s="357"/>
+      <c r="H5" s="358"/>
       <c r="I5" s="39" t="s">
         <v>8</v>
       </c>
@@ -7242,8 +5820,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="371"/>
-      <c r="B9" s="372"/>
+      <c r="A9" s="349"/>
+      <c r="B9" s="350"/>
       <c r="C9" s="105" t="s">
         <v>22</v>
       </c>
@@ -7255,8 +5833,8 @@
       <c r="I9" s="50"/>
     </row>
     <row r="10" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="373"/>
-      <c r="B10" s="373"/>
+      <c r="A10" s="351"/>
+      <c r="B10" s="351"/>
       <c r="C10" s="93" t="s">
         <v>62</v>
       </c>
@@ -7276,8 +5854,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="6.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="373"/>
-      <c r="B11" s="373"/>
+      <c r="A11" s="351"/>
+      <c r="B11" s="351"/>
       <c r="C11" s="119"/>
       <c r="D11" s="117"/>
       <c r="E11" s="118"/>
@@ -7292,18 +5870,18 @@
       <c r="C12" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="363" t="s">
+      <c r="D12" s="342" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="364" t="s">
+      <c r="E12" s="346" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
-      <c r="H12" s="374">
+      <c r="H12" s="345">
         <v>140000</v>
       </c>
-      <c r="I12" s="363" t="s">
+      <c r="I12" s="342" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7313,12 +5891,12 @@
       <c r="C13" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="353"/>
-      <c r="E13" s="355"/>
+      <c r="D13" s="343"/>
+      <c r="E13" s="347"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
-      <c r="H13" s="353"/>
-      <c r="I13" s="353"/>
+      <c r="H13" s="343"/>
+      <c r="I13" s="343"/>
       <c r="K13" s="98"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7327,12 +5905,12 @@
       <c r="C14" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="353"/>
-      <c r="E14" s="355"/>
+      <c r="D14" s="343"/>
+      <c r="E14" s="347"/>
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
-      <c r="H14" s="353"/>
-      <c r="I14" s="353"/>
+      <c r="H14" s="343"/>
+      <c r="I14" s="343"/>
       <c r="K14" s="98"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -7341,12 +5919,12 @@
       <c r="C15" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="353"/>
-      <c r="E15" s="355"/>
+      <c r="D15" s="343"/>
+      <c r="E15" s="347"/>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
-      <c r="H15" s="353"/>
-      <c r="I15" s="353"/>
+      <c r="H15" s="343"/>
+      <c r="I15" s="343"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="59"/>
@@ -7354,12 +5932,12 @@
       <c r="C16" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="353"/>
-      <c r="E16" s="355"/>
+      <c r="D16" s="343"/>
+      <c r="E16" s="347"/>
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
-      <c r="H16" s="353"/>
-      <c r="I16" s="353"/>
+      <c r="H16" s="343"/>
+      <c r="I16" s="343"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="59"/>
@@ -7367,12 +5945,12 @@
       <c r="C17" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="353"/>
-      <c r="E17" s="355"/>
+      <c r="D17" s="343"/>
+      <c r="E17" s="347"/>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
-      <c r="H17" s="353"/>
-      <c r="I17" s="353"/>
+      <c r="H17" s="343"/>
+      <c r="I17" s="343"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="59"/>
@@ -7380,12 +5958,12 @@
       <c r="C18" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="353"/>
-      <c r="E18" s="355"/>
+      <c r="D18" s="343"/>
+      <c r="E18" s="347"/>
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
-      <c r="H18" s="353"/>
-      <c r="I18" s="353"/>
+      <c r="H18" s="343"/>
+      <c r="I18" s="343"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="59"/>
@@ -7393,12 +5971,12 @@
       <c r="C19" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="353"/>
-      <c r="E19" s="355"/>
+      <c r="D19" s="343"/>
+      <c r="E19" s="347"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
-      <c r="H19" s="353"/>
-      <c r="I19" s="353"/>
+      <c r="H19" s="343"/>
+      <c r="I19" s="343"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="59"/>
@@ -7406,12 +5984,12 @@
       <c r="C20" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="353"/>
-      <c r="E20" s="355"/>
+      <c r="D20" s="343"/>
+      <c r="E20" s="347"/>
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
-      <c r="H20" s="353"/>
-      <c r="I20" s="353"/>
+      <c r="H20" s="343"/>
+      <c r="I20" s="343"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="59"/>
@@ -7419,12 +5997,12 @@
       <c r="C21" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="354"/>
-      <c r="E21" s="356"/>
+      <c r="D21" s="344"/>
+      <c r="E21" s="352"/>
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
-      <c r="H21" s="354"/>
-      <c r="I21" s="354"/>
+      <c r="H21" s="344"/>
+      <c r="I21" s="344"/>
     </row>
     <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="59"/>
@@ -7432,18 +6010,18 @@
       <c r="C22" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="364" t="s">
+      <c r="D22" s="346" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="364" t="s">
+      <c r="E22" s="346" t="s">
         <v>55</v>
       </c>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
-      <c r="H22" s="374">
+      <c r="H22" s="345">
         <v>592665.87</v>
       </c>
-      <c r="I22" s="363" t="s">
+      <c r="I22" s="342" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7453,12 +6031,12 @@
       <c r="C23" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="355"/>
-      <c r="E23" s="355"/>
+      <c r="D23" s="347"/>
+      <c r="E23" s="347"/>
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
-      <c r="H23" s="375"/>
-      <c r="I23" s="353"/>
+      <c r="H23" s="348"/>
+      <c r="I23" s="343"/>
     </row>
     <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="50"/>
@@ -7466,12 +6044,12 @@
       <c r="C24" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="355"/>
-      <c r="E24" s="355"/>
+      <c r="D24" s="347"/>
+      <c r="E24" s="347"/>
       <c r="F24" s="107"/>
       <c r="G24" s="108"/>
-      <c r="H24" s="375"/>
-      <c r="I24" s="353"/>
+      <c r="H24" s="348"/>
+      <c r="I24" s="343"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="50"/>
@@ -7479,12 +6057,12 @@
       <c r="C25" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="355"/>
-      <c r="E25" s="355"/>
+      <c r="D25" s="347"/>
+      <c r="E25" s="347"/>
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
-      <c r="H25" s="375"/>
-      <c r="I25" s="353"/>
+      <c r="H25" s="348"/>
+      <c r="I25" s="343"/>
     </row>
     <row r="26" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="50"/>
@@ -7492,12 +6070,12 @@
       <c r="C26" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="355"/>
-      <c r="E26" s="355"/>
+      <c r="D26" s="347"/>
+      <c r="E26" s="347"/>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
-      <c r="H26" s="375"/>
-      <c r="I26" s="353"/>
+      <c r="H26" s="348"/>
+      <c r="I26" s="343"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="50"/>
@@ -7505,12 +6083,12 @@
       <c r="C27" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="355"/>
-      <c r="E27" s="355"/>
+      <c r="D27" s="347"/>
+      <c r="E27" s="347"/>
       <c r="F27" s="50"/>
       <c r="G27" s="50"/>
-      <c r="H27" s="375"/>
-      <c r="I27" s="353"/>
+      <c r="H27" s="348"/>
+      <c r="I27" s="343"/>
     </row>
     <row r="28" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="50"/>
@@ -7518,12 +6096,12 @@
       <c r="C28" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="355"/>
-      <c r="E28" s="355"/>
+      <c r="D28" s="347"/>
+      <c r="E28" s="347"/>
       <c r="F28" s="107"/>
       <c r="G28" s="108"/>
-      <c r="H28" s="375"/>
-      <c r="I28" s="353"/>
+      <c r="H28" s="348"/>
+      <c r="I28" s="343"/>
     </row>
     <row r="29" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="50"/>
@@ -7531,12 +6109,12 @@
       <c r="C29" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="355"/>
-      <c r="E29" s="355"/>
+      <c r="D29" s="347"/>
+      <c r="E29" s="347"/>
       <c r="F29" s="107"/>
       <c r="G29" s="108"/>
-      <c r="H29" s="375"/>
-      <c r="I29" s="353"/>
+      <c r="H29" s="348"/>
+      <c r="I29" s="343"/>
     </row>
     <row r="30" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="50"/>
@@ -7544,12 +6122,12 @@
       <c r="C30" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="355"/>
-      <c r="E30" s="355"/>
+      <c r="D30" s="347"/>
+      <c r="E30" s="347"/>
       <c r="F30" s="107"/>
       <c r="G30" s="108"/>
-      <c r="H30" s="375"/>
-      <c r="I30" s="353"/>
+      <c r="H30" s="348"/>
+      <c r="I30" s="343"/>
     </row>
     <row r="31" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="50"/>
@@ -7557,12 +6135,12 @@
       <c r="C31" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="355"/>
-      <c r="E31" s="355"/>
+      <c r="D31" s="347"/>
+      <c r="E31" s="347"/>
       <c r="F31" s="107"/>
       <c r="G31" s="108"/>
-      <c r="H31" s="375"/>
-      <c r="I31" s="353"/>
+      <c r="H31" s="348"/>
+      <c r="I31" s="343"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="50"/>
@@ -7570,12 +6148,12 @@
       <c r="C32" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="355"/>
-      <c r="E32" s="355"/>
+      <c r="D32" s="347"/>
+      <c r="E32" s="347"/>
       <c r="F32" s="107"/>
       <c r="G32" s="108"/>
-      <c r="H32" s="375"/>
-      <c r="I32" s="353"/>
+      <c r="H32" s="348"/>
+      <c r="I32" s="343"/>
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="50"/>
@@ -7583,12 +6161,12 @@
       <c r="C33" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="355"/>
-      <c r="E33" s="355"/>
+      <c r="D33" s="347"/>
+      <c r="E33" s="347"/>
       <c r="F33" s="107"/>
       <c r="G33" s="108"/>
-      <c r="H33" s="375"/>
-      <c r="I33" s="353"/>
+      <c r="H33" s="348"/>
+      <c r="I33" s="343"/>
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="50"/>
@@ -7596,12 +6174,12 @@
       <c r="C34" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="355"/>
-      <c r="E34" s="355"/>
+      <c r="D34" s="347"/>
+      <c r="E34" s="347"/>
       <c r="F34" s="107"/>
       <c r="G34" s="108"/>
-      <c r="H34" s="375"/>
-      <c r="I34" s="353"/>
+      <c r="H34" s="348"/>
+      <c r="I34" s="343"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="50"/>
@@ -7609,12 +6187,12 @@
       <c r="C35" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="355"/>
-      <c r="E35" s="355"/>
+      <c r="D35" s="347"/>
+      <c r="E35" s="347"/>
       <c r="F35" s="107"/>
       <c r="G35" s="108"/>
-      <c r="H35" s="375"/>
-      <c r="I35" s="353"/>
+      <c r="H35" s="348"/>
+      <c r="I35" s="343"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="50"/>
@@ -7622,12 +6200,12 @@
       <c r="C36" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="355"/>
-      <c r="E36" s="355"/>
+      <c r="D36" s="347"/>
+      <c r="E36" s="347"/>
       <c r="F36" s="107"/>
       <c r="G36" s="108"/>
-      <c r="H36" s="375"/>
-      <c r="I36" s="353"/>
+      <c r="H36" s="348"/>
+      <c r="I36" s="343"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="50"/>
@@ -7635,12 +6213,12 @@
       <c r="C37" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="355"/>
-      <c r="E37" s="355"/>
+      <c r="D37" s="347"/>
+      <c r="E37" s="347"/>
       <c r="F37" s="107"/>
       <c r="G37" s="108"/>
-      <c r="H37" s="375"/>
-      <c r="I37" s="353"/>
+      <c r="H37" s="348"/>
+      <c r="I37" s="343"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="50"/>
@@ -7648,12 +6226,12 @@
       <c r="C38" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="355"/>
-      <c r="E38" s="355"/>
+      <c r="D38" s="347"/>
+      <c r="E38" s="347"/>
       <c r="F38" s="107"/>
       <c r="G38" s="108"/>
-      <c r="H38" s="375"/>
-      <c r="I38" s="353"/>
+      <c r="H38" s="348"/>
+      <c r="I38" s="343"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="50"/>
@@ -7661,12 +6239,12 @@
       <c r="C39" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="355"/>
-      <c r="E39" s="355"/>
+      <c r="D39" s="347"/>
+      <c r="E39" s="347"/>
       <c r="F39" s="107"/>
       <c r="G39" s="108"/>
-      <c r="H39" s="375"/>
-      <c r="I39" s="353"/>
+      <c r="H39" s="348"/>
+      <c r="I39" s="343"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="50"/>
@@ -7674,12 +6252,12 @@
       <c r="C40" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="355"/>
-      <c r="E40" s="355"/>
+      <c r="D40" s="347"/>
+      <c r="E40" s="347"/>
       <c r="F40" s="107"/>
       <c r="G40" s="108"/>
-      <c r="H40" s="375"/>
-      <c r="I40" s="353"/>
+      <c r="H40" s="348"/>
+      <c r="I40" s="343"/>
     </row>
     <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="50"/>
@@ -7687,12 +6265,12 @@
       <c r="C41" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="355"/>
-      <c r="E41" s="355"/>
+      <c r="D41" s="347"/>
+      <c r="E41" s="347"/>
       <c r="F41" s="107"/>
       <c r="G41" s="108"/>
-      <c r="H41" s="375"/>
-      <c r="I41" s="353"/>
+      <c r="H41" s="348"/>
+      <c r="I41" s="343"/>
     </row>
     <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="50"/>
@@ -7700,12 +6278,12 @@
       <c r="C42" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="355"/>
-      <c r="E42" s="355"/>
+      <c r="D42" s="347"/>
+      <c r="E42" s="347"/>
       <c r="F42" s="107"/>
       <c r="G42" s="108"/>
-      <c r="H42" s="375"/>
-      <c r="I42" s="353"/>
+      <c r="H42" s="348"/>
+      <c r="I42" s="343"/>
     </row>
     <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="50"/>
@@ -7713,12 +6291,12 @@
       <c r="C43" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="355"/>
-      <c r="E43" s="355"/>
+      <c r="D43" s="347"/>
+      <c r="E43" s="347"/>
       <c r="F43" s="107"/>
       <c r="G43" s="108"/>
-      <c r="H43" s="375"/>
-      <c r="I43" s="353"/>
+      <c r="H43" s="348"/>
+      <c r="I43" s="343"/>
     </row>
     <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="50"/>
@@ -7726,12 +6304,12 @@
       <c r="C44" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="355"/>
-      <c r="E44" s="355"/>
+      <c r="D44" s="347"/>
+      <c r="E44" s="347"/>
       <c r="F44" s="107"/>
       <c r="G44" s="108"/>
-      <c r="H44" s="375"/>
-      <c r="I44" s="353"/>
+      <c r="H44" s="348"/>
+      <c r="I44" s="343"/>
     </row>
     <row r="45" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="50"/>
@@ -7752,14 +6330,14 @@
       <c r="C46" s="137" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="353"/>
-      <c r="E46" s="355"/>
+      <c r="D46" s="343"/>
+      <c r="E46" s="347"/>
       <c r="F46" s="104"/>
       <c r="G46" s="56"/>
       <c r="H46" s="56">
         <v>160000</v>
       </c>
-      <c r="I46" s="357" t="s">
+      <c r="I46" s="359" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7769,14 +6347,14 @@
       <c r="C47" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="354"/>
-      <c r="E47" s="356"/>
+      <c r="D47" s="344"/>
+      <c r="E47" s="352"/>
       <c r="F47" s="104"/>
       <c r="G47" s="56"/>
       <c r="H47" s="56">
         <v>171900</v>
       </c>
-      <c r="I47" s="358"/>
+      <c r="I47" s="360"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="50"/>
@@ -7784,18 +6362,18 @@
       <c r="C48" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="363" t="s">
+      <c r="D48" s="342" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="364" t="s">
+      <c r="E48" s="346" t="s">
         <v>111</v>
       </c>
       <c r="F48" s="104"/>
       <c r="G48" s="56"/>
-      <c r="H48" s="365">
+      <c r="H48" s="361">
         <v>750000</v>
       </c>
-      <c r="I48" s="368" t="s">
+      <c r="I48" s="364" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7805,12 +6383,12 @@
       <c r="C49" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="353"/>
-      <c r="E49" s="355"/>
+      <c r="D49" s="343"/>
+      <c r="E49" s="347"/>
       <c r="F49" s="104"/>
       <c r="G49" s="56"/>
-      <c r="H49" s="366"/>
-      <c r="I49" s="357"/>
+      <c r="H49" s="362"/>
+      <c r="I49" s="359"/>
     </row>
     <row r="50" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="50"/>
@@ -7818,12 +6396,12 @@
       <c r="C50" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="353"/>
-      <c r="E50" s="355"/>
+      <c r="D50" s="343"/>
+      <c r="E50" s="347"/>
       <c r="F50" s="104"/>
       <c r="G50" s="56"/>
-      <c r="H50" s="366"/>
-      <c r="I50" s="357"/>
+      <c r="H50" s="362"/>
+      <c r="I50" s="359"/>
     </row>
     <row r="51" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="50"/>
@@ -7831,12 +6409,12 @@
       <c r="C51" s="124" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="353"/>
-      <c r="E51" s="355"/>
+      <c r="D51" s="343"/>
+      <c r="E51" s="347"/>
       <c r="F51" s="104"/>
       <c r="G51" s="56"/>
-      <c r="H51" s="366"/>
-      <c r="I51" s="357"/>
+      <c r="H51" s="362"/>
+      <c r="I51" s="359"/>
     </row>
     <row r="52" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="50"/>
@@ -7844,12 +6422,12 @@
       <c r="C52" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="354"/>
-      <c r="E52" s="356"/>
+      <c r="D52" s="344"/>
+      <c r="E52" s="352"/>
       <c r="F52" s="104"/>
       <c r="G52" s="56"/>
-      <c r="H52" s="367"/>
-      <c r="I52" s="358"/>
+      <c r="H52" s="363"/>
+      <c r="I52" s="360"/>
     </row>
     <row r="53" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="95"/>
@@ -7918,14 +6496,14 @@
       <c r="B61" s="37"/>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
-      <c r="E61" s="359" t="s">
+      <c r="E61" s="355" t="s">
         <v>1</v>
       </c>
-      <c r="F61" s="360"/>
-      <c r="G61" s="359" t="s">
+      <c r="F61" s="356"/>
+      <c r="G61" s="355" t="s">
         <v>2</v>
       </c>
-      <c r="H61" s="360"/>
+      <c r="H61" s="356"/>
       <c r="I61" s="36" t="s">
         <v>3</v>
       </c>
@@ -7943,10 +6521,10 @@
       <c r="D62" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="361"/>
-      <c r="F62" s="362"/>
-      <c r="G62" s="361"/>
-      <c r="H62" s="362"/>
+      <c r="E62" s="357"/>
+      <c r="F62" s="358"/>
+      <c r="G62" s="357"/>
+      <c r="H62" s="358"/>
       <c r="I62" s="39" t="s">
         <v>8</v>
       </c>
@@ -8284,22 +6862,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="I12:I21"/>
-    <mergeCell ref="H12:H21"/>
-    <mergeCell ref="D22:D44"/>
-    <mergeCell ref="H22:H44"/>
-    <mergeCell ref="E22:E44"/>
-    <mergeCell ref="I22:I44"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="E12:E21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:H5"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="E46:E47"/>
     <mergeCell ref="I46:I47"/>
@@ -8309,6 +6871,22 @@
     <mergeCell ref="E48:E52"/>
     <mergeCell ref="H48:H52"/>
     <mergeCell ref="I48:I52"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="E12:E21"/>
+    <mergeCell ref="I12:I21"/>
+    <mergeCell ref="H12:H21"/>
+    <mergeCell ref="D22:D44"/>
+    <mergeCell ref="H22:H44"/>
+    <mergeCell ref="E22:E44"/>
+    <mergeCell ref="I22:I44"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LDRRMFIP.xlsx
+++ b/LDRRMFIP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LDRRMFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982A0F5A-D855-4CD2-A45B-8DE8DB9879F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF1DE7C-8988-4139-BFF2-A25F59FEE444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FA223BB2-9E3C-AB4E-9163-26FFAA34B9F9}"/>
   </bookViews>
@@ -1863,12 +1863,78 @@
     <xf numFmtId="165" fontId="21" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="25" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1878,12 +1944,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1932,57 +1992,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1998,19 +2007,82 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="25" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2022,10 +2094,79 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2043,164 +2184,59 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2211,47 +2247,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2575,7 +2575,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K59" sqref="K59"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2598,19 +2598,19 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="269" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="249"/>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="249"/>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="249"/>
-      <c r="K2" s="249"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
       <c r="L2" s="182"/>
       <c r="M2" s="182"/>
       <c r="N2" s="182"/>
@@ -2618,19 +2618,19 @@
       <c r="P2" s="182"/>
     </row>
     <row r="3" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="252" t="s">
+      <c r="A3" s="272" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="252"/>
-      <c r="F3" s="252"/>
-      <c r="G3" s="252"/>
-      <c r="H3" s="252"/>
-      <c r="I3" s="252"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
+      <c r="B3" s="272"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="272"/>
+      <c r="F3" s="272"/>
+      <c r="G3" s="272"/>
+      <c r="H3" s="272"/>
+      <c r="I3" s="272"/>
+      <c r="J3" s="272"/>
+      <c r="K3" s="272"/>
       <c r="L3" s="182"/>
       <c r="M3" s="182"/>
       <c r="N3" s="182"/>
@@ -2660,31 +2660,31 @@
       <c r="P5" s="176"/>
     </row>
     <row r="6" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="253" t="s">
+      <c r="A6" s="273" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="255" t="s">
+      <c r="B6" s="275" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="256"/>
-      <c r="D6" s="253" t="s">
+      <c r="C6" s="276"/>
+      <c r="D6" s="273" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="243" t="s">
+      <c r="E6" s="263" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="245"/>
-      <c r="G6" s="253" t="s">
+      <c r="F6" s="265"/>
+      <c r="G6" s="273" t="s">
         <v>174</v>
       </c>
-      <c r="H6" s="253" t="s">
+      <c r="H6" s="273" t="s">
         <v>175</v>
       </c>
-      <c r="I6" s="243" t="s">
+      <c r="I6" s="263" t="s">
         <v>176</v>
       </c>
-      <c r="J6" s="244"/>
-      <c r="K6" s="245"/>
+      <c r="J6" s="264"/>
+      <c r="K6" s="265"/>
       <c r="L6" s="181"/>
       <c r="M6" s="181"/>
       <c r="N6" s="181"/>
@@ -2692,18 +2692,18 @@
       <c r="P6" s="177"/>
     </row>
     <row r="7" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="254"/>
-      <c r="B7" s="257"/>
-      <c r="C7" s="258"/>
-      <c r="D7" s="254"/>
+      <c r="A7" s="274"/>
+      <c r="B7" s="277"/>
+      <c r="C7" s="278"/>
+      <c r="D7" s="274"/>
       <c r="E7" s="183" t="s">
         <v>172</v>
       </c>
       <c r="F7" s="183" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
+      <c r="G7" s="274"/>
+      <c r="H7" s="274"/>
       <c r="I7" s="183" t="s">
         <v>177</v>
       </c>
@@ -2719,28 +2719,28 @@
       <c r="O7" s="177"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="246" t="s">
+      <c r="A8" s="266" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="247"/>
-      <c r="C8" s="247"/>
-      <c r="D8" s="247"/>
-      <c r="E8" s="247"/>
-      <c r="F8" s="247"/>
-      <c r="G8" s="247"/>
-      <c r="H8" s="247"/>
-      <c r="I8" s="247"/>
-      <c r="J8" s="247"/>
-      <c r="K8" s="248"/>
+      <c r="B8" s="267"/>
+      <c r="C8" s="267"/>
+      <c r="D8" s="267"/>
+      <c r="E8" s="267"/>
+      <c r="F8" s="267"/>
+      <c r="G8" s="267"/>
+      <c r="H8" s="267"/>
+      <c r="I8" s="267"/>
+      <c r="J8" s="267"/>
+      <c r="K8" s="268"/>
     </row>
     <row r="9" spans="1:16" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="238" t="s">
+      <c r="A9" s="260" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="236" t="s">
+      <c r="B9" s="237" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="237"/>
+      <c r="C9" s="238"/>
       <c r="D9" s="191" t="s">
         <v>202</v>
       </c>
@@ -2766,11 +2766,11 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="239"/>
-      <c r="B10" s="236" t="s">
+      <c r="A10" s="261"/>
+      <c r="B10" s="237" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="237"/>
+      <c r="C10" s="238"/>
       <c r="D10" s="191" t="s">
         <v>24</v>
       </c>
@@ -2796,11 +2796,11 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="239"/>
-      <c r="B11" s="236" t="s">
+      <c r="A11" s="261"/>
+      <c r="B11" s="237" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="237"/>
+      <c r="C11" s="238"/>
       <c r="D11" s="191" t="s">
         <v>218</v>
       </c>
@@ -2826,11 +2826,11 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="239"/>
-      <c r="B12" s="236" t="s">
+      <c r="A12" s="261"/>
+      <c r="B12" s="237" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="237"/>
+      <c r="C12" s="238"/>
       <c r="D12" s="191" t="s">
         <v>219</v>
       </c>
@@ -2856,11 +2856,11 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="240"/>
-      <c r="B13" s="236" t="s">
+      <c r="A13" s="262"/>
+      <c r="B13" s="237" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="237"/>
+      <c r="C13" s="238"/>
       <c r="D13" s="191" t="s">
         <v>205</v>
       </c>
@@ -2886,7 +2886,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="365"/>
+      <c r="A14" s="236"/>
       <c r="B14" s="193"/>
       <c r="C14" s="194"/>
       <c r="D14" s="194"/>
@@ -2910,28 +2910,28 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="276" t="s">
+      <c r="A15" s="279" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="277"/>
-      <c r="C15" s="277"/>
-      <c r="D15" s="277"/>
-      <c r="E15" s="277"/>
-      <c r="F15" s="277"/>
-      <c r="G15" s="277"/>
-      <c r="H15" s="277"/>
-      <c r="I15" s="277"/>
-      <c r="J15" s="277"/>
-      <c r="K15" s="278"/>
+      <c r="B15" s="280"/>
+      <c r="C15" s="280"/>
+      <c r="D15" s="280"/>
+      <c r="E15" s="280"/>
+      <c r="F15" s="280"/>
+      <c r="G15" s="280"/>
+      <c r="H15" s="280"/>
+      <c r="I15" s="280"/>
+      <c r="J15" s="280"/>
+      <c r="K15" s="281"/>
     </row>
     <row r="16" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="238" t="s">
+      <c r="A16" s="260" t="s">
         <v>200</v>
       </c>
-      <c r="B16" s="236" t="s">
+      <c r="B16" s="237" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="237"/>
+      <c r="C16" s="238"/>
       <c r="D16" s="191" t="s">
         <v>24</v>
       </c>
@@ -2949,19 +2949,19 @@
       </c>
       <c r="I16" s="192"/>
       <c r="J16" s="192">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="K16" s="192">
         <f>SUM(I16:J16)</f>
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="240"/>
-      <c r="B17" s="250" t="s">
+      <c r="A17" s="262"/>
+      <c r="B17" s="270" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="251"/>
+      <c r="C17" s="271"/>
       <c r="D17" s="196" t="s">
         <v>24</v>
       </c>
@@ -2987,13 +2987,13 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="238" t="s">
+      <c r="A18" s="260" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="236" t="s">
+      <c r="B18" s="237" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="237"/>
+      <c r="C18" s="238"/>
       <c r="D18" s="196" t="s">
         <v>24</v>
       </c>
@@ -3019,11 +3019,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="239"/>
-      <c r="B19" s="236" t="s">
+      <c r="A19" s="261"/>
+      <c r="B19" s="237" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="237"/>
+      <c r="C19" s="238"/>
       <c r="D19" s="196" t="s">
         <v>214</v>
       </c>
@@ -3041,19 +3041,19 @@
       </c>
       <c r="I19" s="192"/>
       <c r="J19" s="192">
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="K19" s="192">
         <f>SUM(I19:J19)</f>
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="239"/>
-      <c r="B20" s="236" t="s">
+      <c r="A20" s="261"/>
+      <c r="B20" s="237" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="237"/>
+      <c r="C20" s="238"/>
       <c r="D20" s="191" t="s">
         <v>24</v>
       </c>
@@ -3079,11 +3079,11 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="239"/>
-      <c r="B21" s="241" t="s">
+      <c r="A21" s="261"/>
+      <c r="B21" s="240" t="s">
         <v>235</v>
       </c>
-      <c r="C21" s="242"/>
+      <c r="C21" s="241"/>
       <c r="D21" s="191"/>
       <c r="E21" s="191"/>
       <c r="F21" s="191"/>
@@ -3094,11 +3094,11 @@
       <c r="K21" s="192"/>
     </row>
     <row r="22" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="239"/>
-      <c r="B22" s="236" t="s">
+      <c r="A22" s="261"/>
+      <c r="B22" s="237" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="237" t="s">
+      <c r="C22" s="238" t="s">
         <v>158</v>
       </c>
       <c r="D22" s="191" t="s">
@@ -3126,11 +3126,11 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="239"/>
-      <c r="B23" s="236" t="s">
+      <c r="A23" s="261"/>
+      <c r="B23" s="237" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="237" t="s">
+      <c r="C23" s="238" t="s">
         <v>159</v>
       </c>
       <c r="D23" s="191" t="s">
@@ -3158,11 +3158,11 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="239"/>
-      <c r="B24" s="236" t="s">
+      <c r="A24" s="261"/>
+      <c r="B24" s="237" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="237" t="s">
+      <c r="C24" s="238" t="s">
         <v>160</v>
       </c>
       <c r="D24" s="191" t="s">
@@ -3190,11 +3190,11 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="239"/>
-      <c r="B25" s="236" t="s">
+      <c r="A25" s="261"/>
+      <c r="B25" s="237" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="237" t="s">
+      <c r="C25" s="238" t="s">
         <v>161</v>
       </c>
       <c r="D25" s="191" t="s">
@@ -3222,11 +3222,11 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="239"/>
-      <c r="B26" s="236" t="s">
+      <c r="A26" s="261"/>
+      <c r="B26" s="237" t="s">
         <v>236</v>
       </c>
-      <c r="C26" s="237" t="s">
+      <c r="C26" s="238" t="s">
         <v>162</v>
       </c>
       <c r="D26" s="191" t="s">
@@ -3254,11 +3254,11 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="240"/>
-      <c r="B27" s="236" t="s">
+      <c r="A27" s="262"/>
+      <c r="B27" s="237" t="s">
         <v>163</v>
       </c>
-      <c r="C27" s="237" t="s">
+      <c r="C27" s="238" t="s">
         <v>163</v>
       </c>
       <c r="D27" s="191" t="s">
@@ -3286,13 +3286,13 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="238" t="s">
+      <c r="A28" s="260" t="s">
         <v>221</v>
       </c>
-      <c r="B28" s="241" t="s">
+      <c r="B28" s="240" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="242"/>
+      <c r="C28" s="241"/>
       <c r="D28" s="191"/>
       <c r="E28" s="191"/>
       <c r="F28" s="191"/>
@@ -3303,11 +3303,11 @@
       <c r="K28" s="192"/>
     </row>
     <row r="29" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="239"/>
-      <c r="B29" s="279" t="s">
+      <c r="A29" s="261"/>
+      <c r="B29" s="282" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="280"/>
+      <c r="C29" s="283"/>
       <c r="D29" s="191" t="s">
         <v>225</v>
       </c>
@@ -3333,11 +3333,11 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="239"/>
-      <c r="B30" s="236" t="s">
+      <c r="A30" s="261"/>
+      <c r="B30" s="237" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="237"/>
+      <c r="C30" s="238"/>
       <c r="D30" s="191" t="s">
         <v>225</v>
       </c>
@@ -3363,11 +3363,11 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="239"/>
-      <c r="B31" s="236" t="s">
+      <c r="A31" s="261"/>
+      <c r="B31" s="237" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="237" t="s">
+      <c r="C31" s="238" t="s">
         <v>139</v>
       </c>
       <c r="D31" s="191" t="s">
@@ -3395,11 +3395,11 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="239"/>
-      <c r="B32" s="236" t="s">
+      <c r="A32" s="261"/>
+      <c r="B32" s="237" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="237" t="s">
+      <c r="C32" s="238" t="s">
         <v>140</v>
       </c>
       <c r="D32" s="191" t="s">
@@ -3427,11 +3427,11 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="239"/>
-      <c r="B33" s="236" t="s">
+      <c r="A33" s="261"/>
+      <c r="B33" s="237" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="237" t="s">
+      <c r="C33" s="238" t="s">
         <v>141</v>
       </c>
       <c r="D33" s="191" t="s">
@@ -3459,11 +3459,11 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="239"/>
-      <c r="B34" s="236" t="s">
+      <c r="A34" s="261"/>
+      <c r="B34" s="237" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="237" t="s">
+      <c r="C34" s="238" t="s">
         <v>142</v>
       </c>
       <c r="D34" s="191" t="s">
@@ -3491,11 +3491,11 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="239"/>
-      <c r="B35" s="236" t="s">
+      <c r="A35" s="261"/>
+      <c r="B35" s="237" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="237" t="s">
+      <c r="C35" s="238" t="s">
         <v>143</v>
       </c>
       <c r="D35" s="191" t="s">
@@ -3523,11 +3523,11 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="239"/>
-      <c r="B36" s="236" t="s">
+      <c r="A36" s="261"/>
+      <c r="B36" s="237" t="s">
         <v>144</v>
       </c>
-      <c r="C36" s="237" t="s">
+      <c r="C36" s="238" t="s">
         <v>144</v>
       </c>
       <c r="D36" s="191" t="s">
@@ -3555,11 +3555,11 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="239"/>
-      <c r="B37" s="236" t="s">
+      <c r="A37" s="261"/>
+      <c r="B37" s="237" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="237" t="s">
+      <c r="C37" s="238" t="s">
         <v>145</v>
       </c>
       <c r="D37" s="191" t="s">
@@ -3587,11 +3587,11 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="239"/>
-      <c r="B38" s="236" t="s">
+      <c r="A38" s="261"/>
+      <c r="B38" s="237" t="s">
         <v>146</v>
       </c>
-      <c r="C38" s="237" t="s">
+      <c r="C38" s="238" t="s">
         <v>146</v>
       </c>
       <c r="D38" s="191" t="s">
@@ -3619,11 +3619,11 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="239"/>
-      <c r="B39" s="236" t="s">
+      <c r="A39" s="261"/>
+      <c r="B39" s="237" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="237" t="s">
+      <c r="C39" s="238" t="s">
         <v>147</v>
       </c>
       <c r="D39" s="191" t="s">
@@ -3651,11 +3651,11 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="239"/>
-      <c r="B40" s="236" t="s">
+      <c r="A40" s="261"/>
+      <c r="B40" s="237" t="s">
         <v>223</v>
       </c>
-      <c r="C40" s="237"/>
+      <c r="C40" s="238"/>
       <c r="D40" s="191" t="s">
         <v>225</v>
       </c>
@@ -3681,11 +3681,11 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="239"/>
-      <c r="B41" s="236" t="s">
+      <c r="A41" s="261"/>
+      <c r="B41" s="237" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="237" t="s">
+      <c r="C41" s="238" t="s">
         <v>148</v>
       </c>
       <c r="D41" s="191" t="s">
@@ -3713,11 +3713,11 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="239"/>
-      <c r="B42" s="236" t="s">
+      <c r="A42" s="261"/>
+      <c r="B42" s="237" t="s">
         <v>149</v>
       </c>
-      <c r="C42" s="237" t="s">
+      <c r="C42" s="238" t="s">
         <v>149</v>
       </c>
       <c r="D42" s="191" t="s">
@@ -3745,11 +3745,11 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="239"/>
-      <c r="B43" s="236" t="s">
+      <c r="A43" s="261"/>
+      <c r="B43" s="237" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="237" t="s">
+      <c r="C43" s="238" t="s">
         <v>150</v>
       </c>
       <c r="D43" s="191" t="s">
@@ -3777,11 +3777,11 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="239"/>
-      <c r="B44" s="236" t="s">
+      <c r="A44" s="261"/>
+      <c r="B44" s="237" t="s">
         <v>151</v>
       </c>
-      <c r="C44" s="237" t="s">
+      <c r="C44" s="238" t="s">
         <v>151</v>
       </c>
       <c r="D44" s="191" t="s">
@@ -3809,11 +3809,11 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="239"/>
-      <c r="B45" s="236" t="s">
+      <c r="A45" s="261"/>
+      <c r="B45" s="237" t="s">
         <v>152</v>
       </c>
-      <c r="C45" s="237" t="s">
+      <c r="C45" s="238" t="s">
         <v>152</v>
       </c>
       <c r="D45" s="191" t="s">
@@ -3841,11 +3841,11 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="239"/>
-      <c r="B46" s="236" t="s">
+      <c r="A46" s="261"/>
+      <c r="B46" s="237" t="s">
         <v>153</v>
       </c>
-      <c r="C46" s="237" t="s">
+      <c r="C46" s="238" t="s">
         <v>153</v>
       </c>
       <c r="D46" s="191" t="s">
@@ -3873,11 +3873,11 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="239"/>
-      <c r="B47" s="236" t="s">
+      <c r="A47" s="261"/>
+      <c r="B47" s="237" t="s">
         <v>154</v>
       </c>
-      <c r="C47" s="237" t="s">
+      <c r="C47" s="238" t="s">
         <v>154</v>
       </c>
       <c r="D47" s="191" t="s">
@@ -3905,11 +3905,11 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="240"/>
-      <c r="B48" s="236" t="s">
+      <c r="A48" s="262"/>
+      <c r="B48" s="237" t="s">
         <v>155</v>
       </c>
-      <c r="C48" s="237" t="s">
+      <c r="C48" s="238" t="s">
         <v>155</v>
       </c>
       <c r="D48" s="191" t="s">
@@ -3937,7 +3937,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="365"/>
+      <c r="A49" s="236"/>
       <c r="B49" s="193"/>
       <c r="C49" s="194"/>
       <c r="D49" s="194"/>
@@ -3961,28 +3961,28 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="270" t="s">
+      <c r="A50" s="254" t="s">
         <v>183</v>
       </c>
-      <c r="B50" s="271"/>
-      <c r="C50" s="271"/>
-      <c r="D50" s="271"/>
-      <c r="E50" s="271"/>
-      <c r="F50" s="271"/>
-      <c r="G50" s="271"/>
-      <c r="H50" s="271"/>
-      <c r="I50" s="271"/>
-      <c r="J50" s="271"/>
-      <c r="K50" s="272"/>
+      <c r="B50" s="255"/>
+      <c r="C50" s="255"/>
+      <c r="D50" s="255"/>
+      <c r="E50" s="255"/>
+      <c r="F50" s="255"/>
+      <c r="G50" s="255"/>
+      <c r="H50" s="255"/>
+      <c r="I50" s="255"/>
+      <c r="J50" s="255"/>
+      <c r="K50" s="256"/>
     </row>
     <row r="51" spans="1:11" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="228" t="s">
         <v>227</v>
       </c>
-      <c r="B51" s="236" t="s">
+      <c r="B51" s="237" t="s">
         <v>233</v>
       </c>
-      <c r="C51" s="237"/>
+      <c r="C51" s="238"/>
       <c r="D51" s="191" t="s">
         <v>24</v>
       </c>
@@ -4032,28 +4032,28 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="273" t="s">
+      <c r="A53" s="257" t="s">
         <v>184</v>
       </c>
-      <c r="B53" s="274"/>
-      <c r="C53" s="274"/>
-      <c r="D53" s="274"/>
-      <c r="E53" s="274"/>
-      <c r="F53" s="274"/>
-      <c r="G53" s="274"/>
-      <c r="H53" s="274"/>
-      <c r="I53" s="274"/>
-      <c r="J53" s="274"/>
-      <c r="K53" s="275"/>
+      <c r="B53" s="258"/>
+      <c r="C53" s="258"/>
+      <c r="D53" s="258"/>
+      <c r="E53" s="258"/>
+      <c r="F53" s="258"/>
+      <c r="G53" s="258"/>
+      <c r="H53" s="258"/>
+      <c r="I53" s="258"/>
+      <c r="J53" s="258"/>
+      <c r="K53" s="259"/>
     </row>
     <row r="54" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="228" t="s">
         <v>227</v>
       </c>
-      <c r="B54" s="236" t="s">
+      <c r="B54" s="237" t="s">
         <v>230</v>
       </c>
-      <c r="C54" s="237"/>
+      <c r="C54" s="238"/>
       <c r="D54" s="191" t="s">
         <v>231</v>
       </c>
@@ -4080,8 +4080,8 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="207"/>
-      <c r="B55" s="268"/>
-      <c r="C55" s="269"/>
+      <c r="B55" s="242"/>
+      <c r="C55" s="243"/>
       <c r="D55" s="194"/>
       <c r="E55" s="194"/>
       <c r="F55" s="206"/>
@@ -4104,8 +4104,8 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="213"/>
-      <c r="B56" s="282"/>
-      <c r="C56" s="282"/>
+      <c r="B56" s="244"/>
+      <c r="C56" s="244"/>
       <c r="D56" s="214"/>
       <c r="E56" s="214"/>
       <c r="F56" s="214"/>
@@ -4140,28 +4140,28 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="262" t="s">
+      <c r="A58" s="248" t="s">
         <v>186</v>
       </c>
-      <c r="B58" s="263"/>
-      <c r="C58" s="263"/>
-      <c r="D58" s="263"/>
-      <c r="E58" s="263"/>
-      <c r="F58" s="263"/>
-      <c r="G58" s="263"/>
-      <c r="H58" s="263"/>
-      <c r="I58" s="263"/>
-      <c r="J58" s="263"/>
-      <c r="K58" s="264"/>
+      <c r="B58" s="249"/>
+      <c r="C58" s="249"/>
+      <c r="D58" s="249"/>
+      <c r="E58" s="249"/>
+      <c r="F58" s="249"/>
+      <c r="G58" s="249"/>
+      <c r="H58" s="249"/>
+      <c r="I58" s="249"/>
+      <c r="J58" s="249"/>
+      <c r="K58" s="250"/>
     </row>
     <row r="59" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="191" t="s">
         <v>227</v>
       </c>
-      <c r="B59" s="266" t="s">
+      <c r="B59" s="252" t="s">
         <v>226</v>
       </c>
-      <c r="C59" s="267"/>
+      <c r="C59" s="253"/>
       <c r="D59" s="226" t="s">
         <v>24</v>
       </c>
@@ -4185,8 +4185,8 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="161"/>
-      <c r="B60" s="268"/>
-      <c r="C60" s="269"/>
+      <c r="B60" s="242"/>
+      <c r="C60" s="243"/>
       <c r="D60" s="194"/>
       <c r="E60" s="194"/>
       <c r="F60" s="206"/>
@@ -4218,26 +4218,26 @@
         <v>188</v>
       </c>
       <c r="H61" s="224"/>
-      <c r="I61" s="281">
+      <c r="I61" s="239">
         <v>10445440.65</v>
       </c>
-      <c r="J61" s="281"/>
+      <c r="J61" s="239"/>
       <c r="K61" s="227"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="265" t="s">
+      <c r="A62" s="251" t="s">
         <v>189</v>
       </c>
-      <c r="B62" s="265"/>
-      <c r="C62" s="265"/>
-      <c r="D62" s="265"/>
-      <c r="E62" s="265"/>
-      <c r="F62" s="265"/>
-      <c r="G62" s="265"/>
-      <c r="H62" s="265"/>
-      <c r="I62" s="265"/>
-      <c r="J62" s="265"/>
-      <c r="K62" s="265"/>
+      <c r="B62" s="251"/>
+      <c r="C62" s="251"/>
+      <c r="D62" s="251"/>
+      <c r="E62" s="251"/>
+      <c r="F62" s="251"/>
+      <c r="G62" s="251"/>
+      <c r="H62" s="251"/>
+      <c r="I62" s="251"/>
+      <c r="J62" s="251"/>
+      <c r="K62" s="251"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -4248,31 +4248,83 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="259" t="s">
+      <c r="A67" s="245" t="s">
         <v>190</v>
       </c>
-      <c r="B67" s="259"/>
-      <c r="H67" s="259" t="s">
+      <c r="B67" s="245"/>
+      <c r="H67" s="245" t="s">
         <v>192</v>
       </c>
-      <c r="I67" s="259"/>
-      <c r="J67" s="259"/>
+      <c r="I67" s="245"/>
+      <c r="J67" s="245"/>
       <c r="K67" s="184"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="261" t="s">
+      <c r="A68" s="247" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="261"/>
-      <c r="H68" s="260" t="s">
+      <c r="B68" s="247"/>
+      <c r="H68" s="246" t="s">
         <v>193</v>
       </c>
-      <c r="I68" s="260"/>
-      <c r="J68" s="260"/>
+      <c r="I68" s="246"/>
+      <c r="J68" s="246"/>
       <c r="K68" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A28:A48"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B26:C26"/>
@@ -4289,58 +4341,6 @@
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A58:K58"/>
-    <mergeCell ref="A62:K62"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A28:A48"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4382,14 +4382,14 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="328" t="s">
+      <c r="E1" s="291" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="329"/>
-      <c r="G1" s="328" t="s">
+      <c r="F1" s="292"/>
+      <c r="G1" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="329"/>
+      <c r="H1" s="292"/>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4408,10 +4408,10 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="330"/>
-      <c r="F2" s="331"/>
-      <c r="G2" s="330"/>
-      <c r="H2" s="331"/>
+      <c r="E2" s="293"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="293"/>
+      <c r="H2" s="294"/>
       <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
@@ -4486,10 +4486,10 @@
       <c r="J5" s="69"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="332" t="s">
+      <c r="A6" s="295" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="333"/>
+      <c r="B6" s="296"/>
       <c r="C6" s="15" t="s">
         <v>22</v>
       </c>
@@ -4504,85 +4504,85 @@
     <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="70"/>
       <c r="B7" s="70"/>
-      <c r="C7" s="283" t="s">
+      <c r="C7" s="303" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="327" t="s">
+      <c r="D7" s="297" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="334" t="s">
+      <c r="E7" s="299" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="324"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319">
+      <c r="F7" s="306"/>
+      <c r="G7" s="301"/>
+      <c r="H7" s="301">
         <v>1500000</v>
       </c>
-      <c r="I7" s="326" t="s">
+      <c r="I7" s="308" t="s">
         <v>128</v>
       </c>
-      <c r="J7" s="338" t="s">
+      <c r="J7" s="287" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="185"/>
       <c r="B8" s="70"/>
-      <c r="C8" s="317"/>
-      <c r="D8" s="311"/>
-      <c r="E8" s="335"/>
-      <c r="F8" s="325"/>
-      <c r="G8" s="321"/>
-      <c r="H8" s="321"/>
-      <c r="I8" s="301"/>
-      <c r="J8" s="339"/>
+      <c r="C8" s="304"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="300"/>
+      <c r="F8" s="307"/>
+      <c r="G8" s="302"/>
+      <c r="H8" s="302"/>
+      <c r="I8" s="309"/>
+      <c r="J8" s="288"/>
     </row>
     <row r="9" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="70"/>
       <c r="B9" s="71"/>
-      <c r="C9" s="283" t="s">
+      <c r="C9" s="303" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="327" t="s">
+      <c r="D9" s="297" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="283" t="s">
+      <c r="E9" s="303" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="287"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319">
+      <c r="F9" s="311"/>
+      <c r="G9" s="301"/>
+      <c r="H9" s="301">
         <v>30000</v>
       </c>
-      <c r="I9" s="318" t="s">
+      <c r="I9" s="315" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="336" t="s">
+      <c r="J9" s="284" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="70"/>
       <c r="B10" s="71"/>
-      <c r="C10" s="284"/>
-      <c r="D10" s="286"/>
-      <c r="E10" s="284"/>
-      <c r="F10" s="288"/>
-      <c r="G10" s="320"/>
-      <c r="H10" s="320"/>
-      <c r="I10" s="286"/>
-      <c r="J10" s="336"/>
+      <c r="C10" s="305"/>
+      <c r="D10" s="310"/>
+      <c r="E10" s="305"/>
+      <c r="F10" s="312"/>
+      <c r="G10" s="314"/>
+      <c r="H10" s="314"/>
+      <c r="I10" s="310"/>
+      <c r="J10" s="284"/>
     </row>
     <row r="11" spans="1:11" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="70"/>
       <c r="B11" s="71"/>
-      <c r="C11" s="317"/>
-      <c r="D11" s="311"/>
-      <c r="E11" s="317"/>
-      <c r="F11" s="315"/>
-      <c r="G11" s="321"/>
-      <c r="H11" s="321"/>
-      <c r="I11" s="311"/>
+      <c r="C11" s="304"/>
+      <c r="D11" s="298"/>
+      <c r="E11" s="304"/>
+      <c r="F11" s="313"/>
+      <c r="G11" s="302"/>
+      <c r="H11" s="302"/>
+      <c r="I11" s="298"/>
       <c r="J11" s="69"/>
     </row>
     <row r="12" spans="1:11" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4637,38 +4637,38 @@
     <row r="14" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="70"/>
       <c r="B14" s="71"/>
-      <c r="C14" s="283" t="s">
+      <c r="C14" s="303" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="285" t="s">
+      <c r="D14" s="318" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="283" t="s">
+      <c r="E14" s="303" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="287"/>
-      <c r="G14" s="289"/>
-      <c r="H14" s="319">
+      <c r="F14" s="311"/>
+      <c r="G14" s="322"/>
+      <c r="H14" s="301">
         <v>70000</v>
       </c>
-      <c r="I14" s="318" t="s">
+      <c r="I14" s="315" t="s">
         <v>128</v>
       </c>
-      <c r="J14" s="340" t="s">
+      <c r="J14" s="289" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="70"/>
       <c r="B15" s="71"/>
-      <c r="C15" s="284"/>
-      <c r="D15" s="286"/>
-      <c r="E15" s="284"/>
-      <c r="F15" s="288"/>
-      <c r="G15" s="290"/>
-      <c r="H15" s="320"/>
-      <c r="I15" s="322"/>
-      <c r="J15" s="341"/>
+      <c r="C15" s="305"/>
+      <c r="D15" s="310"/>
+      <c r="E15" s="305"/>
+      <c r="F15" s="312"/>
+      <c r="G15" s="323"/>
+      <c r="H15" s="314"/>
+      <c r="I15" s="316"/>
+      <c r="J15" s="290"/>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="70"/>
@@ -4680,57 +4680,57 @@
       <c r="G16" s="77"/>
       <c r="H16" s="150"/>
       <c r="I16" s="149"/>
-      <c r="J16" s="341"/>
+      <c r="J16" s="290"/>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="70"/>
       <c r="B17" s="70"/>
-      <c r="C17" s="296" t="s">
+      <c r="C17" s="325" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="299" t="s">
+      <c r="D17" s="328" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="302" t="s">
+      <c r="E17" s="329" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="305"/>
-      <c r="G17" s="308"/>
-      <c r="H17" s="319">
+      <c r="F17" s="332"/>
+      <c r="G17" s="335"/>
+      <c r="H17" s="301">
         <v>417302.79</v>
       </c>
-      <c r="I17" s="318" t="s">
+      <c r="I17" s="315" t="s">
         <v>128</v>
       </c>
-      <c r="J17" s="337" t="s">
+      <c r="J17" s="285" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="70"/>
       <c r="B18" s="71"/>
-      <c r="C18" s="297"/>
-      <c r="D18" s="300"/>
-      <c r="E18" s="303"/>
-      <c r="F18" s="306"/>
-      <c r="G18" s="309"/>
-      <c r="H18" s="320"/>
-      <c r="I18" s="322"/>
-      <c r="J18" s="300"/>
+      <c r="C18" s="326"/>
+      <c r="D18" s="286"/>
+      <c r="E18" s="330"/>
+      <c r="F18" s="333"/>
+      <c r="G18" s="336"/>
+      <c r="H18" s="314"/>
+      <c r="I18" s="316"/>
+      <c r="J18" s="286"/>
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="70"/>
       <c r="B19" s="71"/>
-      <c r="C19" s="298"/>
-      <c r="D19" s="301"/>
-      <c r="E19" s="304"/>
-      <c r="F19" s="307"/>
-      <c r="G19" s="310"/>
-      <c r="H19" s="321"/>
-      <c r="I19" s="323"/>
-      <c r="J19" s="300"/>
+      <c r="C19" s="327"/>
+      <c r="D19" s="309"/>
+      <c r="E19" s="331"/>
+      <c r="F19" s="334"/>
+      <c r="G19" s="337"/>
+      <c r="H19" s="302"/>
+      <c r="I19" s="317"/>
+      <c r="J19" s="286"/>
       <c r="K19" s="92"/>
     </row>
     <row r="20" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4804,16 +4804,16 @@
       <c r="C23" s="225" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="285" t="s">
+      <c r="D23" s="318" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="312" t="s">
+      <c r="E23" s="319" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="287"/>
-      <c r="G23" s="289"/>
+      <c r="F23" s="311"/>
+      <c r="G23" s="322"/>
       <c r="H23" s="78"/>
-      <c r="I23" s="318" t="s">
+      <c r="I23" s="315" t="s">
         <v>128</v>
       </c>
       <c r="J23" s="230"/>
@@ -4825,15 +4825,15 @@
       <c r="C24" s="152" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="286"/>
-      <c r="E24" s="313"/>
-      <c r="F24" s="288"/>
-      <c r="G24" s="290"/>
+      <c r="D24" s="310"/>
+      <c r="E24" s="320"/>
+      <c r="F24" s="312"/>
+      <c r="G24" s="323"/>
       <c r="H24" s="79">
         <v>9300</v>
       </c>
-      <c r="I24" s="286"/>
-      <c r="J24" s="337" t="s">
+      <c r="I24" s="310"/>
+      <c r="J24" s="285" t="s">
         <v>201</v>
       </c>
       <c r="K24" s="156"/>
@@ -4844,15 +4844,15 @@
       <c r="C25" s="153" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="286"/>
-      <c r="E25" s="313"/>
-      <c r="F25" s="288"/>
-      <c r="G25" s="290"/>
+      <c r="D25" s="310"/>
+      <c r="E25" s="320"/>
+      <c r="F25" s="312"/>
+      <c r="G25" s="323"/>
       <c r="H25" s="157">
         <v>1800</v>
       </c>
-      <c r="I25" s="286"/>
-      <c r="J25" s="300"/>
+      <c r="I25" s="310"/>
+      <c r="J25" s="286"/>
       <c r="K25" s="156"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -4861,15 +4861,15 @@
       <c r="C26" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="286"/>
-      <c r="E26" s="313"/>
-      <c r="F26" s="288"/>
-      <c r="G26" s="290"/>
+      <c r="D26" s="310"/>
+      <c r="E26" s="320"/>
+      <c r="F26" s="312"/>
+      <c r="G26" s="323"/>
       <c r="H26" s="157">
         <v>1100</v>
       </c>
-      <c r="I26" s="286"/>
-      <c r="J26" s="300"/>
+      <c r="I26" s="310"/>
+      <c r="J26" s="286"/>
       <c r="K26" s="156"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -4878,15 +4878,15 @@
       <c r="C27" s="153" t="s">
         <v>140</v>
       </c>
-      <c r="D27" s="286"/>
-      <c r="E27" s="313"/>
-      <c r="F27" s="288"/>
-      <c r="G27" s="290"/>
+      <c r="D27" s="310"/>
+      <c r="E27" s="320"/>
+      <c r="F27" s="312"/>
+      <c r="G27" s="323"/>
       <c r="H27" s="157">
         <v>1050</v>
       </c>
-      <c r="I27" s="286"/>
-      <c r="J27" s="300"/>
+      <c r="I27" s="310"/>
+      <c r="J27" s="286"/>
       <c r="K27" s="156"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -4895,15 +4895,15 @@
       <c r="C28" s="153" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="286"/>
-      <c r="E28" s="313"/>
-      <c r="F28" s="288"/>
-      <c r="G28" s="290"/>
+      <c r="D28" s="310"/>
+      <c r="E28" s="320"/>
+      <c r="F28" s="312"/>
+      <c r="G28" s="323"/>
       <c r="H28" s="158">
         <v>600</v>
       </c>
-      <c r="I28" s="286"/>
-      <c r="J28" s="300"/>
+      <c r="I28" s="310"/>
+      <c r="J28" s="286"/>
       <c r="K28" s="156"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -4912,15 +4912,15 @@
       <c r="C29" s="153" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="286"/>
-      <c r="E29" s="313"/>
-      <c r="F29" s="288"/>
-      <c r="G29" s="290"/>
+      <c r="D29" s="310"/>
+      <c r="E29" s="320"/>
+      <c r="F29" s="312"/>
+      <c r="G29" s="323"/>
       <c r="H29" s="157">
         <v>2100</v>
       </c>
-      <c r="I29" s="286"/>
-      <c r="J29" s="300"/>
+      <c r="I29" s="310"/>
+      <c r="J29" s="286"/>
       <c r="K29" s="156"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -4929,15 +4929,15 @@
       <c r="C30" s="153" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="286"/>
-      <c r="E30" s="313"/>
-      <c r="F30" s="288"/>
-      <c r="G30" s="290"/>
+      <c r="D30" s="310"/>
+      <c r="E30" s="320"/>
+      <c r="F30" s="312"/>
+      <c r="G30" s="323"/>
       <c r="H30" s="157">
         <v>2275</v>
       </c>
-      <c r="I30" s="286"/>
-      <c r="J30" s="300"/>
+      <c r="I30" s="310"/>
+      <c r="J30" s="286"/>
       <c r="K30" s="156"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -4946,15 +4946,15 @@
       <c r="C31" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="286"/>
-      <c r="E31" s="313"/>
-      <c r="F31" s="288"/>
-      <c r="G31" s="290"/>
+      <c r="D31" s="310"/>
+      <c r="E31" s="320"/>
+      <c r="F31" s="312"/>
+      <c r="G31" s="323"/>
       <c r="H31" s="157">
         <v>13500</v>
       </c>
-      <c r="I31" s="286"/>
-      <c r="J31" s="300"/>
+      <c r="I31" s="310"/>
+      <c r="J31" s="286"/>
       <c r="K31" s="156"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -4963,15 +4963,15 @@
       <c r="C32" s="153" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="286"/>
-      <c r="E32" s="313"/>
-      <c r="F32" s="288"/>
-      <c r="G32" s="290"/>
+      <c r="D32" s="310"/>
+      <c r="E32" s="320"/>
+      <c r="F32" s="312"/>
+      <c r="G32" s="323"/>
       <c r="H32" s="157">
         <v>15000</v>
       </c>
-      <c r="I32" s="286"/>
-      <c r="J32" s="300"/>
+      <c r="I32" s="310"/>
+      <c r="J32" s="286"/>
       <c r="K32" s="156"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -4980,15 +4980,15 @@
       <c r="C33" s="153" t="s">
         <v>146</v>
       </c>
-      <c r="D33" s="286"/>
-      <c r="E33" s="313"/>
-      <c r="F33" s="288"/>
-      <c r="G33" s="290"/>
+      <c r="D33" s="310"/>
+      <c r="E33" s="320"/>
+      <c r="F33" s="312"/>
+      <c r="G33" s="323"/>
       <c r="H33" s="157">
         <v>8000</v>
       </c>
-      <c r="I33" s="286"/>
-      <c r="J33" s="300"/>
+      <c r="I33" s="310"/>
+      <c r="J33" s="286"/>
       <c r="K33" s="156"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -4997,15 +4997,15 @@
       <c r="C34" s="153" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="286"/>
-      <c r="E34" s="313"/>
-      <c r="F34" s="288"/>
-      <c r="G34" s="290"/>
+      <c r="D34" s="310"/>
+      <c r="E34" s="320"/>
+      <c r="F34" s="312"/>
+      <c r="G34" s="323"/>
       <c r="H34" s="157">
         <v>24650</v>
       </c>
-      <c r="I34" s="286"/>
-      <c r="J34" s="300"/>
+      <c r="I34" s="310"/>
+      <c r="J34" s="286"/>
       <c r="K34" s="156"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -5014,15 +5014,15 @@
       <c r="C35" s="153" t="s">
         <v>223</v>
       </c>
-      <c r="D35" s="286"/>
-      <c r="E35" s="313"/>
-      <c r="F35" s="288"/>
-      <c r="G35" s="290"/>
+      <c r="D35" s="310"/>
+      <c r="E35" s="320"/>
+      <c r="F35" s="312"/>
+      <c r="G35" s="323"/>
       <c r="H35" s="157">
         <v>22050</v>
       </c>
-      <c r="I35" s="286"/>
-      <c r="J35" s="300"/>
+      <c r="I35" s="310"/>
+      <c r="J35" s="286"/>
       <c r="K35" s="156"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -5031,15 +5031,15 @@
       <c r="C36" s="153" t="s">
         <v>148</v>
       </c>
-      <c r="D36" s="286"/>
-      <c r="E36" s="313"/>
-      <c r="F36" s="288"/>
-      <c r="G36" s="290"/>
+      <c r="D36" s="310"/>
+      <c r="E36" s="320"/>
+      <c r="F36" s="312"/>
+      <c r="G36" s="323"/>
       <c r="H36" s="157">
         <v>4634</v>
       </c>
-      <c r="I36" s="286"/>
-      <c r="J36" s="300"/>
+      <c r="I36" s="310"/>
+      <c r="J36" s="286"/>
       <c r="K36" s="156"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -5048,15 +5048,15 @@
       <c r="C37" s="153" t="s">
         <v>149</v>
       </c>
-      <c r="D37" s="286"/>
-      <c r="E37" s="313"/>
-      <c r="F37" s="288"/>
-      <c r="G37" s="290"/>
+      <c r="D37" s="310"/>
+      <c r="E37" s="320"/>
+      <c r="F37" s="312"/>
+      <c r="G37" s="323"/>
       <c r="H37" s="157">
         <v>10920</v>
       </c>
-      <c r="I37" s="286"/>
-      <c r="J37" s="300"/>
+      <c r="I37" s="310"/>
+      <c r="J37" s="286"/>
       <c r="K37" s="156"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -5065,15 +5065,15 @@
       <c r="C38" s="153" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="286"/>
-      <c r="E38" s="313"/>
-      <c r="F38" s="288"/>
-      <c r="G38" s="290"/>
+      <c r="D38" s="310"/>
+      <c r="E38" s="320"/>
+      <c r="F38" s="312"/>
+      <c r="G38" s="323"/>
       <c r="H38" s="157">
         <v>2070</v>
       </c>
-      <c r="I38" s="286"/>
-      <c r="J38" s="300"/>
+      <c r="I38" s="310"/>
+      <c r="J38" s="286"/>
       <c r="K38" s="156"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -5082,15 +5082,15 @@
       <c r="C39" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="D39" s="286"/>
-      <c r="E39" s="313"/>
-      <c r="F39" s="288"/>
-      <c r="G39" s="290"/>
+      <c r="D39" s="310"/>
+      <c r="E39" s="320"/>
+      <c r="F39" s="312"/>
+      <c r="G39" s="323"/>
       <c r="H39" s="157">
         <v>1479</v>
       </c>
-      <c r="I39" s="286"/>
-      <c r="J39" s="300"/>
+      <c r="I39" s="310"/>
+      <c r="J39" s="286"/>
       <c r="K39" s="156"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -5099,15 +5099,15 @@
       <c r="C40" s="153" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="286"/>
-      <c r="E40" s="313"/>
-      <c r="F40" s="288"/>
-      <c r="G40" s="290"/>
+      <c r="D40" s="310"/>
+      <c r="E40" s="320"/>
+      <c r="F40" s="312"/>
+      <c r="G40" s="323"/>
       <c r="H40" s="157">
         <v>10600</v>
       </c>
-      <c r="I40" s="286"/>
-      <c r="J40" s="300"/>
+      <c r="I40" s="310"/>
+      <c r="J40" s="286"/>
       <c r="K40" s="156"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -5116,15 +5116,15 @@
       <c r="C41" s="153" t="s">
         <v>153</v>
       </c>
-      <c r="D41" s="286"/>
-      <c r="E41" s="313"/>
-      <c r="F41" s="288"/>
-      <c r="G41" s="290"/>
+      <c r="D41" s="310"/>
+      <c r="E41" s="320"/>
+      <c r="F41" s="312"/>
+      <c r="G41" s="323"/>
       <c r="H41" s="157">
         <v>2650</v>
       </c>
-      <c r="I41" s="286"/>
-      <c r="J41" s="300"/>
+      <c r="I41" s="310"/>
+      <c r="J41" s="286"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="70"/>
@@ -5132,15 +5132,15 @@
       <c r="C42" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="286"/>
-      <c r="E42" s="313"/>
-      <c r="F42" s="288"/>
-      <c r="G42" s="290"/>
+      <c r="D42" s="310"/>
+      <c r="E42" s="320"/>
+      <c r="F42" s="312"/>
+      <c r="G42" s="323"/>
       <c r="H42" s="157">
         <v>13828</v>
       </c>
-      <c r="I42" s="286"/>
-      <c r="J42" s="300"/>
+      <c r="I42" s="310"/>
+      <c r="J42" s="286"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="70"/>
@@ -5148,15 +5148,15 @@
       <c r="C43" s="153" t="s">
         <v>155</v>
       </c>
-      <c r="D43" s="311"/>
-      <c r="E43" s="314"/>
-      <c r="F43" s="315"/>
-      <c r="G43" s="316"/>
+      <c r="D43" s="298"/>
+      <c r="E43" s="321"/>
+      <c r="F43" s="313"/>
+      <c r="G43" s="324"/>
       <c r="H43" s="159">
         <v>6780</v>
       </c>
-      <c r="I43" s="286"/>
-      <c r="J43" s="300"/>
+      <c r="I43" s="310"/>
+      <c r="J43" s="286"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="70"/>
@@ -5164,17 +5164,17 @@
       <c r="C44" s="225" t="s">
         <v>157</v>
       </c>
-      <c r="D44" s="285" t="s">
+      <c r="D44" s="318" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="312" t="s">
+      <c r="E44" s="319" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="287"/>
-      <c r="G44" s="289"/>
+      <c r="F44" s="311"/>
+      <c r="G44" s="322"/>
       <c r="H44" s="161"/>
-      <c r="I44" s="286"/>
-      <c r="J44" s="337" t="s">
+      <c r="I44" s="310"/>
+      <c r="J44" s="285" t="s">
         <v>201</v>
       </c>
     </row>
@@ -5184,15 +5184,15 @@
       <c r="C45" s="152" t="s">
         <v>158</v>
       </c>
-      <c r="D45" s="286"/>
-      <c r="E45" s="284"/>
-      <c r="F45" s="288"/>
-      <c r="G45" s="290"/>
+      <c r="D45" s="310"/>
+      <c r="E45" s="305"/>
+      <c r="F45" s="312"/>
+      <c r="G45" s="323"/>
       <c r="H45" s="157">
         <v>91845</v>
       </c>
-      <c r="I45" s="286"/>
-      <c r="J45" s="300"/>
+      <c r="I45" s="310"/>
+      <c r="J45" s="286"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="70"/>
@@ -5200,15 +5200,15 @@
       <c r="C46" s="152" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="286"/>
-      <c r="E46" s="284"/>
-      <c r="F46" s="288"/>
-      <c r="G46" s="290"/>
+      <c r="D46" s="310"/>
+      <c r="E46" s="305"/>
+      <c r="F46" s="312"/>
+      <c r="G46" s="323"/>
       <c r="H46" s="157">
         <v>58981</v>
       </c>
-      <c r="I46" s="286"/>
-      <c r="J46" s="300"/>
+      <c r="I46" s="310"/>
+      <c r="J46" s="286"/>
     </row>
     <row r="47" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="70"/>
@@ -5216,15 +5216,15 @@
       <c r="C47" s="153" t="s">
         <v>160</v>
       </c>
-      <c r="D47" s="286"/>
-      <c r="E47" s="284"/>
-      <c r="F47" s="288"/>
-      <c r="G47" s="290"/>
+      <c r="D47" s="310"/>
+      <c r="E47" s="305"/>
+      <c r="F47" s="312"/>
+      <c r="G47" s="323"/>
       <c r="H47" s="157">
         <v>23750</v>
       </c>
-      <c r="I47" s="286"/>
-      <c r="J47" s="300"/>
+      <c r="I47" s="310"/>
+      <c r="J47" s="286"/>
     </row>
     <row r="48" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="70"/>
@@ -5232,15 +5232,15 @@
       <c r="C48" s="160" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="286"/>
-      <c r="E48" s="284"/>
-      <c r="F48" s="288"/>
-      <c r="G48" s="290"/>
+      <c r="D48" s="310"/>
+      <c r="E48" s="305"/>
+      <c r="F48" s="312"/>
+      <c r="G48" s="323"/>
       <c r="H48" s="157">
         <v>189150</v>
       </c>
-      <c r="I48" s="286"/>
-      <c r="J48" s="300"/>
+      <c r="I48" s="310"/>
+      <c r="J48" s="286"/>
     </row>
     <row r="49" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="70"/>
@@ -5248,15 +5248,15 @@
       <c r="C49" s="160" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="286"/>
-      <c r="E49" s="284"/>
-      <c r="F49" s="288"/>
-      <c r="G49" s="290"/>
+      <c r="D49" s="310"/>
+      <c r="E49" s="305"/>
+      <c r="F49" s="312"/>
+      <c r="G49" s="323"/>
       <c r="H49" s="157">
         <v>67000</v>
       </c>
-      <c r="I49" s="286"/>
-      <c r="J49" s="300"/>
+      <c r="I49" s="310"/>
+      <c r="J49" s="286"/>
     </row>
     <row r="50" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="70"/>
@@ -5264,15 +5264,15 @@
       <c r="C50" s="160" t="s">
         <v>163</v>
       </c>
-      <c r="D50" s="311"/>
-      <c r="E50" s="317"/>
-      <c r="F50" s="315"/>
-      <c r="G50" s="316"/>
+      <c r="D50" s="298"/>
+      <c r="E50" s="304"/>
+      <c r="F50" s="313"/>
+      <c r="G50" s="324"/>
       <c r="H50" s="157">
         <v>23400</v>
       </c>
-      <c r="I50" s="311"/>
-      <c r="J50" s="300"/>
+      <c r="I50" s="298"/>
+      <c r="J50" s="286"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="70"/>
@@ -5447,11 +5447,11 @@
       <c r="J63" s="69"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="293" t="s">
+      <c r="A64" s="340" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="294"/>
-      <c r="C64" s="295"/>
+      <c r="B64" s="341"/>
+      <c r="C64" s="342"/>
       <c r="D64" s="72"/>
       <c r="E64" s="76"/>
       <c r="F64" s="76"/>
@@ -5464,11 +5464,11 @@
       <c r="J64" s="69"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="293" t="s">
+      <c r="A65" s="340" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="294"/>
-      <c r="C65" s="295"/>
+      <c r="B65" s="341"/>
+      <c r="C65" s="342"/>
       <c r="D65" s="70"/>
       <c r="E65" s="70"/>
       <c r="F65" s="70"/>
@@ -5538,36 +5538,36 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="28"/>
-      <c r="B72" s="292" t="s">
+      <c r="B72" s="339" t="s">
         <v>45</v>
       </c>
-      <c r="C72" s="292"/>
+      <c r="C72" s="339"/>
       <c r="D72" s="28"/>
-      <c r="E72" s="292" t="s">
+      <c r="E72" s="339" t="s">
         <v>40</v>
       </c>
-      <c r="F72" s="292"/>
+      <c r="F72" s="339"/>
       <c r="G72" s="28"/>
-      <c r="H72" s="291" t="s">
+      <c r="H72" s="338" t="s">
         <v>41</v>
       </c>
-      <c r="I72" s="292"/>
+      <c r="I72" s="339"/>
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="260" t="s">
+      <c r="B73" s="246" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="260"/>
-      <c r="E73" s="260" t="s">
+      <c r="C73" s="246"/>
+      <c r="E73" s="246" t="s">
         <v>38</v>
       </c>
-      <c r="F73" s="260"/>
-      <c r="H73" s="260" t="s">
+      <c r="F73" s="246"/>
+      <c r="H73" s="246" t="s">
         <v>39</v>
       </c>
-      <c r="I73" s="260"/>
+      <c r="I73" s="246"/>
       <c r="J73" s="30"/>
       <c r="K73" s="30"/>
     </row>
@@ -5584,20 +5584,37 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="J44:J50"/>
-    <mergeCell ref="J24:J43"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="D23:D43"/>
+    <mergeCell ref="E23:E43"/>
+    <mergeCell ref="F23:F43"/>
+    <mergeCell ref="G23:G43"/>
+    <mergeCell ref="E44:E50"/>
+    <mergeCell ref="D44:D50"/>
+    <mergeCell ref="F44:F50"/>
+    <mergeCell ref="G44:G50"/>
+    <mergeCell ref="I23:I50"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="I7:I8"/>
@@ -5607,37 +5624,20 @@
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="G9:G11"/>
-    <mergeCell ref="I23:I50"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="D23:D43"/>
-    <mergeCell ref="E23:E43"/>
-    <mergeCell ref="F23:F43"/>
-    <mergeCell ref="G23:G43"/>
-    <mergeCell ref="E44:E50"/>
-    <mergeCell ref="D44:D50"/>
-    <mergeCell ref="F44:F50"/>
-    <mergeCell ref="G44:G50"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E1:F2"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="J44:J50"/>
+    <mergeCell ref="J24:J43"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J14:J16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5670,57 +5670,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="359" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="353"/>
-      <c r="C1" s="353"/>
-      <c r="D1" s="353"/>
-      <c r="E1" s="353"/>
-      <c r="F1" s="353"/>
-      <c r="G1" s="353"/>
-      <c r="H1" s="353"/>
-      <c r="I1" s="353"/>
+      <c r="B1" s="359"/>
+      <c r="C1" s="359"/>
+      <c r="D1" s="359"/>
+      <c r="E1" s="359"/>
+      <c r="F1" s="359"/>
+      <c r="G1" s="359"/>
+      <c r="H1" s="359"/>
+      <c r="I1" s="359"/>
     </row>
     <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="353" t="s">
+      <c r="A2" s="359" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="353"/>
-      <c r="C2" s="353"/>
-      <c r="D2" s="353"/>
-      <c r="E2" s="353"/>
-      <c r="F2" s="353"/>
-      <c r="G2" s="353"/>
-      <c r="H2" s="353"/>
-      <c r="I2" s="353"/>
+      <c r="B2" s="359"/>
+      <c r="C2" s="359"/>
+      <c r="D2" s="359"/>
+      <c r="E2" s="359"/>
+      <c r="F2" s="359"/>
+      <c r="G2" s="359"/>
+      <c r="H2" s="359"/>
+      <c r="I2" s="359"/>
     </row>
     <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="354" t="s">
+      <c r="A3" s="360" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="354"/>
-      <c r="C3" s="354"/>
-      <c r="D3" s="354"/>
-      <c r="E3" s="354"/>
-      <c r="F3" s="354"/>
-      <c r="G3" s="354"/>
-      <c r="H3" s="354"/>
-      <c r="I3" s="354"/>
+      <c r="B3" s="360"/>
+      <c r="C3" s="360"/>
+      <c r="D3" s="360"/>
+      <c r="E3" s="360"/>
+      <c r="F3" s="360"/>
+      <c r="G3" s="360"/>
+      <c r="H3" s="360"/>
+      <c r="I3" s="360"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="36"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
-      <c r="E4" s="355" t="s">
+      <c r="E4" s="349" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="356"/>
-      <c r="G4" s="355" t="s">
+      <c r="F4" s="350"/>
+      <c r="G4" s="349" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="356"/>
+      <c r="H4" s="350"/>
       <c r="I4" s="36" t="s">
         <v>3</v>
       </c>
@@ -5738,10 +5738,10 @@
       <c r="D5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="357"/>
-      <c r="F5" s="358"/>
-      <c r="G5" s="357"/>
-      <c r="H5" s="358"/>
+      <c r="E5" s="351"/>
+      <c r="F5" s="352"/>
+      <c r="G5" s="351"/>
+      <c r="H5" s="352"/>
       <c r="I5" s="39" t="s">
         <v>8</v>
       </c>
@@ -5820,8 +5820,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="349"/>
-      <c r="B9" s="350"/>
+      <c r="A9" s="361"/>
+      <c r="B9" s="362"/>
       <c r="C9" s="105" t="s">
         <v>22</v>
       </c>
@@ -5833,8 +5833,8 @@
       <c r="I9" s="50"/>
     </row>
     <row r="10" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="351"/>
-      <c r="B10" s="351"/>
+      <c r="A10" s="363"/>
+      <c r="B10" s="363"/>
       <c r="C10" s="93" t="s">
         <v>62</v>
       </c>
@@ -5854,8 +5854,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="6.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="351"/>
-      <c r="B11" s="351"/>
+      <c r="A11" s="363"/>
+      <c r="B11" s="363"/>
       <c r="C11" s="119"/>
       <c r="D11" s="117"/>
       <c r="E11" s="118"/>
@@ -5870,18 +5870,18 @@
       <c r="C12" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="342" t="s">
+      <c r="D12" s="353" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="346" t="s">
+      <c r="E12" s="354" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
-      <c r="H12" s="345">
+      <c r="H12" s="364">
         <v>140000</v>
       </c>
-      <c r="I12" s="342" t="s">
+      <c r="I12" s="353" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5892,7 +5892,7 @@
         <v>64</v>
       </c>
       <c r="D13" s="343"/>
-      <c r="E13" s="347"/>
+      <c r="E13" s="345"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
       <c r="H13" s="343"/>
@@ -5906,7 +5906,7 @@
         <v>65</v>
       </c>
       <c r="D14" s="343"/>
-      <c r="E14" s="347"/>
+      <c r="E14" s="345"/>
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
       <c r="H14" s="343"/>
@@ -5920,7 +5920,7 @@
         <v>66</v>
       </c>
       <c r="D15" s="343"/>
-      <c r="E15" s="347"/>
+      <c r="E15" s="345"/>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
       <c r="H15" s="343"/>
@@ -5933,7 +5933,7 @@
         <v>67</v>
       </c>
       <c r="D16" s="343"/>
-      <c r="E16" s="347"/>
+      <c r="E16" s="345"/>
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
       <c r="H16" s="343"/>
@@ -5946,7 +5946,7 @@
         <v>68</v>
       </c>
       <c r="D17" s="343"/>
-      <c r="E17" s="347"/>
+      <c r="E17" s="345"/>
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="343"/>
@@ -5959,7 +5959,7 @@
         <v>69</v>
       </c>
       <c r="D18" s="343"/>
-      <c r="E18" s="347"/>
+      <c r="E18" s="345"/>
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
       <c r="H18" s="343"/>
@@ -5972,7 +5972,7 @@
         <v>71</v>
       </c>
       <c r="D19" s="343"/>
-      <c r="E19" s="347"/>
+      <c r="E19" s="345"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
       <c r="H19" s="343"/>
@@ -5985,7 +5985,7 @@
         <v>72</v>
       </c>
       <c r="D20" s="343"/>
-      <c r="E20" s="347"/>
+      <c r="E20" s="345"/>
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
       <c r="H20" s="343"/>
@@ -5998,7 +5998,7 @@
         <v>70</v>
       </c>
       <c r="D21" s="344"/>
-      <c r="E21" s="352"/>
+      <c r="E21" s="346"/>
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
       <c r="H21" s="344"/>
@@ -6010,18 +6010,18 @@
       <c r="C22" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="346" t="s">
+      <c r="D22" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="346" t="s">
+      <c r="E22" s="354" t="s">
         <v>55</v>
       </c>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
-      <c r="H22" s="345">
+      <c r="H22" s="364">
         <v>592665.87</v>
       </c>
-      <c r="I22" s="342" t="s">
+      <c r="I22" s="353" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6031,11 +6031,11 @@
       <c r="C23" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="347"/>
-      <c r="E23" s="347"/>
+      <c r="D23" s="345"/>
+      <c r="E23" s="345"/>
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
-      <c r="H23" s="348"/>
+      <c r="H23" s="365"/>
       <c r="I23" s="343"/>
     </row>
     <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -6044,11 +6044,11 @@
       <c r="C24" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="347"/>
-      <c r="E24" s="347"/>
+      <c r="D24" s="345"/>
+      <c r="E24" s="345"/>
       <c r="F24" s="107"/>
       <c r="G24" s="108"/>
-      <c r="H24" s="348"/>
+      <c r="H24" s="365"/>
       <c r="I24" s="343"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6057,11 +6057,11 @@
       <c r="C25" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="347"/>
-      <c r="E25" s="347"/>
+      <c r="D25" s="345"/>
+      <c r="E25" s="345"/>
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
-      <c r="H25" s="348"/>
+      <c r="H25" s="365"/>
       <c r="I25" s="343"/>
     </row>
     <row r="26" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6070,11 +6070,11 @@
       <c r="C26" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="347"/>
-      <c r="E26" s="347"/>
+      <c r="D26" s="345"/>
+      <c r="E26" s="345"/>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
-      <c r="H26" s="348"/>
+      <c r="H26" s="365"/>
       <c r="I26" s="343"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6083,11 +6083,11 @@
       <c r="C27" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="347"/>
-      <c r="E27" s="347"/>
+      <c r="D27" s="345"/>
+      <c r="E27" s="345"/>
       <c r="F27" s="50"/>
       <c r="G27" s="50"/>
-      <c r="H27" s="348"/>
+      <c r="H27" s="365"/>
       <c r="I27" s="343"/>
     </row>
     <row r="28" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -6096,11 +6096,11 @@
       <c r="C28" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="347"/>
-      <c r="E28" s="347"/>
+      <c r="D28" s="345"/>
+      <c r="E28" s="345"/>
       <c r="F28" s="107"/>
       <c r="G28" s="108"/>
-      <c r="H28" s="348"/>
+      <c r="H28" s="365"/>
       <c r="I28" s="343"/>
     </row>
     <row r="29" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6109,11 +6109,11 @@
       <c r="C29" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="347"/>
-      <c r="E29" s="347"/>
+      <c r="D29" s="345"/>
+      <c r="E29" s="345"/>
       <c r="F29" s="107"/>
       <c r="G29" s="108"/>
-      <c r="H29" s="348"/>
+      <c r="H29" s="365"/>
       <c r="I29" s="343"/>
     </row>
     <row r="30" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6122,11 +6122,11 @@
       <c r="C30" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="347"/>
-      <c r="E30" s="347"/>
+      <c r="D30" s="345"/>
+      <c r="E30" s="345"/>
       <c r="F30" s="107"/>
       <c r="G30" s="108"/>
-      <c r="H30" s="348"/>
+      <c r="H30" s="365"/>
       <c r="I30" s="343"/>
     </row>
     <row r="31" spans="1:9" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -6135,11 +6135,11 @@
       <c r="C31" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="347"/>
-      <c r="E31" s="347"/>
+      <c r="D31" s="345"/>
+      <c r="E31" s="345"/>
       <c r="F31" s="107"/>
       <c r="G31" s="108"/>
-      <c r="H31" s="348"/>
+      <c r="H31" s="365"/>
       <c r="I31" s="343"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6148,11 +6148,11 @@
       <c r="C32" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D32" s="347"/>
-      <c r="E32" s="347"/>
+      <c r="D32" s="345"/>
+      <c r="E32" s="345"/>
       <c r="F32" s="107"/>
       <c r="G32" s="108"/>
-      <c r="H32" s="348"/>
+      <c r="H32" s="365"/>
       <c r="I32" s="343"/>
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6161,11 +6161,11 @@
       <c r="C33" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="347"/>
-      <c r="E33" s="347"/>
+      <c r="D33" s="345"/>
+      <c r="E33" s="345"/>
       <c r="F33" s="107"/>
       <c r="G33" s="108"/>
-      <c r="H33" s="348"/>
+      <c r="H33" s="365"/>
       <c r="I33" s="343"/>
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6174,11 +6174,11 @@
       <c r="C34" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="347"/>
-      <c r="E34" s="347"/>
+      <c r="D34" s="345"/>
+      <c r="E34" s="345"/>
       <c r="F34" s="107"/>
       <c r="G34" s="108"/>
-      <c r="H34" s="348"/>
+      <c r="H34" s="365"/>
       <c r="I34" s="343"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6187,11 +6187,11 @@
       <c r="C35" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="347"/>
-      <c r="E35" s="347"/>
+      <c r="D35" s="345"/>
+      <c r="E35" s="345"/>
       <c r="F35" s="107"/>
       <c r="G35" s="108"/>
-      <c r="H35" s="348"/>
+      <c r="H35" s="365"/>
       <c r="I35" s="343"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6200,11 +6200,11 @@
       <c r="C36" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="347"/>
-      <c r="E36" s="347"/>
+      <c r="D36" s="345"/>
+      <c r="E36" s="345"/>
       <c r="F36" s="107"/>
       <c r="G36" s="108"/>
-      <c r="H36" s="348"/>
+      <c r="H36" s="365"/>
       <c r="I36" s="343"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6213,11 +6213,11 @@
       <c r="C37" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="347"/>
-      <c r="E37" s="347"/>
+      <c r="D37" s="345"/>
+      <c r="E37" s="345"/>
       <c r="F37" s="107"/>
       <c r="G37" s="108"/>
-      <c r="H37" s="348"/>
+      <c r="H37" s="365"/>
       <c r="I37" s="343"/>
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6226,11 +6226,11 @@
       <c r="C38" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="347"/>
-      <c r="E38" s="347"/>
+      <c r="D38" s="345"/>
+      <c r="E38" s="345"/>
       <c r="F38" s="107"/>
       <c r="G38" s="108"/>
-      <c r="H38" s="348"/>
+      <c r="H38" s="365"/>
       <c r="I38" s="343"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6239,11 +6239,11 @@
       <c r="C39" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="347"/>
-      <c r="E39" s="347"/>
+      <c r="D39" s="345"/>
+      <c r="E39" s="345"/>
       <c r="F39" s="107"/>
       <c r="G39" s="108"/>
-      <c r="H39" s="348"/>
+      <c r="H39" s="365"/>
       <c r="I39" s="343"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6252,11 +6252,11 @@
       <c r="C40" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="347"/>
-      <c r="E40" s="347"/>
+      <c r="D40" s="345"/>
+      <c r="E40" s="345"/>
       <c r="F40" s="107"/>
       <c r="G40" s="108"/>
-      <c r="H40" s="348"/>
+      <c r="H40" s="365"/>
       <c r="I40" s="343"/>
     </row>
     <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6265,11 +6265,11 @@
       <c r="C41" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="347"/>
-      <c r="E41" s="347"/>
+      <c r="D41" s="345"/>
+      <c r="E41" s="345"/>
       <c r="F41" s="107"/>
       <c r="G41" s="108"/>
-      <c r="H41" s="348"/>
+      <c r="H41" s="365"/>
       <c r="I41" s="343"/>
     </row>
     <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6278,11 +6278,11 @@
       <c r="C42" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="347"/>
-      <c r="E42" s="347"/>
+      <c r="D42" s="345"/>
+      <c r="E42" s="345"/>
       <c r="F42" s="107"/>
       <c r="G42" s="108"/>
-      <c r="H42" s="348"/>
+      <c r="H42" s="365"/>
       <c r="I42" s="343"/>
     </row>
     <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6291,11 +6291,11 @@
       <c r="C43" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="347"/>
-      <c r="E43" s="347"/>
+      <c r="D43" s="345"/>
+      <c r="E43" s="345"/>
       <c r="F43" s="107"/>
       <c r="G43" s="108"/>
-      <c r="H43" s="348"/>
+      <c r="H43" s="365"/>
       <c r="I43" s="343"/>
     </row>
     <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -6304,11 +6304,11 @@
       <c r="C44" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="347"/>
-      <c r="E44" s="347"/>
+      <c r="D44" s="345"/>
+      <c r="E44" s="345"/>
       <c r="F44" s="107"/>
       <c r="G44" s="108"/>
-      <c r="H44" s="348"/>
+      <c r="H44" s="365"/>
       <c r="I44" s="343"/>
     </row>
     <row r="45" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6331,13 +6331,13 @@
         <v>121</v>
       </c>
       <c r="D46" s="343"/>
-      <c r="E46" s="347"/>
+      <c r="E46" s="345"/>
       <c r="F46" s="104"/>
       <c r="G46" s="56"/>
       <c r="H46" s="56">
         <v>160000</v>
       </c>
-      <c r="I46" s="359" t="s">
+      <c r="I46" s="347" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6348,13 +6348,13 @@
         <v>124</v>
       </c>
       <c r="D47" s="344"/>
-      <c r="E47" s="352"/>
+      <c r="E47" s="346"/>
       <c r="F47" s="104"/>
       <c r="G47" s="56"/>
       <c r="H47" s="56">
         <v>171900</v>
       </c>
-      <c r="I47" s="360"/>
+      <c r="I47" s="348"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="50"/>
@@ -6362,18 +6362,18 @@
       <c r="C48" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="D48" s="342" t="s">
+      <c r="D48" s="353" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="346" t="s">
+      <c r="E48" s="354" t="s">
         <v>111</v>
       </c>
       <c r="F48" s="104"/>
       <c r="G48" s="56"/>
-      <c r="H48" s="361">
+      <c r="H48" s="355">
         <v>750000</v>
       </c>
-      <c r="I48" s="364" t="s">
+      <c r="I48" s="358" t="s">
         <v>61</v>
       </c>
     </row>
@@ -6384,11 +6384,11 @@
         <v>107</v>
       </c>
       <c r="D49" s="343"/>
-      <c r="E49" s="347"/>
+      <c r="E49" s="345"/>
       <c r="F49" s="104"/>
       <c r="G49" s="56"/>
-      <c r="H49" s="362"/>
-      <c r="I49" s="359"/>
+      <c r="H49" s="356"/>
+      <c r="I49" s="347"/>
     </row>
     <row r="50" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="50"/>
@@ -6397,11 +6397,11 @@
         <v>108</v>
       </c>
       <c r="D50" s="343"/>
-      <c r="E50" s="347"/>
+      <c r="E50" s="345"/>
       <c r="F50" s="104"/>
       <c r="G50" s="56"/>
-      <c r="H50" s="362"/>
-      <c r="I50" s="359"/>
+      <c r="H50" s="356"/>
+      <c r="I50" s="347"/>
     </row>
     <row r="51" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="50"/>
@@ -6410,11 +6410,11 @@
         <v>109</v>
       </c>
       <c r="D51" s="343"/>
-      <c r="E51" s="347"/>
+      <c r="E51" s="345"/>
       <c r="F51" s="104"/>
       <c r="G51" s="56"/>
-      <c r="H51" s="362"/>
-      <c r="I51" s="359"/>
+      <c r="H51" s="356"/>
+      <c r="I51" s="347"/>
     </row>
     <row r="52" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="50"/>
@@ -6423,11 +6423,11 @@
         <v>110</v>
       </c>
       <c r="D52" s="344"/>
-      <c r="E52" s="352"/>
+      <c r="E52" s="346"/>
       <c r="F52" s="104"/>
       <c r="G52" s="56"/>
-      <c r="H52" s="363"/>
-      <c r="I52" s="360"/>
+      <c r="H52" s="357"/>
+      <c r="I52" s="348"/>
     </row>
     <row r="53" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="95"/>
@@ -6496,14 +6496,14 @@
       <c r="B61" s="37"/>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
-      <c r="E61" s="355" t="s">
+      <c r="E61" s="349" t="s">
         <v>1</v>
       </c>
-      <c r="F61" s="356"/>
-      <c r="G61" s="355" t="s">
+      <c r="F61" s="350"/>
+      <c r="G61" s="349" t="s">
         <v>2</v>
       </c>
-      <c r="H61" s="356"/>
+      <c r="H61" s="350"/>
       <c r="I61" s="36" t="s">
         <v>3</v>
       </c>
@@ -6521,10 +6521,10 @@
       <c r="D62" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="357"/>
-      <c r="F62" s="358"/>
-      <c r="G62" s="357"/>
-      <c r="H62" s="358"/>
+      <c r="E62" s="351"/>
+      <c r="F62" s="352"/>
+      <c r="G62" s="351"/>
+      <c r="H62" s="352"/>
       <c r="I62" s="39" t="s">
         <v>8</v>
       </c>
@@ -6862,6 +6862,22 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="I12:I21"/>
+    <mergeCell ref="H12:H21"/>
+    <mergeCell ref="D22:D44"/>
+    <mergeCell ref="H22:H44"/>
+    <mergeCell ref="E22:E44"/>
+    <mergeCell ref="I22:I44"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="E12:E21"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:H5"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="E46:E47"/>
     <mergeCell ref="I46:I47"/>
@@ -6871,22 +6887,6 @@
     <mergeCell ref="E48:E52"/>
     <mergeCell ref="H48:H52"/>
     <mergeCell ref="I48:I52"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="E12:E21"/>
-    <mergeCell ref="I12:I21"/>
-    <mergeCell ref="H12:H21"/>
-    <mergeCell ref="D22:D44"/>
-    <mergeCell ref="H22:H44"/>
-    <mergeCell ref="E22:E44"/>
-    <mergeCell ref="I22:I44"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
